--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18375" windowHeight="8625"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Surface" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="117">
   <si>
     <t>Zeonium</t>
   </si>
@@ -427,6 +427,15 @@
   </si>
   <si>
     <t>Celestial Body</t>
+  </si>
+  <si>
+    <t>ColdMud</t>
+  </si>
+  <si>
+    <t>WarmMud</t>
+  </si>
+  <si>
+    <t>Vulcan</t>
   </si>
 </sst>
 </file>
@@ -630,7 +639,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -712,6 +721,7 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -995,23 +1005,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="8" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1022,85 +1032,92 @@
         <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1">
-        <f>SUM(B4:B23)</f>
+        <f t="shared" ref="B2:I2" si="0">SUM(B4:B23)</f>
         <v>100</v>
       </c>
       <c r="C2" s="1">
-        <f>SUM(C4:C23)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="D2" s="1">
-        <f>SUM(D4:D23)</f>
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="E2" s="1">
-        <f>SUM(E4:E23)</f>
+      <c r="F2" s="1">
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="F2" s="1">
-        <f>SUM(F4:F23)</f>
+      <c r="G2" s="1">
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="G2" s="1">
-        <f>SUM(G4:G23)</f>
+      <c r="H2" s="1">
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="H2" s="1">
-        <f>SUM(H4:H23)</f>
+      <c r="I2" s="1">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1">
-        <f>SUM(J4:J23)</f>
-        <v>94</v>
-      </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="1">
         <f>SUM(K4:K23)</f>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L2" s="1">
         <f>SUM(L4:L23)</f>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M2" s="1">
         <f>SUM(M4:M23)</f>
+        <v>94</v>
+      </c>
+      <c r="N2" s="1">
+        <f>SUM(N4:N23)</f>
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1111,71 +1128,74 @@
         <v>4</v>
       </c>
       <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="J4">
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="K4">
         <v>8</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>28</v>
       </c>
-      <c r="L4">
-        <v>4</v>
-      </c>
       <c r="M4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
       <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <v>9</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>10</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
       <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="M6">
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="N6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1186,31 +1206,34 @@
         <v>4</v>
       </c>
       <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="G7">
+      <c r="F7">
         <v>3</v>
       </c>
       <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>6</v>
       </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
       <c r="L7">
         <v>3</v>
       </c>
       <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1221,22 +1244,25 @@
         <v>5</v>
       </c>
       <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
       <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
         <v>7</v>
       </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
       <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1247,34 +1273,37 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
         <v>16</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>20</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>18</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>5</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>6</v>
       </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
       <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
         <v>15</v>
       </c>
-      <c r="M9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1285,45 +1314,48 @@
         <v>4</v>
       </c>
       <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
         <v>9</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
       <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="K10">
         <v>6</v>
       </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
       <c r="L10">
         <v>3</v>
       </c>
       <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>5</v>
       </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1334,34 +1366,37 @@
         <v>4</v>
       </c>
       <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
         <v>5</v>
-      </c>
-      <c r="E12">
-        <v>9</v>
       </c>
       <c r="F12">
         <v>9</v>
       </c>
       <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
         <v>10</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>10</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>7</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
       </c>
       <c r="M12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1372,10 +1407,10 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -1386,7 +1421,7 @@
       <c r="H13">
         <v>4</v>
       </c>
-      <c r="J13">
+      <c r="I13">
         <v>4</v>
       </c>
       <c r="K13">
@@ -1398,22 +1433,25 @@
       <c r="M13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
       <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
         <v>29</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1424,45 +1462,48 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
         <v>5</v>
       </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
       <c r="G15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="K15">
         <v>10</v>
       </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
       <c r="L15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>9</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>15</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1473,25 +1514,28 @@
         <v>3</v>
       </c>
       <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
         <v>15</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
       <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
       </c>
       <c r="K17">
-        <v>4</v>
-      </c>
-      <c r="M17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1502,31 +1546,34 @@
         <v>18</v>
       </c>
       <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
         <v>18</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>11</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>9</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>5</v>
       </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
-      <c r="J18">
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="K18">
         <v>20</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>7</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1537,34 +1584,37 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>5</v>
       </c>
       <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
         <v>9</v>
-      </c>
-      <c r="G19">
-        <v>5</v>
       </c>
       <c r="H19">
         <v>5</v>
       </c>
-      <c r="J19">
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="K19">
         <v>6</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>7</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>10</v>
       </c>
-      <c r="M19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1575,34 +1625,37 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
         <v>5</v>
       </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
       <c r="G20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
         <v>5</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>6</v>
       </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
       <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
         <v>5</v>
       </c>
-      <c r="M20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1613,25 +1666,28 @@
         <v>2</v>
       </c>
       <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
         <v>15</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
       <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
       </c>
       <c r="K21">
         <v>3</v>
       </c>
-      <c r="M21">
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="N21">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1641,11 +1697,11 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="E22">
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="F22">
         <v>5</v>
-      </c>
-      <c r="F22">
-        <v>18</v>
       </c>
       <c r="G22">
         <v>18</v>
@@ -1653,63 +1709,70 @@
       <c r="H22">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="1">
-        <f>SUM(B28:B41)</f>
+        <f t="shared" ref="B26:I26" si="1">SUM(B28:B41)</f>
         <v>93</v>
       </c>
       <c r="C26" s="1">
-        <f>SUM(C28:C41)</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="D26" s="1">
-        <f>SUM(D28:D41)</f>
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="E26" s="1">
-        <f>SUM(E28:E41)</f>
-        <v>84</v>
-      </c>
       <c r="F26" s="1">
-        <f>SUM(F28:F41)</f>
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="G26" s="1">
-        <f>SUM(G28:G41)</f>
+      <c r="H26" s="1">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="H26" s="1">
-        <f>SUM(H28:H41)</f>
+      <c r="I26" s="1">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1">
-        <f>SUM(J28:J41)</f>
-        <v>98</v>
-      </c>
+      <c r="J26" s="1"/>
       <c r="K26" s="1">
         <f>SUM(K28:K41)</f>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L26" s="1">
         <f>SUM(L28:L41)</f>
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="M26" s="1">
         <f>SUM(M28:M41)</f>
+        <v>76</v>
+      </c>
+      <c r="N26" s="1">
+        <f>SUM(N28:N41)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1720,25 +1783,28 @@
         <v>2</v>
       </c>
       <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
         <v>15</v>
       </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
       <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="J28">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
       </c>
       <c r="K28">
         <v>3</v>
       </c>
-      <c r="M28">
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="N28">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1749,31 +1815,34 @@
         <v>4</v>
       </c>
       <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
         <v>5</v>
       </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="G29">
+      <c r="F29">
         <v>3</v>
       </c>
       <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
         <v>5</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>6</v>
       </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
       <c r="L29">
         <v>3</v>
       </c>
       <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1783,11 +1852,11 @@
       <c r="C30">
         <v>4</v>
       </c>
-      <c r="E30">
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="F30">
         <v>5</v>
-      </c>
-      <c r="F30">
-        <v>18</v>
       </c>
       <c r="G30">
         <v>18</v>
@@ -1795,11 +1864,14 @@
       <c r="H30">
         <v>18</v>
       </c>
-      <c r="M30">
+      <c r="I30">
+        <v>18</v>
+      </c>
+      <c r="N30">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1810,48 +1882,54 @@
         <v>4</v>
       </c>
       <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
         <v>5</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
       <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="K31">
         <v>6</v>
       </c>
-      <c r="K31">
-        <v>4</v>
-      </c>
-      <c r="M31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
-      <c r="E32">
-        <v>2</v>
+      <c r="D32">
+        <v>10</v>
       </c>
       <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
         <v>5</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>10</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>5</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1862,25 +1940,28 @@
         <v>4</v>
       </c>
       <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
         <v>18</v>
       </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
       <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="K33">
         <v>6</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>15</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1891,34 +1972,37 @@
         <v>18</v>
       </c>
       <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34">
         <v>5</v>
-      </c>
-      <c r="E34">
-        <v>9</v>
       </c>
       <c r="F34">
         <v>9</v>
       </c>
       <c r="G34">
+        <v>9</v>
+      </c>
+      <c r="H34">
         <v>10</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>5</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>10</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>7</v>
-      </c>
-      <c r="L34">
-        <v>10</v>
       </c>
       <c r="M34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1928,20 +2012,20 @@
       <c r="C35">
         <v>3</v>
       </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
       <c r="F35">
-        <v>4</v>
-      </c>
-      <c r="H35">
-        <v>4</v>
-      </c>
-      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="M35">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1952,45 +2036,51 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
         <v>5</v>
       </c>
-      <c r="F36">
-        <v>4</v>
-      </c>
       <c r="G36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>4</v>
-      </c>
-      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="K36">
         <v>10</v>
       </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
       <c r="L36">
         <v>3</v>
       </c>
       <c r="M36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
-      <c r="K37">
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="L37">
         <v>30</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -2001,25 +2091,28 @@
         <v>3</v>
       </c>
       <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
         <v>15</v>
       </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
       <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="J38">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
       </c>
       <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
         <v>7</v>
       </c>
-      <c r="M38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -2030,39 +2123,42 @@
         <v>30</v>
       </c>
       <c r="D39">
+        <v>33</v>
+      </c>
+      <c r="E39">
         <v>26</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>28</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>22</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>13</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>14</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>42</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>13</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>15</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2073,30 +2169,33 @@
         <v>5</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
         <v>18</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>20</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>18</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>5</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>6</v>
       </c>
-      <c r="K41">
-        <v>3</v>
-      </c>
       <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
         <v>15</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>4</v>
       </c>
     </row>
@@ -2107,11 +2206,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2119,7 +2218,7 @@
     <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2138,12 +2237,18 @@
       <c r="F1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="H1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -2167,13 +2272,21 @@
         <f>SUM(F4:F18)</f>
         <v>95</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1">
+      <c r="G2" s="4">
+        <f>SUM(G4:G18)</f>
+        <v>95.0809968847352</v>
+      </c>
+      <c r="H2" s="4">
         <f>SUM(H4:H18)</f>
+        <v>96.109034267912776</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
+        <f>SUM(J4:J18)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2183,11 +2296,17 @@
       <c r="C4">
         <v>85</v>
       </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="J4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -2195,7 +2314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2208,11 +2327,14 @@
       <c r="F6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="J6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2233,10 +2355,18 @@
         <v>7.7881619937694704E-3</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="3">
+        <f>G18/642</f>
+        <v>8.0996884735202487E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <f>H18/642</f>
+        <v>0.10903426791277258</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2244,12 +2374,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2265,11 +2395,17 @@
       <c r="F10">
         <v>4</v>
       </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
       <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="J10">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2277,31 +2413,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="F12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2309,15 +2454,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="F16">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>25</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2325,7 +2476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2341,8 +2492,14 @@
       <c r="E18">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>52</v>
+      </c>
+      <c r="H18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -2360,30 +2517,38 @@
       </c>
       <c r="E21" s="1">
         <f>SUM(E23:E34)</f>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F21" s="1">
         <f>SUM(F23:F34)</f>
         <v>93</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <f>SUM(G23:G34)</f>
+        <v>95</v>
+      </c>
       <c r="H21" s="1">
-        <f>SUM(H23:H34)</f>
+        <f t="shared" ref="H21" si="0">SUM(H23:H34)</f>
+        <v>96</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1">
+        <f>SUM(J23:J34)</f>
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2399,16 +2564,22 @@
       <c r="E24">
         <v>65</v>
       </c>
+      <c r="G24">
+        <v>52</v>
+      </c>
       <c r="H24">
+        <v>70</v>
+      </c>
+      <c r="J24">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2421,19 +2592,31 @@
       <c r="F26">
         <v>7</v>
       </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
       <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="J26">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="F27">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2446,13 +2629,25 @@
       <c r="E28">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -2460,15 +2655,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
       <c r="F31">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>25</v>
+      </c>
+      <c r="H31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2476,12 +2677,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2500,7 +2701,13 @@
       <c r="F34">
         <v>6</v>
       </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
       <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="J34">
         <v>3</v>
       </c>
     </row>
@@ -2512,32 +2719,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.25" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="12.125" customWidth="1"/>
-    <col min="13" max="13" width="10.75" customWidth="1"/>
-    <col min="14" max="14" width="11.5" customWidth="1"/>
-    <col min="15" max="15" width="10.25" customWidth="1"/>
-    <col min="17" max="17" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="14.25" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="10.25" customWidth="1"/>
+    <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2548,171 +2755,181 @@
         <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1">
-        <f>SUM(B4:B17)</f>
+        <f t="shared" ref="B2:P2" si="0">SUM(B4:B17)</f>
         <v>93</v>
       </c>
       <c r="C2" s="1">
-        <f>SUM(C4:C17)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="D2" s="1">
-        <f>SUM(D4:D17)</f>
+      <c r="D2" s="33">
+        <f t="shared" si="0"/>
+        <v>95.007788161993773</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="E2" s="1">
-        <f>SUM(E4:E17)</f>
+      <c r="F2" s="1">
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="F2" s="4">
-        <f>SUM(F4:F17)</f>
+      <c r="G2" s="4">
+        <f t="shared" si="0"/>
         <v>92.003115264797515</v>
       </c>
-      <c r="G2" s="4">
-        <f>SUM(G4:G17)</f>
+      <c r="H2" s="4">
+        <f t="shared" si="0"/>
         <v>90.006230529595015</v>
       </c>
-      <c r="H2" s="4">
-        <f>SUM(H4:H17)</f>
+      <c r="I2" s="4">
+        <f t="shared" si="0"/>
         <v>92.003115264797515</v>
       </c>
-      <c r="I2" s="4">
-        <f>SUM(I4:I17)</f>
+      <c r="J2" s="4">
+        <f t="shared" si="0"/>
         <v>95.115264797507791</v>
       </c>
-      <c r="J2" s="4">
-        <f>SUM(J4:J17)</f>
+      <c r="K2" s="4">
+        <f t="shared" si="0"/>
         <v>93.115264797507791</v>
       </c>
-      <c r="K2" s="4">
-        <f>SUM(K4:K17)</f>
+      <c r="L2" s="4">
+        <f t="shared" si="0"/>
         <v>98.121495327102807</v>
       </c>
-      <c r="L2" s="4">
-        <f>SUM(L4:L17)</f>
+      <c r="M2" s="4">
+        <f t="shared" si="0"/>
         <v>99.121495327102807</v>
       </c>
-      <c r="M2" s="4">
-        <f>SUM(M4:M17)</f>
+      <c r="N2" s="4">
+        <f t="shared" si="0"/>
         <v>98.109034267912776</v>
       </c>
-      <c r="N2" s="4">
-        <f>SUM(N4:N17)</f>
+      <c r="O2" s="4">
+        <f t="shared" si="0"/>
         <v>97.116822429906534</v>
       </c>
-      <c r="O2" s="4">
-        <f>SUM(O4:O17)</f>
+      <c r="P2" s="4">
+        <f t="shared" si="0"/>
         <v>99.13239875389408</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4">
-        <f>SUM(Q4:Q17)</f>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4">
+        <f>SUM(R4:R17)</f>
         <v>95.109034267912776</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K3" s="5"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>6</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
+      <c r="G4">
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="R4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
       <c r="M5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
         <v>5</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
       <c r="N6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2723,92 +2940,96 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
         <v>91</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
       <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
       <c r="M7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="3">
-        <f>F10/642</f>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8" si="1">D10/642</f>
+        <v>7.7881619937694704E-3</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" ref="G8:P8" si="2">G10/642</f>
         <v>3.1152647975077881E-3</v>
       </c>
-      <c r="G8" s="3">
-        <f>G10/642</f>
+      <c r="H8" s="3">
+        <f t="shared" si="2"/>
         <v>6.2305295950155761E-3</v>
       </c>
-      <c r="H8" s="3">
-        <f>H10/642</f>
+      <c r="I8" s="3">
+        <f t="shared" si="2"/>
         <v>3.1152647975077881E-3</v>
       </c>
-      <c r="I8" s="3">
-        <f>I10/642</f>
+      <c r="J8" s="3">
+        <f t="shared" si="2"/>
         <v>0.11526479750778816</v>
       </c>
-      <c r="J8" s="3">
-        <f>J10/642</f>
+      <c r="K8" s="3">
+        <f t="shared" si="2"/>
         <v>0.11526479750778816</v>
       </c>
-      <c r="K8" s="3">
-        <f>K10/642</f>
+      <c r="L8" s="3">
+        <f t="shared" si="2"/>
         <v>0.12149532710280374</v>
       </c>
-      <c r="L8" s="3">
-        <f>L10/642</f>
+      <c r="M8" s="3">
+        <f t="shared" si="2"/>
         <v>0.12149532710280374</v>
       </c>
-      <c r="M8" s="3">
-        <f>M10/642</f>
+      <c r="N8" s="3">
+        <f t="shared" si="2"/>
         <v>0.10903426791277258</v>
       </c>
-      <c r="N8" s="3">
-        <f>N10/642</f>
+      <c r="O8" s="3">
+        <f t="shared" si="2"/>
         <v>0.11682242990654206</v>
       </c>
-      <c r="O8" s="3">
-        <f>O10/642</f>
+      <c r="P8" s="3">
+        <f t="shared" si="2"/>
         <v>0.13239875389408098</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3">
-        <f>Q10/642</f>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3">
+        <f>R10/642</f>
         <v>0.10903426791277258</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>12</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -2817,103 +3038,112 @@
         <v>10</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N9">
         <v>7</v>
       </c>
       <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
         <v>5</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="F10">
-        <v>2</v>
+      <c r="D10">
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <v>74</v>
       </c>
       <c r="K10">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L10">
         <v>78</v>
       </c>
       <c r="M10">
+        <v>78</v>
+      </c>
+      <c r="N10">
         <v>70</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>75</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>85</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>8</v>
       </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
-      <c r="F12">
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="G12">
         <v>6</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
       <c r="K12">
         <v>4</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
         <v>1</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2924,65 +3154,71 @@
         <v>74</v>
       </c>
       <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
         <v>80</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>75</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>85</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>90</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="C14">
         <v>16</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="K14">
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="J14">
         <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2992,143 +3228,150 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="F16">
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
       <c r="K16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
         <v>1</v>
       </c>
-      <c r="Q16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="M17">
-        <v>2</v>
-      </c>
       <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="1">
-        <f>SUM(B22:B30)</f>
+        <f t="shared" ref="B20:P20" si="3">SUM(B22:B30)</f>
         <v>10</v>
       </c>
       <c r="C20" s="1">
-        <f>SUM(C22:C30)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="D20" s="1">
-        <f>SUM(D22:D30)</f>
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="E20" s="1">
-        <f>SUM(E22:E30)</f>
-        <v>3</v>
-      </c>
       <c r="F20" s="1">
-        <f>SUM(F22:F30)</f>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G20" s="1">
-        <f>SUM(G22:G30)</f>
+      <c r="H20" s="1">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H20" s="1">
-        <f>SUM(H22:H30)</f>
-        <v>4</v>
-      </c>
       <c r="I20" s="1">
-        <f>SUM(I22:I30)</f>
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="J20" s="1">
-        <f>SUM(J22:J30)</f>
+      <c r="K20" s="1">
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="K20" s="1">
-        <f>SUM(K22:K30)</f>
+      <c r="L20" s="1">
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="L20" s="1">
-        <f>SUM(L22:L30)</f>
+      <c r="M20" s="1">
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="M20" s="1">
-        <f>SUM(M22:M30)</f>
+      <c r="N20" s="1">
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="N20" s="1">
-        <f>SUM(N22:N30)</f>
+      <c r="O20" s="1">
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="O20" s="1">
-        <f>SUM(O22:O30)</f>
+      <c r="P20" s="1">
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1">
-        <f>SUM(Q22:Q30)</f>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1">
+        <f>SUM(R22:R30)</f>
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
       <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
         <v>1</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>5</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>12</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>10</v>
-      </c>
-      <c r="M23">
-        <v>7</v>
       </c>
       <c r="N23">
         <v>7</v>
       </c>
       <c r="O23">
+        <v>7</v>
+      </c>
+      <c r="P23">
         <v>5</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -3141,35 +3384,38 @@
       <c r="D24">
         <v>4</v>
       </c>
-      <c r="F24">
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="G24">
         <v>6</v>
       </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="I24">
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="J24">
         <v>1</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>6</v>
       </c>
-      <c r="K24">
-        <v>4</v>
-      </c>
       <c r="L24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>2</v>
-      </c>
-      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="R24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -3180,103 +3426,115 @@
         <v>6</v>
       </c>
       <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
         <v>6</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
       <c r="F25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="K26">
-        <v>1</v>
+      <c r="D26">
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="F27">
-        <v>2</v>
+      <c r="D27">
+        <v>6</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
         <v>74</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>70</v>
-      </c>
-      <c r="K27">
-        <v>78</v>
       </c>
       <c r="L27">
         <v>78</v>
       </c>
       <c r="M27">
+        <v>78</v>
+      </c>
+      <c r="N27">
         <v>70</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>75</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>85</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="M28">
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="N28">
         <v>5</v>
       </c>
-      <c r="N28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -3286,26 +3544,29 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="F29">
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="G29">
         <v>1</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
       <c r="K29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
         <v>1</v>
       </c>
-      <c r="Q29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -3316,33 +3577,36 @@
         <v>1</v>
       </c>
       <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
         <v>6</v>
       </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
+      <c r="G30">
+        <v>2</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
         <v>1</v>
       </c>
-      <c r="L30">
-        <v>3</v>
-      </c>
       <c r="M30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>2</v>
-      </c>
-      <c r="Q30">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="R30">
         <v>4</v>
       </c>
     </row>
@@ -3445,15 +3709,15 @@
         <v>12</v>
       </c>
       <c r="H2" s="20">
-        <f>(F2*(B2/2)+B2)</f>
+        <f t="shared" ref="H2:H33" si="0">(F2*(B2/2)+B2)</f>
         <v>966625</v>
       </c>
       <c r="I2" s="20">
-        <f>IF(G2&gt;=F2,SUM(G2*(B2/2)+B2),H2)</f>
+        <f t="shared" ref="I2:I33" si="1">IF(G2&gt;=F2,SUM(G2*(B2/2)+B2),H2)</f>
         <v>1230250</v>
       </c>
       <c r="J2" s="16" t="str">
-        <f>IF(H2&lt;=B2+C2,"Yes","-")</f>
+        <f t="shared" ref="J2:J33" si="2">IF(H2&lt;=B2+C2,"Yes","-")</f>
         <v>-</v>
       </c>
       <c r="K2" s="24"/>
@@ -3464,19 +3728,19 @@
         <v>10</v>
       </c>
       <c r="N2" s="17">
-        <f>L2*B2</f>
+        <f t="shared" ref="N2:N33" si="3">L2*B2</f>
         <v>878750</v>
       </c>
       <c r="O2" s="17">
-        <f>IF((M2*B2&gt;=N2),M2*B2,N2)</f>
+        <f t="shared" ref="O2:O33" si="4">IF((M2*B2&gt;=N2),M2*B2,N2)</f>
         <v>1757500</v>
       </c>
       <c r="P2" s="16" t="str">
-        <f>IF(SUM(H2-(N2/2))&lt;=B2+C2,"Yes","-")</f>
+        <f t="shared" ref="P2:P33" si="5">IF(SUM(H2-(N2/2))&lt;=B2+C2,"Yes","-")</f>
         <v>-</v>
       </c>
       <c r="Q2" s="16" t="str">
-        <f>IF(SUM(I2-(O2/2))&lt;=B2+C2,"Yes","-")</f>
+        <f t="shared" ref="Q2:Q33" si="6">IF(SUM(I2-(O2/2))&lt;=B2+C2,"Yes","-")</f>
         <v>-</v>
       </c>
     </row>
@@ -3492,21 +3756,21 @@
         <v>26572</v>
       </c>
       <c r="E3" s="22">
-        <f>IF((B3&gt;0),(D3/(B3/2)),0)</f>
+        <f t="shared" ref="E3:E33" si="7">IF((B3&gt;0),(D3/(B3/2)),0)</f>
         <v>81.760000000000005</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="20">
-        <f>(F3*(B3/2)+B3)</f>
+        <f t="shared" si="0"/>
         <v>650</v>
       </c>
       <c r="I3" s="20">
-        <f>IF(G3&gt;=F3,SUM(G3*(B3/2)+B3),H3)</f>
+        <f t="shared" si="1"/>
         <v>650</v>
       </c>
       <c r="J3" s="16" t="str">
-        <f>IF(H3&lt;=B3+C3,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="K3" s="28">
@@ -3515,19 +3779,19 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
       <c r="N3" s="17">
-        <f>L3*B3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O3" s="17">
-        <f>IF((M3*B3&gt;=N3),M3*B3,N3)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P3" s="16" t="str">
-        <f>IF(SUM(H3-(N3/2))&lt;=B3+C3,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q3" s="16" t="str">
-        <f>IF(SUM(I3-(O3/2))&lt;=B3+C3,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -3545,7 +3809,7 @@
         <v>233567</v>
       </c>
       <c r="E4" s="22">
-        <f>IF((B4&gt;0),(D4/(B4/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>227.87024390243903</v>
       </c>
       <c r="F4" s="21">
@@ -3553,15 +3817,15 @@
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="20">
-        <f>(F4*(B4/2)+B4)</f>
+        <f t="shared" si="0"/>
         <v>2152.5</v>
       </c>
       <c r="I4" s="20">
-        <f>IF(G4&gt;=F4,SUM(G4*(B4/2)+B4),H4)</f>
+        <f t="shared" si="1"/>
         <v>2152.5</v>
       </c>
       <c r="J4" s="16" t="str">
-        <f>IF(H4&lt;=B4+C4,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K4" s="28">
@@ -3570,19 +3834,19 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
       <c r="N4" s="17">
-        <f>L4*B4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O4" s="17">
-        <f>IF((M4*B4&gt;=N4),M4*B4,N4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P4" s="16" t="str">
-        <f>IF(SUM(H4-(N4/2))&lt;=B4+C4,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Q4" s="16" t="str">
-        <f>IF(SUM(I4-(O4/2))&lt;=B4+C4,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
     </row>
@@ -3598,21 +3862,21 @@
         <v>366</v>
       </c>
       <c r="E5" s="22">
-        <f>IF((B5&gt;0),(D5/(B5/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>24.4</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="20">
-        <f>(F5*(B5/2)+B5)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="I5" s="20">
-        <f>IF(G5&gt;=F5,SUM(G5*(B5/2)+B5),H5)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="J5" s="16" t="str">
-        <f>IF(H5&lt;=B5+C5,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="K5" s="19">
@@ -3621,19 +3885,19 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
       <c r="N5" s="17">
-        <f>L5*B5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O5" s="17">
-        <f>IF((M5*B5&gt;=N5),M5*B5,N5)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P5" s="16" t="str">
-        <f>IF(SUM(H5-(N5/2))&lt;=B5+C5,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q5" s="16" t="str">
-        <f>IF(SUM(I5-(O5/2))&lt;=B5+C5,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -3651,7 +3915,7 @@
         <v>231588</v>
       </c>
       <c r="E6" s="22">
-        <f>IF((B6&gt;0),(D6/(B6/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>289.48500000000001</v>
       </c>
       <c r="F6" s="21">
@@ -3659,15 +3923,15 @@
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="20">
-        <f>(F6*(B6/2)+B6)</f>
+        <f t="shared" si="0"/>
         <v>1688</v>
       </c>
       <c r="I6" s="20">
-        <f>IF(G6&gt;=F6,SUM(G6*(B6/2)+B6),H6)</f>
+        <f t="shared" si="1"/>
         <v>1688</v>
       </c>
       <c r="J6" s="16" t="str">
-        <f>IF(H6&lt;=B6+C6,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K6" s="28">
@@ -3678,19 +3942,19 @@
       </c>
       <c r="M6" s="18"/>
       <c r="N6" s="17">
-        <f>L6*B6</f>
+        <f t="shared" si="3"/>
         <v>16000</v>
       </c>
       <c r="O6" s="17">
-        <f>IF((M6*B6&gt;=N6),M6*B6,N6)</f>
+        <f t="shared" si="4"/>
         <v>16000</v>
       </c>
       <c r="P6" s="16" t="str">
-        <f>IF(SUM(H6-(N6/2))&lt;=B6+C6,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q6" s="16" t="str">
-        <f>IF(SUM(I6-(O6/2))&lt;=B6+C6,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -3706,21 +3970,21 @@
         <v>13860</v>
       </c>
       <c r="E7" s="22">
-        <f>IF((B7&gt;0),(D7/(B7/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>69.3</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="20">
-        <f>(F7*(B7/2)+B7)</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="I7" s="20">
-        <f>IF(G7&gt;=F7,SUM(G7*(B7/2)+B7),H7)</f>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="J7" s="16" t="str">
-        <f>IF(H7&lt;=B7+C7,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="K7" s="19">
@@ -3729,19 +3993,19 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="17">
-        <f>L7*B7</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O7" s="17">
-        <f>IF((M7*B7&gt;=N7),M7*B7,N7)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P7" s="16" t="str">
-        <f>IF(SUM(H7-(N7/2))&lt;=B7+C7,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q7" s="16" t="str">
-        <f>IF(SUM(I7-(O7/2))&lt;=B7+C7,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -3757,21 +4021,21 @@
         <v>8655</v>
       </c>
       <c r="E8" s="22">
-        <f>IF((B8&gt;0),(D8/(B8/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>108.1875</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="20">
-        <f>(F8*(B8/2)+B8)</f>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
       <c r="I8" s="20">
-        <f>IF(G8&gt;=F8,SUM(G8*(B8/2)+B8),H8)</f>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="J8" s="16" t="str">
-        <f>IF(H8&lt;=B8+C8,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="K8" s="19">
@@ -3780,19 +4044,19 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
       <c r="N8" s="17">
-        <f>L8*B8</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O8" s="17">
-        <f>IF((M8*B8&gt;=N8),M8*B8,N8)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P8" s="16" t="str">
-        <f>IF(SUM(H8-(N8/2))&lt;=B8+C8,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q8" s="16" t="str">
-        <f>IF(SUM(I8-(O8/2))&lt;=B8+C8,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -3810,7 +4074,7 @@
         <v>131664</v>
       </c>
       <c r="E9" s="22">
-        <f>IF((B9&gt;0),(D9/(B9/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>329.16</v>
       </c>
       <c r="F9" s="21">
@@ -3818,15 +4082,15 @@
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="20">
-        <f>(F9*(B9/2)+B9)</f>
+        <f t="shared" si="0"/>
         <v>872</v>
       </c>
       <c r="I9" s="20">
-        <f>IF(G9&gt;=F9,SUM(G9*(B9/2)+B9),H9)</f>
+        <f t="shared" si="1"/>
         <v>872</v>
       </c>
       <c r="J9" s="16" t="str">
-        <f>IF(H9&lt;=B9+C9,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K9" s="28">
@@ -3835,19 +4099,19 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="17">
-        <f>L9*B9</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O9" s="17">
-        <f>IF((M9*B9&gt;=N9),M9*B9,N9)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P9" s="16" t="str">
-        <f>IF(SUM(H9-(N9/2))&lt;=B9+C9,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Q9" s="16" t="str">
-        <f>IF(SUM(I9-(O9/2))&lt;=B9+C9,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
     </row>
@@ -3863,21 +4127,21 @@
         <v>6286</v>
       </c>
       <c r="E10" s="22">
-        <f>IF((B10&gt;0),(D10/(B10/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>59.866666666666667</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="20">
-        <f>(F10*(B10/2)+B10)</f>
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="I10" s="20">
-        <f>IF(G10&gt;=F10,SUM(G10*(B10/2)+B10),H10)</f>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="J10" s="16" t="str">
-        <f>IF(H10&lt;=B10+C10,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="K10" s="19">
@@ -3886,19 +4150,19 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="17">
-        <f>L10*B10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O10" s="17">
-        <f>IF((M10*B10&gt;=N10),M10*B10,N10)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P10" s="16" t="str">
-        <f>IF(SUM(H10-(N10/2))&lt;=B10+C10,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q10" s="16" t="str">
-        <f>IF(SUM(I10-(O10/2))&lt;=B10+C10,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -3914,21 +4178,21 @@
         <v>49409</v>
       </c>
       <c r="E11" s="22">
-        <f>IF((B11&gt;0),(D11/(B11/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>380.06923076923078</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="20">
-        <f>(F11*(B11/2)+B11)</f>
+        <f t="shared" si="0"/>
         <v>260</v>
       </c>
       <c r="I11" s="20">
-        <f>IF(G11&gt;=F11,SUM(G11*(B11/2)+B11),H11)</f>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="J11" s="16" t="str">
-        <f>IF(H11&lt;=B11+C11,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="K11" s="28">
@@ -3937,19 +4201,19 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="17">
-        <f>L11*B11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O11" s="17">
-        <f>IF((M11*B11&gt;=N11),M11*B11,N11)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P11" s="16" t="str">
-        <f>IF(SUM(H11-(N11/2))&lt;=B11+C11,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q11" s="16" t="str">
-        <f>IF(SUM(I11-(O11/2))&lt;=B11+C11,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -3965,21 +4229,21 @@
         <v>244</v>
       </c>
       <c r="E12" s="22">
-        <f>IF((B12&gt;0),(D12/(B12/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>24.4</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="20">
-        <f>(F12*(B12/2)+B12)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I12" s="20">
-        <f>IF(G12&gt;=F12,SUM(G12*(B12/2)+B12),H12)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J12" s="16" t="str">
-        <f>IF(H12&lt;=B12+C12,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="K12" s="19">
@@ -3988,19 +4252,19 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="17">
-        <f>L12*B12</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O12" s="17">
-        <f>IF((M12*B12&gt;=N12),M12*B12,N12)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P12" s="16" t="str">
-        <f>IF(SUM(H12-(N12/2))&lt;=B12+C12,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q12" s="16" t="str">
-        <f>IF(SUM(I12-(O12/2))&lt;=B12+C12,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4016,21 +4280,21 @@
         <v>90298</v>
       </c>
       <c r="E13" s="22">
-        <f>IF((B13&gt;0),(D13/(B13/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>501.65555555555557</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="20">
-        <f>(F13*(B13/2)+B13)</f>
+        <f t="shared" si="0"/>
         <v>360</v>
       </c>
       <c r="I13" s="20">
-        <f>IF(G13&gt;=F13,SUM(G13*(B13/2)+B13),H13)</f>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="J13" s="16" t="str">
-        <f>IF(H13&lt;=B13+C13,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="K13" s="28">
@@ -4039,19 +4303,19 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
       <c r="N13" s="17">
-        <f>L13*B13</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13" s="17">
-        <f>IF((M13*B13&gt;=N13),M13*B13,N13)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P13" s="16" t="str">
-        <f>IF(SUM(H13-(N13/2))&lt;=B13+C13,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q13" s="16" t="str">
-        <f>IF(SUM(I13-(O13/2))&lt;=B13+C13,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4069,7 +4333,7 @@
         <v>6745648</v>
       </c>
       <c r="E14" s="22">
-        <f>IF((B14&gt;0),(D14/(B14/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>963.66399999999999</v>
       </c>
       <c r="F14" s="21">
@@ -4077,15 +4341,15 @@
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="20">
-        <f>(F14*(B14/2)+B14)</f>
+        <f t="shared" si="0"/>
         <v>14770</v>
       </c>
       <c r="I14" s="20">
-        <f>IF(G14&gt;=F14,SUM(G14*(B14/2)+B14),H14)</f>
+        <f t="shared" si="1"/>
         <v>14770</v>
       </c>
       <c r="J14" s="16" t="str">
-        <f>IF(H14&lt;=B14+C14,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K14" s="28">
@@ -4098,19 +4362,19 @@
         <v>100</v>
       </c>
       <c r="N14" s="17">
-        <f>L14*B14</f>
+        <f t="shared" si="3"/>
         <v>1050000</v>
       </c>
       <c r="O14" s="17">
-        <f>IF((M14*B14&gt;=N14),M14*B14,N14)</f>
+        <f t="shared" si="4"/>
         <v>1400000</v>
       </c>
       <c r="P14" s="16" t="str">
-        <f>IF(SUM(H14-(N14/2))&lt;=B14+C14,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q14" s="16" t="str">
-        <f>IF(SUM(I14-(O14/2))&lt;=B14+C14,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4128,7 +4392,7 @@
         <v>9067</v>
       </c>
       <c r="E15" s="22">
-        <f>IF((B15&gt;0),(D15/(B15/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>16.485454545454544</v>
       </c>
       <c r="F15" s="21">
@@ -4136,15 +4400,15 @@
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="20">
-        <f>(F15*(B15/2)+B15)</f>
+        <f t="shared" si="0"/>
         <v>1210</v>
       </c>
       <c r="I15" s="20">
-        <f>IF(G15&gt;=F15,SUM(G15*(B15/2)+B15),H15)</f>
+        <f t="shared" si="1"/>
         <v>1210</v>
       </c>
       <c r="J15" s="16" t="str">
-        <f>IF(H15&lt;=B15+C15,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K15" s="19">
@@ -4153,19 +4417,19 @@
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="17">
-        <f>L15*B15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O15" s="17">
-        <f>IF((M15*B15&gt;=N15),M15*B15,N15)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P15" s="16" t="str">
-        <f>IF(SUM(H15-(N15/2))&lt;=B15+C15,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Q15" s="16" t="str">
-        <f>IF(SUM(I15-(O15/2))&lt;=B15+C15,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
     </row>
@@ -4181,21 +4445,21 @@
         <v>5962</v>
       </c>
       <c r="E16" s="22">
-        <f>IF((B16&gt;0),(D16/(B16/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>21.68</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="20">
-        <f>(F16*(B16/2)+B16)</f>
+        <f t="shared" si="0"/>
         <v>550</v>
       </c>
       <c r="I16" s="20">
-        <f>IF(G16&gt;=F16,SUM(G16*(B16/2)+B16),H16)</f>
+        <f t="shared" si="1"/>
         <v>550</v>
       </c>
       <c r="J16" s="16" t="str">
-        <f>IF(H16&lt;=B16+C16,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="K16" s="19">
@@ -4204,19 +4468,19 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
       <c r="N16" s="17">
-        <f>L16*B16</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O16" s="17">
-        <f>IF((M16*B16&gt;=N16),M16*B16,N16)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P16" s="16" t="str">
-        <f>IF(SUM(H16-(N16/2))&lt;=B16+C16,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q16" s="16" t="str">
-        <f>IF(SUM(I16-(O16/2))&lt;=B16+C16,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4234,7 +4498,7 @@
         <v>20348</v>
       </c>
       <c r="E17" s="22">
-        <f>IF((B17&gt;0),(D17/(B17/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>45.217777777777776</v>
       </c>
       <c r="F17" s="21">
@@ -4242,15 +4506,15 @@
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="20">
-        <f>(F17*(B17/2)+B17)</f>
+        <f t="shared" si="0"/>
         <v>990</v>
       </c>
       <c r="I17" s="20">
-        <f>IF(G17&gt;=F17,SUM(G17*(B17/2)+B17),H17)</f>
+        <f t="shared" si="1"/>
         <v>990</v>
       </c>
       <c r="J17" s="16" t="str">
-        <f>IF(H17&lt;=B17+C17,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K17" s="19">
@@ -4261,19 +4525,19 @@
       </c>
       <c r="M17" s="18"/>
       <c r="N17" s="17">
-        <f>L17*B17</f>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="O17" s="17">
-        <f>IF((M17*B17&gt;=N17),M17*B17,N17)</f>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="P17" s="16" t="str">
-        <f>IF(SUM(H17-(N17/2))&lt;=B17+C17,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q17" s="16" t="str">
-        <f>IF(SUM(I17-(O17/2))&lt;=B17+C17,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4289,7 +4553,7 @@
         <v>5553</v>
       </c>
       <c r="E18" s="22">
-        <f>IF((B18&gt;0),(D18/(B18/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>58.452631578947368</v>
       </c>
       <c r="F18" s="21">
@@ -4297,15 +4561,15 @@
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="20">
-        <f>(F18*(B18/2)+B18)</f>
+        <f t="shared" si="0"/>
         <v>199.5</v>
       </c>
       <c r="I18" s="20">
-        <f>IF(G18&gt;=F18,SUM(G18*(B18/2)+B18),H18)</f>
+        <f t="shared" si="1"/>
         <v>199.5</v>
       </c>
       <c r="J18" s="16" t="str">
-        <f>IF(H18&lt;=B18+C18,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K18" s="19">
@@ -4318,19 +4582,19 @@
         <v>0.2</v>
       </c>
       <c r="N18" s="17">
-        <f>L18*B18</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="O18" s="17">
-        <f>IF((M18*B18&gt;=N18),M18*B18,N18)</f>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="P18" s="16" t="str">
-        <f>IF(SUM(H18-(N18/2))&lt;=B18+C18,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q18" s="16" t="str">
-        <f>IF(SUM(I18-(O18/2))&lt;=B18+C18,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4346,21 +4610,21 @@
         <v>4238</v>
       </c>
       <c r="E19" s="22">
-        <f>IF((B19&gt;0),(D19/(B19/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>65.2</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="20">
-        <f>(F19*(B19/2)+B19)</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="I19" s="20">
-        <f>IF(G19&gt;=F19,SUM(G19*(B19/2)+B19),H19)</f>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="J19" s="16" t="str">
-        <f>IF(H19&lt;=B19+C19,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="K19" s="19">
@@ -4369,19 +4633,19 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="17">
-        <f>L19*B19</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O19" s="17">
-        <f>IF((M19*B19&gt;=N19),M19*B19,N19)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P19" s="16" t="str">
-        <f>IF(SUM(H19-(N19/2))&lt;=B19+C19,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q19" s="16" t="str">
-        <f>IF(SUM(I19-(O19/2))&lt;=B19+C19,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4399,7 +4663,7 @@
         <v>7845120</v>
       </c>
       <c r="E20" s="22">
-        <f>IF((B20&gt;0),(D20/(B20/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>1961.28</v>
       </c>
       <c r="F20" s="21">
@@ -4407,15 +4671,15 @@
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="20">
-        <f>(F20*(B20/2)+B20)</f>
+        <f t="shared" si="0"/>
         <v>8560</v>
       </c>
       <c r="I20" s="20">
-        <f>IF(G20&gt;=F20,SUM(G20*(B20/2)+B20),H20)</f>
+        <f t="shared" si="1"/>
         <v>8560</v>
       </c>
       <c r="J20" s="16" t="str">
-        <f>IF(H20&lt;=B20+C20,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K20" s="28">
@@ -4428,19 +4692,19 @@
         <v>40</v>
       </c>
       <c r="N20" s="17">
-        <f>L20*B20</f>
+        <f t="shared" si="3"/>
         <v>160000</v>
       </c>
       <c r="O20" s="17">
-        <f>IF((M20*B20&gt;=N20),M20*B20,N20)</f>
+        <f t="shared" si="4"/>
         <v>320000</v>
       </c>
       <c r="P20" s="16" t="str">
-        <f>IF(SUM(H20-(N20/2))&lt;=B20+C20,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q20" s="16" t="str">
-        <f>IF(SUM(I20-(O20/2))&lt;=B20+C20,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4456,21 +4720,21 @@
         <v>614</v>
       </c>
       <c r="E21" s="22">
-        <f>IF((B21&gt;0),(D21/(B21/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>8.1866666666666674</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="20">
-        <f>(F21*(B21/2)+B21)</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="I21" s="20">
-        <f>IF(G21&gt;=F21,SUM(G21*(B21/2)+B21),H21)</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="J21" s="16" t="str">
-        <f>IF(H21&lt;=B21+C21,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="K21" s="19">
@@ -4479,19 +4743,19 @@
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
       <c r="N21" s="17">
-        <f>L21*B21</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O21" s="17">
-        <f>IF((M21*B21&gt;=N21),M21*B21,N21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P21" s="16" t="str">
-        <f>IF(SUM(H21-(N21/2))&lt;=B21+C21,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q21" s="16" t="str">
-        <f>IF(SUM(I21-(O21/2))&lt;=B21+C21,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4507,7 +4771,7 @@
         <v>2741</v>
       </c>
       <c r="E22" s="22">
-        <f>IF((B22&gt;0),(D22/(B22/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>18.273333333333333</v>
       </c>
       <c r="F22" s="21">
@@ -4515,15 +4779,15 @@
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="20">
-        <f>(F22*(B22/2)+B22)</f>
+        <f t="shared" si="0"/>
         <v>315</v>
       </c>
       <c r="I22" s="20">
-        <f>IF(G22&gt;=F22,SUM(G22*(B22/2)+B22),H22)</f>
+        <f t="shared" si="1"/>
         <v>315</v>
       </c>
       <c r="J22" s="16" t="str">
-        <f>IF(H22&lt;=B22+C22,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K22" s="19">
@@ -4534,19 +4798,19 @@
       </c>
       <c r="M22" s="18"/>
       <c r="N22" s="17">
-        <f>L22*B22</f>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="O22" s="17">
-        <f>IF((M22*B22&gt;=N22),M22*B22,N22)</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="P22" s="16" t="str">
-        <f>IF(SUM(H22-(N22/2))&lt;=B22+C22,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q22" s="16" t="str">
-        <f>IF(SUM(I22-(O22/2))&lt;=B22+C22,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4564,21 +4828,21 @@
         <v>12376</v>
       </c>
       <c r="E23" s="22">
-        <f>IF((B23&gt;0),(D23/(B23/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>36.943283582089549</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="18"/>
       <c r="H23" s="20">
-        <f>(F23*(B23/2)+B23)</f>
+        <f t="shared" si="0"/>
         <v>670</v>
       </c>
       <c r="I23" s="20">
-        <f>IF(G23&gt;=F23,SUM(G23*(B23/2)+B23),H23)</f>
+        <f t="shared" si="1"/>
         <v>670</v>
       </c>
       <c r="J23" s="16" t="str">
-        <f>IF(H23&lt;=B23+C23,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="K23" s="19">
@@ -4587,19 +4851,19 @@
       <c r="L23" s="21"/>
       <c r="M23" s="18"/>
       <c r="N23" s="17">
-        <f>L23*B23</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O23" s="17">
-        <f>IF((M23*B23&gt;=N23),M23*B23,N23)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P23" s="16" t="str">
-        <f>IF(SUM(H23-(N23/2))&lt;=B23+C23,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q23" s="16" t="str">
-        <f>IF(SUM(I23-(O23/2))&lt;=B23+C23,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4617,7 +4881,7 @@
         <v>19297</v>
       </c>
       <c r="E24" s="22">
-        <f>IF((B24&gt;0),(D24/(B24/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>51.458666666666666</v>
       </c>
       <c r="F24" s="21">
@@ -4625,15 +4889,15 @@
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="20">
-        <f>(F24*(B24/2)+B24)</f>
+        <f t="shared" si="0"/>
         <v>843.75</v>
       </c>
       <c r="I24" s="20">
-        <f>IF(G24&gt;=F24,SUM(G24*(B24/2)+B24),H24)</f>
+        <f t="shared" si="1"/>
         <v>843.75</v>
       </c>
       <c r="J24" s="16" t="str">
-        <f>IF(H24&lt;=B24+C24,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K24" s="19">
@@ -4644,19 +4908,19 @@
       </c>
       <c r="M24" s="18"/>
       <c r="N24" s="17">
-        <f>L24*B24</f>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="O24" s="17">
-        <f>IF((M24*B24&gt;=N24),M24*B24,N24)</f>
+        <f t="shared" si="4"/>
         <v>750</v>
       </c>
       <c r="P24" s="16" t="str">
-        <f>IF(SUM(H24-(N24/2))&lt;=B24+C24,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q24" s="16" t="str">
-        <f>IF(SUM(I24-(O24/2))&lt;=B24+C24,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4672,21 +4936,21 @@
         <v>26558</v>
       </c>
       <c r="E25" s="22">
-        <f>IF((B25&gt;0),(D25/(B25/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>106.232</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="20">
-        <f>(F25*(B25/2)+B25)</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="I25" s="20">
-        <f>IF(G25&gt;=F25,SUM(G25*(B25/2)+B25),H25)</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="J25" s="16" t="str">
-        <f>IF(H25&lt;=B25+C25,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="K25" s="19">
@@ -4695,19 +4959,19 @@
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
       <c r="N25" s="17">
-        <f>L25*B25</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O25" s="17">
-        <f>IF((M25*B25&gt;=N25),M25*B25,N25)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P25" s="16" t="str">
-        <f>IF(SUM(H25-(N25/2))&lt;=B25+C25,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q25" s="16" t="str">
-        <f>IF(SUM(I25-(O25/2))&lt;=B25+C25,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4723,21 +4987,21 @@
         <v>469439</v>
       </c>
       <c r="E26" s="22">
-        <f>IF((B26&gt;0),(D26/(B26/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>2086.3955555555553</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="20">
-        <f>(F26*(B26/2)+B26)</f>
+        <f t="shared" si="0"/>
         <v>450</v>
       </c>
       <c r="I26" s="20">
-        <f>IF(G26&gt;=F26,SUM(G26*(B26/2)+B26),H26)</f>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="J26" s="16" t="str">
-        <f>IF(H26&lt;=B26+C26,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="K26" s="28">
@@ -4746,19 +5010,19 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
       <c r="N26" s="17">
-        <f>L26*B26</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O26" s="17">
-        <f>IF((M26*B26&gt;=N26),M26*B26,N26)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P26" s="16" t="str">
-        <f>IF(SUM(H26-(N26/2))&lt;=B26+C26,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q26" s="16" t="str">
-        <f>IF(SUM(I26-(O26/2))&lt;=B26+C26,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4776,7 +5040,7 @@
         <v>612195</v>
       </c>
       <c r="E27" s="22">
-        <f>IF((B27&gt;0),(D27/(B27/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>2040.65</v>
       </c>
       <c r="F27" s="21">
@@ -4786,15 +5050,15 @@
         <v>10</v>
       </c>
       <c r="H27" s="20">
-        <f>(F27*(B27/2)+B27)</f>
+        <f t="shared" si="0"/>
         <v>681</v>
       </c>
       <c r="I27" s="20">
-        <f>IF(G27&gt;=F27,SUM(G27*(B27/2)+B27),H27)</f>
+        <f t="shared" si="1"/>
         <v>3600</v>
       </c>
       <c r="J27" s="16" t="str">
-        <f>IF(H27&lt;=B27+C27,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K27" s="28">
@@ -4803,19 +5067,19 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="17">
-        <f>L27*B27</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O27" s="17">
-        <f>IF((M27*B27&gt;=N27),M27*B27,N27)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P27" s="16" t="str">
-        <f>IF(SUM(H27-(N27/2))&lt;=B27+C27,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Q27" s="16" t="str">
-        <f>IF(SUM(I27-(O27/2))&lt;=B27+C27,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
     </row>
@@ -4831,21 +5095,21 @@
         <v>7782</v>
       </c>
       <c r="E28" s="22">
-        <f>IF((B28&gt;0),(D28/(B28/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>77.819999999999993</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="20">
-        <f>(F28*(B28/2)+B28)</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="I28" s="20">
-        <f>IF(G28&gt;=F28,SUM(G28*(B28/2)+B28),H28)</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="J28" s="16" t="str">
-        <f>IF(H28&lt;=B28+C28,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="K28" s="19">
@@ -4854,19 +5118,19 @@
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
       <c r="N28" s="17">
-        <f>L28*B28</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O28" s="17">
-        <f>IF((M28*B28&gt;=N28),M28*B28,N28)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P28" s="16" t="str">
-        <f>IF(SUM(H28-(N28/2))&lt;=B28+C28,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q28" s="16" t="str">
-        <f>IF(SUM(I28-(O28/2))&lt;=B28+C28,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4882,21 +5146,21 @@
         <v>544</v>
       </c>
       <c r="E29" s="22">
-        <f>IF((B29&gt;0),(D29/(B29/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>108.8</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="20">
-        <f>(F29*(B29/2)+B29)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I29" s="20">
-        <f>IF(G29&gt;=F29,SUM(G29*(B29/2)+B29),H29)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J29" s="16" t="str">
-        <f>IF(H29&lt;=B29+C29,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="K29" s="19">
@@ -4909,19 +5173,19 @@
         <v>40</v>
       </c>
       <c r="N29" s="17">
-        <f>L29*B29</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="O29" s="17">
-        <f>IF((M29*B29&gt;=N29),M29*B29,N29)</f>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="P29" s="16" t="str">
-        <f>IF(SUM(H29-(N29/2))&lt;=B29+C29,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q29" s="16" t="str">
-        <f>IF(SUM(I29-(O29/2))&lt;=B29+C29,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -4939,7 +5203,7 @@
         <v>20213317</v>
       </c>
       <c r="E30" s="22">
-        <f>IF((B30&gt;0),(D30/(B30/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>11229.620555555555</v>
       </c>
       <c r="F30" s="21">
@@ -4947,15 +5211,15 @@
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="20">
-        <f>(F30*(B30/2)+B30)</f>
+        <f t="shared" si="0"/>
         <v>3816</v>
       </c>
       <c r="I30" s="20">
-        <f>IF(G30&gt;=F30,SUM(G30*(B30/2)+B30),H30)</f>
+        <f t="shared" si="1"/>
         <v>3816</v>
       </c>
       <c r="J30" s="16" t="str">
-        <f>IF(H30&lt;=B30+C30,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="K30" s="28">
@@ -4964,19 +5228,19 @@
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
       <c r="N30" s="17">
-        <f>L30*B30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O30" s="17">
-        <f>IF((M30*B30&gt;=N30),M30*B30,N30)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P30" s="16" t="str">
-        <f>IF(SUM(H30-(N30/2))&lt;=B30+C30,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="Q30" s="16" t="str">
-        <f>IF(SUM(I30-(O30/2))&lt;=B30+C30,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
     </row>
@@ -4992,21 +5256,21 @@
         <v>2616</v>
       </c>
       <c r="E31" s="22">
-        <f>IF((B31&gt;0),(D31/(B31/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>16.350000000000001</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="20">
-        <f>(F31*(B31/2)+B31)</f>
+        <f t="shared" si="0"/>
         <v>320</v>
       </c>
       <c r="I31" s="20">
-        <f>IF(G31&gt;=F31,SUM(G31*(B31/2)+B31),H31)</f>
+        <f t="shared" si="1"/>
         <v>320</v>
       </c>
       <c r="J31" s="16" t="str">
-        <f>IF(H31&lt;=B31+C31,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="K31" s="19">
@@ -5015,19 +5279,19 @@
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
       <c r="N31" s="17">
-        <f>L31*B31</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O31" s="17">
-        <f>IF((M31*B31&gt;=N31),M31*B31,N31)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P31" s="16" t="str">
-        <f>IF(SUM(H31-(N31/2))&lt;=B31+C31,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q31" s="16" t="str">
-        <f>IF(SUM(I31-(O31/2))&lt;=B31+C31,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -5043,21 +5307,21 @@
         <v>15914</v>
       </c>
       <c r="E32" s="22">
-        <f>IF((B32&gt;0),(D32/(B32/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>45.46857142857143</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="20">
-        <f>(F32*(B32/2)+B32)</f>
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
       <c r="I32" s="20">
-        <f>IF(G32&gt;=F32,SUM(G32*(B32/2)+B32),H32)</f>
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J32" s="16" t="str">
-        <f>IF(H32&lt;=B32+C32,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="K32" s="19">
@@ -5066,19 +5330,19 @@
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
       <c r="N32" s="17">
-        <f>L32*B32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O32" s="17">
-        <f>IF((M32*B32&gt;=N32),M32*B32,N32)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P32" s="16" t="str">
-        <f>IF(SUM(H32-(N32/2))&lt;=B32+C32,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q32" s="16" t="str">
-        <f>IF(SUM(I32-(O32/2))&lt;=B32+C32,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>
@@ -5094,21 +5358,21 @@
         <v>9653</v>
       </c>
       <c r="E33" s="22">
-        <f>IF((B33&gt;0),(D33/(B33/2)),0)</f>
+        <f t="shared" si="7"/>
         <v>175.5090909090909</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="20">
-        <f>(F33*(B33/2)+B33)</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="I33" s="20">
-        <f>IF(G33&gt;=F33,SUM(G33*(B33/2)+B33),H33)</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="J33" s="16" t="str">
-        <f>IF(H33&lt;=B33+C33,"Yes","-")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="K33" s="19">
@@ -5117,19 +5381,19 @@
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
       <c r="N33" s="17">
-        <f>L33*B33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O33" s="17">
-        <f>IF((M33*B33&gt;=N33),M33*B33,N33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P33" s="16" t="str">
-        <f>IF(SUM(H33-(N33/2))&lt;=B33+C33,"Yes","-")</f>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="Q33" s="16" t="str">
-        <f>IF(SUM(I33-(O33/2))&lt;=B33+C33,"Yes","-")</f>
+        <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
     </row>

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="2"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Surface" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
   <si>
     <t>Zeonium</t>
   </si>
@@ -436,6 +436,21 @@
   </si>
   <si>
     <t>Vulcan</t>
+  </si>
+  <si>
+    <t>Black Hole</t>
+  </si>
+  <si>
+    <t>Neutron Star</t>
+  </si>
+  <si>
+    <t>Gas (Class 4)</t>
+  </si>
+  <si>
+    <t>Wormhole</t>
+  </si>
+  <si>
+    <t>ExoticMatter</t>
   </si>
 </sst>
 </file>
@@ -2253,31 +2268,31 @@
         <v>14</v>
       </c>
       <c r="B2" s="4">
-        <f>SUM(B4:B18)</f>
+        <f t="shared" ref="B2:H2" si="0">SUM(B4:B18)</f>
         <v>95.140186915887853</v>
       </c>
       <c r="C2" s="4">
-        <f>SUM(C4:C18)</f>
+        <f t="shared" si="0"/>
         <v>95.015576323987545</v>
       </c>
       <c r="D2" s="4">
-        <f>SUM(D4:D18)</f>
+        <f t="shared" si="0"/>
         <v>95.007788161993773</v>
       </c>
       <c r="E2" s="4">
-        <f>SUM(E4:E18)</f>
+        <f t="shared" si="0"/>
         <v>95.007788161993773</v>
       </c>
       <c r="F2" s="1">
-        <f>SUM(F4:F18)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="G2" s="4">
-        <f>SUM(G4:G18)</f>
+        <f t="shared" si="0"/>
         <v>95.0809968847352</v>
       </c>
       <c r="H2" s="4">
-        <f>SUM(H4:H18)</f>
+        <f t="shared" si="0"/>
         <v>96.109034267912776</v>
       </c>
       <c r="I2" s="1"/>
@@ -2504,31 +2519,31 @@
         <v>14</v>
       </c>
       <c r="B21" s="1">
-        <f>SUM(B23:B34)</f>
+        <f t="shared" ref="B21:G21" si="1">SUM(B23:B34)</f>
         <v>97</v>
       </c>
       <c r="C21" s="1">
-        <f>SUM(C23:C34)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="D21" s="1">
-        <f>SUM(D23:D34)</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="E21" s="1">
-        <f>SUM(E23:E34)</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="F21" s="1">
-        <f>SUM(F23:F34)</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="G21" s="1">
-        <f>SUM(G23:G34)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ref="H21" si="0">SUM(H23:H34)</f>
+        <f t="shared" ref="H21" si="2">SUM(H23:H34)</f>
         <v>96</v>
       </c>
       <c r="I21" s="1"/>
@@ -2719,11 +2734,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E4" sqref="E4"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2737,14 +2752,15 @@
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="14.25" customWidth="1"/>
     <col min="12" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="13" width="12.125" customWidth="1"/>
-    <col min="14" max="14" width="10.75" customWidth="1"/>
-    <col min="15" max="15" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="10.25" customWidth="1"/>
-    <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.125" customWidth="1"/>
+    <col min="15" max="15" width="10.75" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="17" max="17" width="10.25" customWidth="1"/>
+    <col min="19" max="19" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2785,94 +2801,123 @@
         <v>61</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1">
-        <f t="shared" ref="B2:P2" si="0">SUM(B4:B17)</f>
+        <f>SUM(B4:B18)</f>
         <v>93</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C4:C18)</f>
         <v>92</v>
       </c>
       <c r="D2" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(D4:D18)</f>
         <v>95.007788161993773</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(E4:E18)</f>
         <v>92</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(F4:F18)</f>
         <v>93</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(G4:G18)</f>
         <v>92.003115264797515</v>
       </c>
       <c r="H2" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(H4:H18)</f>
         <v>90.006230529595015</v>
       </c>
       <c r="I2" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(I4:I18)</f>
         <v>92.003115264797515</v>
       </c>
       <c r="J2" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(J4:J18)</f>
         <v>95.115264797507791</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(K4:K18)</f>
         <v>93.115264797507791</v>
       </c>
       <c r="L2" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(L4:L18)</f>
         <v>98.121495327102807</v>
       </c>
       <c r="M2" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(M4:M18)</f>
         <v>99.121495327102807</v>
       </c>
       <c r="N2" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(N4:N18)</f>
+        <v>96.109034267912776</v>
+      </c>
+      <c r="O2" s="4">
+        <f>SUM(O4:O18)</f>
         <v>98.109034267912776</v>
       </c>
-      <c r="O2" s="4">
-        <f t="shared" si="0"/>
+      <c r="P2" s="4">
+        <f>SUM(P4:P18)</f>
         <v>97.116822429906534</v>
       </c>
-      <c r="P2" s="4">
-        <f t="shared" si="0"/>
+      <c r="Q2" s="4">
+        <f>SUM(Q4:Q18)</f>
         <v>99.13239875389408</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4">
-        <f>SUM(R4:R17)</f>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4">
+        <f>SUM(S4:S18)</f>
         <v>95.109034267912776</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T2" s="4">
+        <f>SUM(T4:T18)</f>
+        <v>37.031152647975077</v>
+      </c>
+      <c r="U2" s="4">
+        <f>SUM(U4:U18)</f>
+        <v>31.031152647975077</v>
+      </c>
+      <c r="V2" s="4">
+        <f>SUM(V4:V18)</f>
+        <v>11.004672897196262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2892,44 +2937,56 @@
         <v>2</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
-      <c r="R4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
       <c r="M5">
         <v>2</v>
       </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
       <c r="O5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>9</v>
+      </c>
+      <c r="U5">
+        <v>9</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
       <c r="O6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2961,241 +3018,280 @@
         <v>2</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8" si="1">D10/642</f>
+        <f t="shared" ref="D8" si="0">D11/642</f>
         <v>7.7881619937694704E-3</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" ref="G8:P8" si="2">G10/642</f>
+        <f t="shared" ref="G8:Q8" si="1">G11/642</f>
         <v>3.1152647975077881E-3</v>
       </c>
       <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>6.2305295950155761E-3</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
+        <v>3.1152647975077881E-3</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.11526479750778816</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.11526479750778816</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.12149532710280374</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.12149532710280374</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10903426791277258</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10903426791277258</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.11682242990654206</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13239875389408098</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3">
+        <f>S11/642</f>
+        <v>0.10903426791277258</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" ref="T8:V8" si="2">T11/642</f>
+        <v>3.1152647975077882E-2</v>
+      </c>
+      <c r="U8" s="3">
         <f t="shared" si="2"/>
-        <v>6.2305295950155761E-3</v>
-      </c>
-      <c r="I8" s="3">
+        <v>3.1152647975077882E-2</v>
+      </c>
+      <c r="V8" s="3">
         <f t="shared" si="2"/>
-        <v>3.1152647975077881E-3</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="2"/>
-        <v>0.11526479750778816</v>
-      </c>
-      <c r="K8" s="3">
-        <f t="shared" si="2"/>
-        <v>0.11526479750778816</v>
-      </c>
-      <c r="L8" s="3">
-        <f t="shared" si="2"/>
-        <v>0.12149532710280374</v>
-      </c>
-      <c r="M8" s="3">
-        <f t="shared" si="2"/>
-        <v>0.12149532710280374</v>
-      </c>
-      <c r="N8" s="3">
-        <f t="shared" si="2"/>
-        <v>0.10903426791277258</v>
-      </c>
-      <c r="O8" s="3">
-        <f t="shared" si="2"/>
-        <v>0.11682242990654206</v>
-      </c>
-      <c r="P8" s="3">
-        <f t="shared" si="2"/>
-        <v>0.13239875389408098</v>
-      </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3">
-        <f>R10/642</f>
-        <v>0.10903426791277258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4.6728971962616819E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>54</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>12</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>10</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>10</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>10</v>
       </c>
-      <c r="N9">
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10">
         <v>7</v>
       </c>
-      <c r="O9">
+      <c r="P10">
         <v>7</v>
       </c>
-      <c r="P9">
-        <v>5</v>
-      </c>
-      <c r="R9">
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="S10">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="T10">
+        <v>8</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>53</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
         <v>74</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>74</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>78</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>78</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>70</v>
       </c>
-      <c r="O10">
+      <c r="O11">
+        <v>70</v>
+      </c>
+      <c r="P11">
         <v>75</v>
       </c>
-      <c r="P10">
+      <c r="Q11">
         <v>85</v>
       </c>
-      <c r="R10">
+      <c r="S11">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="T11">
+        <v>20</v>
+      </c>
+      <c r="U11">
+        <v>20</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="N11">
+      <c r="O12">
         <v>8</v>
       </c>
-      <c r="O11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="P12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="G12">
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="G13">
         <v>6</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>1</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>1</v>
       </c>
-      <c r="K12">
-        <v>4</v>
-      </c>
-      <c r="L12">
-        <v>4</v>
-      </c>
-      <c r="M12">
-        <v>3</v>
-      </c>
-      <c r="N12">
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
         <v>1</v>
       </c>
-      <c r="R12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="S13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>74</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>50</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>80</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>75</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>85</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>90</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>2</v>
-      </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -3204,264 +3300,304 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
-      <c r="R16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="N17">
-        <v>2</v>
-      </c>
-      <c r="O17">
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="1">
-        <f t="shared" ref="B20:P20" si="3">SUM(B22:B30)</f>
+      <c r="B21" s="1">
+        <f t="shared" ref="B21:Q21" si="3">SUM(B23:B31)</f>
         <v>10</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F21" s="1">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G21" s="1">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H21" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I21" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J21" s="1">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K21" s="1">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L21" s="1">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M21" s="1">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N21" s="1"/>
+      <c r="O21" s="1">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P21" s="1">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q21" s="1">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1">
-        <f>SUM(R22:R30)</f>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1">
+        <f>SUM(S23:S31)</f>
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="T21" s="1">
+        <f t="shared" ref="T21:V21" si="4">SUM(T23:T31)</f>
+        <v>29</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>49</v>
       </c>
-      <c r="M22">
-        <v>2</v>
-      </c>
-      <c r="N22">
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="O23">
         <v>1</v>
       </c>
-      <c r="O22">
-        <v>5</v>
-      </c>
-      <c r="P22">
+      <c r="P23">
+        <v>5</v>
+      </c>
+      <c r="Q23">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="T23">
+        <v>9</v>
+      </c>
+      <c r="U23">
+        <v>9</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="J23">
+      <c r="J24">
         <v>12</v>
       </c>
-      <c r="K23">
+      <c r="K24">
         <v>10</v>
       </c>
-      <c r="N23">
+      <c r="O24">
         <v>7</v>
       </c>
-      <c r="O23">
+      <c r="P24">
         <v>7</v>
       </c>
-      <c r="P23">
-        <v>5</v>
-      </c>
-      <c r="R23">
+      <c r="Q24">
+        <v>5</v>
+      </c>
+      <c r="S24">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="V24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="G24">
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="G25">
         <v>6</v>
       </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="J24">
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="J25">
         <v>1</v>
       </c>
-      <c r="K24">
+      <c r="K25">
         <v>6</v>
       </c>
-      <c r="L24">
-        <v>4</v>
-      </c>
-      <c r="M24">
-        <v>3</v>
-      </c>
-      <c r="N24">
-        <v>4</v>
-      </c>
-      <c r="O24">
-        <v>2</v>
-      </c>
-      <c r="R24">
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="S25">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
         <v>6</v>
       </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
         <v>6</v>
       </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
         <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>2</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -3469,144 +3605,170 @@
       <c r="M26">
         <v>1</v>
       </c>
-      <c r="N26">
-        <v>2</v>
-      </c>
       <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>48</v>
       </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="D27">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="D28">
         <v>6</v>
       </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>4</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27">
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
         <v>74</v>
       </c>
-      <c r="K27">
+      <c r="K28">
         <v>70</v>
       </c>
-      <c r="L27">
+      <c r="L28">
         <v>78</v>
       </c>
-      <c r="M27">
+      <c r="M28">
         <v>78</v>
       </c>
-      <c r="N27">
+      <c r="O28">
         <v>70</v>
       </c>
-      <c r="O27">
+      <c r="P28">
         <v>75</v>
       </c>
-      <c r="P27">
+      <c r="Q28">
         <v>85</v>
       </c>
-      <c r="R27">
+      <c r="S28">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="N28">
-        <v>5</v>
-      </c>
-      <c r="O28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>1</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>1</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>4</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="R29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
         <v>1</v>
       </c>
-      <c r="M30">
-        <v>3</v>
-      </c>
-      <c r="N30">
-        <v>4</v>
-      </c>
-      <c r="O30">
-        <v>2</v>
-      </c>
-      <c r="R30">
+      <c r="S30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="S31">
         <v>4</v>
       </c>
     </row>

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jadon\Documents\GitHub\RationalResources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\RationalResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="2"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Surface" sheetId="1" r:id="rId1"/>
@@ -84,6 +84,64 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jadon Wade</author>
+  </authors>
+  <commentList>
+    <comment ref="N2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Produced by forum user @Clamp-o-Tron in blue text.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Drafted by myself but not produced.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
   <si>
@@ -458,12 +516,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -572,6 +630,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -652,14 +730,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
@@ -697,13 +775,13 @@
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -737,6 +815,14 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -2733,12 +2819,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U10" sqref="U10"/>
+      <selection pane="topRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2752,15 +2838,15 @@
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="14.25" customWidth="1"/>
     <col min="12" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="14" width="12.125" customWidth="1"/>
-    <col min="15" max="15" width="10.75" customWidth="1"/>
-    <col min="16" max="16" width="11.5" customWidth="1"/>
-    <col min="17" max="17" width="10.25" customWidth="1"/>
-    <col min="19" max="19" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="12.625" customWidth="1"/>
+    <col min="13" max="15" width="12.125" customWidth="1"/>
+    <col min="16" max="16" width="10.75" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
+    <col min="18" max="18" width="10.25" customWidth="1"/>
+    <col min="20" max="20" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2800,124 +2886,130 @@
       <c r="M1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="34"/>
+      <c r="P1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="2"/>
+      <c r="T1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1">
-        <f>SUM(B4:B18)</f>
+        <f t="shared" ref="B2:R2" si="0">SUM(B4:B18)</f>
         <v>93</v>
       </c>
       <c r="C2" s="1">
-        <f>SUM(C4:C18)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="D2" s="33">
-        <f>SUM(D4:D18)</f>
+        <f t="shared" si="0"/>
         <v>95.007788161993773</v>
       </c>
       <c r="E2" s="1">
-        <f>SUM(E4:E18)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="F2" s="1">
-        <f>SUM(F4:F18)</f>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="G2" s="4">
-        <f>SUM(G4:G18)</f>
+        <f t="shared" si="0"/>
         <v>92.003115264797515</v>
       </c>
       <c r="H2" s="4">
-        <f>SUM(H4:H18)</f>
+        <f t="shared" si="0"/>
         <v>90.006230529595015</v>
       </c>
       <c r="I2" s="4">
-        <f>SUM(I4:I18)</f>
+        <f t="shared" si="0"/>
         <v>92.003115264797515</v>
       </c>
       <c r="J2" s="4">
-        <f>SUM(J4:J18)</f>
+        <f t="shared" si="0"/>
         <v>95.115264797507791</v>
       </c>
       <c r="K2" s="4">
-        <f>SUM(K4:K18)</f>
+        <f t="shared" si="0"/>
         <v>93.115264797507791</v>
       </c>
       <c r="L2" s="4">
-        <f>SUM(L4:L18)</f>
+        <f t="shared" si="0"/>
         <v>98.121495327102807</v>
       </c>
       <c r="M2" s="4">
-        <f>SUM(M4:M18)</f>
+        <f t="shared" si="0"/>
         <v>99.121495327102807</v>
       </c>
-      <c r="N2" s="4">
-        <f>SUM(N4:N18)</f>
+      <c r="N2" s="35">
+        <f t="shared" si="0"/>
+        <v>90.862149532710276</v>
+      </c>
+      <c r="O2" s="35">
+        <f t="shared" si="0"/>
         <v>96.109034267912776</v>
       </c>
-      <c r="O2" s="4">
-        <f>SUM(O4:O18)</f>
+      <c r="P2" s="4">
+        <f t="shared" si="0"/>
         <v>98.109034267912776</v>
       </c>
-      <c r="P2" s="4">
-        <f>SUM(P4:P18)</f>
+      <c r="Q2" s="4">
+        <f t="shared" si="0"/>
         <v>97.116822429906534</v>
       </c>
-      <c r="Q2" s="4">
-        <f>SUM(Q4:Q18)</f>
+      <c r="R2" s="4">
+        <f t="shared" si="0"/>
         <v>99.13239875389408</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4">
-        <f>SUM(S4:S18)</f>
-        <v>95.109034267912776</v>
-      </c>
+      <c r="S2" s="4"/>
       <c r="T2" s="4">
         <f>SUM(T4:T18)</f>
-        <v>37.031152647975077</v>
+        <v>95.109034267912776</v>
       </c>
       <c r="U2" s="4">
         <f>SUM(U4:U18)</f>
-        <v>31.031152647975077</v>
+        <v>37.031152647975077</v>
       </c>
       <c r="V2" s="4">
         <f>SUM(V4:V18)</f>
+        <v>31.031152647975077</v>
+      </c>
+      <c r="W2" s="4">
+        <f>SUM(W4:W18)</f>
         <v>11.004672897196262</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N3" s="36"/>
+      <c r="O3" s="38"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2936,57 +3028,64 @@
       <c r="K4">
         <v>2</v>
       </c>
-      <c r="N4">
-        <v>4</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
+      <c r="N4" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="O4" s="38">
+        <v>4</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
-      <c r="S4">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="T4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
       <c r="M5">
         <v>2</v>
       </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
+      <c r="N5" s="36"/>
+      <c r="O5" s="38"/>
       <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
       </c>
-      <c r="Q5">
-        <v>9</v>
-      </c>
-      <c r="T5">
+      <c r="R5">
         <v>9</v>
       </c>
       <c r="U5">
         <v>9</v>
       </c>
       <c r="V5">
+        <v>9</v>
+      </c>
+      <c r="W5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
+      <c r="N6" s="36"/>
+      <c r="O6" s="38"/>
       <c r="P6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -3017,90 +3116,97 @@
       <c r="M7">
         <v>2</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="36">
+        <v>2</v>
+      </c>
+      <c r="O7" s="38">
         <v>5</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8" si="0">D11/642</f>
+        <f t="shared" ref="D8" si="1">D11/642</f>
         <v>7.7881619937694704E-3</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" ref="G8:Q8" si="1">G11/642</f>
+        <f t="shared" ref="G8:R8" si="2">G11/642</f>
         <v>3.1152647975077881E-3</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2305295950155761E-3</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1152647975077881E-3</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11526479750778816</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11526479750778816</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12149532710280374</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12149532710280374</v>
       </c>
-      <c r="N8" s="3">
-        <f t="shared" si="1"/>
+      <c r="N8" s="37">
+        <f t="shared" si="2"/>
+        <v>0.11214953271028037</v>
+      </c>
+      <c r="O8" s="39">
+        <f t="shared" si="2"/>
         <v>0.10903426791277258</v>
       </c>
-      <c r="O8" s="3">
-        <f t="shared" si="1"/>
+      <c r="P8" s="3">
+        <f t="shared" si="2"/>
         <v>0.10903426791277258</v>
       </c>
-      <c r="P8" s="3">
-        <f t="shared" si="1"/>
+      <c r="Q8" s="3">
+        <f t="shared" si="2"/>
         <v>0.11682242990654206</v>
       </c>
-      <c r="Q8" s="3">
-        <f t="shared" si="1"/>
+      <c r="R8" s="3">
+        <f t="shared" si="2"/>
         <v>0.13239875389408098</v>
       </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3">
-        <f>S11/642</f>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3">
+        <f>T11/642</f>
         <v>0.10903426791277258</v>
       </c>
-      <c r="T8" s="3">
-        <f t="shared" ref="T8:V8" si="2">T11/642</f>
+      <c r="U8" s="3">
+        <f t="shared" ref="U8:W8" si="3">U11/642</f>
         <v>3.1152647975077882E-2</v>
       </c>
-      <c r="U8" s="3">
-        <f t="shared" si="2"/>
+      <c r="V8" s="3">
+        <f t="shared" si="3"/>
         <v>3.1152647975077882E-2</v>
       </c>
-      <c r="V8" s="3">
-        <f t="shared" si="2"/>
+      <c r="W8" s="3">
+        <f t="shared" si="3"/>
         <v>4.6728971962616819E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -3112,20 +3218,21 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="39"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="U9">
-        <v>2</v>
-      </c>
+      <c r="T9" s="3"/>
       <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3141,29 +3248,32 @@
       <c r="M10">
         <v>10</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="36">
+        <v>10</v>
+      </c>
+      <c r="O10" s="38">
         <v>9</v>
-      </c>
-      <c r="O10">
-        <v>7</v>
       </c>
       <c r="P10">
         <v>7</v>
       </c>
       <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10">
         <v>5</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>10</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>8</v>
       </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -3194,43 +3304,48 @@
       <c r="M11">
         <v>78</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="36">
+        <v>72</v>
+      </c>
+      <c r="O11" s="38">
         <v>70</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>70</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>75</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>85</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>70</v>
-      </c>
-      <c r="T11">
-        <v>20</v>
       </c>
       <c r="U11">
         <v>20</v>
       </c>
       <c r="V11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="O12">
+      <c r="N12" s="36"/>
+      <c r="O12" s="38"/>
+      <c r="P12">
         <v>8</v>
       </c>
-      <c r="P12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3258,17 +3373,20 @@
       <c r="M13">
         <v>3</v>
       </c>
-      <c r="N13">
-        <v>4</v>
-      </c>
-      <c r="O13">
+      <c r="N13" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="O13" s="38">
+        <v>4</v>
+      </c>
+      <c r="P13">
         <v>1</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3299,17 +3417,20 @@
       <c r="M14">
         <v>1</v>
       </c>
-      <c r="N14">
-        <v>3</v>
-      </c>
-      <c r="O14">
-        <v>2</v>
+      <c r="N14" s="36">
+        <v>5</v>
+      </c>
+      <c r="O14" s="38">
+        <v>3</v>
       </c>
       <c r="P14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3331,22 +3452,28 @@
       <c r="M15">
         <v>1</v>
       </c>
-      <c r="O15">
-        <v>2</v>
-      </c>
+      <c r="N15" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="O15" s="38"/>
       <c r="P15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N16" s="36"/>
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -3374,134 +3501,144 @@
       <c r="M17">
         <v>1</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="36">
         <v>1</v>
       </c>
-      <c r="S17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O17" s="38">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="O18">
-        <v>2</v>
-      </c>
+      <c r="N18" s="36"/>
+      <c r="O18" s="38"/>
       <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" ref="B21:Q21" si="3">SUM(B23:B31)</f>
+        <f t="shared" ref="B21:R21" si="4">SUM(B23:B31)</f>
         <v>10</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="3"/>
-        <v>92</v>
-      </c>
-      <c r="L21" s="1">
-        <f t="shared" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="M21" s="1">
-        <f t="shared" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1">
-        <f t="shared" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="P21" s="1">
-        <f t="shared" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="3"/>
-        <v>99</v>
-      </c>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1">
-        <f>SUM(S23:S31)</f>
-        <v>92</v>
-      </c>
-      <c r="T21" s="1">
-        <f t="shared" ref="T21:V21" si="4">SUM(T23:T31)</f>
-        <v>29</v>
-      </c>
-      <c r="U21" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="V21" s="1">
+      <c r="D21" s="1">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G21" s="1">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="4"/>
+        <v>97.05</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1">
+        <f>SUM(T23:T31)</f>
+        <v>92</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" ref="U21:W21" si="5">SUM(U23:U31)</f>
+        <v>29</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
       <c r="M23">
         <v>2</v>
       </c>
-      <c r="O23">
+      <c r="N23" s="36"/>
+      <c r="P23">
         <v>1</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>5</v>
       </c>
-      <c r="Q23">
-        <v>9</v>
-      </c>
-      <c r="T23">
+      <c r="R23">
         <v>9</v>
       </c>
       <c r="U23">
         <v>9</v>
       </c>
       <c r="V23">
+        <v>9</v>
+      </c>
+      <c r="W23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -3511,23 +3648,26 @@
       <c r="K24">
         <v>10</v>
       </c>
-      <c r="O24">
-        <v>7</v>
+      <c r="N24" s="36">
+        <v>9</v>
       </c>
       <c r="P24">
         <v>7</v>
       </c>
       <c r="Q24">
+        <v>7</v>
+      </c>
+      <c r="R24">
         <v>5</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>10</v>
       </c>
-      <c r="V24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -3561,17 +3701,20 @@
       <c r="M25">
         <v>3</v>
       </c>
-      <c r="O25">
+      <c r="N25" s="36">
         <v>4</v>
       </c>
       <c r="P25">
-        <v>2</v>
-      </c>
-      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="T25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -3605,14 +3748,17 @@
       <c r="M26">
         <v>1</v>
       </c>
-      <c r="O26">
-        <v>2</v>
+      <c r="N26" s="36">
+        <v>0.05</v>
       </c>
       <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -3625,14 +3771,17 @@
       <c r="M27">
         <v>1</v>
       </c>
-      <c r="O27">
+      <c r="N27" s="36">
         <v>2</v>
       </c>
       <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -3663,40 +3812,44 @@
       <c r="M28">
         <v>78</v>
       </c>
-      <c r="O28">
+      <c r="N28" s="36">
+        <v>78</v>
+      </c>
+      <c r="P28">
         <v>70</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>75</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>85</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>70</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
-      <c r="O29">
+      <c r="N29" s="36"/>
+      <c r="P29">
         <v>5</v>
       </c>
-      <c r="P29">
-        <v>2</v>
-      </c>
-      <c r="T29">
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="U29">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -3724,11 +3877,14 @@
       <c r="M30">
         <v>1</v>
       </c>
-      <c r="S30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N30" s="36">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -3762,19 +3918,26 @@
       <c r="M31">
         <v>3</v>
       </c>
-      <c r="O31">
-        <v>4</v>
+      <c r="N31" s="36">
+        <v>3</v>
       </c>
       <c r="P31">
-        <v>2</v>
-      </c>
-      <c r="S31">
+        <v>4</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
+      </c>
+      <c r="T31">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N1:O1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="2"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Surface" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <author>Jadon Wade</author>
   </authors>
   <commentList>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="124">
   <si>
     <t>Zeonium</t>
   </si>
@@ -301,9 +301,6 @@
     <t>Phosphorus</t>
   </si>
   <si>
-    <t>Karborundum</t>
-  </si>
-  <si>
     <t>Hydrogen</t>
   </si>
   <si>
@@ -509,6 +506,15 @@
   </si>
   <si>
     <t>ExoticMatter</t>
+  </si>
+  <si>
+    <t>Dying Red Giant</t>
+  </si>
+  <si>
+    <t>Carbon Star</t>
+  </si>
+  <si>
+    <t>Gas (Helium)</t>
   </si>
 </sst>
 </file>
@@ -521,7 +527,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -650,8 +656,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,6 +702,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBDD7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,14 +834,14 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1110,7 +1129,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+      <selection pane="topRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1152,7 @@
         <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>39</v>
@@ -2339,10 +2358,10 @@
         <v>46</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
@@ -2820,11 +2839,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P12" sqref="P12"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2834,39 +2853,43 @@
     <col min="6" max="6" width="14.375" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
     <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="14.25" customWidth="1"/>
-    <col min="12" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="15" width="12.125" customWidth="1"/>
-    <col min="16" max="16" width="10.75" customWidth="1"/>
-    <col min="17" max="17" width="11.5" customWidth="1"/>
-    <col min="18" max="18" width="10.25" customWidth="1"/>
-    <col min="20" max="20" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="12.625" customWidth="1"/>
+    <col min="9" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="16" width="12.125" customWidth="1"/>
+    <col min="17" max="17" width="12.875" customWidth="1"/>
+    <col min="18" max="18" width="12.125" customWidth="1"/>
+    <col min="19" max="19" width="10.75" customWidth="1"/>
+    <col min="20" max="20" width="11.5" customWidth="1"/>
+    <col min="21" max="21" width="10.25" customWidth="1"/>
+    <col min="23" max="23" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="12.625" customWidth="1"/>
+    <col min="27" max="27" width="12.375" customWidth="1"/>
+    <col min="28" max="28" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>36</v>
@@ -2875,7 +2898,7 @@
         <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>63</v>
@@ -2886,39 +2909,50 @@
       <c r="M1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AA1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1">
-        <f t="shared" ref="B2:R2" si="0">SUM(B4:B18)</f>
+        <f t="shared" ref="B2:Q2" si="0">SUM(B4:B18)</f>
         <v>93</v>
       </c>
       <c r="C2" s="1">
@@ -2951,65 +2985,80 @@
       </c>
       <c r="J2" s="4">
         <f t="shared" si="0"/>
-        <v>95.115264797507791</v>
+        <v>96.000778816199372</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" si="0"/>
-        <v>93.115264797507791</v>
+        <v>96.615264797507791</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>98.121495327102807</v>
+        <v>94.115264797507791</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
         <v>99.121495327102807</v>
       </c>
-      <c r="N2" s="35">
+      <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>90.862149532710276</v>
-      </c>
-      <c r="O2" s="35">
+        <v>99.121495327102807</v>
+      </c>
+      <c r="O2" s="34">
+        <f t="shared" si="0"/>
+        <v>91.862149532710276</v>
+      </c>
+      <c r="P2" s="34">
         <f t="shared" si="0"/>
         <v>96.109034267912776</v>
       </c>
-      <c r="P2" s="4">
-        <f t="shared" si="0"/>
-        <v>98.109034267912776</v>
-      </c>
       <c r="Q2" s="4">
         <f t="shared" si="0"/>
-        <v>97.116822429906534</v>
-      </c>
-      <c r="R2" s="4">
-        <f t="shared" si="0"/>
-        <v>99.13239875389408</v>
-      </c>
-      <c r="S2" s="4"/>
+        <v>100.00778816199377</v>
+      </c>
+      <c r="S2" s="4">
+        <f>SUM(S4:S18)</f>
+        <v>90.109034267912776</v>
+      </c>
       <c r="T2" s="4">
         <f>SUM(T4:T18)</f>
-        <v>95.109034267912776</v>
+        <v>95.116822429906534</v>
       </c>
       <c r="U2" s="4">
         <f>SUM(U4:U18)</f>
-        <v>37.031152647975077</v>
-      </c>
-      <c r="V2" s="4">
-        <f>SUM(V4:V18)</f>
-        <v>31.031152647975077</v>
+        <v>99.13239875389408</v>
       </c>
       <c r="W2" s="4">
-        <f>SUM(W4:W18)</f>
+        <f t="shared" ref="W2:AB2" si="1">SUM(W4:W18)</f>
+        <v>95.109034267912776</v>
+      </c>
+      <c r="X2" s="4">
+        <f t="shared" si="1"/>
+        <v>98.031152647975077</v>
+      </c>
+      <c r="Y2" s="4">
+        <f t="shared" si="1"/>
+        <v>92.031152647975077</v>
+      </c>
+      <c r="Z2" s="4">
+        <f t="shared" si="1"/>
         <v>11.004672897196262</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L3" s="5"/>
+      <c r="AA2" s="4">
+        <f t="shared" si="1"/>
+        <v>94.60280373831776</v>
+      </c>
+      <c r="AB2" s="4">
+        <f t="shared" si="1"/>
+        <v>98.085669781931472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="M3" s="5"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="38"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N3" s="5"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="37"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -3022,330 +3071,408 @@
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
       <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="N4" s="36">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="O4" s="35">
         <v>0.1</v>
       </c>
-      <c r="O4" s="38">
-        <v>4</v>
-      </c>
-      <c r="P4">
+      <c r="P4" s="37">
+        <v>4</v>
+      </c>
+      <c r="S4">
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <v>1</v>
       </c>
-      <c r="T4">
+      <c r="W4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AA4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="K5">
+        <v>1.5</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5" s="36"/>
-      <c r="O5" s="38"/>
-      <c r="P5">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" s="35">
+        <v>1</v>
+      </c>
+      <c r="P5" s="37"/>
       <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
         <v>5</v>
-      </c>
-      <c r="R5">
-        <v>9</v>
       </c>
       <c r="U5">
         <v>9</v>
       </c>
-      <c r="V5">
-        <v>9</v>
-      </c>
-      <c r="W5">
+      <c r="X5">
+        <v>70</v>
+      </c>
+      <c r="Y5">
+        <v>70</v>
+      </c>
+      <c r="Z5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="36"/>
-      <c r="O6" s="38"/>
-      <c r="P6">
+        <v>54</v>
+      </c>
+      <c r="O6" s="35"/>
+      <c r="P6" s="37"/>
+      <c r="S6">
         <v>1</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="37"/>
+      <c r="AB7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>80</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
         <v>91</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>6</v>
       </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7" s="36">
-        <v>2</v>
-      </c>
-      <c r="O7" s="38">
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35">
+        <v>2</v>
+      </c>
+      <c r="P8" s="37">
         <v>5</v>
       </c>
-      <c r="P7">
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="S8">
         <v>1</v>
       </c>
-      <c r="Q7">
+      <c r="T8">
         <v>1</v>
       </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <v>5</v>
+      </c>
+      <c r="AB8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="3">
-        <f t="shared" ref="D8" si="1">D11/642</f>
+      <c r="D9" s="3">
+        <f t="shared" ref="D9" si="2">D12/642</f>
         <v>7.7881619937694704E-3</v>
       </c>
-      <c r="G8" s="3">
-        <f t="shared" ref="G8:R8" si="2">G11/642</f>
+      <c r="G9" s="3">
+        <f t="shared" ref="G9:U9" si="3">G12/642</f>
         <v>3.1152647975077881E-3</v>
       </c>
-      <c r="H8" s="3">
-        <f t="shared" si="2"/>
+      <c r="H9" s="3">
+        <f t="shared" si="3"/>
         <v>6.2305295950155761E-3</v>
       </c>
-      <c r="I8" s="3">
-        <f t="shared" si="2"/>
+      <c r="I9" s="3">
+        <f t="shared" si="3"/>
         <v>3.1152647975077881E-3</v>
       </c>
-      <c r="J8" s="3">
-        <f t="shared" si="2"/>
+      <c r="J9" s="3">
+        <f>J12/642</f>
+        <v>7.7881619937694702E-4</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="3"/>
         <v>0.11526479750778816</v>
       </c>
-      <c r="K8" s="3">
-        <f t="shared" si="2"/>
+      <c r="L9" s="3">
+        <f t="shared" si="3"/>
         <v>0.11526479750778816</v>
       </c>
-      <c r="L8" s="3">
-        <f t="shared" si="2"/>
+      <c r="M9" s="3">
+        <f t="shared" si="3"/>
         <v>0.12149532710280374</v>
       </c>
-      <c r="M8" s="3">
-        <f t="shared" si="2"/>
+      <c r="N9" s="3">
+        <f t="shared" si="3"/>
         <v>0.12149532710280374</v>
       </c>
-      <c r="N8" s="37">
-        <f t="shared" si="2"/>
+      <c r="O9" s="36">
+        <f t="shared" si="3"/>
         <v>0.11214953271028037</v>
       </c>
-      <c r="O8" s="39">
-        <f t="shared" si="2"/>
+      <c r="P9" s="38">
+        <f t="shared" si="3"/>
         <v>0.10903426791277258</v>
       </c>
-      <c r="P8" s="3">
-        <f t="shared" si="2"/>
+      <c r="Q9" s="3">
+        <f>Q12/642</f>
+        <v>7.7881619937694704E-3</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="3"/>
         <v>0.10903426791277258</v>
       </c>
-      <c r="Q8" s="3">
-        <f t="shared" si="2"/>
+      <c r="T9" s="3">
+        <f t="shared" si="3"/>
         <v>0.11682242990654206</v>
       </c>
-      <c r="R8" s="3">
-        <f t="shared" si="2"/>
+      <c r="U9" s="3">
+        <f t="shared" si="3"/>
         <v>0.13239875389408098</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3">
-        <f>T11/642</f>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3">
+        <f>W12/642</f>
         <v>0.10903426791277258</v>
       </c>
-      <c r="U8" s="3">
-        <f t="shared" ref="U8:W8" si="3">U11/642</f>
+      <c r="X9" s="3">
+        <f t="shared" ref="X9:Z9" si="4">X12/642</f>
         <v>3.1152647975077882E-2</v>
       </c>
-      <c r="V8" s="3">
-        <f t="shared" si="3"/>
+      <c r="Y9" s="3">
+        <f t="shared" si="4"/>
         <v>3.1152647975077882E-2</v>
       </c>
-      <c r="W8" s="3">
-        <f t="shared" si="3"/>
+      <c r="Z9" s="3">
+        <f t="shared" si="4"/>
         <v>4.6728971962616819E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="V9">
-        <v>2</v>
-      </c>
-      <c r="W9">
+      <c r="AA9" s="3">
+        <f>AA12/642</f>
+        <v>0.10280373831775701</v>
+      </c>
+      <c r="AB9" s="3">
+        <f>AB12/642</f>
+        <v>8.566978193146417E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="38"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="Y10">
+        <v>2</v>
+      </c>
+      <c r="Z10">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10">
-        <v>12</v>
-      </c>
-      <c r="K10">
-        <v>10</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="M10">
-        <v>10</v>
-      </c>
-      <c r="N10" s="36">
-        <v>10</v>
-      </c>
-      <c r="O10" s="38">
-        <v>9</v>
-      </c>
-      <c r="P10">
-        <v>7</v>
-      </c>
-      <c r="Q10">
-        <v>7</v>
-      </c>
-      <c r="R10">
-        <v>5</v>
-      </c>
-      <c r="T10">
-        <v>10</v>
-      </c>
-      <c r="U10">
-        <v>8</v>
-      </c>
-      <c r="W10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="D11">
+      <c r="J11">
+        <v>0.5</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11" s="35">
+        <v>10</v>
+      </c>
+      <c r="P11" s="37">
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>90</v>
+      </c>
+      <c r="S11">
+        <v>7</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="U11">
         <v>5</v>
       </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>74</v>
-      </c>
-      <c r="K11">
-        <v>74</v>
-      </c>
-      <c r="L11">
-        <v>78</v>
-      </c>
-      <c r="M11">
-        <v>78</v>
-      </c>
-      <c r="N11" s="36">
-        <v>72</v>
-      </c>
-      <c r="O11" s="38">
-        <v>70</v>
-      </c>
-      <c r="P11">
-        <v>70</v>
-      </c>
-      <c r="Q11">
-        <v>75</v>
-      </c>
-      <c r="R11">
-        <v>85</v>
-      </c>
-      <c r="T11">
-        <v>70</v>
-      </c>
-      <c r="U11">
-        <v>20</v>
-      </c>
-      <c r="V11">
-        <v>20</v>
-      </c>
       <c r="W11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="X11">
+        <v>8</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11">
+        <v>8</v>
+      </c>
+      <c r="AB11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="N12" s="36"/>
-      <c r="O12" s="38"/>
-      <c r="P12">
-        <v>8</v>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>0.5</v>
+      </c>
+      <c r="K12">
+        <v>74</v>
+      </c>
+      <c r="L12">
+        <v>74</v>
+      </c>
+      <c r="M12">
+        <v>78</v>
+      </c>
+      <c r="N12">
+        <v>78</v>
+      </c>
+      <c r="O12" s="35">
+        <v>72</v>
+      </c>
+      <c r="P12" s="37">
+        <v>70</v>
       </c>
       <c r="Q12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <v>70</v>
+      </c>
+      <c r="T12">
+        <v>75</v>
+      </c>
+      <c r="U12">
+        <v>85</v>
+      </c>
+      <c r="W12">
+        <v>70</v>
+      </c>
+      <c r="X12">
+        <v>20</v>
+      </c>
+      <c r="Y12">
+        <v>20</v>
+      </c>
+      <c r="Z12">
+        <v>3</v>
+      </c>
+      <c r="AA12">
+        <v>66</v>
+      </c>
+      <c r="AB12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3361,32 +3488,38 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1</v>
       </c>
-      <c r="K13">
-        <v>4</v>
-      </c>
       <c r="L13">
         <v>4</v>
       </c>
       <c r="M13">
-        <v>3</v>
-      </c>
-      <c r="N13" s="36">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" s="35">
         <v>0.05</v>
       </c>
-      <c r="O13" s="38">
-        <v>4</v>
-      </c>
-      <c r="P13">
+      <c r="P13" s="37">
+        <v>4</v>
+      </c>
+      <c r="S13">
         <v>1</v>
       </c>
-      <c r="T13">
+      <c r="W13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AA13">
+        <v>3.5</v>
+      </c>
+      <c r="AB13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3411,26 +3544,29 @@
       <c r="I14">
         <v>90</v>
       </c>
-      <c r="L14">
-        <v>1</v>
+      <c r="J14">
+        <v>2</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
-      <c r="N14" s="36">
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="35">
         <v>5</v>
       </c>
-      <c r="O14" s="38">
-        <v>3</v>
-      </c>
-      <c r="P14">
-        <v>2</v>
-      </c>
-      <c r="Q14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P14" s="37">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3444,36 +3580,42 @@
         <v>2</v>
       </c>
       <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="L15">
+        <v>90</v>
+      </c>
+      <c r="K15">
         <v>1</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" s="35">
         <v>0.6</v>
       </c>
-      <c r="O15" s="38"/>
-      <c r="P15">
-        <v>2</v>
-      </c>
-      <c r="Q15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P15" s="37"/>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1</v>
       </c>
-      <c r="N16" s="36"/>
-      <c r="O16" s="38"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O16" s="35"/>
+      <c r="P16" s="37"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -3490,184 +3632,230 @@
         <v>1</v>
       </c>
       <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
         <v>1</v>
       </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
       <c r="L17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
         <v>1</v>
       </c>
-      <c r="N17" s="36">
+      <c r="O17" s="35">
         <v>1</v>
       </c>
-      <c r="O17" s="38">
+      <c r="P17" s="37">
         <v>1</v>
       </c>
-      <c r="T17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="N18" s="36"/>
-      <c r="O18" s="38"/>
-      <c r="P18">
-        <v>2</v>
-      </c>
-      <c r="Q18">
+      <c r="O18" s="35"/>
+      <c r="P18" s="37"/>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AA18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" ref="B21:R21" si="4">SUM(B23:B31)</f>
+        <f t="shared" ref="B21:O21" si="5">SUM(B23:B31)</f>
         <v>10</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="4"/>
+        <f>SUM(J23:J31)</f>
+        <v>97</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
-      <c r="K21" s="1">
-        <f t="shared" si="4"/>
+      <c r="L21" s="1">
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="L21" s="1">
-        <f t="shared" si="4"/>
+      <c r="M21" s="1">
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
-      <c r="M21" s="1">
-        <f t="shared" si="4"/>
+      <c r="N21" s="1">
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
-      <c r="N21" s="1">
-        <f t="shared" si="4"/>
+      <c r="O21" s="1">
+        <f t="shared" si="5"/>
         <v>97.05</v>
       </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1">
-        <f t="shared" si="4"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1">
+        <f>SUM(Q23:Q31)</f>
+        <v>93</v>
+      </c>
+      <c r="S21" s="1">
+        <f>SUM(S23:S31)</f>
         <v>95</v>
       </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="4"/>
-        <v>95</v>
-      </c>
-      <c r="R21" s="1">
-        <f t="shared" si="4"/>
-        <v>99</v>
-      </c>
-      <c r="S21" s="1"/>
       <c r="T21" s="1">
         <f>SUM(T23:T31)</f>
+        <v>95</v>
+      </c>
+      <c r="U21" s="1">
+        <f>SUM(U23:U31)</f>
+        <v>99</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" ref="W21:AB21" si="6">SUM(W23:W31)</f>
         <v>92</v>
       </c>
-      <c r="U21" s="1">
-        <f t="shared" ref="U21:W21" si="5">SUM(U23:U31)</f>
-        <v>29</v>
-      </c>
-      <c r="V21" s="1">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="W21" s="1">
-        <f t="shared" si="5"/>
+      <c r="X21" s="1">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AA21" s="1">
+        <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
-      <c r="N23" s="36"/>
-      <c r="P23">
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="S23">
         <v>1</v>
       </c>
-      <c r="Q23">
+      <c r="T23">
         <v>5</v>
-      </c>
-      <c r="R23">
-        <v>9</v>
       </c>
       <c r="U23">
         <v>9</v>
       </c>
-      <c r="V23">
-        <v>9</v>
-      </c>
-      <c r="W23">
+      <c r="X23">
+        <v>70</v>
+      </c>
+      <c r="Y23">
+        <v>70</v>
+      </c>
+      <c r="Z23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AA23">
+        <v>3</v>
+      </c>
+      <c r="AB23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="J24">
+        <v>0.5</v>
+      </c>
+      <c r="K24">
         <v>12</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>10</v>
       </c>
-      <c r="N24" s="36">
+      <c r="O24" s="35">
         <v>9</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
+        <v>90</v>
+      </c>
+      <c r="S24">
         <v>7</v>
       </c>
-      <c r="Q24">
+      <c r="T24">
         <v>7</v>
       </c>
-      <c r="R24">
+      <c r="U24">
         <v>5</v>
       </c>
-      <c r="T24">
+      <c r="W24">
         <v>10</v>
       </c>
-      <c r="W24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AA24">
+        <v>8</v>
+      </c>
+      <c r="AB24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -3689,32 +3877,38 @@
       <c r="H25">
         <v>2</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>6</v>
       </c>
-      <c r="L25">
-        <v>4</v>
-      </c>
       <c r="M25">
-        <v>3</v>
-      </c>
-      <c r="N25" s="36">
-        <v>4</v>
-      </c>
-      <c r="P25">
-        <v>4</v>
-      </c>
-      <c r="Q25">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25" s="35">
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
       </c>
       <c r="T25">
+        <v>2</v>
+      </c>
+      <c r="W25">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AA25">
+        <v>5</v>
+      </c>
+      <c r="AB25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -3742,46 +3936,64 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="L26">
-        <v>1</v>
+      <c r="J26">
+        <v>3</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
-      <c r="N26" s="36">
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="35">
         <v>0.05</v>
-      </c>
-      <c r="P26">
-        <v>2</v>
       </c>
       <c r="Q26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="L27">
-        <v>1</v>
+      <c r="J27">
+        <v>90</v>
       </c>
       <c r="M27">
         <v>1</v>
       </c>
-      <c r="N27" s="36">
-        <v>2</v>
-      </c>
-      <c r="P27">
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" s="35">
         <v>2</v>
       </c>
       <c r="Q27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>3</v>
+      </c>
+      <c r="AB27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -3801,55 +4013,73 @@
         <v>2</v>
       </c>
       <c r="J28">
+        <v>0.5</v>
+      </c>
+      <c r="K28">
         <v>74</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>70</v>
-      </c>
-      <c r="L28">
-        <v>78</v>
       </c>
       <c r="M28">
         <v>78</v>
       </c>
-      <c r="N28" s="36">
+      <c r="N28">
         <v>78</v>
       </c>
-      <c r="P28">
+      <c r="O28" s="35">
+        <v>78</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="S28">
         <v>70</v>
       </c>
-      <c r="Q28">
+      <c r="T28">
         <v>75</v>
       </c>
-      <c r="R28">
+      <c r="U28">
         <v>85</v>
       </c>
-      <c r="T28">
+      <c r="W28">
         <v>70</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
+        <v>20</v>
+      </c>
+      <c r="Z28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AA28">
+        <v>75</v>
+      </c>
+      <c r="AB28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
-      <c r="N29" s="36"/>
-      <c r="P29">
+      <c r="O29" s="35"/>
+      <c r="S29">
         <v>5</v>
       </c>
-      <c r="Q29">
-        <v>2</v>
-      </c>
-      <c r="U29">
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="X29">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -3866,25 +4096,28 @@
         <v>1</v>
       </c>
       <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
         <v>1</v>
       </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
       <c r="L30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
         <v>1</v>
       </c>
-      <c r="N30" s="36">
+      <c r="O30" s="35">
         <v>1</v>
       </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -3910,30 +4143,39 @@
         <v>1</v>
       </c>
       <c r="K31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
         <v>1</v>
       </c>
-      <c r="M31">
-        <v>3</v>
-      </c>
-      <c r="N31" s="36">
-        <v>3</v>
-      </c>
-      <c r="P31">
-        <v>4</v>
-      </c>
-      <c r="Q31">
-        <v>2</v>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" s="35">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>4</v>
       </c>
       <c r="T31">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>4</v>
+      </c>
+      <c r="AA31">
+        <v>4</v>
+      </c>
+      <c r="AB31">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3945,9 +4187,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3964,60 +4206,60 @@
   <sheetData>
     <row r="1" spans="1:17" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="30">
         <v>175750</v>
@@ -4071,7 +4313,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="23">
         <v>650</v>
@@ -4177,7 +4419,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="23">
         <v>30</v>
@@ -4228,7 +4470,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="19">
         <v>1600</v>
@@ -4442,7 +4684,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="23">
         <v>210</v>
@@ -4493,7 +4735,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="23">
         <v>260</v>
@@ -4544,7 +4786,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="23">
         <v>20</v>
@@ -4595,7 +4837,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="23">
         <v>360</v>
@@ -4646,7 +4888,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="19">
         <v>14000</v>
@@ -4681,18 +4923,18 @@
         <v>189765000</v>
       </c>
       <c r="L14" s="21">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="M14" s="21">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="N14" s="17">
         <f t="shared" si="3"/>
-        <v>1050000</v>
+        <v>28000</v>
       </c>
       <c r="O14" s="17">
         <f t="shared" si="4"/>
-        <v>1400000</v>
+        <v>28000</v>
       </c>
       <c r="P14" s="16" t="str">
         <f t="shared" si="5"/>
@@ -4705,7 +4947,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="19">
         <v>1100</v>
@@ -4760,7 +5002,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="23">
         <v>550</v>
@@ -4811,7 +5053,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="23">
         <v>900</v>
@@ -4868,7 +5110,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="23">
         <v>190</v>
@@ -4925,7 +5167,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="23">
         <v>130</v>
@@ -4976,7 +5218,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="19">
         <v>8000</v>
@@ -5035,7 +5277,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="23">
         <v>150</v>
@@ -5086,7 +5328,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="23">
         <v>300</v>
@@ -5141,7 +5383,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="23">
         <v>670</v>
@@ -5194,7 +5436,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="23">
         <v>750</v>
@@ -5251,7 +5493,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="23">
         <v>500</v>
@@ -5302,7 +5544,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="23">
         <v>450</v>
@@ -5353,7 +5595,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="23">
         <v>600</v>
@@ -5410,7 +5652,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" s="23">
         <v>200</v>
@@ -5461,7 +5703,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="23">
         <v>10</v>
@@ -5516,7 +5758,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="19">
         <v>3600</v>
@@ -5571,7 +5813,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="23">
         <v>320</v>
@@ -5622,7 +5864,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="23">
         <v>700</v>
@@ -5673,7 +5915,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="23">
         <v>110</v>
@@ -5743,7 +5985,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="23">
         <v>0</v>

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="2"/>
+    <workbookView xWindow="8370" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Surface" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="139">
   <si>
     <t>Zeonium</t>
   </si>
@@ -515,6 +515,51 @@
   </si>
   <si>
     <t>Gas (Helium)</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>56K</t>
+  </si>
+  <si>
+    <t>63K</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>216K</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>14K</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>273K</t>
+  </si>
+  <si>
+    <t>Oxygen-N2</t>
+  </si>
+  <si>
+    <t>Oxygen-CO2</t>
+  </si>
+  <si>
+    <t>Freeze</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1174,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H18" sqref="H18"/>
+      <selection pane="topRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2326,19 +2371,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H16" sqref="H16"/>
+      <selection pane="topRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="6" max="8" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2355,25 +2401,34 @@
         <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="4">
-        <f t="shared" ref="B2:H2" si="0">SUM(B4:B18)</f>
+        <f t="shared" ref="B2:K2" si="0">SUM(B4:B18)</f>
         <v>95.140186915887853</v>
       </c>
       <c r="C2" s="4">
@@ -2388,25 +2443,37 @@
         <f t="shared" si="0"/>
         <v>95.007788161993773</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>95.0809968847352</v>
+        <v>95</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" si="0"/>
+        <v>95.003115264797515</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="J2" s="4">
+        <f t="shared" si="0"/>
+        <v>95.0809968847352</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" si="0"/>
         <v>96.109034267912776</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1">
-        <f>SUM(J4:J18)</f>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1">
+        <f>SUM(M4:M18)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2416,25 +2483,37 @@
       <c r="C4">
         <v>85</v>
       </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="M4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="P5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2444,17 +2523,29 @@
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
       <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>21</v>
+      </c>
+      <c r="I6">
         <v>4</v>
       </c>
       <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="M6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2474,32 +2565,62 @@
         <f>E18/642</f>
         <v>7.7881619937694704E-3</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7:G7" si="1">F18/642</f>
+        <v>0</v>
+      </c>
       <c r="G7" s="3">
-        <f>G18/642</f>
-        <v>8.0996884735202487E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <f>H18/642</f>
+        <v>3.1152647975077881E-3</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
+        <f>J18/642</f>
+        <v>8.0996884735202487E-2</v>
+      </c>
+      <c r="K7" s="3">
+        <f>K18/642</f>
         <v>0.10903426791277258</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="P7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2512,39 +2633,45 @@
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
         <v>5</v>
       </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="J10">
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="M10">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>12</v>
       </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2552,51 +2679,63 @@
         <v>85</v>
       </c>
       <c r="G13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
+      <c r="F14">
+        <v>95</v>
+      </c>
       <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="H14">
+        <v>70</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>44</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>25</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2612,63 +2751,78 @@
       <c r="E18">
         <v>5</v>
       </c>
-      <c r="G18">
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="J18">
         <v>52</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" ref="B21:G21" si="1">SUM(B23:B34)</f>
+        <f t="shared" ref="B21:J21" si="2">SUM(B23:B34)</f>
         <v>97</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" si="1"/>
+      <c r="J21" s="1">
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="H21" s="1">
-        <f t="shared" ref="H21" si="2">SUM(H23:H34)</f>
+      <c r="K21" s="1">
+        <f t="shared" ref="K21" si="3">SUM(K23:K34)</f>
         <v>96</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1">
-        <f>SUM(J23:J34)</f>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1">
+        <f>SUM(M23:M34)</f>
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="J23">
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="M23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2684,22 +2838,22 @@
       <c r="E24">
         <v>65</v>
       </c>
-      <c r="G24">
+      <c r="J24">
         <v>52</v>
       </c>
-      <c r="H24">
+      <c r="K24">
         <v>70</v>
       </c>
-      <c r="J24">
+      <c r="M24">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2709,34 +2863,37 @@
       <c r="D26">
         <v>85</v>
       </c>
-      <c r="F26">
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="I26">
         <v>7</v>
       </c>
-      <c r="G26">
+      <c r="J26">
         <v>5</v>
       </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="J26">
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="M26">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="F27">
+      <c r="I27">
         <v>12</v>
       </c>
-      <c r="G27">
-        <v>4</v>
-      </c>
-      <c r="H27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2750,59 +2907,74 @@
         <v>25</v>
       </c>
       <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
+      <c r="F29">
+        <v>95</v>
+      </c>
       <c r="G29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="H29">
+        <v>70</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
-      <c r="F30">
+      <c r="I30">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
-      <c r="F31">
+      <c r="I31">
         <v>52</v>
       </c>
-      <c r="G31">
+      <c r="J31">
         <v>25</v>
       </c>
-      <c r="H31">
+      <c r="K31">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
-      <c r="F32">
+      <c r="I32">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2818,16 +2990,16 @@
       <c r="E34">
         <v>3</v>
       </c>
-      <c r="F34">
+      <c r="I34">
         <v>6</v>
       </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
       <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="M34">
         <v>3</v>
       </c>
     </row>
@@ -2841,7 +3013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="1"/>
+    <workbookView xWindow="8370" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Surface" sheetId="1" r:id="rId1"/>
@@ -2373,9 +2373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="2"/>
@@ -2838,6 +2838,9 @@
       <c r="E24">
         <v>65</v>
       </c>
+      <c r="H24">
+        <v>21</v>
+      </c>
       <c r="J24">
         <v>52</v>
       </c>
@@ -2866,6 +2869,9 @@
       <c r="G26">
         <v>3</v>
       </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
       <c r="I26">
         <v>7</v>
       </c>
@@ -2883,6 +2889,9 @@
       <c r="A27" t="s">
         <v>7</v>
       </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
       <c r="I27">
         <v>12</v>
       </c>
@@ -2969,9 +2978,6 @@
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -3013,9 +3019,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="2"/>
+    <workbookView xWindow="9300" yWindow="0" windowWidth="18375" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Surface" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Atmo" sheetId="3" r:id="rId3"/>
     <sheet name="Exo Bands" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" iterate="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
     <author>Jadon Wade</author>
   </authors>
   <commentList>
-    <comment ref="A23" authorId="0" shapeId="0">
+    <comment ref="A24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0">
+    <comment ref="A25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="140">
   <si>
     <t>Zeonium</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>Freeze</t>
+  </si>
+  <si>
+    <t>Spodumene</t>
   </si>
 </sst>
 </file>
@@ -1170,11 +1173,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M16" sqref="M16"/>
+      <selection pane="topRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1233,7 +1236,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1">
-        <f t="shared" ref="B2:I2" si="0">SUM(B4:B23)</f>
+        <f t="shared" ref="B2:I2" si="0">SUM(B4:B24)</f>
         <v>100</v>
       </c>
       <c r="C2" s="1">
@@ -1266,19 +1269,19 @@
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1">
-        <f>SUM(K4:K23)</f>
+        <f>SUM(K4:K24)</f>
         <v>94</v>
       </c>
       <c r="L2" s="1">
-        <f>SUM(L4:L23)</f>
+        <f>SUM(L4:L24)</f>
         <v>97</v>
       </c>
       <c r="M2" s="1">
-        <f>SUM(M4:M23)</f>
+        <f>SUM(M4:M24)</f>
         <v>94</v>
       </c>
       <c r="N2" s="1">
-        <f>SUM(N4:N23)</f>
+        <f>SUM(N4:N24)</f>
         <v>96</v>
       </c>
     </row>
@@ -1781,80 +1784,53 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>6</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>5</v>
-      </c>
-      <c r="K20">
-        <v>6</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-      <c r="M20">
-        <v>5</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L21">
         <v>3</v>
       </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
       <c r="N21">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1863,153 +1839,147 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>18</v>
-      </c>
-      <c r="H22">
-        <v>18</v>
-      </c>
-      <c r="I22">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>18</v>
+      </c>
+      <c r="H23">
+        <v>18</v>
+      </c>
+      <c r="I23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="1">
-        <f t="shared" ref="B26:I26" si="1">SUM(B28:B41)</f>
+      <c r="B27" s="1">
+        <f t="shared" ref="B27:I27" si="1">SUM(B29:B42)</f>
         <v>93</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="1">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D27" s="1">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E27" s="1">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F27" s="1">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G27" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H27" s="1">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I27" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1">
-        <f>SUM(K28:K41)</f>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1">
+        <f>SUM(K29:K42)</f>
         <v>98</v>
       </c>
-      <c r="L26" s="1">
-        <f>SUM(L28:L41)</f>
+      <c r="L27" s="1">
+        <f>SUM(L29:L42)</f>
         <v>88</v>
       </c>
-      <c r="M26" s="1">
-        <f>SUM(M28:M41)</f>
+      <c r="M27" s="1">
+        <f>SUM(M29:M42)</f>
         <v>76</v>
       </c>
-      <c r="N26" s="1">
-        <f>SUM(N28:N41)</f>
+      <c r="N27" s="1">
+        <f>SUM(N29:N42)</f>
         <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>15</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>3</v>
-      </c>
-      <c r="N28">
-        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <v>5</v>
+      <c r="G29">
+        <v>2</v>
       </c>
       <c r="K29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>3</v>
       </c>
-      <c r="M29">
-        <v>3</v>
-      </c>
       <c r="N29">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -2018,27 +1988,36 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
       </c>
       <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
         <v>5</v>
       </c>
-      <c r="G30">
-        <v>18</v>
-      </c>
-      <c r="H30">
-        <v>18</v>
-      </c>
-      <c r="I30">
-        <v>18</v>
+      <c r="K30">
+        <v>6</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -2049,318 +2028,347 @@
       <c r="D31">
         <v>2</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>5</v>
       </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
       <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="K31">
-        <v>6</v>
-      </c>
-      <c r="L31">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="H31">
+        <v>18</v>
+      </c>
+      <c r="I31">
+        <v>18</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>5</v>
-      </c>
-      <c r="H32">
-        <v>10</v>
-      </c>
-      <c r="I32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K32">
         <v>6</v>
       </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
       </c>
       <c r="K33">
         <v>6</v>
       </c>
-      <c r="L33">
-        <v>15</v>
-      </c>
-      <c r="N33">
-        <v>12</v>
-      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34">
         <v>7</v>
       </c>
       <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
         <v>18</v>
       </c>
-      <c r="D34">
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>6</v>
+      </c>
+      <c r="L34">
         <v>15</v>
       </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-      <c r="F34">
-        <v>9</v>
-      </c>
-      <c r="G34">
-        <v>9</v>
-      </c>
-      <c r="H34">
-        <v>10</v>
-      </c>
-      <c r="I34">
-        <v>5</v>
-      </c>
-      <c r="K34">
-        <v>10</v>
-      </c>
-      <c r="L34">
-        <v>7</v>
-      </c>
-      <c r="M34">
-        <v>10</v>
-      </c>
       <c r="N34">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>10</v>
+      </c>
+      <c r="L35">
+        <v>7</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="N35">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>4</v>
       </c>
       <c r="C36">
-        <v>5</v>
-      </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
-      <c r="E36">
         <v>3</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <v>4</v>
       </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
       <c r="I36">
         <v>4</v>
       </c>
-      <c r="K36">
-        <v>10</v>
-      </c>
-      <c r="L36">
-        <v>3</v>
-      </c>
       <c r="M36">
-        <v>3</v>
-      </c>
-      <c r="N36">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38">
-        <v>5</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38">
-        <v>7</v>
-      </c>
-      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <v>30</v>
+      </c>
+      <c r="M38">
         <v>15</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="K38">
-        <v>3</v>
-      </c>
-      <c r="L38">
-        <v>7</v>
-      </c>
-      <c r="N38">
-        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E39">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F39">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="G39">
-        <v>22</v>
-      </c>
-      <c r="H39">
-        <v>13</v>
-      </c>
-      <c r="I39">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K39">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="L39">
-        <v>13</v>
-      </c>
-      <c r="M39">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N39">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>33</v>
+      </c>
+      <c r="E40">
+        <v>26</v>
+      </c>
+      <c r="F40">
+        <v>28</v>
+      </c>
+      <c r="G40">
+        <v>22</v>
+      </c>
+      <c r="H40">
+        <v>13</v>
+      </c>
+      <c r="I40">
+        <v>14</v>
+      </c>
+      <c r="K40">
+        <v>42</v>
+      </c>
+      <c r="L40">
+        <v>13</v>
+      </c>
+      <c r="M40">
+        <v>15</v>
+      </c>
+      <c r="N40">
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>0</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>7</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>5</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>5</v>
       </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-      <c r="F41">
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
         <v>18</v>
       </c>
-      <c r="G41">
+      <c r="G42">
         <v>20</v>
       </c>
-      <c r="H41">
+      <c r="H42">
         <v>18</v>
       </c>
-      <c r="I41">
+      <c r="I42">
         <v>5</v>
       </c>
-      <c r="K41">
+      <c r="K42">
         <v>6</v>
       </c>
-      <c r="L41">
-        <v>3</v>
-      </c>
-      <c r="M41">
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
         <v>15</v>
       </c>
-      <c r="N41">
+      <c r="N42">
         <v>4</v>
       </c>
     </row>
@@ -2371,11 +2379,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I25" sqref="I25"/>
+      <selection pane="topRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2428,7 +2436,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="4">
-        <f t="shared" ref="B2:K2" si="0">SUM(B4:B18)</f>
+        <f t="shared" ref="B2:K2" si="0">SUM(B4:B19)</f>
         <v>95.140186915887853</v>
       </c>
       <c r="C2" s="4">
@@ -2469,7 +2477,7 @@
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1">
-        <f>SUM(M4:M18)</f>
+        <f>SUM(M4:M19)</f>
         <v>90</v>
       </c>
     </row>
@@ -2550,23 +2558,23 @@
         <v>44</v>
       </c>
       <c r="B7" s="3">
-        <f>B18/642</f>
+        <f>B19/642</f>
         <v>0.14018691588785046</v>
       </c>
       <c r="C7" s="3">
-        <f>C18/642</f>
+        <f>C19/642</f>
         <v>1.5576323987538941E-2</v>
       </c>
       <c r="D7" s="3">
-        <f>D18/642</f>
+        <f>D19/642</f>
         <v>7.7881619937694704E-3</v>
       </c>
       <c r="E7" s="3">
-        <f>E18/642</f>
+        <f>E19/642</f>
         <v>7.7881619937694704E-3</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ref="F7:G7" si="1">F18/642</f>
+        <f t="shared" ref="F7:G7" si="1">F19/642</f>
         <v>0</v>
       </c>
       <c r="G7" s="3">
@@ -2574,16 +2582,16 @@
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <f>H18/642</f>
+        <f>H19/642</f>
         <v>3.1152647975077881E-3</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3">
-        <f>J18/642</f>
+        <f>J19/642</f>
         <v>8.0996884735202487E-2</v>
       </c>
       <c r="K7" s="3">
-        <f>K18/642</f>
+        <f>K19/642</f>
         <v>0.10903426791277258</v>
       </c>
       <c r="L7" s="3"/>
@@ -2729,123 +2737,99 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>90</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>10</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>5</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>5</v>
       </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="J18">
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="J19">
         <v>52</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="1">
-        <f t="shared" ref="B21:J21" si="2">SUM(B23:B34)</f>
+      <c r="B22" s="1">
+        <f t="shared" ref="B22:J22" si="2">SUM(B24:B35)</f>
         <v>97</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D22" s="1">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F22" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G22" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H22" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I22" s="1">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J22" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="K21" s="1">
-        <f t="shared" ref="K21" si="3">SUM(K23:K34)</f>
+      <c r="K22" s="1">
+        <f t="shared" ref="K22" si="3">SUM(K24:K35)</f>
         <v>96</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1">
-        <f>SUM(M23:M34)</f>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1">
+        <f>SUM(M24:M35)</f>
         <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="M23">
-        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>90</v>
-      </c>
-      <c r="C24">
-        <v>50</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>65</v>
-      </c>
-      <c r="H24">
-        <v>21</v>
-      </c>
-      <c r="J24">
-        <v>52</v>
-      </c>
-      <c r="K24">
-        <v>70</v>
+        <v>43</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
       </c>
       <c r="M24">
         <v>10</v>
@@ -2853,73 +2837,79 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>90</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>65</v>
+      </c>
+      <c r="H25">
+        <v>21</v>
+      </c>
+      <c r="J25">
+        <v>52</v>
+      </c>
+      <c r="K25">
+        <v>70</v>
+      </c>
+      <c r="M25">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>85</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>7</v>
-      </c>
-      <c r="J26">
-        <v>5</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="M26">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>85</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
         <v>7</v>
       </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>12</v>
-      </c>
       <c r="J27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27">
         <v>3</v>
+      </c>
+      <c r="M27">
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>25</v>
-      </c>
-      <c r="G28">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>12</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2927,85 +2917,108 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="G29">
-        <v>74</v>
-      </c>
-      <c r="H29">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>95</v>
+      </c>
+      <c r="G30">
+        <v>74</v>
+      </c>
+      <c r="H30">
+        <v>70</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>52</v>
-      </c>
-      <c r="J31">
-        <v>25</v>
-      </c>
-      <c r="K31">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>52</v>
+      </c>
+      <c r="J32">
+        <v>25</v>
+      </c>
+      <c r="K32">
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>0</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
         <v>40</v>
       </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="I34">
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="I35">
         <v>6</v>
       </c>
-      <c r="J34">
-        <v>3</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="M34">
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="M35">
         <v>3</v>
       </c>
     </row>
@@ -3019,9 +3032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S10" sqref="S10"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="0" windowWidth="18375" windowHeight="8625"/>
+    <workbookView xWindow="10230" yWindow="0" windowWidth="18375" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Surface" sheetId="1" r:id="rId1"/>
@@ -799,7 +799,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -890,6 +890,7 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1177,7 +1178,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B20" sqref="B20"/>
+      <selection pane="topRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1241,27 +1242,27 @@
       </c>
       <c r="C2" s="1">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" si="0"/>
@@ -1270,11 +1271,11 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1">
         <f>SUM(K4:K24)</f>
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L2" s="1">
         <f>SUM(L4:L24)</f>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M2" s="1">
         <f>SUM(M4:M24)</f>
@@ -1282,7 +1283,7 @@
       </c>
       <c r="N2" s="1">
         <f>SUM(N4:N24)</f>
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1707,32 +1708,32 @@
       <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="40">
         <v>18</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="40">
         <v>18</v>
       </c>
-      <c r="D18">
-        <v>15</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="40">
+        <v>11</v>
+      </c>
+      <c r="E18" s="40">
+        <v>13</v>
+      </c>
+      <c r="F18" s="40">
+        <v>11</v>
+      </c>
+      <c r="G18" s="40">
+        <v>9</v>
+      </c>
+      <c r="H18" s="40">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="K18">
         <v>18</v>
-      </c>
-      <c r="F18">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>9</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
-      <c r="K18">
-        <v>20</v>
       </c>
       <c r="L18">
         <v>7</v>
@@ -1745,25 +1746,25 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>30</v>
-      </c>
-      <c r="D19">
+      <c r="B19" s="40">
+        <v>13</v>
+      </c>
+      <c r="C19" s="40">
+        <v>24</v>
+      </c>
+      <c r="D19" s="40">
         <v>6</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="40">
         <v>5</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="40">
         <v>5</v>
       </c>
-      <c r="G19">
-        <v>9</v>
-      </c>
-      <c r="H19">
+      <c r="G19" s="40">
+        <v>7</v>
+      </c>
+      <c r="H19" s="40">
         <v>5</v>
       </c>
       <c r="I19">
@@ -1785,6 +1786,36 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>139</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2382,8 +2413,8 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I17" sqref="I17"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2465,7 +2496,7 @@
       </c>
       <c r="I2" s="1">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" si="0"/>
@@ -2473,7 +2504,7 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" si="0"/>
-        <v>96.109034267912776</v>
+        <v>91.09345794392523</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1">
@@ -2537,9 +2568,6 @@
       <c r="H6">
         <v>21</v>
       </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
       <c r="J6">
         <v>4</v>
       </c>
@@ -2592,7 +2620,7 @@
       </c>
       <c r="K7" s="3">
         <f>K19/642</f>
-        <v>0.10903426791277258</v>
+        <v>9.3457943925233641E-2</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -2725,28 +2753,37 @@
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="I16">
-        <v>44</v>
-      </c>
-      <c r="J16">
+      <c r="I16" s="40">
+        <v>22</v>
+      </c>
+      <c r="J16" s="40">
         <v>25</v>
       </c>
-      <c r="K16">
-        <v>15</v>
+      <c r="K16" s="40">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>139</v>
       </c>
+      <c r="I17" s="40">
+        <v>22</v>
+      </c>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
+      <c r="I18" s="40">
+        <v>3</v>
+      </c>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2767,11 +2804,12 @@
       <c r="H19">
         <v>2</v>
       </c>
-      <c r="J19">
+      <c r="I19" s="40"/>
+      <c r="J19" s="40">
         <v>52</v>
       </c>
-      <c r="K19">
-        <v>70</v>
+      <c r="K19" s="40">
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="18375" windowHeight="8625"/>
+    <workbookView xWindow="13950" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Surface" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <author>Jadon Wade</author>
   </authors>
   <commentList>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="S2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="143">
   <si>
     <t>Zeonium</t>
   </si>
@@ -563,6 +563,15 @@
   </si>
   <si>
     <t>Spodumene</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>Steam (CO2)</t>
+  </si>
+  <si>
+    <t>Steam (N2)</t>
   </si>
 </sst>
 </file>
@@ -799,7 +808,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -887,10 +896,11 @@
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1174,11 +1184,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E13" sqref="E13"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1188,9 +1198,10 @@
     <col min="6" max="6" width="10.125" customWidth="1"/>
     <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="9" width="12.25" customWidth="1"/>
+    <col min="17" max="19" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1232,7 +1243,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1286,7 +1297,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1326,8 +1337,11 @@
       <c r="N4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1344,7 +1358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1364,7 +1378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1402,7 +1416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1431,7 +1445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1472,7 +1486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1507,7 +1521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1524,7 +1538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1565,7 +1579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1606,7 +1620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1620,7 +1634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1658,7 +1672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1708,25 +1722,25 @@
       <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="39">
         <v>18</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="39">
         <v>18</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="39">
         <v>11</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="39">
         <v>13</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="39">
         <v>11</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="39">
         <v>9</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="39">
         <v>5</v>
       </c>
       <c r="I18">
@@ -1746,25 +1760,25 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="39">
         <v>13</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="39">
         <v>24</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="39">
         <v>6</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="39">
         <v>5</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="39">
         <v>5</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="39">
         <v>7</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="39">
         <v>5</v>
       </c>
       <c r="I19">
@@ -2414,7 +2428,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2753,13 +2767,13 @@
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="39">
         <v>22</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="39">
         <v>25</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="39">
         <v>12</v>
       </c>
     </row>
@@ -2767,11 +2781,11 @@
       <c r="A17" t="s">
         <v>139</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="39">
         <v>22</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40">
+      <c r="J17" s="39"/>
+      <c r="K17" s="39">
         <v>8</v>
       </c>
     </row>
@@ -2779,11 +2793,11 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="40">
-        <v>3</v>
-      </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
+      <c r="I18" s="39">
+        <v>3</v>
+      </c>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2804,11 +2818,11 @@
       <c r="H19">
         <v>2</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40">
+      <c r="I19" s="39"/>
+      <c r="J19" s="39">
         <v>52</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="39">
         <v>60</v>
       </c>
     </row>
@@ -3068,37 +3082,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="10" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="14.25" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
-    <col min="14" max="16" width="12.125" customWidth="1"/>
-    <col min="17" max="17" width="12.875" customWidth="1"/>
-    <col min="18" max="18" width="12.125" customWidth="1"/>
-    <col min="19" max="19" width="10.75" customWidth="1"/>
-    <col min="20" max="20" width="11.5" customWidth="1"/>
-    <col min="21" max="21" width="10.25" customWidth="1"/>
-    <col min="23" max="23" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="12.625" customWidth="1"/>
-    <col min="27" max="27" width="12.375" customWidth="1"/>
-    <col min="28" max="28" width="12.875" customWidth="1"/>
+    <col min="4" max="6" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="12.25" customWidth="1"/>
+    <col min="12" max="13" width="12.375" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="14.25" customWidth="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1"/>
+    <col min="17" max="19" width="12.125" customWidth="1"/>
+    <col min="20" max="20" width="12.875" customWidth="1"/>
+    <col min="21" max="21" width="12.125" customWidth="1"/>
+    <col min="22" max="22" width="10.75" customWidth="1"/>
+    <col min="23" max="23" width="11.5" customWidth="1"/>
+    <col min="24" max="24" width="10.25" customWidth="1"/>
+    <col min="26" max="26" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="12.625" customWidth="1"/>
+    <col min="30" max="30" width="12.375" customWidth="1"/>
+    <col min="31" max="31" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3109,79 +3124,88 @@
         <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="R1" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="40"/>
+      <c r="T1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1">
-        <f t="shared" ref="B2:Q2" si="0">SUM(B4:B18)</f>
+        <f t="shared" ref="B2:T2" si="0">SUM(B4:B18)</f>
         <v>93</v>
       </c>
       <c r="C2" s="1">
@@ -3189,220 +3213,235 @@
         <v>92</v>
       </c>
       <c r="D2" s="33">
+        <f t="shared" ref="D2:E2" si="1">SUM(D4:D18)</f>
+        <v>85.118380062305292</v>
+      </c>
+      <c r="E2" s="33">
+        <f t="shared" si="1"/>
+        <v>89.059190031152639</v>
+      </c>
+      <c r="F2" s="33">
+        <f t="shared" si="0"/>
+        <v>90.223364485981307</v>
+      </c>
+      <c r="G2" s="33">
         <f t="shared" si="0"/>
         <v>95.007788161993773</v>
       </c>
-      <c r="E2" s="1">
+      <c r="H2" s="1">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="F2" s="1">
+      <c r="I2" s="1">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="G2" s="4">
+      <c r="J2" s="4">
         <f t="shared" si="0"/>
         <v>92.003115264797515</v>
       </c>
-      <c r="H2" s="4">
+      <c r="K2" s="4">
         <f t="shared" si="0"/>
         <v>90.006230529595015</v>
       </c>
-      <c r="I2" s="4">
+      <c r="L2" s="4">
         <f t="shared" si="0"/>
         <v>92.003115264797515</v>
       </c>
-      <c r="J2" s="4">
+      <c r="M2" s="4">
         <f t="shared" si="0"/>
         <v>96.000778816199372</v>
       </c>
-      <c r="K2" s="4">
+      <c r="N2" s="4">
         <f t="shared" si="0"/>
         <v>96.615264797507791</v>
       </c>
-      <c r="L2" s="4">
+      <c r="O2" s="4">
         <f t="shared" si="0"/>
         <v>94.115264797507791</v>
       </c>
-      <c r="M2" s="4">
+      <c r="P2" s="4">
         <f t="shared" si="0"/>
         <v>99.121495327102807</v>
       </c>
-      <c r="N2" s="4">
+      <c r="Q2" s="4">
         <f t="shared" si="0"/>
         <v>99.121495327102807</v>
       </c>
-      <c r="O2" s="34">
+      <c r="R2" s="34">
         <f t="shared" si="0"/>
         <v>91.862149532710276</v>
       </c>
-      <c r="P2" s="34">
+      <c r="S2" s="34">
         <f t="shared" si="0"/>
         <v>96.109034267912776</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="T2" s="4">
         <f t="shared" si="0"/>
         <v>100.00778816199377</v>
       </c>
-      <c r="S2" s="4">
-        <f>SUM(S4:S18)</f>
+      <c r="V2" s="4">
+        <f>SUM(V4:V18)</f>
         <v>90.109034267912776</v>
       </c>
-      <c r="T2" s="4">
-        <f>SUM(T4:T18)</f>
+      <c r="W2" s="4">
+        <f>SUM(W4:W18)</f>
         <v>95.116822429906534</v>
       </c>
-      <c r="U2" s="4">
-        <f>SUM(U4:U18)</f>
+      <c r="X2" s="4">
+        <f>SUM(X4:X18)</f>
         <v>99.13239875389408</v>
       </c>
-      <c r="W2" s="4">
-        <f t="shared" ref="W2:AB2" si="1">SUM(W4:W18)</f>
+      <c r="Z2" s="4">
+        <f t="shared" ref="Z2:AE2" si="2">SUM(Z4:Z18)</f>
         <v>95.109034267912776</v>
       </c>
-      <c r="X2" s="4">
-        <f t="shared" si="1"/>
+      <c r="AA2" s="4">
+        <f t="shared" si="2"/>
         <v>98.031152647975077</v>
       </c>
-      <c r="Y2" s="4">
-        <f t="shared" si="1"/>
+      <c r="AB2" s="4">
+        <f t="shared" si="2"/>
         <v>92.031152647975077</v>
       </c>
-      <c r="Z2" s="4">
-        <f t="shared" si="1"/>
+      <c r="AC2" s="4">
+        <f t="shared" si="2"/>
         <v>11.004672897196262</v>
       </c>
-      <c r="AA2" s="4">
-        <f t="shared" si="1"/>
+      <c r="AD2" s="4">
+        <f t="shared" si="2"/>
         <v>94.60280373831776</v>
       </c>
-      <c r="AB2" s="4">
-        <f t="shared" si="1"/>
+      <c r="AE2" s="4">
+        <f t="shared" si="2"/>
         <v>98.085669781931472</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="37"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="37"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <v>6</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="O4" s="35">
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="R4" s="35">
         <v>0.1</v>
       </c>
-      <c r="P4" s="37">
-        <v>4</v>
-      </c>
-      <c r="S4">
+      <c r="S4" s="37">
+        <v>4</v>
+      </c>
+      <c r="V4">
         <v>1</v>
       </c>
-      <c r="T4">
+      <c r="W4">
         <v>1</v>
       </c>
-      <c r="W4">
+      <c r="Z4">
         <v>5</v>
       </c>
-      <c r="AA4">
+      <c r="AD4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>1.5</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>1</v>
       </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="O5" s="35">
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5" s="35">
         <v>1</v>
       </c>
-      <c r="P5" s="37"/>
-      <c r="Q5">
+      <c r="S5" s="37"/>
+      <c r="T5">
         <v>1</v>
       </c>
-      <c r="S5">
-        <v>3</v>
-      </c>
-      <c r="T5">
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
         <v>5</v>
       </c>
-      <c r="U5">
+      <c r="X5">
         <v>9</v>
       </c>
-      <c r="X5">
+      <c r="AA5">
         <v>70</v>
       </c>
-      <c r="Y5">
+      <c r="AB5">
         <v>70</v>
       </c>
-      <c r="Z5">
+      <c r="AC5">
         <v>1</v>
       </c>
-      <c r="AA5">
-        <v>3</v>
-      </c>
-      <c r="AB5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD5">
+        <v>3</v>
+      </c>
+      <c r="AE5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="35"/>
-      <c r="P6" s="37"/>
-      <c r="S6">
+      <c r="R6" s="35"/>
+      <c r="S6" s="37"/>
+      <c r="V6">
         <v>1</v>
       </c>
-      <c r="T6">
+      <c r="W6">
         <v>1</v>
       </c>
-      <c r="AA6">
-        <v>2</v>
-      </c>
-      <c r="AB6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD6">
+        <v>2</v>
+      </c>
+      <c r="AE6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="37"/>
-      <c r="AB7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R7" s="35"/>
+      <c r="S7" s="37"/>
+      <c r="AE7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -3412,343 +3451,367 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>44</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>20</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
         <v>91</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>6</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
         <v>1</v>
       </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8" s="35">
-        <v>2</v>
-      </c>
-      <c r="P8" s="37">
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8" s="35">
+        <v>2</v>
+      </c>
+      <c r="S8" s="37">
         <v>5</v>
       </c>
-      <c r="Q8">
-        <v>3</v>
-      </c>
-      <c r="S8">
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="V8">
         <v>1</v>
       </c>
-      <c r="T8">
+      <c r="W8">
         <v>1</v>
       </c>
-      <c r="W8">
-        <v>2</v>
-      </c>
-      <c r="AA8">
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AD8">
         <v>5</v>
       </c>
-      <c r="AB8">
+      <c r="AE8">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" ref="D9" si="2">D12/642</f>
+        <f>(D12+D17)/642</f>
+        <v>0.11838006230529595</v>
+      </c>
+      <c r="E9" s="3">
+        <f>(E12+E17)/642</f>
+        <v>5.9190031152647975E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <f>(F12+F17)/642</f>
+        <v>2.336448598130841E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" ref="G9" si="3">G12/642</f>
         <v>7.7881619937694704E-3</v>
       </c>
-      <c r="G9" s="3">
-        <f t="shared" ref="G9:U9" si="3">G12/642</f>
+      <c r="J9" s="3">
+        <f t="shared" ref="J9:X9" si="4">J12/642</f>
         <v>3.1152647975077881E-3</v>
       </c>
-      <c r="H9" s="3">
-        <f t="shared" si="3"/>
+      <c r="K9" s="3">
+        <f t="shared" si="4"/>
         <v>6.2305295950155761E-3</v>
       </c>
-      <c r="I9" s="3">
-        <f t="shared" si="3"/>
+      <c r="L9" s="3">
+        <f t="shared" si="4"/>
         <v>3.1152647975077881E-3</v>
       </c>
-      <c r="J9" s="3">
-        <f>J12/642</f>
+      <c r="M9" s="3">
+        <f>M12/642</f>
         <v>7.7881619937694702E-4</v>
       </c>
-      <c r="K9" s="3">
-        <f t="shared" si="3"/>
+      <c r="N9" s="3">
+        <f t="shared" si="4"/>
         <v>0.11526479750778816</v>
       </c>
-      <c r="L9" s="3">
-        <f t="shared" si="3"/>
+      <c r="O9" s="3">
+        <f t="shared" si="4"/>
         <v>0.11526479750778816</v>
       </c>
-      <c r="M9" s="3">
-        <f t="shared" si="3"/>
+      <c r="P9" s="3">
+        <f t="shared" si="4"/>
         <v>0.12149532710280374</v>
       </c>
-      <c r="N9" s="3">
-        <f t="shared" si="3"/>
+      <c r="Q9" s="3">
+        <f t="shared" si="4"/>
         <v>0.12149532710280374</v>
       </c>
-      <c r="O9" s="36">
-        <f t="shared" si="3"/>
+      <c r="R9" s="36">
+        <f t="shared" si="4"/>
         <v>0.11214953271028037</v>
       </c>
-      <c r="P9" s="38">
-        <f t="shared" si="3"/>
+      <c r="S9" s="38">
+        <f t="shared" si="4"/>
         <v>0.10903426791277258</v>
       </c>
-      <c r="Q9" s="3">
-        <f>Q12/642</f>
+      <c r="T9" s="3">
+        <f>T12/642</f>
         <v>7.7881619937694704E-3</v>
       </c>
-      <c r="S9" s="3">
-        <f t="shared" si="3"/>
+      <c r="V9" s="3">
+        <f t="shared" si="4"/>
         <v>0.10903426791277258</v>
       </c>
-      <c r="T9" s="3">
-        <f t="shared" si="3"/>
+      <c r="W9" s="3">
+        <f t="shared" si="4"/>
         <v>0.11682242990654206</v>
       </c>
-      <c r="U9" s="3">
-        <f t="shared" si="3"/>
+      <c r="X9" s="3">
+        <f t="shared" si="4"/>
         <v>0.13239875389408098</v>
       </c>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3">
-        <f>W12/642</f>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3">
+        <f>Z12/642</f>
         <v>0.10903426791277258</v>
       </c>
-      <c r="X9" s="3">
-        <f t="shared" ref="X9:Z9" si="4">X12/642</f>
+      <c r="AA9" s="3">
+        <f t="shared" ref="AA9:AC9" si="5">AA12/642</f>
         <v>3.1152647975077882E-2</v>
       </c>
-      <c r="Y9" s="3">
-        <f t="shared" si="4"/>
+      <c r="AB9" s="3">
+        <f t="shared" si="5"/>
         <v>3.1152647975077882E-2</v>
       </c>
-      <c r="Z9" s="3">
-        <f t="shared" si="4"/>
+      <c r="AC9" s="3">
+        <f t="shared" si="5"/>
         <v>4.6728971962616819E-3</v>
       </c>
-      <c r="AA9" s="3">
-        <f>AA12/642</f>
+      <c r="AD9" s="3">
+        <f>AD12/642</f>
         <v>0.10280373831775701</v>
       </c>
-      <c r="AB9" s="3">
-        <f>AB12/642</f>
+      <c r="AE9" s="3">
+        <f>AE12/642</f>
         <v>8.566978193146417E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="38"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="38"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="Y10">
-        <v>2</v>
-      </c>
-      <c r="Z10">
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AB10">
+        <v>2</v>
+      </c>
+      <c r="AC10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
-      <c r="J11">
+      <c r="F11">
+        <v>0.2</v>
+      </c>
+      <c r="M11">
         <v>0.5</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>12</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>10</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <v>10</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <v>10</v>
       </c>
-      <c r="O11" s="35">
+      <c r="R11" s="35">
         <v>10</v>
       </c>
-      <c r="P11" s="37">
+      <c r="S11" s="37">
         <v>9</v>
       </c>
-      <c r="Q11">
+      <c r="T11">
         <v>90</v>
       </c>
-      <c r="S11">
+      <c r="V11">
         <v>7</v>
       </c>
-      <c r="T11">
+      <c r="W11">
         <v>7</v>
       </c>
-      <c r="U11">
+      <c r="X11">
         <v>5</v>
       </c>
-      <c r="W11">
+      <c r="Z11">
         <v>10</v>
-      </c>
-      <c r="X11">
-        <v>8</v>
-      </c>
-      <c r="Z11">
-        <v>2</v>
       </c>
       <c r="AA11">
         <v>8</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
+        <v>2</v>
+      </c>
+      <c r="AD11">
+        <v>8</v>
+      </c>
+      <c r="AE11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <v>5</v>
       </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
       <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
         <v>0.5</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>74</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>74</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <v>78</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <v>78</v>
       </c>
-      <c r="O12" s="35">
+      <c r="R12" s="35">
         <v>72</v>
       </c>
-      <c r="P12" s="37">
+      <c r="S12" s="37">
         <v>70</v>
       </c>
-      <c r="Q12">
+      <c r="T12">
         <v>5</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>70</v>
       </c>
-      <c r="T12">
+      <c r="W12">
         <v>75</v>
       </c>
-      <c r="U12">
+      <c r="X12">
         <v>85</v>
       </c>
-      <c r="W12">
+      <c r="Z12">
         <v>70</v>
       </c>
-      <c r="X12">
+      <c r="AA12">
         <v>20</v>
       </c>
-      <c r="Y12">
+      <c r="AB12">
         <v>20</v>
       </c>
-      <c r="Z12">
-        <v>3</v>
-      </c>
-      <c r="AA12">
+      <c r="AC12">
+        <v>3</v>
+      </c>
+      <c r="AD12">
         <v>66</v>
       </c>
-      <c r="AB12">
+      <c r="AE12">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="J13">
         <v>6</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <v>4</v>
-      </c>
       <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13" s="35">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13" s="35">
         <v>0.05</v>
       </c>
-      <c r="P13" s="37">
-        <v>4</v>
-      </c>
-      <c r="S13">
+      <c r="S13" s="37">
+        <v>4</v>
+      </c>
+      <c r="V13">
         <v>1</v>
       </c>
-      <c r="W13">
+      <c r="Z13">
         <v>5</v>
       </c>
-      <c r="AA13">
+      <c r="AD13">
         <v>3.5</v>
       </c>
-      <c r="AB13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3758,44 +3821,47 @@
       <c r="C14">
         <v>74</v>
       </c>
-      <c r="D14">
+      <c r="F14">
+        <v>66</v>
+      </c>
+      <c r="G14">
         <v>50</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>80</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>75</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>85</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <v>90</v>
       </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
       <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="P14">
         <v>1</v>
       </c>
-      <c r="N14">
+      <c r="Q14">
         <v>1</v>
       </c>
-      <c r="O14" s="35">
+      <c r="R14" s="35">
         <v>5</v>
       </c>
-      <c r="P14" s="37">
-        <v>3</v>
-      </c>
-      <c r="S14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S14" s="37">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3805,46 +3871,55 @@
       <c r="D15">
         <v>9</v>
       </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
       <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="M15">
         <v>90</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
-      <c r="O15" s="35">
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15" s="35">
         <v>0.6</v>
       </c>
-      <c r="P15" s="37"/>
-      <c r="S15">
-        <v>2</v>
-      </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-      <c r="AA15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S15" s="37"/>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
-      <c r="N16">
+      <c r="Q16">
         <v>1</v>
       </c>
-      <c r="O16" s="35"/>
-      <c r="P16" s="37"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R16" s="35"/>
+      <c r="S16" s="37"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -3855,236 +3930,260 @@
         <v>1</v>
       </c>
       <c r="D17">
+        <v>76</v>
+      </c>
+      <c r="E17">
+        <v>38</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
         <v>5</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
       <c r="M17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
-      <c r="O17" s="35">
-        <v>1</v>
-      </c>
-      <c r="P17" s="37">
-        <v>1</v>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
-      <c r="W17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R17" s="35">
+        <v>1</v>
+      </c>
+      <c r="S17" s="37">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="O18" s="35"/>
-      <c r="P18" s="37"/>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
+      <c r="R18" s="35"/>
+      <c r="S18" s="37"/>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
         <v>1</v>
       </c>
-      <c r="AA18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" ref="B21:O21" si="5">SUM(B23:B31)</f>
+        <f t="shared" ref="B21:R21" si="6">SUM(B23:B31)</f>
         <v>10</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="6"/>
+        <v>31.5</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="E21" s="1">
-        <f t="shared" si="5"/>
+      <c r="H21" s="1">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="F21" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="5"/>
+      <c r="I21" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="H21" s="1">
-        <f t="shared" si="5"/>
+      <c r="K21" s="1">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="I21" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="J21" s="1">
-        <f>SUM(J23:J31)</f>
+      <c r="L21" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M21" s="1">
+        <f>SUM(M23:M31)</f>
         <v>97</v>
       </c>
-      <c r="K21" s="1">
-        <f t="shared" si="5"/>
+      <c r="N21" s="1">
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="L21" s="1">
-        <f t="shared" si="5"/>
+      <c r="O21" s="1">
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
-      <c r="M21" s="1">
-        <f t="shared" si="5"/>
+      <c r="P21" s="1">
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="N21" s="1">
-        <f t="shared" si="5"/>
+      <c r="Q21" s="1">
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="O21" s="1">
-        <f t="shared" si="5"/>
+      <c r="R21" s="1">
+        <f t="shared" si="6"/>
         <v>97.05</v>
       </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1">
-        <f>SUM(Q23:Q31)</f>
-        <v>93</v>
-      </c>
-      <c r="S21" s="1">
-        <f>SUM(S23:S31)</f>
-        <v>95</v>
-      </c>
+      <c r="S21" s="1"/>
       <c r="T21" s="1">
         <f>SUM(T23:T31)</f>
+        <v>93</v>
+      </c>
+      <c r="V21" s="1">
+        <f>SUM(V23:V31)</f>
         <v>95</v>
       </c>
-      <c r="U21" s="1">
-        <f>SUM(U23:U31)</f>
+      <c r="W21" s="1">
+        <f>SUM(W23:W31)</f>
+        <v>95</v>
+      </c>
+      <c r="X21" s="1">
+        <f>SUM(X23:X31)</f>
         <v>99</v>
       </c>
-      <c r="W21" s="1">
-        <f t="shared" ref="W21:AB21" si="6">SUM(W23:W31)</f>
+      <c r="Z21" s="1">
+        <f t="shared" ref="Z21:AE21" si="7">SUM(Z23:Z31)</f>
         <v>92</v>
       </c>
-      <c r="X21" s="1">
-        <f t="shared" si="6"/>
+      <c r="AA21" s="1">
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="Y21" s="1">
-        <f t="shared" si="6"/>
+      <c r="AB21" s="1">
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="Z21" s="1">
-        <f t="shared" si="6"/>
+      <c r="AC21" s="1">
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="AA21" s="1">
-        <f t="shared" si="6"/>
+      <c r="AD21" s="1">
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
-      <c r="AB21" s="1">
-        <f t="shared" si="6"/>
+      <c r="AE21" s="1">
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23">
-        <v>2</v>
-      </c>
+      <c r="N23" s="35"/>
       <c r="O23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="S23">
+      <c r="P23" s="35"/>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="V23">
         <v>1</v>
       </c>
-      <c r="T23">
+      <c r="W23">
         <v>5</v>
       </c>
-      <c r="U23">
+      <c r="X23">
         <v>9</v>
       </c>
-      <c r="X23">
+      <c r="AA23">
         <v>70</v>
       </c>
-      <c r="Y23">
+      <c r="AB23">
         <v>70</v>
       </c>
-      <c r="Z23">
+      <c r="AC23">
         <v>1</v>
       </c>
-      <c r="AA23">
-        <v>3</v>
-      </c>
-      <c r="AB23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD23">
+        <v>3</v>
+      </c>
+      <c r="AE23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="J24">
+      <c r="F24">
         <v>0.5</v>
       </c>
-      <c r="K24">
+      <c r="M24">
+        <v>0.5</v>
+      </c>
+      <c r="N24">
         <v>12</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <v>10</v>
       </c>
-      <c r="O24" s="35">
+      <c r="R24" s="35">
         <v>9</v>
       </c>
-      <c r="Q24">
+      <c r="T24">
         <v>90</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>7</v>
       </c>
-      <c r="T24">
+      <c r="W24">
         <v>7</v>
       </c>
-      <c r="U24">
+      <c r="X24">
         <v>5</v>
       </c>
-      <c r="W24">
+      <c r="Z24">
         <v>10</v>
       </c>
-      <c r="Z24">
-        <v>2</v>
-      </c>
-      <c r="AA24">
+      <c r="AC24">
+        <v>2</v>
+      </c>
+      <c r="AD24">
         <v>8</v>
       </c>
-      <c r="AB24">
+      <c r="AE24">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -4094,50 +4193,53 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
       <c r="E25">
         <v>4</v>
       </c>
       <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="J25">
         <v>6</v>
       </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
       <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="N25">
         <v>1</v>
       </c>
-      <c r="L25">
+      <c r="O25">
         <v>6</v>
       </c>
-      <c r="M25">
-        <v>4</v>
-      </c>
-      <c r="N25">
-        <v>3</v>
-      </c>
-      <c r="O25" s="35">
-        <v>4</v>
-      </c>
-      <c r="S25">
-        <v>4</v>
-      </c>
-      <c r="T25">
-        <v>2</v>
+      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25" s="35">
+        <v>4</v>
+      </c>
+      <c r="V25">
+        <v>4</v>
       </c>
       <c r="W25">
+        <v>2</v>
+      </c>
+      <c r="Z25">
         <v>6</v>
       </c>
-      <c r="AA25">
+      <c r="AD25">
         <v>5</v>
       </c>
-      <c r="AB25">
+      <c r="AE25">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -4147,168 +4249,171 @@
       <c r="C26">
         <v>6</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
+      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
         <v>6</v>
       </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
       <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
-      </c>
       <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="P26">
         <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26" s="35">
-        <v>0.05</v>
       </c>
       <c r="Q26">
         <v>1</v>
       </c>
-      <c r="S26">
-        <v>2</v>
+      <c r="R26" s="35">
+        <v>0.05</v>
       </c>
       <c r="T26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="J27">
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="M27">
         <v>90</v>
       </c>
-      <c r="M27">
+      <c r="P27">
         <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27" s="35">
-        <v>2</v>
       </c>
       <c r="Q27">
         <v>1</v>
       </c>
-      <c r="S27">
+      <c r="R27" s="35">
         <v>2</v>
       </c>
       <c r="T27">
         <v>1</v>
       </c>
-      <c r="AA27">
-        <v>3</v>
-      </c>
-      <c r="AB27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="AD27">
+        <v>3</v>
+      </c>
+      <c r="AE27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="D28">
+      <c r="G28">
         <v>6</v>
       </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28">
-        <v>4</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
       <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
         <v>0.5</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <v>74</v>
       </c>
-      <c r="L28">
+      <c r="O28">
         <v>70</v>
       </c>
-      <c r="M28">
+      <c r="P28">
         <v>78</v>
       </c>
-      <c r="N28">
+      <c r="Q28">
         <v>78</v>
       </c>
-      <c r="O28" s="35">
+      <c r="R28" s="35">
         <v>78</v>
       </c>
-      <c r="Q28">
+      <c r="T28">
         <v>1</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>70</v>
       </c>
-      <c r="T28">
+      <c r="W28">
         <v>75</v>
       </c>
-      <c r="U28">
+      <c r="X28">
         <v>85</v>
       </c>
-      <c r="W28">
+      <c r="Z28">
         <v>70</v>
       </c>
-      <c r="Y28">
+      <c r="AB28">
         <v>20</v>
       </c>
-      <c r="Z28">
+      <c r="AC28">
         <v>10</v>
       </c>
-      <c r="AA28">
+      <c r="AD28">
         <v>75</v>
       </c>
-      <c r="AB28">
+      <c r="AE28">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="O29" s="35"/>
-      <c r="S29">
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="R29" s="35"/>
+      <c r="V29">
         <v>5</v>
       </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
-      <c r="X29">
+      <c r="W29">
+        <v>2</v>
+      </c>
+      <c r="AA29">
         <v>20</v>
       </c>
-      <c r="AB29">
+      <c r="AE29">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -4319,34 +4424,43 @@
         <v>1</v>
       </c>
       <c r="D30">
+        <v>76</v>
+      </c>
+      <c r="E30">
+        <v>38</v>
+      </c>
+      <c r="F30">
+        <v>15</v>
+      </c>
+      <c r="G30">
         <v>5</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>2</v>
-      </c>
       <c r="M30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
-      <c r="O30" s="35">
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <v>4</v>
+      </c>
+      <c r="Q30">
         <v>1</v>
       </c>
-      <c r="W30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R30" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -4360,51 +4474,60 @@
         <v>2</v>
       </c>
       <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
         <v>6</v>
       </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="I31">
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="L31">
         <v>1</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>4</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
       <c r="N31">
-        <v>3</v>
-      </c>
-      <c r="O31" s="35">
-        <v>3</v>
-      </c>
-      <c r="S31">
-        <v>4</v>
-      </c>
-      <c r="T31">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31" s="35">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>4</v>
       </c>
       <c r="W31">
-        <v>4</v>
-      </c>
-      <c r="AA31">
-        <v>4</v>
-      </c>
-      <c r="AB31">
+        <v>2</v>
+      </c>
+      <c r="Z31">
+        <v>4</v>
+      </c>
+      <c r="AD31">
+        <v>4</v>
+      </c>
+      <c r="AE31">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -3085,8 +3085,8 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="F2" s="33">
         <f t="shared" si="0"/>
-        <v>90.223364485981307</v>
+        <v>91.259190031152656</v>
       </c>
       <c r="G2" s="33">
         <f t="shared" si="0"/>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="F9" s="3">
         <f>(F12+F17)/642</f>
-        <v>2.336448598130841E-2</v>
+        <v>5.9190031152647975E-2</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" ref="G9" si="3">G12/642</f>
@@ -3822,7 +3822,7 @@
         <v>74</v>
       </c>
       <c r="F14">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G14">
         <v>50</v>
@@ -3936,7 +3936,7 @@
         <v>38</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" si="6"/>
-        <v>31.5</v>
+        <v>54.5</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="6"/>
@@ -4430,7 +4430,7 @@
         <v>38</v>
       </c>
       <c r="F30">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>5</v>

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="2"/>
+    <workbookView xWindow="16740" yWindow="0" windowWidth="18375" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Surface" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,113 @@
     <author>Jadon Wade</author>
   </authors>
   <commentList>
-    <comment ref="A24" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Eve</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mun</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Minmus</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Duna</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jadon Wade</author>
+  </authors>
+  <commentList>
+    <comment ref="A25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0">
+    <comment ref="A26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,13 +190,61 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jadon Wade</author>
   </authors>
   <commentList>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Change to class 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Deprecate. Is redundant with class 3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0">
+    <comment ref="U2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="152">
   <si>
     <t>Zeonium</t>
   </si>
@@ -572,6 +726,33 @@
   </si>
   <si>
     <t>Steam (N2)</t>
+  </si>
+  <si>
+    <t>Acid</t>
+  </si>
+  <si>
+    <t>Acid(CO2)</t>
+  </si>
+  <si>
+    <t>Acid(N2)</t>
+  </si>
+  <si>
+    <t>Gas (Class5)</t>
+  </si>
+  <si>
+    <t>Metal-Sulfur</t>
+  </si>
+  <si>
+    <t>Metal-Carbon</t>
+  </si>
+  <si>
+    <t>Rock-Mineral</t>
+  </si>
+  <si>
+    <t>Kerosene</t>
+  </si>
+  <si>
+    <t>LiquidFuel</t>
   </si>
 </sst>
 </file>
@@ -584,7 +765,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -720,8 +901,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,6 +969,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -808,7 +1015,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -890,17 +1097,21 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1183,12 +1394,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1198,6 +1409,9 @@
     <col min="6" max="6" width="10.125" customWidth="1"/>
     <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="8" max="9" width="12.25" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="13" max="14" width="12.75" customWidth="1"/>
     <col min="17" max="19" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1231,16 +1445,16 @@
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -1282,19 +1496,19 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1">
         <f>SUM(K4:K24)</f>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L2" s="1">
         <f>SUM(L4:L24)</f>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M2" s="1">
         <f>SUM(M4:M24)</f>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N2" s="1">
         <f>SUM(N4:N24)</f>
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1326,10 +1540,10 @@
         <v>2</v>
       </c>
       <c r="K4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M4">
         <v>4</v>
@@ -1337,9 +1551,9 @@
       <c r="N4">
         <v>3</v>
       </c>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1404,7 +1618,7 @@
         <v>5</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -1413,7 +1627,7 @@
         <v>3</v>
       </c>
       <c r="N7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1426,7 +1640,7 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="37">
         <v>12</v>
       </c>
       <c r="E8">
@@ -1436,13 +1650,13 @@
         <v>3</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1461,20 +1675,20 @@
       <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="37">
         <v>16</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="37">
         <v>20</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="37">
         <v>18</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L9">
         <v>3</v>
@@ -1509,13 +1723,13 @@
         <v>2</v>
       </c>
       <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
         <v>6</v>
       </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
       <c r="M10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N10">
         <v>12</v>
@@ -1534,9 +1748,6 @@
       <c r="I11">
         <v>5</v>
       </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1576,7 +1787,7 @@
         <v>10</v>
       </c>
       <c r="N12">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1608,7 +1819,7 @@
         <v>4</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L13">
         <v>4</v>
@@ -1627,11 +1838,8 @@
       <c r="H14">
         <v>3</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="37">
         <v>29</v>
-      </c>
-      <c r="M14">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1669,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1680,10 +1888,7 @@
         <v>9</v>
       </c>
       <c r="L16">
-        <v>15</v>
-      </c>
-      <c r="M16">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1699,7 +1904,7 @@
       <c r="D17">
         <v>4</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="37">
         <v>15</v>
       </c>
       <c r="F17">
@@ -1714,8 +1919,11 @@
       <c r="L17">
         <v>4</v>
       </c>
+      <c r="M17">
+        <v>8</v>
+      </c>
       <c r="N17">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1725,22 +1933,22 @@
       <c r="B18" s="39">
         <v>18</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="37">
         <v>18</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="37">
         <v>11</v>
       </c>
-      <c r="E18" s="39">
-        <v>13</v>
-      </c>
-      <c r="F18" s="39">
+      <c r="E18" s="37">
+        <v>15</v>
+      </c>
+      <c r="F18" s="37">
         <v>11</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="37">
         <v>9</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="37">
         <v>5</v>
       </c>
       <c r="I18">
@@ -1750,35 +1958,38 @@
         <v>18</v>
       </c>
       <c r="L18">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
       </c>
       <c r="N18">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="37">
         <v>13</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="37">
         <v>24</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="37">
         <v>6</v>
       </c>
-      <c r="E19" s="39">
-        <v>5</v>
-      </c>
-      <c r="F19" s="39">
-        <v>5</v>
-      </c>
-      <c r="G19" s="39">
+      <c r="E19" s="37">
+        <v>5</v>
+      </c>
+      <c r="F19" s="37">
+        <v>5</v>
+      </c>
+      <c r="G19" s="37">
         <v>7</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="37">
         <v>5</v>
       </c>
       <c r="I19">
@@ -1791,10 +2002,10 @@
         <v>7</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1811,7 +2022,7 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -1823,13 +2034,16 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L20">
         <v>3</v>
       </c>
+      <c r="M20">
+        <v>6</v>
+      </c>
       <c r="N20">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1886,8 +2100,8 @@
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22">
-        <v>15</v>
+      <c r="E22" s="37">
+        <v>9</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -1901,8 +2115,11 @@
       <c r="L22">
         <v>3</v>
       </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
       <c r="N22">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2419,16 +2636,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2437,7 +2655,7 @@
     <col min="6" max="8" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2471,17 +2689,20 @@
       <c r="K1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="M1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="4">
-        <f t="shared" ref="B2:K2" si="0">SUM(B4:B19)</f>
+        <f t="shared" ref="B2:M2" si="0">SUM(B4:B20)</f>
         <v>95.140186915887853</v>
       </c>
       <c r="C2" s="4">
@@ -2520,13 +2741,17 @@
         <f t="shared" si="0"/>
         <v>91.09345794392523</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1">
-        <f>SUM(M4:M19)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L2" s="4">
+        <f t="shared" si="0"/>
+        <v>98.124610591900307</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="0"/>
+        <v>48.018691588785046</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2545,28 +2770,25 @@
       <c r="K4">
         <v>4</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>131</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2585,38 +2807,35 @@
       <c r="J6">
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>9</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>130</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="3">
-        <f>B19/642</f>
+        <f>B20/642</f>
         <v>0.14018691588785046</v>
       </c>
       <c r="C7" s="3">
-        <f>C19/642</f>
+        <f>C20/642</f>
         <v>1.5576323987538941E-2</v>
       </c>
       <c r="D7" s="3">
-        <f>D19/642</f>
+        <f>D20/642</f>
         <v>7.7881619937694704E-3</v>
       </c>
       <c r="E7" s="3">
-        <f>E19/642</f>
+        <f>E20/642</f>
         <v>7.7881619937694704E-3</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ref="F7:G7" si="1">F19/642</f>
+        <f t="shared" ref="F7:G7" si="1">F20/642</f>
         <v>0</v>
       </c>
       <c r="G7" s="3">
@@ -2624,454 +2843,501 @@
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <f>H19/642</f>
+        <f>H20/642</f>
         <v>3.1152647975077881E-3</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3">
-        <f>J19/642</f>
+        <f>J20/642</f>
         <v>8.0996884735202487E-2</v>
       </c>
       <c r="K7" s="3">
-        <f>K19/642</f>
+        <f>K20/642</f>
         <v>9.3457943925233641E-2</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="P7" t="s">
+      <c r="L7" s="3">
+        <f>L20/642</f>
+        <v>0.12461059190031153</v>
+      </c>
+      <c r="M7" s="3">
+        <f>M20/642</f>
+        <v>1.8691588785046728E-2</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="Q7" t="s">
         <v>127</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="I8">
         <v>9</v>
       </c>
-      <c r="P8" t="s">
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
         <v>124</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>128</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="L10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>85</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="M10">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>134</v>
+      </c>
+      <c r="R11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>85</v>
+      </c>
+      <c r="G14">
+        <v>18</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>95</v>
+      </c>
+      <c r="G15">
+        <v>74</v>
+      </c>
+      <c r="H15">
+        <v>70</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="37">
+        <v>22</v>
+      </c>
+      <c r="J17" s="37">
+        <v>25</v>
+      </c>
+      <c r="K17" s="37">
+        <v>12</v>
+      </c>
+      <c r="L17" s="37">
+        <v>5</v>
+      </c>
+      <c r="M17" s="37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="37">
+        <v>22</v>
+      </c>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37">
+        <v>8</v>
+      </c>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="37">
+        <v>3</v>
+      </c>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>90</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37">
+        <v>52</v>
+      </c>
+      <c r="K20" s="37">
+        <v>60</v>
+      </c>
+      <c r="L20" s="37">
         <v>80</v>
       </c>
-      <c r="P10" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12">
+      <c r="M20" s="37">
         <v>12</v>
       </c>
-      <c r="K12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>85</v>
-      </c>
-      <c r="G13">
-        <v>18</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>95</v>
-      </c>
-      <c r="G14">
-        <v>74</v>
-      </c>
-      <c r="H14">
-        <v>70</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="39">
-        <v>22</v>
-      </c>
-      <c r="J16" s="39">
-        <v>25</v>
-      </c>
-      <c r="K16" s="39">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>139</v>
-      </c>
-      <c r="I17" s="39">
-        <v>22</v>
-      </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="39">
-        <v>3</v>
-      </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>90</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39">
-        <v>52</v>
-      </c>
-      <c r="K19" s="39">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="1">
-        <f t="shared" ref="B22:J22" si="2">SUM(B24:B35)</f>
+      <c r="B23" s="1">
+        <f t="shared" ref="B23:J23" si="2">SUM(B25:B36)</f>
         <v>97</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F23" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G23" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H23" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I23" s="1">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J23" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="K22" s="1">
-        <f t="shared" ref="K22" si="3">SUM(K24:K35)</f>
+      <c r="K23" s="1">
+        <f t="shared" ref="K23:M23" si="3">SUM(K25:K36)</f>
         <v>96</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1">
-        <f>SUM(M24:M35)</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-      <c r="M24">
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>90</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>65</v>
+      </c>
+      <c r="H26">
+        <v>21</v>
+      </c>
+      <c r="J26">
+        <v>52</v>
+      </c>
+      <c r="K26">
+        <v>70</v>
+      </c>
+      <c r="M26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25">
-        <v>90</v>
-      </c>
-      <c r="C25">
-        <v>50</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>65</v>
-      </c>
-      <c r="H25">
-        <v>21</v>
-      </c>
-      <c r="J25">
-        <v>52</v>
-      </c>
-      <c r="K25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>85</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>7</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>12</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>18</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>95</v>
+      </c>
+      <c r="G31">
+        <v>74</v>
+      </c>
+      <c r="H31">
         <v>70</v>
       </c>
-      <c r="M25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>85</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>7</v>
-      </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="M27">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <v>12</v>
-      </c>
-      <c r="J28">
-        <v>4</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="E29">
-        <v>25</v>
-      </c>
-      <c r="G29">
-        <v>18</v>
-      </c>
-      <c r="J29">
-        <v>3</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>95</v>
-      </c>
-      <c r="G30">
-        <v>74</v>
-      </c>
-      <c r="H30">
-        <v>70</v>
-      </c>
-      <c r="J30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31">
+      <c r="J31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I32">
-        <v>52</v>
-      </c>
-      <c r="J32">
-        <v>25</v>
-      </c>
-      <c r="K32">
-        <v>15</v>
+      <c r="M32">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>52</v>
+      </c>
+      <c r="J33">
+        <v>25</v>
+      </c>
+      <c r="K33">
+        <v>15</v>
+      </c>
+      <c r="M33">
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>0</v>
       </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
         <v>40</v>
       </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="I35">
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="I36">
         <v>6</v>
       </c>
-      <c r="J35">
-        <v>3</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="M35">
-        <v>3</v>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3082,38 +3348,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="4" max="6" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="12.25" customWidth="1"/>
-    <col min="12" max="13" width="12.375" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="14.25" customWidth="1"/>
-    <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="19" width="12.125" customWidth="1"/>
-    <col min="20" max="20" width="12.875" customWidth="1"/>
-    <col min="21" max="21" width="12.125" customWidth="1"/>
-    <col min="22" max="22" width="10.75" customWidth="1"/>
-    <col min="23" max="23" width="11.5" customWidth="1"/>
-    <col min="24" max="24" width="10.25" customWidth="1"/>
-    <col min="26" max="26" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="12.625" customWidth="1"/>
-    <col min="30" max="30" width="12.375" customWidth="1"/>
-    <col min="31" max="31" width="12.875" customWidth="1"/>
+    <col min="7" max="8" width="9" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="12.25" customWidth="1"/>
+    <col min="14" max="15" width="12.375" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="14.25" customWidth="1"/>
+    <col min="18" max="18" width="12.625" customWidth="1"/>
+    <col min="19" max="22" width="12.125" customWidth="1"/>
+    <col min="23" max="23" width="12.875" customWidth="1"/>
+    <col min="24" max="24" width="12.125" customWidth="1"/>
+    <col min="25" max="25" width="10.75" customWidth="1"/>
+    <col min="26" max="26" width="11.5" customWidth="1"/>
+    <col min="27" max="27" width="10.25" customWidth="1"/>
+    <col min="29" max="29" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="12.625" customWidth="1"/>
+    <col min="33" max="33" width="12.375" customWidth="1"/>
+    <col min="34" max="34" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3133,116 +3400,125 @@
         <v>142</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="T1" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="S1" s="40"/>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="40"/>
+      <c r="V1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1">
-        <f t="shared" ref="B2:T2" si="0">SUM(B4:B18)</f>
+      <c r="B2" s="4">
+        <f t="shared" ref="B2:V2" si="0">SUM(B4:B23)</f>
         <v>93</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="D2" s="33">
-        <f t="shared" ref="D2:E2" si="1">SUM(D4:D18)</f>
+      <c r="D2" s="4">
+        <f t="shared" si="0"/>
         <v>85.118380062305292</v>
       </c>
-      <c r="E2" s="33">
-        <f t="shared" si="1"/>
+      <c r="E2" s="4">
+        <f t="shared" si="0"/>
         <v>89.059190031152639</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="4">
         <f t="shared" si="0"/>
         <v>91.259190031152656</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="4">
+        <f t="shared" si="0"/>
+        <v>73.004672897196258</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" si="0"/>
+        <v>78.001557632398757</v>
+      </c>
+      <c r="I2" s="4">
         <f t="shared" si="0"/>
         <v>95.007788161993773</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="4">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="4">
         <f t="shared" si="0"/>
         <v>93</v>
-      </c>
-      <c r="J2" s="4">
-        <f t="shared" si="0"/>
-        <v>92.003115264797515</v>
-      </c>
-      <c r="K2" s="4">
-        <f t="shared" si="0"/>
-        <v>90.006230529595015</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
@@ -3250,1284 +3526,1471 @@
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>96.000778816199372</v>
+        <v>90.006230529595015</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>96.615264797507791</v>
+        <v>92.003115264797515</v>
       </c>
       <c r="O2" s="4">
         <f t="shared" si="0"/>
-        <v>94.115264797507791</v>
+        <v>96.000778816199372</v>
       </c>
       <c r="P2" s="4">
         <f t="shared" si="0"/>
-        <v>99.121495327102807</v>
+        <v>96.615264797507791</v>
       </c>
       <c r="Q2" s="4">
         <f t="shared" si="0"/>
+        <v>94.115264797507791</v>
+      </c>
+      <c r="R2" s="4">
+        <f t="shared" si="0"/>
         <v>99.121495327102807</v>
       </c>
-      <c r="R2" s="34">
+      <c r="S2" s="4">
+        <f t="shared" si="0"/>
+        <v>98.124610591900307</v>
+      </c>
+      <c r="T2" s="4">
         <f t="shared" si="0"/>
         <v>91.862149532710276</v>
       </c>
-      <c r="S2" s="34">
+      <c r="U2" s="4">
         <f t="shared" si="0"/>
-        <v>96.109034267912776</v>
-      </c>
-      <c r="T2" s="4">
+        <v>98.119937694704049</v>
+      </c>
+      <c r="V2" s="4">
         <f t="shared" si="0"/>
+        <v>98.115264797507791</v>
+      </c>
+      <c r="W2" s="4">
+        <f>SUM(W4:W23)</f>
         <v>100.00778816199377</v>
       </c>
-      <c r="V2" s="4">
-        <f>SUM(V4:V18)</f>
+      <c r="Y2" s="4">
+        <f>SUM(Y5:Y23)</f>
         <v>90.109034267912776</v>
       </c>
-      <c r="W2" s="4">
-        <f>SUM(W4:W18)</f>
+      <c r="Z2" s="4">
+        <f>SUM(Z5:Z23)</f>
         <v>95.116822429906534</v>
       </c>
-      <c r="X2" s="4">
-        <f>SUM(X4:X18)</f>
+      <c r="AA2" s="4">
+        <f>SUM(AA5:AA23)</f>
         <v>99.13239875389408</v>
       </c>
-      <c r="Z2" s="4">
-        <f t="shared" ref="Z2:AE2" si="2">SUM(Z4:Z18)</f>
+      <c r="AC2" s="4">
+        <f>SUM(AC5:AC23)</f>
         <v>95.109034267912776</v>
       </c>
-      <c r="AA2" s="4">
-        <f t="shared" si="2"/>
+      <c r="AD2" s="4">
+        <f>SUM(AD5:AD23)</f>
         <v>98.031152647975077</v>
       </c>
-      <c r="AB2" s="4">
-        <f t="shared" si="2"/>
+      <c r="AE2" s="4">
+        <f>SUM(AE5:AE23)</f>
         <v>92.031152647975077</v>
       </c>
-      <c r="AC2" s="4">
-        <f t="shared" si="2"/>
+      <c r="AF2" s="4">
+        <f>SUM(AF5:AF23)</f>
         <v>11.004672897196262</v>
       </c>
-      <c r="AD2" s="4">
-        <f t="shared" si="2"/>
+      <c r="AG2" s="4">
+        <f>SUM(AG5:AG23)</f>
         <v>94.60280373831776</v>
       </c>
-      <c r="AE2" s="4">
-        <f t="shared" si="2"/>
+      <c r="AH2" s="4">
+        <f>SUM(AH5:AH23)</f>
         <v>98.085669781931472</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="37"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="Q3" s="41"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="35">
+        <v>1</v>
+      </c>
+      <c r="V4" s="43">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
         <v>6</v>
       </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>4</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="R4" s="35">
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="41">
+        <v>2</v>
+      </c>
+      <c r="T5" s="33">
         <v>0.1</v>
       </c>
-      <c r="S4" s="37">
-        <v>4</v>
-      </c>
-      <c r="V4">
+      <c r="U5" s="35"/>
+      <c r="V5" s="43"/>
+      <c r="Y5">
         <v>1</v>
       </c>
-      <c r="W4">
+      <c r="Z5">
         <v>1</v>
       </c>
-      <c r="Z4">
-        <v>5</v>
-      </c>
-      <c r="AD4">
+      <c r="AC5">
+        <v>5</v>
+      </c>
+      <c r="AG5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="N5">
+      <c r="P6">
         <v>1.5</v>
       </c>
-      <c r="O5">
+      <c r="Q6" s="41">
         <v>1</v>
       </c>
-      <c r="P5">
+      <c r="R6">
         <v>1</v>
       </c>
-      <c r="Q5">
-        <v>2</v>
-      </c>
-      <c r="R5" s="35">
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6" s="33">
         <v>1</v>
       </c>
-      <c r="S5" s="37"/>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>3</v>
-      </c>
-      <c r="W5">
-        <v>5</v>
-      </c>
-      <c r="X5">
-        <v>9</v>
-      </c>
-      <c r="AA5">
-        <v>70</v>
-      </c>
-      <c r="AB5">
-        <v>70</v>
-      </c>
-      <c r="AC5">
-        <v>1</v>
-      </c>
-      <c r="AD5">
-        <v>3</v>
-      </c>
-      <c r="AE5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="R6" s="35"/>
-      <c r="S6" s="37"/>
-      <c r="V6">
-        <v>1</v>
-      </c>
+      <c r="U6" s="35"/>
+      <c r="V6" s="43"/>
       <c r="W6">
         <v>1</v>
       </c>
+      <c r="Y6">
+        <v>3</v>
+      </c>
+      <c r="Z6">
+        <v>5</v>
+      </c>
+      <c r="AA6">
+        <v>9</v>
+      </c>
       <c r="AD6">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="AE6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>3</v>
+      </c>
+      <c r="AH6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="41"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="43"/>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>2</v>
+      </c>
+      <c r="AH7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="R7" s="35"/>
-      <c r="S7" s="37"/>
-      <c r="AE7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="Q8" s="41"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="43"/>
+      <c r="AH8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>80</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>44</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="G9">
+        <v>70</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
         <v>20</v>
       </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
         <v>91</v>
       </c>
-      <c r="J8">
+      <c r="L9">
         <v>6</v>
       </c>
-      <c r="M8">
+      <c r="O9">
         <v>1</v>
       </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="41">
         <v>1</v>
       </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-      <c r="R8" s="35">
-        <v>2</v>
-      </c>
-      <c r="S8" s="37">
-        <v>5</v>
-      </c>
-      <c r="T8">
-        <v>3</v>
-      </c>
-      <c r="V8">
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9" s="33">
+        <v>2</v>
+      </c>
+      <c r="U9" s="35">
+        <v>4</v>
+      </c>
+      <c r="V9" s="43">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="Y9">
         <v>1</v>
       </c>
-      <c r="W8">
+      <c r="Z9">
         <v>1</v>
       </c>
-      <c r="Z8">
-        <v>2</v>
-      </c>
-      <c r="AD8">
-        <v>5</v>
-      </c>
-      <c r="AE8">
+      <c r="AC9">
+        <v>2</v>
+      </c>
+      <c r="AG9">
+        <v>5</v>
+      </c>
+      <c r="AH9">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="3">
-        <f>(D12+D17)/642</f>
+      <c r="D10" s="3">
+        <f>(D13+D22)/642</f>
         <v>0.11838006230529595</v>
       </c>
-      <c r="E9" s="3">
-        <f>(E12+E17)/642</f>
+      <c r="E10" s="3">
+        <f>(E13+E22)/642</f>
         <v>5.9190031152647975E-2</v>
       </c>
-      <c r="F9" s="3">
-        <f>(F12+F17)/642</f>
+      <c r="F10" s="3">
+        <f>(F13+F22)/642</f>
         <v>5.9190031152647975E-2</v>
       </c>
-      <c r="G9" s="3">
-        <f t="shared" ref="G9" si="3">G12/642</f>
+      <c r="G10" s="3">
+        <f>(G13+G22)/642</f>
+        <v>4.6728971962616819E-3</v>
+      </c>
+      <c r="H10" s="3">
+        <f>(H13+H22)/642</f>
+        <v>1.557632398753894E-3</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" ref="I10" si="1">I13/642</f>
         <v>7.7881619937694704E-3</v>
       </c>
-      <c r="J9" s="3">
-        <f t="shared" ref="J9:X9" si="4">J12/642</f>
+      <c r="L10" s="3">
+        <f t="shared" ref="L10:AA10" si="2">L13/642</f>
         <v>3.1152647975077881E-3</v>
       </c>
-      <c r="K9" s="3">
-        <f t="shared" si="4"/>
+      <c r="M10" s="3">
+        <f t="shared" si="2"/>
         <v>6.2305295950155761E-3</v>
       </c>
-      <c r="L9" s="3">
-        <f t="shared" si="4"/>
+      <c r="N10" s="3">
+        <f t="shared" si="2"/>
         <v>3.1152647975077881E-3</v>
       </c>
-      <c r="M9" s="3">
-        <f>M12/642</f>
+      <c r="O10" s="3">
+        <f>O13/642</f>
         <v>7.7881619937694702E-4</v>
       </c>
-      <c r="N9" s="3">
-        <f t="shared" si="4"/>
+      <c r="P10" s="3">
+        <f t="shared" si="2"/>
         <v>0.11526479750778816</v>
       </c>
-      <c r="O9" s="3">
-        <f t="shared" si="4"/>
+      <c r="Q10" s="42">
+        <f t="shared" si="2"/>
         <v>0.11526479750778816</v>
       </c>
-      <c r="P9" s="3">
-        <f t="shared" si="4"/>
+      <c r="R10" s="3">
+        <f t="shared" si="2"/>
         <v>0.12149532710280374</v>
       </c>
-      <c r="Q9" s="3">
-        <f t="shared" si="4"/>
-        <v>0.12149532710280374</v>
-      </c>
-      <c r="R9" s="36">
-        <f t="shared" si="4"/>
+      <c r="S10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.12461059190031153</v>
+      </c>
+      <c r="T10" s="34">
+        <f t="shared" si="2"/>
         <v>0.11214953271028037</v>
       </c>
-      <c r="S9" s="38">
-        <f t="shared" si="4"/>
+      <c r="U10" s="36">
+        <f t="shared" si="2"/>
+        <v>0.11993769470404984</v>
+      </c>
+      <c r="V10" s="44">
+        <f>V13/642</f>
+        <v>0.11526479750778816</v>
+      </c>
+      <c r="W10" s="3">
+        <f>W13/642</f>
+        <v>7.7881619937694704E-3</v>
+      </c>
+      <c r="Y10" s="3">
+        <f t="shared" si="2"/>
         <v>0.10903426791277258</v>
       </c>
-      <c r="T9" s="3">
-        <f>T12/642</f>
-        <v>7.7881619937694704E-3</v>
-      </c>
-      <c r="V9" s="3">
-        <f t="shared" si="4"/>
+      <c r="Z10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.11682242990654206</v>
+      </c>
+      <c r="AA10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13239875389408098</v>
+      </c>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3">
+        <f>AC13/642</f>
         <v>0.10903426791277258</v>
       </c>
-      <c r="W9" s="3">
-        <f t="shared" si="4"/>
-        <v>0.11682242990654206</v>
-      </c>
-      <c r="X9" s="3">
-        <f t="shared" si="4"/>
-        <v>0.13239875389408098</v>
-      </c>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3">
-        <f>Z12/642</f>
-        <v>0.10903426791277258</v>
-      </c>
-      <c r="AA9" s="3">
-        <f t="shared" ref="AA9:AC9" si="5">AA12/642</f>
+      <c r="AD10" s="3">
+        <f t="shared" ref="AD10:AF10" si="3">AD13/642</f>
         <v>3.1152647975077882E-2</v>
       </c>
-      <c r="AB9" s="3">
-        <f t="shared" si="5"/>
+      <c r="AE10" s="3">
+        <f t="shared" si="3"/>
         <v>3.1152647975077882E-2</v>
       </c>
-      <c r="AC9" s="3">
-        <f t="shared" si="5"/>
+      <c r="AF10" s="3">
+        <f t="shared" si="3"/>
         <v>4.6728971962616819E-3</v>
       </c>
-      <c r="AD9" s="3">
-        <f>AD12/642</f>
+      <c r="AG10" s="3">
+        <f>AG13/642</f>
         <v>0.10280373831775701</v>
       </c>
-      <c r="AE9" s="3">
-        <f>AE12/642</f>
+      <c r="AH10" s="3">
+        <f>AH13/642</f>
         <v>8.566978193146417E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="38"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AB10">
-        <v>2</v>
-      </c>
-      <c r="AC10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="I11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="44"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AE11">
+        <v>2</v>
+      </c>
+      <c r="AF11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>0.2</v>
       </c>
-      <c r="M11">
+      <c r="O12">
         <v>0.5</v>
       </c>
-      <c r="N11">
+      <c r="P12">
         <v>12</v>
       </c>
-      <c r="O11">
+      <c r="Q12" s="41">
         <v>10</v>
       </c>
-      <c r="P11">
+      <c r="R12">
         <v>10</v>
       </c>
-      <c r="Q11">
+      <c r="S12">
         <v>10</v>
       </c>
-      <c r="R11" s="35">
+      <c r="T12" s="33">
         <v>10</v>
       </c>
-      <c r="S11" s="37">
+      <c r="U12" s="35">
         <v>9</v>
       </c>
-      <c r="T11">
+      <c r="V12" s="43">
+        <v>9</v>
+      </c>
+      <c r="W12">
         <v>90</v>
       </c>
-      <c r="V11">
+      <c r="Y12">
         <v>7</v>
       </c>
-      <c r="W11">
+      <c r="Z12">
         <v>7</v>
       </c>
-      <c r="X11">
-        <v>5</v>
-      </c>
-      <c r="Z11">
+      <c r="AA12">
+        <v>5</v>
+      </c>
+      <c r="AC12">
         <v>10</v>
       </c>
-      <c r="AA11">
+      <c r="AD12">
         <v>8</v>
       </c>
-      <c r="AC11">
-        <v>2</v>
-      </c>
-      <c r="AD11">
+      <c r="AF12">
+        <v>2</v>
+      </c>
+      <c r="AG12">
         <v>8</v>
       </c>
-      <c r="AE11">
+      <c r="AH12">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>52</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>4</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
         <v>0.5</v>
       </c>
-      <c r="N12">
+      <c r="P13">
         <v>74</v>
       </c>
-      <c r="O12">
+      <c r="Q13" s="41">
         <v>74</v>
       </c>
-      <c r="P12">
+      <c r="R13">
         <v>78</v>
       </c>
-      <c r="Q12">
-        <v>78</v>
-      </c>
-      <c r="R12" s="35">
+      <c r="S13">
+        <v>80</v>
+      </c>
+      <c r="T13" s="33">
         <v>72</v>
       </c>
-      <c r="S12" s="37">
+      <c r="U13" s="35">
+        <v>77</v>
+      </c>
+      <c r="V13" s="43">
+        <v>74</v>
+      </c>
+      <c r="W13">
+        <v>5</v>
+      </c>
+      <c r="Y13">
         <v>70</v>
       </c>
-      <c r="T12">
-        <v>5</v>
-      </c>
-      <c r="V12">
+      <c r="Z13">
+        <v>75</v>
+      </c>
+      <c r="AA13">
+        <v>85</v>
+      </c>
+      <c r="AC13">
         <v>70</v>
       </c>
-      <c r="W12">
-        <v>75</v>
-      </c>
-      <c r="X12">
-        <v>85</v>
-      </c>
-      <c r="Z12">
-        <v>70</v>
-      </c>
-      <c r="AA12">
+      <c r="AD13">
         <v>20</v>
       </c>
-      <c r="AB12">
+      <c r="AE13">
         <v>20</v>
       </c>
-      <c r="AC12">
-        <v>3</v>
-      </c>
-      <c r="AD12">
+      <c r="AF13">
+        <v>3</v>
+      </c>
+      <c r="AG13">
         <v>66</v>
       </c>
-      <c r="AE12">
+      <c r="AH13">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="J13">
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="L14">
         <v>6</v>
       </c>
-      <c r="K13">
+      <c r="M14">
         <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>4</v>
-      </c>
-      <c r="P13">
-        <v>4</v>
-      </c>
-      <c r="Q13">
-        <v>3</v>
-      </c>
-      <c r="R13" s="35">
-        <v>0.05</v>
-      </c>
-      <c r="S13" s="37">
-        <v>4</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="Z13">
-        <v>5</v>
-      </c>
-      <c r="AD13">
-        <v>3.5</v>
-      </c>
-      <c r="AE13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>74</v>
-      </c>
-      <c r="F14">
-        <v>44</v>
-      </c>
-      <c r="G14">
-        <v>50</v>
-      </c>
-      <c r="H14">
-        <v>80</v>
-      </c>
-      <c r="J14">
-        <v>75</v>
-      </c>
-      <c r="K14">
-        <v>85</v>
-      </c>
-      <c r="L14">
-        <v>90</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="41">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="U14" s="35"/>
+      <c r="V14" s="43"/>
+      <c r="Y14">
         <v>1</v>
       </c>
-      <c r="R14" s="35">
-        <v>5</v>
-      </c>
-      <c r="S14" s="37">
-        <v>3</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
-      <c r="W14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC14">
+        <v>5</v>
+      </c>
+      <c r="AG14">
+        <v>3.5</v>
+      </c>
+      <c r="AH14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="41"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="35">
+        <v>2</v>
+      </c>
+      <c r="V15" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>74</v>
+      </c>
+      <c r="F16">
+        <v>44</v>
+      </c>
+      <c r="H16">
+        <v>70</v>
+      </c>
+      <c r="I16">
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <v>80</v>
+      </c>
+      <c r="L16">
+        <v>75</v>
+      </c>
+      <c r="M16">
+        <v>85</v>
+      </c>
+      <c r="N16">
+        <v>90</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="41"/>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="T16" s="33">
+        <v>5</v>
+      </c>
+      <c r="U16" s="35"/>
+      <c r="V16" s="43"/>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+      <c r="Z16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>16</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>9</v>
       </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="I17">
         <v>9</v>
       </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="M15">
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="O17">
         <v>90</v>
       </c>
-      <c r="N15">
+      <c r="P17">
         <v>1</v>
       </c>
-      <c r="P15">
+      <c r="Q17" s="41"/>
+      <c r="R17">
         <v>1</v>
       </c>
-      <c r="Q15">
+      <c r="T17" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="U17" s="35"/>
+      <c r="V17" s="43"/>
+      <c r="Y17">
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <v>2</v>
+      </c>
+      <c r="AG17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="41"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="43"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="41"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="35">
         <v>1</v>
       </c>
-      <c r="R15" s="35">
-        <v>0.6</v>
-      </c>
-      <c r="S15" s="37"/>
-      <c r="V15">
-        <v>2</v>
-      </c>
-      <c r="W15">
-        <v>2</v>
-      </c>
-      <c r="AD15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q16">
+      <c r="V19" s="43">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="41"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="35">
+        <v>3</v>
+      </c>
+      <c r="V20" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q21" s="41"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="35">
         <v>1</v>
       </c>
-      <c r="R16" s="35"/>
-      <c r="S16" s="37"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="V21" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="B22">
         <v>1</v>
       </c>
-      <c r="C17">
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D22">
         <v>76</v>
       </c>
-      <c r="E17">
+      <c r="E22">
         <v>38</v>
       </c>
-      <c r="F17">
+      <c r="F22">
         <v>38</v>
       </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="J17">
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
         <v>1</v>
       </c>
-      <c r="M17">
-        <v>2</v>
-      </c>
-      <c r="N17">
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="L22">
         <v>1</v>
       </c>
-      <c r="O17">
-        <v>2</v>
-      </c>
-      <c r="P17">
-        <v>4</v>
-      </c>
-      <c r="Q17">
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
         <v>1</v>
       </c>
-      <c r="R17" s="35">
+      <c r="Q22" s="41">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>4</v>
+      </c>
+      <c r="S22">
         <v>1</v>
       </c>
-      <c r="S17" s="37">
+      <c r="T22" s="33">
         <v>1</v>
       </c>
-      <c r="T17">
+      <c r="U22" s="35"/>
+      <c r="V22" s="43"/>
+      <c r="W22">
         <v>1</v>
       </c>
-      <c r="Z17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="AC22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>50</v>
       </c>
-      <c r="R18" s="35"/>
-      <c r="S18" s="37"/>
-      <c r="V18">
-        <v>2</v>
-      </c>
-      <c r="W18">
+      <c r="T23" s="33"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="43"/>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+      <c r="Z23">
         <v>1</v>
       </c>
-      <c r="AD18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="AG23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="V24" s="43"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="V25" s="43"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="1">
-        <f t="shared" ref="B21:R21" si="6">SUM(B23:B31)</f>
+      <c r="B26" s="1">
+        <f t="shared" ref="B26:V26" si="4">SUM(B28:B38)</f>
         <v>10</v>
       </c>
-      <c r="C21" s="1">
-        <f t="shared" si="6"/>
+      <c r="C26" s="1">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" si="6"/>
+      <c r="D26" s="1">
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
-      <c r="E21" s="1">
-        <f t="shared" si="6"/>
+      <c r="E26" s="1">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="F21" s="1">
-        <f t="shared" si="6"/>
+      <c r="F26" s="1">
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" si="6"/>
+      <c r="G26" s="1">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="H21" s="1">
-        <f t="shared" si="6"/>
+      <c r="J26" s="1">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="I21" s="1">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="6"/>
+      <c r="K26" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="K21" s="1">
-        <f t="shared" si="6"/>
+      <c r="M26" s="1">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="L21" s="1">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="M21" s="1">
-        <f>SUM(M23:M31)</f>
+      <c r="N26" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O26" s="1">
+        <f>SUM(O28:O38)</f>
         <v>97</v>
       </c>
-      <c r="N21" s="1">
-        <f t="shared" si="6"/>
+      <c r="P26" s="1">
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
-      <c r="O21" s="1">
-        <f t="shared" si="6"/>
+      <c r="Q26" s="1">
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="P21" s="1">
-        <f t="shared" si="6"/>
+      <c r="R26" s="1">
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="6"/>
+      <c r="S26" s="1">
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
-      <c r="R21" s="1">
-        <f t="shared" si="6"/>
+      <c r="T26" s="1">
+        <f t="shared" si="4"/>
         <v>97.05</v>
       </c>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1">
-        <f>SUM(T23:T31)</f>
+      <c r="U26" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <f>SUM(W28:W38)</f>
         <v>93</v>
       </c>
-      <c r="V21" s="1">
-        <f>SUM(V23:V31)</f>
+      <c r="Y26" s="1">
+        <f>SUM(Y28:Y38)</f>
         <v>95</v>
       </c>
-      <c r="W21" s="1">
-        <f>SUM(W23:W31)</f>
+      <c r="Z26" s="1">
+        <f>SUM(Z28:Z38)</f>
         <v>95</v>
       </c>
-      <c r="X21" s="1">
-        <f>SUM(X23:X31)</f>
+      <c r="AA26" s="1">
+        <f>SUM(AA28:AA38)</f>
         <v>99</v>
       </c>
-      <c r="Z21" s="1">
-        <f t="shared" ref="Z21:AE21" si="7">SUM(Z23:Z31)</f>
+      <c r="AC26" s="1">
+        <f t="shared" ref="AC26:AH26" si="5">SUM(AC28:AC38)</f>
         <v>92</v>
       </c>
-      <c r="AA21" s="1">
-        <f t="shared" si="7"/>
+      <c r="AD26" s="1">
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="AB21" s="1">
-        <f t="shared" si="7"/>
+      <c r="AE26" s="1">
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="AC21" s="1">
-        <f t="shared" si="7"/>
+      <c r="AF26" s="1">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="AD21" s="1">
-        <f t="shared" si="7"/>
+      <c r="AG26" s="1">
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="AE21" s="1">
-        <f t="shared" si="7"/>
+      <c r="AH26" s="1">
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="V27" s="43"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23">
-        <v>2</v>
-      </c>
-      <c r="R23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="V23">
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28" s="33"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="33"/>
+      <c r="Y28">
         <v>1</v>
       </c>
-      <c r="W23">
-        <v>5</v>
-      </c>
-      <c r="X23">
+      <c r="Z28">
+        <v>5</v>
+      </c>
+      <c r="AA28">
         <v>9</v>
       </c>
-      <c r="AA23">
+      <c r="AD28">
         <v>70</v>
       </c>
-      <c r="AB23">
+      <c r="AE28">
         <v>70</v>
       </c>
-      <c r="AC23">
+      <c r="AF28">
         <v>1</v>
       </c>
-      <c r="AD23">
-        <v>3</v>
-      </c>
-      <c r="AE23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="AG28">
+        <v>3</v>
+      </c>
+      <c r="AH28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="F24">
+      <c r="F29">
         <v>0.5</v>
       </c>
-      <c r="M24">
+      <c r="O29">
         <v>0.5</v>
       </c>
-      <c r="N24">
+      <c r="P29">
         <v>12</v>
       </c>
-      <c r="O24">
+      <c r="Q29">
         <v>10</v>
       </c>
-      <c r="R24" s="35">
+      <c r="T29" s="33">
         <v>9</v>
       </c>
-      <c r="T24">
+      <c r="V29" s="43"/>
+      <c r="W29">
         <v>90</v>
       </c>
-      <c r="V24">
+      <c r="Y29">
         <v>7</v>
       </c>
-      <c r="W24">
+      <c r="Z29">
         <v>7</v>
       </c>
-      <c r="X24">
-        <v>5</v>
-      </c>
-      <c r="Z24">
+      <c r="AA29">
+        <v>5</v>
+      </c>
+      <c r="AC29">
         <v>10</v>
       </c>
-      <c r="AC24">
-        <v>2</v>
-      </c>
-      <c r="AD24">
+      <c r="AF29">
+        <v>2</v>
+      </c>
+      <c r="AG29">
         <v>8</v>
       </c>
-      <c r="AE24">
+      <c r="AH29">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-      <c r="H25">
-        <v>4</v>
-      </c>
-      <c r="J25">
-        <v>6</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>6</v>
-      </c>
-      <c r="P25">
-        <v>4</v>
-      </c>
-      <c r="Q25">
-        <v>3</v>
-      </c>
-      <c r="R25" s="35">
-        <v>4</v>
-      </c>
-      <c r="V25">
-        <v>4</v>
-      </c>
-      <c r="W25">
-        <v>2</v>
-      </c>
-      <c r="Z25">
-        <v>6</v>
-      </c>
-      <c r="AD25">
-        <v>5</v>
-      </c>
-      <c r="AE25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="F26">
-        <v>15</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>6</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>3</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26" s="35">
-        <v>0.05</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>2</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="M27">
-        <v>90</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="R27" s="35">
-        <v>2</v>
-      </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="V27">
-        <v>2</v>
-      </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="AD27">
-        <v>3</v>
-      </c>
-      <c r="AE27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>6</v>
-      </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-      <c r="K28">
-        <v>4</v>
-      </c>
-      <c r="L28">
-        <v>2</v>
-      </c>
-      <c r="M28">
-        <v>0.5</v>
-      </c>
-      <c r="N28">
-        <v>74</v>
-      </c>
-      <c r="O28">
-        <v>70</v>
-      </c>
-      <c r="P28">
-        <v>78</v>
-      </c>
-      <c r="Q28">
-        <v>78</v>
-      </c>
-      <c r="R28" s="35">
-        <v>78</v>
-      </c>
-      <c r="T28">
-        <v>1</v>
-      </c>
-      <c r="V28">
-        <v>70</v>
-      </c>
-      <c r="W28">
-        <v>75</v>
-      </c>
-      <c r="X28">
-        <v>85</v>
-      </c>
-      <c r="Z28">
-        <v>70</v>
-      </c>
-      <c r="AB28">
-        <v>20</v>
-      </c>
-      <c r="AC28">
-        <v>10</v>
-      </c>
-      <c r="AD28">
-        <v>75</v>
-      </c>
-      <c r="AE28">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="R29" s="35"/>
-      <c r="V29">
-        <v>5</v>
-      </c>
-      <c r="W29">
-        <v>2</v>
-      </c>
-      <c r="AA29">
-        <v>20</v>
-      </c>
-      <c r="AE29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30">
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>6</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>4</v>
+      </c>
+      <c r="S30">
+        <v>3</v>
+      </c>
+      <c r="T30" s="33">
+        <v>4</v>
+      </c>
+      <c r="V30" s="43"/>
+      <c r="Y30">
+        <v>4</v>
+      </c>
+      <c r="Z30">
+        <v>2</v>
+      </c>
+      <c r="AC30">
+        <v>6</v>
+      </c>
+      <c r="AG30">
+        <v>5</v>
+      </c>
+      <c r="AH30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="T31" s="33"/>
+      <c r="V31" s="43"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>15</v>
+      </c>
+      <c r="H32">
+        <v>20</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="V32" s="43"/>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>2</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>90</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33" s="33">
+        <v>2</v>
+      </c>
+      <c r="V33" s="43"/>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>2</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AG33">
+        <v>3</v>
+      </c>
+      <c r="AH33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="T34" s="33"/>
+      <c r="V34" s="43"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>0.5</v>
+      </c>
+      <c r="P35">
+        <v>74</v>
+      </c>
+      <c r="Q35">
+        <v>70</v>
+      </c>
+      <c r="R35">
+        <v>78</v>
+      </c>
+      <c r="S35">
+        <v>78</v>
+      </c>
+      <c r="T35" s="33">
+        <v>78</v>
+      </c>
+      <c r="V35" s="43"/>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>70</v>
+      </c>
+      <c r="Z35">
+        <v>75</v>
+      </c>
+      <c r="AA35">
+        <v>85</v>
+      </c>
+      <c r="AC35">
+        <v>70</v>
+      </c>
+      <c r="AE35">
+        <v>20</v>
+      </c>
+      <c r="AF35">
+        <v>10</v>
+      </c>
+      <c r="AG35">
+        <v>75</v>
+      </c>
+      <c r="AH35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="T36" s="33"/>
+      <c r="V36" s="43"/>
+      <c r="Y36">
+        <v>5</v>
+      </c>
+      <c r="Z36">
+        <v>2</v>
+      </c>
+      <c r="AD36">
+        <v>20</v>
+      </c>
+      <c r="AH36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
         <v>76</v>
       </c>
-      <c r="E30">
+      <c r="E37">
         <v>38</v>
       </c>
-      <c r="F30">
+      <c r="F37">
         <v>38</v>
       </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="J30">
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
         <v>1</v>
       </c>
-      <c r="M30">
-        <v>2</v>
-      </c>
-      <c r="N30">
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="L37">
         <v>1</v>
       </c>
-      <c r="O30">
-        <v>2</v>
-      </c>
-      <c r="P30">
-        <v>4</v>
-      </c>
-      <c r="Q30">
+      <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="P37">
         <v>1</v>
       </c>
-      <c r="R30" s="35">
+      <c r="Q37">
+        <v>2</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
         <v>1</v>
       </c>
-      <c r="Z30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="T37" s="33">
+        <v>1</v>
+      </c>
+      <c r="V37" s="43"/>
+      <c r="AC37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>0</v>
       </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
         <v>1</v>
       </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
         <v>1</v>
       </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
         <v>6</v>
       </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
-      <c r="L31">
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="N38">
         <v>1</v>
       </c>
-      <c r="M31">
+      <c r="O38">
         <v>1</v>
       </c>
-      <c r="N31">
+      <c r="P38">
         <v>1</v>
       </c>
-      <c r="O31">
-        <v>4</v>
-      </c>
-      <c r="P31">
+      <c r="Q38">
+        <v>4</v>
+      </c>
+      <c r="R38">
         <v>1</v>
       </c>
-      <c r="Q31">
-        <v>3</v>
-      </c>
-      <c r="R31" s="35">
-        <v>3</v>
-      </c>
-      <c r="V31">
-        <v>4</v>
-      </c>
-      <c r="W31">
-        <v>2</v>
-      </c>
-      <c r="Z31">
-        <v>4</v>
-      </c>
-      <c r="AD31">
-        <v>4</v>
-      </c>
-      <c r="AE31">
+      <c r="S38">
+        <v>3</v>
+      </c>
+      <c r="T38" s="33">
+        <v>3</v>
+      </c>
+      <c r="V38" s="43"/>
+      <c r="Y38">
+        <v>4</v>
+      </c>
+      <c r="Z38">
+        <v>2</v>
+      </c>
+      <c r="AC38">
+        <v>4</v>
+      </c>
+      <c r="AG38">
+        <v>4</v>
+      </c>
+      <c r="AH38">
         <v>6</v>
       </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="V39" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="0" windowWidth="18375" windowHeight="8625"/>
+    <workbookView xWindow="17670" yWindow="0" windowWidth="18375" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Surface" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
     <author>Jadon Wade</author>
   </authors>
   <commentList>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="S2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jadon Wade:</t>
         </r>
@@ -213,34 +213,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Change to class 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jadon Wade:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Deprecate. Is redundant with class 3</t>
+Produced by forum user @Clamp-o-Tron in blue text.</t>
         </r>
       </text>
     </comment>
@@ -264,31 +240,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Produced by forum user @Clamp-o-Tron in blue text.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jadon Wade:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Drafted by myself but not produced.</t>
+Drafted by myself.</t>
         </r>
       </text>
     </comment>
@@ -297,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="151">
   <si>
     <t>Zeonium</t>
   </si>
@@ -485,12 +437,6 @@
     <t>Gas (Class2)</t>
   </si>
   <si>
-    <t>Gas (Uranian)</t>
-  </si>
-  <si>
-    <t>Gas (Jovian)</t>
-  </si>
-  <si>
     <t>Ice-Ammonia</t>
   </si>
   <si>
@@ -753,6 +699,9 @@
   </si>
   <si>
     <t>LiquidFuel</t>
+  </si>
+  <si>
+    <t>Gas (Class1)</t>
   </si>
 </sst>
 </file>
@@ -765,7 +714,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -914,15 +863,8 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="5" tint="0.59999389629810485"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -969,12 +911,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1015,7 +951,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1100,18 +1036,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1398,8 +1330,8 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1426,7 +1358,7 @@
         <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>39</v>
@@ -1445,16 +1377,16 @@
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -1551,9 +1483,9 @@
       <c r="N4">
         <v>3</v>
       </c>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1640,7 +1572,7 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>12</v>
       </c>
       <c r="E8">
@@ -1675,13 +1607,13 @@
       <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="36">
         <v>16</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="36">
         <v>20</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <v>18</v>
       </c>
       <c r="I9">
@@ -1838,7 +1770,7 @@
       <c r="H14">
         <v>3</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="36">
         <v>29</v>
       </c>
     </row>
@@ -1890,6 +1822,9 @@
       <c r="L16">
         <v>5</v>
       </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1904,7 +1839,7 @@
       <c r="D17">
         <v>4</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="36">
         <v>15</v>
       </c>
       <c r="F17">
@@ -1930,25 +1865,25 @@
       <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="36">
         <v>18</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="36">
         <v>18</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="36">
         <v>11</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="36">
         <v>15</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="36">
         <v>11</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="36">
         <v>9</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="36">
         <v>5</v>
       </c>
       <c r="I18">
@@ -1964,32 +1899,32 @@
         <v>5</v>
       </c>
       <c r="N18">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="36">
         <v>13</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="36">
         <v>24</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="36">
         <v>6</v>
       </c>
-      <c r="E19" s="37">
-        <v>5</v>
-      </c>
-      <c r="F19" s="37">
-        <v>5</v>
-      </c>
-      <c r="G19" s="37">
+      <c r="E19" s="36">
+        <v>5</v>
+      </c>
+      <c r="F19" s="36">
+        <v>5</v>
+      </c>
+      <c r="G19" s="36">
         <v>7</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="36">
         <v>5</v>
       </c>
       <c r="I19">
@@ -2010,7 +1945,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -2100,7 +2035,7 @@
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="36">
         <v>9</v>
       </c>
       <c r="F22">
@@ -2675,25 +2610,25 @@
         <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N1" s="2"/>
     </row>
@@ -2771,7 +2706,7 @@
         <v>4</v>
       </c>
       <c r="R4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -2782,10 +2717,10 @@
         <v>4</v>
       </c>
       <c r="Q5" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" t="s">
         <v>131</v>
-      </c>
-      <c r="R5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -2808,10 +2743,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="s">
+        <v>128</v>
+      </c>
+      <c r="R6" t="s">
         <v>130</v>
-      </c>
-      <c r="R6" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -2865,10 +2800,10 @@
       </c>
       <c r="N7" s="3"/>
       <c r="Q7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -2882,10 +2817,10 @@
         <v>4</v>
       </c>
       <c r="Q8" t="s">
+        <v>122</v>
+      </c>
+      <c r="R8" t="s">
         <v>124</v>
-      </c>
-      <c r="R8" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -2893,15 +2828,15 @@
         <v>26</v>
       </c>
       <c r="Q9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L10">
         <v>12</v>
@@ -2930,10 +2865,10 @@
         <v>3</v>
       </c>
       <c r="Q11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -3010,47 +2945,47 @@
       <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="36">
         <v>22</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="36">
         <v>25</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="36">
         <v>12</v>
       </c>
-      <c r="L17" s="37">
-        <v>5</v>
-      </c>
-      <c r="M17" s="37">
+      <c r="L17" s="36">
+        <v>5</v>
+      </c>
+      <c r="M17" s="36">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>139</v>
-      </c>
-      <c r="I18" s="37">
+        <v>137</v>
+      </c>
+      <c r="I18" s="36">
         <v>22</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37">
+      <c r="J18" s="36"/>
+      <c r="K18" s="36">
         <v>8</v>
       </c>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="37">
-        <v>3</v>
-      </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
+      <c r="I19" s="36">
+        <v>3</v>
+      </c>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -3071,17 +3006,17 @@
       <c r="H20">
         <v>2</v>
       </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37">
+      <c r="I20" s="36"/>
+      <c r="J20" s="36">
         <v>52</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="36">
         <v>60</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="36">
         <v>80</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="36">
         <v>12</v>
       </c>
     </row>
@@ -3348,11 +3283,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH39"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U9" sqref="U9"/>
+      <selection pane="topRight" activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3366,56 +3301,55 @@
     <col min="13" max="13" width="12.25" customWidth="1"/>
     <col min="14" max="15" width="12.375" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="14.25" customWidth="1"/>
-    <col min="18" max="18" width="12.625" customWidth="1"/>
-    <col min="19" max="22" width="12.125" customWidth="1"/>
-    <col min="23" max="23" width="12.875" customWidth="1"/>
-    <col min="24" max="24" width="12.125" customWidth="1"/>
-    <col min="25" max="25" width="10.75" customWidth="1"/>
-    <col min="26" max="26" width="11.5" customWidth="1"/>
-    <col min="27" max="27" width="10.25" customWidth="1"/>
-    <col min="29" max="29" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="12.625" customWidth="1"/>
-    <col min="33" max="33" width="12.375" customWidth="1"/>
-    <col min="34" max="34" width="12.875" customWidth="1"/>
+    <col min="17" max="17" width="12.625" customWidth="1"/>
+    <col min="18" max="21" width="12.125" customWidth="1"/>
+    <col min="22" max="22" width="12.875" customWidth="1"/>
+    <col min="23" max="23" width="12.125" customWidth="1"/>
+    <col min="24" max="24" width="10.75" customWidth="1"/>
+    <col min="25" max="25" width="11.5" customWidth="1"/>
+    <col min="26" max="26" width="10.25" customWidth="1"/>
+    <col min="28" max="28" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="12.625" customWidth="1"/>
+    <col min="32" max="32" width="12.375" customWidth="1"/>
+    <col min="33" max="33" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>36</v>
@@ -3427,41 +3361,41 @@
         <v>20</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="U1" s="40"/>
+      <c r="S1" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="T1" s="41"/>
+      <c r="U1" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="V1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA1" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="AB1" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="AC1" s="2" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>117</v>
@@ -3470,18 +3404,15 @@
         <v>119</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="4">
-        <f t="shared" ref="B2:V2" si="0">SUM(B4:B23)</f>
+        <f t="shared" ref="B2:U2" si="0">SUM(B4:B23)</f>
         <v>93</v>
       </c>
       <c r="C2" s="4">
@@ -3542,93 +3473,87 @@
       </c>
       <c r="Q2" s="4">
         <f t="shared" si="0"/>
-        <v>94.115264797507791</v>
+        <v>99.121495327102807</v>
       </c>
       <c r="R2" s="4">
         <f t="shared" si="0"/>
-        <v>99.121495327102807</v>
+        <v>98.124610591900307</v>
       </c>
       <c r="S2" s="4">
         <f t="shared" si="0"/>
-        <v>98.124610591900307</v>
+        <v>91.862149532710276</v>
       </c>
       <c r="T2" s="4">
         <f t="shared" si="0"/>
-        <v>91.862149532710276</v>
+        <v>98.615264797507791</v>
       </c>
       <c r="U2" s="4">
         <f t="shared" si="0"/>
-        <v>98.119937694704049</v>
+        <v>100.61526479750779</v>
       </c>
       <c r="V2" s="4">
-        <f t="shared" si="0"/>
-        <v>98.115264797507791</v>
-      </c>
-      <c r="W2" s="4">
-        <f>SUM(W4:W23)</f>
+        <f>SUM(V4:V23)</f>
         <v>100.00778816199377</v>
+      </c>
+      <c r="X2" s="4">
+        <f>SUM(X5:X23)</f>
+        <v>90.109034267912776</v>
       </c>
       <c r="Y2" s="4">
         <f>SUM(Y5:Y23)</f>
-        <v>90.109034267912776</v>
+        <v>95.116822429906534</v>
       </c>
       <c r="Z2" s="4">
         <f>SUM(Z5:Z23)</f>
-        <v>95.116822429906534</v>
-      </c>
-      <c r="AA2" s="4">
-        <f>SUM(AA5:AA23)</f>
         <v>99.13239875389408</v>
       </c>
+      <c r="AB2" s="4">
+        <f t="shared" ref="AB2:AG2" si="1">SUM(AB5:AB23)</f>
+        <v>95.109034267912776</v>
+      </c>
       <c r="AC2" s="4">
-        <f>SUM(AC5:AC23)</f>
-        <v>95.109034267912776</v>
+        <f t="shared" si="1"/>
+        <v>98.031152647975077</v>
       </c>
       <c r="AD2" s="4">
-        <f>SUM(AD5:AD23)</f>
-        <v>98.031152647975077</v>
+        <f t="shared" si="1"/>
+        <v>92.031152647975077</v>
       </c>
       <c r="AE2" s="4">
-        <f>SUM(AE5:AE23)</f>
-        <v>92.031152647975077</v>
+        <f t="shared" si="1"/>
+        <v>11.004672897196262</v>
       </c>
       <c r="AF2" s="4">
-        <f>SUM(AF5:AF23)</f>
-        <v>11.004672897196262</v>
+        <f t="shared" si="1"/>
+        <v>94.60280373831776</v>
       </c>
       <c r="AG2" s="4">
-        <f>SUM(AG5:AG23)</f>
-        <v>94.60280373831776</v>
-      </c>
-      <c r="AH2" s="4">
-        <f>SUM(AH5:AH23)</f>
+        <f t="shared" si="1"/>
         <v>98.085669781931472</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="Q3" s="41"/>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="38"/>
       <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="41"/>
+      <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="35">
+      <c r="S4" s="33"/>
+      <c r="T4" s="38">
         <v>1</v>
       </c>
-      <c r="V4" s="43">
+      <c r="U4" s="38">
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -3650,110 +3575,102 @@
       <c r="P5">
         <v>4</v>
       </c>
-      <c r="Q5" s="41">
-        <v>2</v>
-      </c>
-      <c r="T5" s="33">
+      <c r="S5" s="33">
         <v>0.1</v>
       </c>
-      <c r="U5" s="35"/>
-      <c r="V5" s="43"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="X5">
+        <v>1</v>
+      </c>
       <c r="Y5">
         <v>1</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
+        <v>5</v>
+      </c>
+      <c r="AF5">
         <v>1</v>
       </c>
-      <c r="AC5">
-        <v>5</v>
-      </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="P6">
         <v>1.5</v>
       </c>
-      <c r="Q6" s="41">
+      <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6" s="33">
         <v>1</v>
       </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
-      <c r="T6" s="33">
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6">
         <v>1</v>
       </c>
-      <c r="U6" s="35"/>
-      <c r="V6" s="43"/>
-      <c r="W6">
-        <v>1</v>
+      <c r="X6">
+        <v>3</v>
       </c>
       <c r="Y6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z6">
-        <v>5</v>
-      </c>
-      <c r="AA6">
         <v>9</v>
+      </c>
+      <c r="AC6">
+        <v>70</v>
       </c>
       <c r="AD6">
         <v>70</v>
       </c>
       <c r="AE6">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG6">
         <v>3</v>
       </c>
-      <c r="AH6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" s="41"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="43"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="X7">
+        <v>1</v>
+      </c>
       <c r="Y7">
         <v>1</v>
       </c>
-      <c r="Z7">
-        <v>1</v>
+      <c r="AF7">
+        <v>2</v>
       </c>
       <c r="AG7">
-        <v>2</v>
-      </c>
-      <c r="AH7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="41"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="43"/>
-      <c r="AH8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="S8" s="33"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="AG8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -3793,41 +3710,38 @@
       <c r="P9">
         <v>2</v>
       </c>
-      <c r="Q9" s="41">
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9" s="33">
+        <v>2</v>
+      </c>
+      <c r="T9" s="38">
+        <v>4</v>
+      </c>
+      <c r="U9" s="38">
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="X9">
         <v>1</v>
-      </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9" s="33">
-        <v>2</v>
-      </c>
-      <c r="U9" s="35">
-        <v>4</v>
-      </c>
-      <c r="V9" s="43">
-        <v>4</v>
-      </c>
-      <c r="W9">
-        <v>3</v>
       </c>
       <c r="Y9">
         <v>1</v>
       </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-      <c r="AC9">
-        <v>2</v>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AF9">
+        <v>5</v>
       </c>
       <c r="AG9">
-        <v>5</v>
-      </c>
-      <c r="AH9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -3852,19 +3766,19 @@
         <v>1.557632398753894E-3</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" ref="I10" si="1">I13/642</f>
+        <f t="shared" ref="I10" si="2">I13/642</f>
         <v>7.7881619937694704E-3</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" ref="L10:AA10" si="2">L13/642</f>
+        <f t="shared" ref="L10:Z10" si="3">L13/642</f>
         <v>3.1152647975077881E-3</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.2305295950155761E-3</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1152647975077881E-3</v>
       </c>
       <c r="O10" s="3">
@@ -3872,103 +3786,98 @@
         <v>7.7881619937694702E-4</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11526479750778816</v>
       </c>
-      <c r="Q10" s="42">
-        <f t="shared" si="2"/>
+      <c r="Q10" s="3">
+        <f t="shared" si="3"/>
+        <v>0.12149532710280374</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" si="3"/>
+        <v>0.12461059190031153</v>
+      </c>
+      <c r="S10" s="34">
+        <f t="shared" si="3"/>
+        <v>0.11214953271028037</v>
+      </c>
+      <c r="T10" s="39">
+        <f t="shared" si="3"/>
         <v>0.11526479750778816</v>
       </c>
-      <c r="R10" s="3">
-        <f t="shared" si="2"/>
-        <v>0.12149532710280374</v>
-      </c>
-      <c r="S10" s="3">
-        <f t="shared" si="2"/>
-        <v>0.12461059190031153</v>
-      </c>
-      <c r="T10" s="34">
-        <f t="shared" si="2"/>
-        <v>0.11214953271028037</v>
-      </c>
-      <c r="U10" s="36">
-        <f t="shared" si="2"/>
-        <v>0.11993769470404984</v>
-      </c>
-      <c r="V10" s="44">
+      <c r="U10" s="39">
+        <f>U13/642</f>
+        <v>0.11526479750778816</v>
+      </c>
+      <c r="V10" s="3">
         <f>V13/642</f>
-        <v>0.11526479750778816</v>
-      </c>
-      <c r="W10" s="3">
-        <f>W13/642</f>
         <v>7.7881619937694704E-3</v>
       </c>
+      <c r="X10" s="3">
+        <f t="shared" si="3"/>
+        <v>0.10903426791277258</v>
+      </c>
       <c r="Y10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0.11682242990654206</v>
+      </c>
+      <c r="Z10" s="3">
+        <f t="shared" si="3"/>
+        <v>0.13239875389408098</v>
+      </c>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3">
+        <f>AB13/642</f>
         <v>0.10903426791277258</v>
       </c>
-      <c r="Z10" s="3">
-        <f t="shared" si="2"/>
-        <v>0.11682242990654206</v>
-      </c>
-      <c r="AA10" s="3">
-        <f t="shared" si="2"/>
-        <v>0.13239875389408098</v>
-      </c>
-      <c r="AB10" s="3"/>
       <c r="AC10" s="3">
-        <f>AC13/642</f>
-        <v>0.10903426791277258</v>
+        <f t="shared" ref="AC10:AE10" si="4">AC13/642</f>
+        <v>3.1152647975077882E-2</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" ref="AD10:AF10" si="3">AD13/642</f>
+        <f t="shared" si="4"/>
         <v>3.1152647975077882E-2</v>
       </c>
       <c r="AE10" s="3">
-        <f t="shared" si="3"/>
-        <v>3.1152647975077882E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.6728971962616819E-3</v>
       </c>
       <c r="AF10" s="3">
-        <f t="shared" si="3"/>
-        <v>4.6728971962616819E-3</v>
+        <f>AF13/642</f>
+        <v>0.10280373831775701</v>
       </c>
       <c r="AG10" s="3">
         <f>AG13/642</f>
-        <v>0.10280373831775701</v>
-      </c>
-      <c r="AH10" s="3">
-        <f>AH13/642</f>
         <v>8.566978193146417E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="42"/>
+      <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="44"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
+      <c r="AD11">
+        <v>2</v>
+      </c>
       <c r="AE11">
-        <v>2</v>
-      </c>
-      <c r="AF11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -3981,53 +3890,50 @@
       <c r="P12">
         <v>12</v>
       </c>
-      <c r="Q12" s="41">
+      <c r="Q12">
         <v>10</v>
       </c>
       <c r="R12">
         <v>10</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="33">
         <v>10</v>
       </c>
-      <c r="T12" s="33">
-        <v>10</v>
-      </c>
-      <c r="U12" s="35">
-        <v>9</v>
-      </c>
-      <c r="V12" s="43">
-        <v>9</v>
-      </c>
-      <c r="W12">
+      <c r="T12" s="38">
+        <v>7</v>
+      </c>
+      <c r="U12" s="38">
+        <v>7</v>
+      </c>
+      <c r="V12">
         <v>90</v>
+      </c>
+      <c r="X12">
+        <v>7</v>
       </c>
       <c r="Y12">
         <v>7</v>
       </c>
       <c r="Z12">
-        <v>7</v>
-      </c>
-      <c r="AA12">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="AB12">
+        <v>10</v>
       </c>
       <c r="AC12">
-        <v>10</v>
-      </c>
-      <c r="AD12">
         <v>8</v>
       </c>
+      <c r="AE12">
+        <v>2</v>
+      </c>
       <c r="AF12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AG12">
-        <v>8</v>
-      </c>
-      <c r="AH12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -4052,56 +3958,53 @@
       <c r="P13">
         <v>74</v>
       </c>
-      <c r="Q13" s="41">
+      <c r="Q13">
+        <v>78</v>
+      </c>
+      <c r="R13">
+        <v>80</v>
+      </c>
+      <c r="S13" s="33">
+        <v>72</v>
+      </c>
+      <c r="T13" s="38">
         <v>74</v>
       </c>
-      <c r="R13">
-        <v>78</v>
-      </c>
-      <c r="S13">
-        <v>80</v>
-      </c>
-      <c r="T13" s="33">
-        <v>72</v>
-      </c>
-      <c r="U13" s="35">
-        <v>77</v>
-      </c>
-      <c r="V13" s="43">
+      <c r="U13" s="38">
         <v>74</v>
       </c>
-      <c r="W13">
-        <v>5</v>
+      <c r="V13">
+        <v>5</v>
+      </c>
+      <c r="X13">
+        <v>70</v>
       </c>
       <c r="Y13">
+        <v>75</v>
+      </c>
+      <c r="Z13">
+        <v>85</v>
+      </c>
+      <c r="AB13">
         <v>70</v>
       </c>
-      <c r="Z13">
-        <v>75</v>
-      </c>
-      <c r="AA13">
-        <v>85</v>
-      </c>
       <c r="AC13">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="AD13">
         <v>20</v>
       </c>
       <c r="AE13">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AF13">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="AG13">
-        <v>66</v>
-      </c>
-      <c r="AH13">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -4123,47 +4026,43 @@
       <c r="P14">
         <v>1</v>
       </c>
-      <c r="Q14" s="41">
+      <c r="Q14">
         <v>4</v>
       </c>
       <c r="R14">
-        <v>4</v>
-      </c>
-      <c r="S14">
-        <v>3</v>
-      </c>
-      <c r="T14" s="33">
+        <v>3</v>
+      </c>
+      <c r="S14" s="33">
         <v>0.05</v>
       </c>
-      <c r="U14" s="35"/>
-      <c r="V14" s="43"/>
-      <c r="Y14">
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="X14">
         <v>1</v>
       </c>
-      <c r="AC14">
-        <v>5</v>
+      <c r="AB14">
+        <v>5</v>
+      </c>
+      <c r="AF14">
+        <v>3.5</v>
       </c>
       <c r="AG14">
-        <v>3.5</v>
-      </c>
-      <c r="AH14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="41"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="35">
-        <v>2</v>
-      </c>
-      <c r="V15" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="S15" s="33"/>
+      <c r="T15" s="38">
+        <v>2</v>
+      </c>
+      <c r="U15" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -4197,23 +4096,26 @@
       <c r="O16">
         <v>2</v>
       </c>
-      <c r="Q16" s="41"/>
-      <c r="R16">
+      <c r="Q16">
         <v>1</v>
       </c>
-      <c r="T16" s="33">
-        <v>5</v>
-      </c>
-      <c r="U16" s="35"/>
-      <c r="V16" s="43"/>
+      <c r="S16" s="33">
+        <v>5</v>
+      </c>
+      <c r="T16" s="38">
+        <v>5</v>
+      </c>
+      <c r="U16" s="38">
+        <v>4</v>
+      </c>
+      <c r="X16">
+        <v>2</v>
+      </c>
       <c r="Y16">
         <v>2</v>
       </c>
-      <c r="Z16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -4241,74 +4143,73 @@
       <c r="P17">
         <v>1</v>
       </c>
-      <c r="Q17" s="41"/>
-      <c r="R17">
+      <c r="Q17">
         <v>1</v>
       </c>
-      <c r="T17" s="33">
+      <c r="S17" s="33">
         <v>0.6</v>
       </c>
-      <c r="U17" s="35"/>
-      <c r="V17" s="43"/>
+      <c r="T17" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="U17" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
       <c r="Y17">
         <v>2</v>
       </c>
-      <c r="Z17">
-        <v>2</v>
-      </c>
-      <c r="AG17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
-      <c r="Q18" s="41"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="43"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="S18" s="33"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="Q19" s="41"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="35">
+      <c r="S19" s="33"/>
+      <c r="T19" s="38">
         <v>1</v>
       </c>
-      <c r="V19" s="43">
+      <c r="U19" s="38">
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="41"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="35">
-        <v>3</v>
-      </c>
-      <c r="V20" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="S20" s="33"/>
+      <c r="T20" s="38">
+        <v>3</v>
+      </c>
+      <c r="U20" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q21" s="41"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="35">
+        <v>137</v>
+      </c>
+      <c r="S21" s="33"/>
+      <c r="T21" s="38">
         <v>1</v>
       </c>
-      <c r="V21" s="43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="U21" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -4345,104 +4246,101 @@
       <c r="P22">
         <v>1</v>
       </c>
-      <c r="Q22" s="41">
-        <v>2</v>
+      <c r="Q22">
+        <v>4</v>
       </c>
       <c r="R22">
-        <v>4</v>
-      </c>
-      <c r="S22">
         <v>1</v>
       </c>
-      <c r="T22" s="33">
+      <c r="S22" s="33">
         <v>1</v>
       </c>
-      <c r="U22" s="35"/>
-      <c r="V22" s="43"/>
-      <c r="W22">
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22">
         <v>1</v>
       </c>
-      <c r="AC22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AB22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
-      <c r="T23" s="33"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="43"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="38"/>
+      <c r="X23">
+        <v>2</v>
+      </c>
       <c r="Y23">
-        <v>2</v>
-      </c>
-      <c r="Z23">
         <v>1</v>
       </c>
-      <c r="AG23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="V24" s="43"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="V25" s="43"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="U24" s="38"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="U25" s="38"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" ref="B26:V26" si="4">SUM(B28:B38)</f>
+        <f t="shared" ref="B26:U26" si="5">SUM(B28:B38)</f>
         <v>10</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="O26" s="1">
@@ -4450,36 +4348,36 @@
         <v>97</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="4"/>
-        <v>92</v>
+        <f t="shared" si="5"/>
+        <v>89</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="4"/>
-        <v>89</v>
+        <f t="shared" si="5"/>
+        <v>97.05</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" si="4"/>
-        <v>97.05</v>
-      </c>
-      <c r="U26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V26" s="45">
-        <f t="shared" si="4"/>
+      <c r="U26" s="40">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W26" s="1">
-        <f>SUM(W28:W38)</f>
+      <c r="V26" s="1">
+        <f>SUM(V28:V38)</f>
         <v>93</v>
+      </c>
+      <c r="X26" s="1">
+        <f>SUM(X28:X38)</f>
+        <v>95</v>
       </c>
       <c r="Y26" s="1">
         <f>SUM(Y28:Y38)</f>
@@ -4487,79 +4385,74 @@
       </c>
       <c r="Z26" s="1">
         <f>SUM(Z28:Z38)</f>
-        <v>95</v>
-      </c>
-      <c r="AA26" s="1">
-        <f>SUM(AA28:AA38)</f>
         <v>99</v>
       </c>
+      <c r="AB26" s="1">
+        <f t="shared" ref="AB26:AG26" si="6">SUM(AB28:AB38)</f>
+        <v>92</v>
+      </c>
       <c r="AC26" s="1">
-        <f t="shared" ref="AC26:AH26" si="5">SUM(AC28:AC38)</f>
-        <v>92</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
       <c r="AD26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="AE26" s="1">
-        <f t="shared" si="5"/>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="AF26" s="1">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" si="6"/>
+        <v>98</v>
       </c>
       <c r="AG26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
-      <c r="AH26" s="1">
-        <f t="shared" si="5"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="V27" s="43"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="U27" s="38"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
       <c r="P28" s="33"/>
       <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28">
-        <v>2</v>
-      </c>
-      <c r="T28" s="33"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="33"/>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28" s="33"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="33"/>
+      <c r="X28">
+        <v>1</v>
+      </c>
       <c r="Y28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z28">
-        <v>5</v>
-      </c>
-      <c r="AA28">
         <v>9</v>
+      </c>
+      <c r="AC28">
+        <v>70</v>
       </c>
       <c r="AD28">
         <v>70</v>
       </c>
       <c r="AE28">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="AF28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG28">
         <v>3</v>
       </c>
-      <c r="AH28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -4572,39 +4465,36 @@
       <c r="P29">
         <v>12</v>
       </c>
-      <c r="Q29">
-        <v>10</v>
-      </c>
-      <c r="T29" s="33">
+      <c r="S29" s="33">
         <v>9</v>
       </c>
-      <c r="V29" s="43"/>
-      <c r="W29">
+      <c r="U29" s="38"/>
+      <c r="V29">
         <v>90</v>
+      </c>
+      <c r="X29">
+        <v>7</v>
       </c>
       <c r="Y29">
         <v>7</v>
       </c>
       <c r="Z29">
-        <v>7</v>
-      </c>
-      <c r="AA29">
-        <v>5</v>
-      </c>
-      <c r="AC29">
+        <v>5</v>
+      </c>
+      <c r="AB29">
         <v>10</v>
       </c>
+      <c r="AE29">
+        <v>2</v>
+      </c>
       <c r="AF29">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AG29">
-        <v>8</v>
-      </c>
-      <c r="AH29">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -4636,42 +4526,39 @@
         <v>1</v>
       </c>
       <c r="Q30">
+        <v>4</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30" s="33">
+        <v>4</v>
+      </c>
+      <c r="U30" s="38"/>
+      <c r="X30">
+        <v>4</v>
+      </c>
+      <c r="Y30">
+        <v>2</v>
+      </c>
+      <c r="AB30">
         <v>6</v>
       </c>
-      <c r="R30">
-        <v>4</v>
-      </c>
-      <c r="S30">
-        <v>3</v>
-      </c>
-      <c r="T30" s="33">
-        <v>4</v>
-      </c>
-      <c r="V30" s="43"/>
-      <c r="Y30">
-        <v>4</v>
-      </c>
-      <c r="Z30">
-        <v>2</v>
-      </c>
-      <c r="AC30">
-        <v>6</v>
+      <c r="AF30">
+        <v>5</v>
       </c>
       <c r="AG30">
-        <v>5</v>
-      </c>
-      <c r="AH30">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
-      <c r="T31" s="33"/>
-      <c r="V31" s="43"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="S31" s="33"/>
+      <c r="U31" s="38"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -4708,27 +4595,27 @@
       <c r="O32">
         <v>3</v>
       </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
       <c r="R32">
         <v>1</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="U32" s="38"/>
+      <c r="V32">
         <v>1</v>
       </c>
-      <c r="T32" s="33">
-        <v>0.05</v>
-      </c>
-      <c r="V32" s="43"/>
-      <c r="W32">
+      <c r="X32">
+        <v>2</v>
+      </c>
+      <c r="Y32">
         <v>1</v>
       </c>
-      <c r="Y32">
-        <v>2</v>
-      </c>
-      <c r="Z32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -4738,40 +4625,40 @@
       <c r="O33">
         <v>90</v>
       </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
       <c r="R33">
         <v>1</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="33">
+        <v>2</v>
+      </c>
+      <c r="U33" s="38"/>
+      <c r="V33">
         <v>1</v>
       </c>
-      <c r="T33" s="33">
-        <v>2</v>
-      </c>
-      <c r="V33" s="43"/>
-      <c r="W33">
+      <c r="X33">
+        <v>2</v>
+      </c>
+      <c r="Y33">
         <v>1</v>
       </c>
-      <c r="Y33">
-        <v>2</v>
-      </c>
-      <c r="Z33">
-        <v>1</v>
+      <c r="AF33">
+        <v>3</v>
       </c>
       <c r="AG33">
-        <v>3</v>
-      </c>
-      <c r="AH33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
-      <c r="T34" s="33"/>
-      <c r="V34" s="43"/>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="S34" s="33"/>
+      <c r="U34" s="38"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -4797,69 +4684,66 @@
         <v>74</v>
       </c>
       <c r="Q35">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="R35">
         <v>78</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="33">
         <v>78</v>
       </c>
-      <c r="T35" s="33">
-        <v>78</v>
-      </c>
-      <c r="V35" s="43"/>
-      <c r="W35">
+      <c r="U35" s="38"/>
+      <c r="V35">
         <v>1</v>
       </c>
+      <c r="X35">
+        <v>70</v>
+      </c>
       <c r="Y35">
+        <v>75</v>
+      </c>
+      <c r="Z35">
+        <v>85</v>
+      </c>
+      <c r="AB35">
         <v>70</v>
       </c>
-      <c r="Z35">
+      <c r="AD35">
+        <v>20</v>
+      </c>
+      <c r="AE35">
+        <v>10</v>
+      </c>
+      <c r="AF35">
         <v>75</v>
       </c>
-      <c r="AA35">
-        <v>85</v>
-      </c>
-      <c r="AC35">
-        <v>70</v>
-      </c>
-      <c r="AE35">
+      <c r="AG35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="S36" s="33"/>
+      <c r="U36" s="38"/>
+      <c r="X36">
+        <v>5</v>
+      </c>
+      <c r="Y36">
+        <v>2</v>
+      </c>
+      <c r="AC36">
         <v>20</v>
       </c>
-      <c r="AF35">
-        <v>10</v>
-      </c>
-      <c r="AG35">
-        <v>75</v>
-      </c>
-      <c r="AH35">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I36">
-        <v>4</v>
-      </c>
-      <c r="T36" s="33"/>
-      <c r="V36" s="43"/>
-      <c r="Y36">
-        <v>5</v>
-      </c>
-      <c r="Z36">
-        <v>2</v>
-      </c>
-      <c r="AD36">
-        <v>20</v>
-      </c>
-      <c r="AH36">
+      <c r="AG36">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -4897,23 +4781,20 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R37">
-        <v>4</v>
-      </c>
-      <c r="S37">
         <v>1</v>
       </c>
-      <c r="T37" s="33">
+      <c r="S37" s="33">
         <v>1</v>
       </c>
-      <c r="V37" s="43"/>
-      <c r="AC37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="U37" s="38"/>
+      <c r="AB37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -4957,40 +4838,37 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R38">
-        <v>1</v>
-      </c>
-      <c r="S38">
-        <v>3</v>
-      </c>
-      <c r="T38" s="33">
-        <v>3</v>
-      </c>
-      <c r="V38" s="43"/>
+        <v>3</v>
+      </c>
+      <c r="S38" s="33">
+        <v>3</v>
+      </c>
+      <c r="U38" s="38"/>
+      <c r="X38">
+        <v>4</v>
+      </c>
       <c r="Y38">
-        <v>4</v>
-      </c>
-      <c r="Z38">
-        <v>2</v>
-      </c>
-      <c r="AC38">
+        <v>2</v>
+      </c>
+      <c r="AB38">
+        <v>4</v>
+      </c>
+      <c r="AF38">
         <v>4</v>
       </c>
       <c r="AG38">
-        <v>4</v>
-      </c>
-      <c r="AH38">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="V39" s="43"/>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="U39" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -5021,60 +4899,60 @@
   <sheetData>
     <row r="1" spans="1:17" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2" s="30">
         <v>175750</v>
@@ -5128,7 +5006,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="23">
         <v>650</v>
@@ -5234,7 +5112,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" s="23">
         <v>30</v>
@@ -5285,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" s="19">
         <v>1600</v>
@@ -5499,7 +5377,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B10" s="23">
         <v>210</v>
@@ -5550,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" s="23">
         <v>260</v>
@@ -5601,7 +5479,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" s="23">
         <v>20</v>
@@ -5652,7 +5530,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" s="23">
         <v>360</v>
@@ -5703,7 +5581,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="19">
         <v>14000</v>
@@ -5762,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" s="19">
         <v>1100</v>
@@ -5817,7 +5695,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="23">
         <v>550</v>
@@ -5868,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B17" s="23">
         <v>900</v>
@@ -5925,7 +5803,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B18" s="23">
         <v>190</v>
@@ -5982,7 +5860,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B19" s="23">
         <v>130</v>
@@ -6033,7 +5911,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" s="19">
         <v>8000</v>
@@ -6092,7 +5970,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B21" s="23">
         <v>150</v>
@@ -6143,7 +6021,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" s="23">
         <v>300</v>
@@ -6198,7 +6076,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B23" s="23">
         <v>670</v>
@@ -6251,7 +6129,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B24" s="23">
         <v>750</v>
@@ -6308,7 +6186,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B25" s="23">
         <v>500</v>
@@ -6359,7 +6237,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B26" s="23">
         <v>450</v>
@@ -6410,7 +6288,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B27" s="23">
         <v>600</v>
@@ -6467,7 +6345,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B28" s="23">
         <v>200</v>
@@ -6518,7 +6396,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B29" s="23">
         <v>10</v>
@@ -6573,7 +6451,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B30" s="19">
         <v>3600</v>
@@ -6628,7 +6506,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B31" s="23">
         <v>320</v>
@@ -6679,7 +6557,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B32" s="23">
         <v>700</v>
@@ -6730,7 +6608,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B33" s="23">
         <v>110</v>
@@ -6800,7 +6678,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" s="23">
         <v>0</v>

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17670" yWindow="0" windowWidth="18375" windowHeight="8625"/>
+    <workbookView xWindow="19530" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Surface" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
     <author>Jadon Wade</author>
   </authors>
   <commentList>
-    <comment ref="S2" authorId="0" shapeId="0">
+    <comment ref="T2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0">
+    <comment ref="U2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="152">
   <si>
     <t>Zeonium</t>
   </si>
@@ -702,6 +702,9 @@
   </si>
   <si>
     <t>Gas (Class1)</t>
+  </si>
+  <si>
+    <t>Pandora</t>
   </si>
 </sst>
 </file>
@@ -1329,9 +1332,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J7" sqref="J7"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1573,7 +1576,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="36">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -2033,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" s="36">
         <v>9</v>
@@ -3283,38 +3286,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="4" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="8" width="9" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="13" width="12.25" customWidth="1"/>
-    <col min="14" max="15" width="12.375" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="12.625" customWidth="1"/>
-    <col min="18" max="21" width="12.125" customWidth="1"/>
-    <col min="22" max="22" width="12.875" customWidth="1"/>
-    <col min="23" max="23" width="12.125" customWidth="1"/>
-    <col min="24" max="24" width="10.75" customWidth="1"/>
-    <col min="25" max="25" width="11.5" customWidth="1"/>
-    <col min="26" max="26" width="10.25" customWidth="1"/>
-    <col min="28" max="28" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="12.625" customWidth="1"/>
-    <col min="32" max="32" width="12.375" customWidth="1"/>
-    <col min="33" max="33" width="12.875" customWidth="1"/>
+    <col min="5" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="9" width="9" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="14.375" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="12.25" customWidth="1"/>
+    <col min="15" max="16" width="12.375" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="12.625" customWidth="1"/>
+    <col min="19" max="22" width="12.125" customWidth="1"/>
+    <col min="23" max="23" width="12.875" customWidth="1"/>
+    <col min="24" max="24" width="12.125" customWidth="1"/>
+    <col min="25" max="25" width="10.75" customWidth="1"/>
+    <col min="26" max="26" width="11.5" customWidth="1"/>
+    <col min="27" max="27" width="10.25" customWidth="1"/>
+    <col min="29" max="29" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="12.625" customWidth="1"/>
+    <col min="33" max="33" width="12.375" customWidth="1"/>
+    <col min="34" max="34" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -3322,355 +3325,365 @@
         <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="T1" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="41"/>
+      <c r="V1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="4">
-        <f t="shared" ref="B2:U2" si="0">SUM(B4:B23)</f>
-        <v>93</v>
+        <f t="shared" ref="B2:V2" si="0">SUM(B4:B23)</f>
+        <v>93.004672897196258</v>
       </c>
       <c r="C2" s="4">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>93.001557632398757</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" si="0"/>
-        <v>85.118380062305292</v>
+        <v>92.001557632398757</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>89.059190031152639</v>
+        <v>85.118380062305292</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>91.259190031152656</v>
+        <v>89.059190031152639</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>73.004672897196258</v>
+        <v>91.259190031152656</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" si="0"/>
-        <v>78.001557632398757</v>
+        <v>73.004672897196258</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" si="0"/>
-        <v>95.007788161993773</v>
+        <v>78.001557632398757</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>95.007788161993773</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>92.003115264797515</v>
+        <v>93</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>90.006230529595015</v>
+        <v>92.003115264797515</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>92.003115264797515</v>
+        <v>90.006230529595015</v>
       </c>
       <c r="O2" s="4">
         <f t="shared" si="0"/>
-        <v>96.000778816199372</v>
+        <v>92.003115264797515</v>
       </c>
       <c r="P2" s="4">
         <f t="shared" si="0"/>
-        <v>96.615264797507791</v>
+        <v>96.000778816199372</v>
       </c>
       <c r="Q2" s="4">
         <f t="shared" si="0"/>
-        <v>99.121495327102807</v>
+        <v>96.615264797507791</v>
       </c>
       <c r="R2" s="4">
         <f t="shared" si="0"/>
-        <v>98.124610591900307</v>
+        <v>99.121495327102807</v>
       </c>
       <c r="S2" s="4">
         <f t="shared" si="0"/>
-        <v>91.862149532710276</v>
+        <v>98.124610591900307</v>
       </c>
       <c r="T2" s="4">
         <f t="shared" si="0"/>
-        <v>98.615264797507791</v>
+        <v>91.862149532710276</v>
       </c>
       <c r="U2" s="4">
         <f t="shared" si="0"/>
+        <v>98.615264797507791</v>
+      </c>
+      <c r="V2" s="4">
+        <f t="shared" si="0"/>
         <v>100.61526479750779</v>
       </c>
-      <c r="V2" s="4">
-        <f>SUM(V4:V23)</f>
-        <v>100.00778816199377</v>
-      </c>
-      <c r="X2" s="4">
-        <f>SUM(X5:X23)</f>
-        <v>90.109034267912776</v>
+      <c r="W2" s="4">
+        <f>SUM(W4:W23)</f>
+        <v>96.007788161993773</v>
       </c>
       <c r="Y2" s="4">
         <f>SUM(Y5:Y23)</f>
-        <v>95.116822429906534</v>
+        <v>90.109034267912776</v>
       </c>
       <c r="Z2" s="4">
         <f>SUM(Z5:Z23)</f>
+        <v>95.116822429906534</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>SUM(AA5:AA23)</f>
         <v>99.13239875389408</v>
       </c>
-      <c r="AB2" s="4">
-        <f t="shared" ref="AB2:AG2" si="1">SUM(AB5:AB23)</f>
+      <c r="AC2" s="4">
+        <f t="shared" ref="AC2:AH2" si="1">SUM(AC5:AC23)</f>
         <v>95.109034267912776</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AD2" s="4">
         <f t="shared" si="1"/>
         <v>98.031152647975077</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AE2" s="4">
         <f t="shared" si="1"/>
         <v>92.031152647975077</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AF2" s="4">
         <f t="shared" si="1"/>
         <v>11.004672897196262</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AG2" s="4">
         <f t="shared" si="1"/>
         <v>94.60280373831776</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AH2" s="4">
         <f t="shared" si="1"/>
         <v>98.085669781931472</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="Q3" s="5"/>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="R3" s="5"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="35"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S3" s="5"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="35"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="38">
+      <c r="S4" s="5"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="38">
         <v>1</v>
       </c>
-      <c r="U4" s="38">
+      <c r="V4" s="38">
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
         <v>6</v>
       </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <v>4</v>
-      </c>
-      <c r="S5" s="33">
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="T5" s="33">
         <v>0.1</v>
       </c>
-      <c r="T5" s="38"/>
       <c r="U5" s="38"/>
-      <c r="X5">
-        <v>1</v>
-      </c>
+      <c r="V5" s="38"/>
       <c r="Y5">
         <v>1</v>
       </c>
-      <c r="AB5">
-        <v>5</v>
-      </c>
-      <c r="AF5">
+      <c r="Z5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AC5">
+        <v>5</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1.5</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1</v>
       </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6" s="33">
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6" s="33">
         <v>1</v>
       </c>
-      <c r="T6" s="38"/>
       <c r="U6" s="38"/>
-      <c r="V6">
+      <c r="V6" s="38"/>
+      <c r="W6">
         <v>1</v>
       </c>
-      <c r="X6">
-        <v>3</v>
-      </c>
       <c r="Y6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z6">
+        <v>5</v>
+      </c>
+      <c r="AA6">
         <v>9</v>
-      </c>
-      <c r="AC6">
-        <v>70</v>
       </c>
       <c r="AD6">
         <v>70</v>
       </c>
       <c r="AE6">
+        <v>70</v>
+      </c>
+      <c r="AF6">
         <v>1</v>
       </c>
-      <c r="AF6">
-        <v>3</v>
-      </c>
       <c r="AG6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="33"/>
-      <c r="T7" s="38"/>
+      <c r="T7" s="33"/>
       <c r="U7" s="38"/>
-      <c r="X7">
-        <v>1</v>
-      </c>
+      <c r="V7" s="38"/>
       <c r="Y7">
         <v>1</v>
       </c>
-      <c r="AF7">
-        <v>2</v>
+      <c r="Z7">
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AH7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="S8" s="33"/>
-      <c r="T8" s="38"/>
+      <c r="T8" s="33"/>
       <c r="U8" s="38"/>
-      <c r="AG8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="V8" s="38"/>
+      <c r="AH8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -3678,80 +3691,91 @@
         <v>80</v>
       </c>
       <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>44</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>70</v>
       </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
       <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
         <v>20</v>
       </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
       <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
         <v>91</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>6</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1</v>
       </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9" s="33">
-        <v>2</v>
-      </c>
-      <c r="T9" s="38">
-        <v>4</v>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9" s="33">
+        <v>2</v>
       </c>
       <c r="U9" s="38">
         <v>4</v>
       </c>
-      <c r="V9">
-        <v>3</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
+      <c r="V9" s="38">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
       </c>
       <c r="Y9">
         <v>1</v>
       </c>
-      <c r="AB9">
-        <v>2</v>
-      </c>
-      <c r="AF9">
-        <v>5</v>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>2</v>
       </c>
       <c r="AG9">
+        <v>5</v>
+      </c>
+      <c r="AH9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
+      <c r="B10" s="3">
+        <f t="shared" ref="B10:D10" si="2">(B13+B22)/642</f>
+        <v>4.6728971962616819E-3</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="2"/>
+        <v>1.557632398753894E-3</v>
+      </c>
       <c r="D10" s="3">
-        <f>(D13+D22)/642</f>
-        <v>0.11838006230529595</v>
+        <f t="shared" si="2"/>
+        <v>1.557632398753894E-3</v>
       </c>
       <c r="E10" s="3">
         <f>(E13+E22)/642</f>
-        <v>5.9190031152647975E-2</v>
+        <v>0.11838006230529595</v>
       </c>
       <c r="F10" s="3">
         <f>(F13+F22)/642</f>
@@ -3759,310 +3783,320 @@
       </c>
       <c r="G10" s="3">
         <f>(G13+G22)/642</f>
-        <v>4.6728971962616819E-3</v>
+        <v>5.9190031152647975E-2</v>
       </c>
       <c r="H10" s="3">
         <f>(H13+H22)/642</f>
+        <v>4.6728971962616819E-3</v>
+      </c>
+      <c r="I10" s="3">
+        <f>(I13+I22)/642</f>
         <v>1.557632398753894E-3</v>
       </c>
-      <c r="I10" s="3">
-        <f t="shared" ref="I10" si="2">I13/642</f>
+      <c r="J10" s="3">
+        <f t="shared" ref="J10" si="3">J13/642</f>
         <v>7.7881619937694704E-3</v>
       </c>
-      <c r="L10" s="3">
-        <f t="shared" ref="L10:Z10" si="3">L13/642</f>
+      <c r="M10" s="3">
+        <f t="shared" ref="M10:AA10" si="4">M13/642</f>
         <v>3.1152647975077881E-3</v>
       </c>
-      <c r="M10" s="3">
-        <f t="shared" si="3"/>
+      <c r="N10" s="3">
+        <f t="shared" si="4"/>
         <v>6.2305295950155761E-3</v>
       </c>
-      <c r="N10" s="3">
-        <f t="shared" si="3"/>
+      <c r="O10" s="3">
+        <f t="shared" si="4"/>
         <v>3.1152647975077881E-3</v>
       </c>
-      <c r="O10" s="3">
-        <f>O13/642</f>
+      <c r="P10" s="3">
+        <f>P13/642</f>
         <v>7.7881619937694702E-4</v>
       </c>
-      <c r="P10" s="3">
-        <f t="shared" si="3"/>
+      <c r="Q10" s="3">
+        <f t="shared" si="4"/>
         <v>0.11526479750778816</v>
       </c>
-      <c r="Q10" s="3">
-        <f t="shared" si="3"/>
+      <c r="R10" s="3">
+        <f t="shared" si="4"/>
         <v>0.12149532710280374</v>
       </c>
-      <c r="R10" s="3">
-        <f t="shared" si="3"/>
+      <c r="S10" s="3">
+        <f t="shared" si="4"/>
         <v>0.12461059190031153</v>
       </c>
-      <c r="S10" s="34">
-        <f t="shared" si="3"/>
+      <c r="T10" s="34">
+        <f t="shared" si="4"/>
         <v>0.11214953271028037</v>
       </c>
-      <c r="T10" s="39">
-        <f t="shared" si="3"/>
+      <c r="U10" s="39">
+        <f t="shared" si="4"/>
         <v>0.11526479750778816</v>
       </c>
-      <c r="U10" s="39">
-        <f>U13/642</f>
+      <c r="V10" s="39">
+        <f>V13/642</f>
         <v>0.11526479750778816</v>
       </c>
-      <c r="V10" s="3">
-        <f>V13/642</f>
+      <c r="W10" s="3">
+        <f>W13/642</f>
         <v>7.7881619937694704E-3</v>
       </c>
-      <c r="X10" s="3">
-        <f t="shared" si="3"/>
+      <c r="Y10" s="3">
+        <f t="shared" si="4"/>
         <v>0.10903426791277258</v>
       </c>
-      <c r="Y10" s="3">
-        <f t="shared" si="3"/>
+      <c r="Z10" s="3">
+        <f t="shared" si="4"/>
         <v>0.11682242990654206</v>
       </c>
-      <c r="Z10" s="3">
-        <f t="shared" si="3"/>
+      <c r="AA10" s="3">
+        <f t="shared" si="4"/>
         <v>0.13239875389408098</v>
       </c>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3">
-        <f>AB13/642</f>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3">
+        <f>AC13/642</f>
         <v>0.10903426791277258</v>
       </c>
-      <c r="AC10" s="3">
-        <f t="shared" ref="AC10:AE10" si="4">AC13/642</f>
+      <c r="AD10" s="3">
+        <f t="shared" ref="AD10:AF10" si="5">AD13/642</f>
         <v>3.1152647975077882E-2</v>
       </c>
-      <c r="AD10" s="3">
-        <f t="shared" si="4"/>
+      <c r="AE10" s="3">
+        <f t="shared" si="5"/>
         <v>3.1152647975077882E-2</v>
       </c>
-      <c r="AE10" s="3">
-        <f t="shared" si="4"/>
+      <c r="AF10" s="3">
+        <f t="shared" si="5"/>
         <v>4.6728971962616819E-3</v>
-      </c>
-      <c r="AF10" s="3">
-        <f>AF13/642</f>
-        <v>0.10280373831775701</v>
       </c>
       <c r="AG10" s="3">
         <f>AG13/642</f>
+        <v>0.10280373831775701</v>
+      </c>
+      <c r="AH10" s="3">
+        <f>AH13/642</f>
         <v>8.566978193146417E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="O11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="39"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="34"/>
       <c r="U11" s="39"/>
-      <c r="X11" s="3"/>
+      <c r="V11" s="39"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-      <c r="AD11">
-        <v>2</v>
-      </c>
+      <c r="AC11" s="3"/>
       <c r="AE11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AF11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.2</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>0.5</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>12</v>
-      </c>
-      <c r="Q12">
-        <v>10</v>
       </c>
       <c r="R12">
         <v>10</v>
       </c>
-      <c r="S12" s="33">
+      <c r="S12">
         <v>10</v>
       </c>
-      <c r="T12" s="38">
-        <v>7</v>
+      <c r="T12" s="33">
+        <v>10</v>
       </c>
       <c r="U12" s="38">
         <v>7</v>
       </c>
-      <c r="V12">
-        <v>90</v>
-      </c>
-      <c r="X12">
+      <c r="V12" s="38">
         <v>7</v>
+      </c>
+      <c r="W12">
+        <v>80</v>
       </c>
       <c r="Y12">
         <v>7</v>
       </c>
       <c r="Z12">
-        <v>5</v>
-      </c>
-      <c r="AB12">
+        <v>7</v>
+      </c>
+      <c r="AA12">
+        <v>5</v>
+      </c>
+      <c r="AC12">
         <v>10</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>8</v>
       </c>
-      <c r="AE12">
-        <v>2</v>
-      </c>
       <c r="AF12">
+        <v>2</v>
+      </c>
+      <c r="AG12">
         <v>8</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
+      <c r="J13">
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
         <v>0.5</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>74</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>78</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>80</v>
       </c>
-      <c r="S13" s="33">
+      <c r="T13" s="33">
         <v>72</v>
-      </c>
-      <c r="T13" s="38">
-        <v>74</v>
       </c>
       <c r="U13" s="38">
         <v>74</v>
       </c>
-      <c r="V13">
-        <v>5</v>
-      </c>
-      <c r="X13">
+      <c r="V13" s="38">
+        <v>74</v>
+      </c>
+      <c r="W13">
+        <v>5</v>
+      </c>
+      <c r="Y13">
         <v>70</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>75</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>85</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>70</v>
-      </c>
-      <c r="AC13">
-        <v>20</v>
       </c>
       <c r="AD13">
         <v>20</v>
       </c>
       <c r="AE13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AF13">
+        <v>3</v>
+      </c>
+      <c r="AG13">
         <v>66</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="I14">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="F14">
         <v>4</v>
       </c>
       <c r="J14">
         <v>4</v>
       </c>
-      <c r="L14">
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="M14">
         <v>6</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1</v>
       </c>
-      <c r="Q14">
-        <v>4</v>
-      </c>
       <c r="R14">
-        <v>3</v>
-      </c>
-      <c r="S14" s="33">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14" s="33">
         <v>0.05</v>
       </c>
-      <c r="T14" s="38"/>
       <c r="U14" s="38"/>
-      <c r="X14">
+      <c r="V14" s="38"/>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="Y14">
         <v>1</v>
       </c>
-      <c r="AB14">
-        <v>5</v>
-      </c>
-      <c r="AF14">
+      <c r="AC14">
+        <v>5</v>
+      </c>
+      <c r="AG14">
         <v>3.5</v>
       </c>
-      <c r="AG14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="33"/>
-      <c r="T15" s="38">
-        <v>2</v>
-      </c>
+      <c r="T15" s="33"/>
       <c r="U15" s="38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="V15" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -4070,146 +4104,158 @@
         <v>10</v>
       </c>
       <c r="C16">
+        <v>70</v>
+      </c>
+      <c r="D16">
         <v>74</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>44</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>70</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>50</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>80</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>75</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>85</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>90</v>
       </c>
-      <c r="O16">
-        <v>2</v>
-      </c>
-      <c r="Q16">
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="R16">
         <v>1</v>
       </c>
-      <c r="S16" s="33">
-        <v>5</v>
-      </c>
-      <c r="T16" s="38">
+      <c r="T16" s="33">
         <v>5</v>
       </c>
       <c r="U16" s="38">
-        <v>4</v>
-      </c>
-      <c r="X16">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="V16" s="38">
+        <v>4</v>
       </c>
       <c r="Y16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Z16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
         <v>16</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>9</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
       <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="J17">
         <v>9</v>
       </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="O17">
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="P17">
         <v>90</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
-      <c r="S17" s="33">
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="T17" s="33">
         <v>0.6</v>
-      </c>
-      <c r="T17" s="38">
-        <v>0.5</v>
       </c>
       <c r="U17" s="38">
         <v>0.5</v>
       </c>
-      <c r="X17">
-        <v>2</v>
+      <c r="V17" s="38">
+        <v>0.5</v>
       </c>
       <c r="Y17">
         <v>2</v>
       </c>
-      <c r="AF17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Z17">
+        <v>2</v>
+      </c>
+      <c r="AG17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
-      <c r="S18" s="33"/>
-      <c r="T18" s="38"/>
+      <c r="T18" s="33"/>
       <c r="U18" s="38"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="V18" s="38"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="S19" s="33"/>
-      <c r="T19" s="38">
+      <c r="T19" s="33"/>
+      <c r="U19" s="38">
         <v>1</v>
       </c>
-      <c r="U19" s="38">
+      <c r="V19" s="38">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="S20" s="33"/>
-      <c r="T20" s="38">
-        <v>3</v>
-      </c>
+      <c r="T20" s="33"/>
       <c r="U20" s="38">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="V20" s="38">
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>137</v>
       </c>
-      <c r="S21" s="33"/>
-      <c r="T21" s="38">
+      <c r="T21" s="33"/>
+      <c r="U21" s="38">
         <v>1</v>
       </c>
-      <c r="U21" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="V21" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -4220,164 +4266,167 @@
         <v>1</v>
       </c>
       <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>76</v>
-      </c>
-      <c r="E22">
-        <v>38</v>
       </c>
       <c r="F22">
         <v>38</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>5</v>
-      </c>
-      <c r="L22">
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="M22">
         <v>1</v>
       </c>
-      <c r="O22">
-        <v>2</v>
-      </c>
       <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
         <v>1</v>
       </c>
-      <c r="Q22">
-        <v>4</v>
-      </c>
       <c r="R22">
+        <v>4</v>
+      </c>
+      <c r="S22">
         <v>1</v>
       </c>
-      <c r="S22" s="33">
+      <c r="T22" s="33">
         <v>1</v>
       </c>
-      <c r="T22" s="38"/>
       <c r="U22" s="38"/>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="AB22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="V22" s="38"/>
+      <c r="W22">
+        <v>3</v>
+      </c>
+      <c r="AC22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
-      <c r="S23" s="33"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="38"/>
-      <c r="X23">
-        <v>2</v>
-      </c>
+      <c r="T23" s="33"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="38"/>
       <c r="Y23">
+        <v>2</v>
+      </c>
+      <c r="Z23">
         <v>1</v>
       </c>
-      <c r="AF23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="U24" s="38"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="U25" s="38"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="V24" s="38"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="V25" s="38"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" ref="B26:U26" si="5">SUM(B28:B38)</f>
+        <f t="shared" ref="B26:V26" si="6">SUM(B28:B38)</f>
         <v>10</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" si="5"/>
+      <c r="E26" s="1">
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="E26" s="1">
-        <f t="shared" si="5"/>
+      <c r="F26" s="1">
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="F26" s="1">
-        <f t="shared" si="5"/>
+      <c r="G26" s="1">
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
-      <c r="G26" s="1">
-        <f t="shared" si="5"/>
+      <c r="H26" s="1">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="H26" s="1">
-        <f t="shared" si="5"/>
+      <c r="I26" s="1">
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="I26" s="1">
-        <f t="shared" si="5"/>
+      <c r="J26" s="1">
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="J26" s="1">
-        <f t="shared" si="5"/>
+      <c r="K26" s="1">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="K26" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
       <c r="L26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="M26" s="1">
-        <f t="shared" si="5"/>
+      <c r="N26" s="1">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="N26" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
       <c r="O26" s="1">
-        <f>SUM(O28:O38)</f>
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="P26" s="1">
+        <f>SUM(P28:P38)</f>
         <v>97</v>
       </c>
-      <c r="P26" s="1">
-        <f t="shared" si="5"/>
+      <c r="Q26" s="1">
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="Q26" s="1">
-        <f t="shared" si="5"/>
+      <c r="R26" s="1">
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="R26" s="1">
-        <f t="shared" si="5"/>
+      <c r="S26" s="1">
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="S26" s="1">
-        <f t="shared" si="5"/>
+      <c r="T26" s="1">
+        <f t="shared" si="6"/>
         <v>97.05</v>
       </c>
-      <c r="T26" s="1">
-        <f t="shared" si="5"/>
+      <c r="U26" s="1">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U26" s="40">
-        <f t="shared" si="5"/>
+      <c r="V26" s="40">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V26" s="1">
-        <f>SUM(V28:V38)</f>
+      <c r="W26" s="1">
+        <f>SUM(W28:W38)</f>
         <v>93</v>
-      </c>
-      <c r="X26" s="1">
-        <f>SUM(X28:X38)</f>
-        <v>95</v>
       </c>
       <c r="Y26" s="1">
         <f>SUM(Y28:Y38)</f>
@@ -4385,116 +4434,120 @@
       </c>
       <c r="Z26" s="1">
         <f>SUM(Z28:Z38)</f>
+        <v>95</v>
+      </c>
+      <c r="AA26" s="1">
+        <f>SUM(AA28:AA38)</f>
         <v>99</v>
       </c>
-      <c r="AB26" s="1">
-        <f t="shared" ref="AB26:AG26" si="6">SUM(AB28:AB38)</f>
+      <c r="AC26" s="1">
+        <f t="shared" ref="AC26:AH26" si="7">SUM(AC28:AC38)</f>
         <v>92</v>
       </c>
-      <c r="AC26" s="1">
-        <f t="shared" si="6"/>
+      <c r="AD26" s="1">
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="AD26" s="1">
-        <f t="shared" si="6"/>
+      <c r="AE26" s="1">
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="AE26" s="1">
-        <f t="shared" si="6"/>
+      <c r="AF26" s="1">
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="AF26" s="1">
-        <f t="shared" si="6"/>
+      <c r="AG26" s="1">
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
-      <c r="AG26" s="1">
-        <f t="shared" si="6"/>
+      <c r="AH26" s="1">
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="U27" s="38"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="V27" s="38"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="P28" s="33"/>
       <c r="Q28" s="33"/>
-      <c r="R28">
-        <v>2</v>
-      </c>
-      <c r="S28" s="33"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="33"/>
-      <c r="X28">
+      <c r="R28" s="33"/>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28" s="33"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="33"/>
+      <c r="Y28">
         <v>1</v>
       </c>
-      <c r="Y28">
-        <v>5</v>
-      </c>
       <c r="Z28">
+        <v>5</v>
+      </c>
+      <c r="AA28">
         <v>9</v>
-      </c>
-      <c r="AC28">
-        <v>70</v>
       </c>
       <c r="AD28">
         <v>70</v>
       </c>
       <c r="AE28">
+        <v>70</v>
+      </c>
+      <c r="AF28">
         <v>1</v>
       </c>
-      <c r="AF28">
-        <v>3</v>
-      </c>
       <c r="AG28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.5</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.5</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>12</v>
       </c>
-      <c r="S29" s="33">
+      <c r="T29" s="33">
         <v>9</v>
       </c>
-      <c r="U29" s="38"/>
-      <c r="V29">
+      <c r="V29" s="38"/>
+      <c r="W29">
         <v>90</v>
-      </c>
-      <c r="X29">
-        <v>7</v>
       </c>
       <c r="Y29">
         <v>7</v>
       </c>
       <c r="Z29">
-        <v>5</v>
-      </c>
-      <c r="AB29">
+        <v>7</v>
+      </c>
+      <c r="AA29">
+        <v>5</v>
+      </c>
+      <c r="AC29">
         <v>10</v>
       </c>
-      <c r="AE29">
-        <v>2</v>
-      </c>
       <c r="AF29">
+        <v>2</v>
+      </c>
+      <c r="AG29">
         <v>8</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -4502,63 +4555,66 @@
         <v>2</v>
       </c>
       <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30">
-        <v>4</v>
-      </c>
-      <c r="G30">
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="H30">
         <v>10</v>
       </c>
-      <c r="I30">
-        <v>4</v>
-      </c>
       <c r="J30">
         <v>4</v>
       </c>
-      <c r="L30">
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="M30">
         <v>6</v>
       </c>
-      <c r="M30">
-        <v>2</v>
-      </c>
-      <c r="P30">
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
         <v>1</v>
       </c>
-      <c r="Q30">
-        <v>4</v>
-      </c>
       <c r="R30">
-        <v>3</v>
-      </c>
-      <c r="S30" s="33">
-        <v>4</v>
-      </c>
-      <c r="U30" s="38"/>
-      <c r="X30">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S30">
+        <v>3</v>
+      </c>
+      <c r="T30" s="33">
+        <v>4</v>
+      </c>
+      <c r="V30" s="38"/>
       <c r="Y30">
-        <v>2</v>
-      </c>
-      <c r="AB30">
+        <v>4</v>
+      </c>
+      <c r="Z30">
+        <v>2</v>
+      </c>
+      <c r="AC30">
         <v>6</v>
       </c>
-      <c r="AF30">
-        <v>5</v>
-      </c>
       <c r="AG30">
+        <v>5</v>
+      </c>
+      <c r="AH30">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
-      <c r="S31" s="33"/>
-      <c r="U31" s="38"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="T31" s="33"/>
+      <c r="V31" s="38"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -4568,182 +4624,185 @@
       <c r="C32">
         <v>6</v>
       </c>
-      <c r="F32">
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="G32">
         <v>15</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>20</v>
       </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
       <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
         <v>6</v>
       </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
       <c r="L32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32">
         <v>1</v>
       </c>
-      <c r="O32">
-        <v>3</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
+      <c r="P32">
+        <v>3</v>
       </c>
       <c r="R32">
         <v>1</v>
       </c>
-      <c r="S32" s="33">
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32" s="33">
         <v>0.05</v>
       </c>
-      <c r="U32" s="38"/>
-      <c r="V32">
+      <c r="V32" s="38"/>
+      <c r="W32">
         <v>1</v>
       </c>
-      <c r="X32">
-        <v>2</v>
-      </c>
       <c r="Y32">
+        <v>2</v>
+      </c>
+      <c r="Z32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="O33">
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="P33">
         <v>90</v>
-      </c>
-      <c r="Q33">
-        <v>1</v>
       </c>
       <c r="R33">
         <v>1</v>
       </c>
-      <c r="S33" s="33">
-        <v>2</v>
-      </c>
-      <c r="U33" s="38"/>
-      <c r="V33">
+      <c r="S33">
         <v>1</v>
       </c>
-      <c r="X33">
-        <v>2</v>
+      <c r="T33" s="33">
+        <v>2</v>
+      </c>
+      <c r="V33" s="38"/>
+      <c r="W33">
+        <v>1</v>
       </c>
       <c r="Y33">
+        <v>2</v>
+      </c>
+      <c r="Z33">
         <v>1</v>
       </c>
-      <c r="AF33">
-        <v>3</v>
-      </c>
       <c r="AG33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="AH33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
-      <c r="S34" s="33"/>
-      <c r="U34" s="38"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="T34" s="33"/>
+      <c r="V34" s="38"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>6</v>
       </c>
-      <c r="L35">
-        <v>2</v>
-      </c>
       <c r="M35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
         <v>0.5</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>74</v>
-      </c>
-      <c r="Q35">
-        <v>78</v>
       </c>
       <c r="R35">
         <v>78</v>
       </c>
-      <c r="S35" s="33">
+      <c r="S35">
         <v>78</v>
       </c>
-      <c r="U35" s="38"/>
-      <c r="V35">
+      <c r="T35" s="33">
+        <v>78</v>
+      </c>
+      <c r="V35" s="38"/>
+      <c r="W35">
         <v>1</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>70</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>75</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>85</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>70</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>20</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>10</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>75</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
-      <c r="I36">
-        <v>4</v>
-      </c>
-      <c r="S36" s="33"/>
-      <c r="U36" s="38"/>
-      <c r="X36">
-        <v>5</v>
-      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="T36" s="33"/>
+      <c r="V36" s="38"/>
       <c r="Y36">
-        <v>2</v>
-      </c>
-      <c r="AC36">
+        <v>5</v>
+      </c>
+      <c r="Z36">
+        <v>2</v>
+      </c>
+      <c r="AD36">
         <v>20</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -4754,47 +4813,50 @@
         <v>1</v>
       </c>
       <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>76</v>
-      </c>
-      <c r="E37">
-        <v>38</v>
       </c>
       <c r="F37">
         <v>38</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
         <v>1</v>
       </c>
-      <c r="I37">
-        <v>5</v>
-      </c>
-      <c r="L37">
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="M37">
         <v>1</v>
       </c>
-      <c r="O37">
-        <v>2</v>
-      </c>
       <c r="P37">
+        <v>2</v>
+      </c>
+      <c r="Q37">
         <v>1</v>
       </c>
-      <c r="Q37">
-        <v>4</v>
-      </c>
       <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
         <v>1</v>
       </c>
-      <c r="S37" s="33">
+      <c r="T37" s="33">
         <v>1</v>
       </c>
-      <c r="U37" s="38"/>
-      <c r="AB37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="V37" s="38"/>
+      <c r="AC37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -4802,20 +4864,20 @@
         <v>3</v>
       </c>
       <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
         <v>1</v>
       </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
       <c r="E38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
         <v>1</v>
       </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
       <c r="H38">
         <v>2</v>
       </c>
@@ -4823,13 +4885,13 @@
         <v>2</v>
       </c>
       <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
         <v>6</v>
       </c>
-      <c r="L38">
-        <v>2</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
+      <c r="M38">
+        <v>2</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -4841,34 +4903,37 @@
         <v>1</v>
       </c>
       <c r="R38">
-        <v>3</v>
-      </c>
-      <c r="S38" s="33">
-        <v>3</v>
-      </c>
-      <c r="U38" s="38"/>
-      <c r="X38">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>3</v>
+      </c>
+      <c r="T38" s="33">
+        <v>3</v>
+      </c>
+      <c r="V38" s="38"/>
       <c r="Y38">
-        <v>2</v>
-      </c>
-      <c r="AB38">
-        <v>4</v>
-      </c>
-      <c r="AF38">
+        <v>4</v>
+      </c>
+      <c r="Z38">
+        <v>2</v>
+      </c>
+      <c r="AC38">
         <v>4</v>
       </c>
       <c r="AG38">
+        <v>4</v>
+      </c>
+      <c r="AH38">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="U39" s="38"/>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="V39" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19530" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="2"/>
+    <workbookView xWindow="20460" yWindow="0" windowWidth="18375" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Surface" sheetId="1" r:id="rId1"/>
@@ -1332,9 +1332,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="N2" s="1">
         <f>SUM(N4:N24)</f>
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1813,6 +1813,9 @@
       </c>
       <c r="M15">
         <v>5</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -3288,7 +3291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="W17" sqref="W17"/>
     </sheetView>

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20460" yWindow="0" windowWidth="18375" windowHeight="8625"/>
+    <workbookView xWindow="21390" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Surface" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="153">
   <si>
     <t>Zeonium</t>
   </si>
@@ -705,6 +705,9 @@
   </si>
   <si>
     <t>Pandora</t>
+  </si>
+  <si>
+    <t>Iron</t>
   </si>
 </sst>
 </file>
@@ -1332,9 +1335,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M15" sqref="M15"/>
+      <selection pane="topRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2585,9 +2588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2636,14 +2639,16 @@
       <c r="M1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="N1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="4">
-        <f t="shared" ref="B2:M2" si="0">SUM(B4:B20)</f>
+        <f t="shared" ref="B2:N2" si="0">SUM(B4:B20)</f>
         <v>95.140186915887853</v>
       </c>
       <c r="C2" s="4">
@@ -2690,7 +2695,10 @@
         <f t="shared" si="0"/>
         <v>48.018691588785046</v>
       </c>
-      <c r="N2" s="1"/>
+      <c r="N2" s="4">
+        <f t="shared" si="0"/>
+        <v>98.135514018691595</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2804,7 +2812,10 @@
         <f>M20/642</f>
         <v>1.8691588785046728E-2</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="N7" s="3">
+        <f>N20/642</f>
+        <v>0.13551401869158877</v>
+      </c>
       <c r="Q7" t="s">
         <v>125</v>
       </c>
@@ -2822,6 +2833,9 @@
       <c r="M8">
         <v>4</v>
       </c>
+      <c r="N8">
+        <v>0.5</v>
+      </c>
       <c r="Q8" t="s">
         <v>122</v>
       </c>
@@ -2884,6 +2898,9 @@
       <c r="I12">
         <v>7</v>
       </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2901,6 +2918,9 @@
       <c r="M13">
         <v>12</v>
       </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2946,6 +2966,9 @@
       <c r="M16">
         <v>5</v>
       </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2965,6 +2988,9 @@
       </c>
       <c r="M17" s="36">
         <v>15</v>
+      </c>
+      <c r="N17" s="36">
+        <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -3024,6 +3050,9 @@
       </c>
       <c r="M20" s="36">
         <v>12</v>
+      </c>
+      <c r="N20" s="36">
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21390" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="1"/>
+    <workbookView xWindow="22320" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Surface" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="153">
   <si>
     <t>Zeonium</t>
   </si>
@@ -1337,7 +1337,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E22" sqref="E22"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2103,52 +2103,52 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" ref="B27:I27" si="1">SUM(B29:B42)</f>
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1">
         <f>SUM(K29:K42)</f>
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="L27" s="1">
         <f>SUM(L29:L42)</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M27" s="1">
         <f>SUM(M29:M42)</f>
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="N27" s="1">
         <f>SUM(N29:N42)</f>
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2225,29 +2225,54 @@
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>5</v>
-      </c>
-      <c r="G31">
-        <v>18</v>
-      </c>
-      <c r="H31">
-        <v>18</v>
-      </c>
-      <c r="I31">
-        <v>18</v>
-      </c>
-      <c r="N31">
-        <v>15</v>
+      <c r="B31" s="36">
+        <f>ROUNDUP(B9*1.6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="C31" s="36">
+        <f t="shared" ref="C31:N31" si="2">ROUNDUP(C9*1.6,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D31" s="36">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E31" s="36">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F31" s="36">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="G31" s="36">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="H31" s="36">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="I31" s="36">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L31" s="36">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M31" s="36">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="N31" s="36">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2312,31 +2337,37 @@
       <c r="A34" t="s">
         <v>8</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="36">
         <v>7</v>
       </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34">
+      <c r="C34" s="36">
+        <v>4</v>
+      </c>
+      <c r="D34" s="36">
+        <v>4</v>
+      </c>
+      <c r="E34" s="36">
         <v>18</v>
       </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="K34">
+      <c r="F34" s="36">
+        <v>3</v>
+      </c>
+      <c r="G34" s="36">
+        <v>2</v>
+      </c>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36">
         <v>6</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="36">
         <v>15</v>
       </c>
-      <c r="N34">
+      <c r="M34" s="36">
+        <v>15</v>
+      </c>
+      <c r="N34" s="36">
         <v>12</v>
       </c>
     </row>
@@ -2344,40 +2375,41 @@
       <c r="A35" t="s">
         <v>7</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="36">
         <v>7</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="36">
         <v>18</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="36">
         <v>15</v>
       </c>
-      <c r="E35">
-        <v>5</v>
-      </c>
-      <c r="F35">
+      <c r="E35" s="36">
+        <v>5</v>
+      </c>
+      <c r="F35" s="36">
         <v>9</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="36">
         <v>9</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="36">
         <v>10</v>
       </c>
-      <c r="I35">
-        <v>5</v>
-      </c>
-      <c r="K35">
+      <c r="I35" s="36">
+        <v>5</v>
+      </c>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36">
         <v>10</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="36">
         <v>7</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="36">
         <v>10</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="36">
         <v>10</v>
       </c>
     </row>
@@ -2385,63 +2417,71 @@
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>4</v>
-      </c>
-      <c r="I36">
-        <v>4</v>
-      </c>
-      <c r="M36">
+      <c r="B36" s="36">
+        <v>4</v>
+      </c>
+      <c r="C36" s="36">
+        <v>3</v>
+      </c>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36">
+        <v>2</v>
+      </c>
+      <c r="G36" s="36">
+        <v>4</v>
+      </c>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36">
+        <v>4</v>
+      </c>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36">
         <v>15</v>
       </c>
+      <c r="N36" s="36"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>5</v>
-      </c>
-      <c r="G37">
-        <v>4</v>
-      </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-      <c r="I37">
-        <v>4</v>
-      </c>
-      <c r="K37">
+      <c r="B37" s="36">
+        <v>4</v>
+      </c>
+      <c r="C37" s="36">
+        <v>5</v>
+      </c>
+      <c r="D37" s="36">
+        <v>5</v>
+      </c>
+      <c r="E37" s="36">
+        <v>3</v>
+      </c>
+      <c r="F37" s="36">
+        <v>5</v>
+      </c>
+      <c r="G37" s="36">
+        <v>4</v>
+      </c>
+      <c r="H37" s="36">
+        <v>3</v>
+      </c>
+      <c r="I37" s="36">
+        <v>4</v>
+      </c>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36">
         <v>10</v>
       </c>
-      <c r="L37">
-        <v>3</v>
-      </c>
-      <c r="M37">
-        <v>3</v>
-      </c>
-      <c r="N37">
+      <c r="L37" s="36">
+        <v>3</v>
+      </c>
+      <c r="M37" s="36">
+        <v>3</v>
+      </c>
+      <c r="N37" s="36">
         <v>3</v>
       </c>
     </row>
@@ -2449,45 +2489,61 @@
       <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="F38">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36">
         <v>8</v>
       </c>
-      <c r="L38">
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36">
         <v>30</v>
       </c>
-      <c r="M38">
-        <v>15</v>
-      </c>
+      <c r="M38" s="36">
+        <v>9</v>
+      </c>
+      <c r="N38" s="36"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
-      <c r="B39">
-        <v>5</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
+      <c r="B39" s="36">
+        <v>5</v>
+      </c>
+      <c r="C39" s="36">
+        <v>3</v>
+      </c>
+      <c r="D39" s="36">
         <v>7</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="36">
         <v>15</v>
       </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="K39">
-        <v>3</v>
-      </c>
-      <c r="L39">
+      <c r="F39" s="36">
+        <v>3</v>
+      </c>
+      <c r="G39" s="36">
+        <v>2</v>
+      </c>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36">
+        <v>3</v>
+      </c>
+      <c r="L39" s="36">
         <v>7</v>
       </c>
-      <c r="N39">
+      <c r="M39" s="36">
+        <v>4</v>
+      </c>
+      <c r="N39" s="36">
         <v>4</v>
       </c>
     </row>
@@ -2495,87 +2551,126 @@
       <c r="A40" t="s">
         <v>2</v>
       </c>
-      <c r="B40">
-        <v>43</v>
-      </c>
-      <c r="C40">
-        <v>30</v>
-      </c>
-      <c r="D40">
-        <v>33</v>
-      </c>
-      <c r="E40">
-        <v>26</v>
-      </c>
-      <c r="F40">
-        <v>28</v>
-      </c>
-      <c r="G40">
-        <v>22</v>
-      </c>
-      <c r="H40">
-        <v>13</v>
-      </c>
-      <c r="I40">
-        <v>14</v>
-      </c>
-      <c r="K40">
-        <v>42</v>
-      </c>
-      <c r="L40">
-        <v>13</v>
-      </c>
-      <c r="M40">
+      <c r="B40" s="36">
+        <f>B18</f>
+        <v>18</v>
+      </c>
+      <c r="C40" s="36">
+        <f t="shared" ref="C40:N40" si="3">C18</f>
+        <v>18</v>
+      </c>
+      <c r="D40" s="36">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="E40" s="36">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="N40">
-        <v>17</v>
+      <c r="F40" s="36">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="G40" s="36">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="H40" s="36">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I40" s="36">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="L40" s="36">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M40" s="36">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N40" s="36">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="36">
+        <f>B21</f>
         <v>7</v>
       </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-      <c r="D42">
-        <v>5</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-      <c r="F42">
-        <v>18</v>
-      </c>
-      <c r="G42">
-        <v>20</v>
-      </c>
-      <c r="H42">
-        <v>18</v>
-      </c>
-      <c r="I42">
-        <v>5</v>
-      </c>
-      <c r="K42">
+      <c r="C42" s="36">
+        <f t="shared" ref="C42:N42" si="4">C21</f>
         <v>6</v>
       </c>
-      <c r="L42">
-        <v>3</v>
-      </c>
-      <c r="M42">
-        <v>15</v>
-      </c>
-      <c r="N42">
-        <v>4</v>
+      <c r="D42" s="36">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="E42" s="36">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F42" s="36">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G42" s="36">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H42" s="36">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I42" s="36">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L42" s="36">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M42" s="36">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N42" s="36">
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2586,11 +2681,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O4" sqref="O4"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3060,7 +3155,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" ref="B23:J23" si="2">SUM(B25:B36)</f>
+        <f t="shared" ref="B23:J23" si="2">SUM(B25:B37)</f>
         <v>97</v>
       </c>
       <c r="C23" s="1">
@@ -3096,12 +3191,15 @@
         <v>95</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" ref="K23:M23" si="3">SUM(K25:K36)</f>
+        <f>SUM(K25:K37)</f>
         <v>96</v>
       </c>
-      <c r="L23" s="1"/>
+      <c r="L23" s="1">
+        <f>SUM(L25:L37)</f>
+        <v>98</v>
+      </c>
       <c r="M23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="M23" si="3">SUM(M25:M37)</f>
         <v>74</v>
       </c>
       <c r="N23" s="1"/>
@@ -3142,6 +3240,9 @@
       <c r="K26">
         <v>70</v>
       </c>
+      <c r="L26">
+        <v>79</v>
+      </c>
       <c r="M26">
         <v>21</v>
       </c>
@@ -3179,135 +3280,152 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29">
+        <v>149</v>
+      </c>
+      <c r="L29">
         <v>12</v>
-      </c>
-      <c r="J29">
-        <v>4</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="M29">
-        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="E30">
-        <v>25</v>
-      </c>
-      <c r="G30">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>12</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K30">
         <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="G31">
-        <v>74</v>
-      </c>
-      <c r="H31">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32">
-        <v>8</v>
-      </c>
-      <c r="M32">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>95</v>
+      </c>
+      <c r="G32">
+        <v>74</v>
+      </c>
+      <c r="H32">
+        <v>70</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>52</v>
-      </c>
-      <c r="J33">
-        <v>25</v>
-      </c>
-      <c r="K33">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>52</v>
+      </c>
+      <c r="J34">
+        <v>25</v>
+      </c>
+      <c r="K34">
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+      <c r="M34">
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>0</v>
       </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
         <v>40</v>
       </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="I36">
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="I37">
         <v>6</v>
       </c>
-      <c r="J36">
-        <v>3</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3321,8 +3439,8 @@
   <dimension ref="A1:AH39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W17" sqref="W17"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4438,11 +4556,11 @@
       </c>
       <c r="R26" s="1">
         <f t="shared" si="6"/>
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="S26" s="1">
         <f t="shared" si="6"/>
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="T26" s="1">
         <f t="shared" si="6"/>
@@ -4450,11 +4568,11 @@
       </c>
       <c r="U26" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="V26" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="W26" s="1">
         <f>SUM(W28:W38)</f>
@@ -4506,9 +4624,6 @@
       </c>
       <c r="Q28" s="33"/>
       <c r="R28" s="33"/>
-      <c r="S28">
-        <v>2</v>
-      </c>
       <c r="T28" s="33"/>
       <c r="V28" s="38"/>
       <c r="W28" s="33"/>
@@ -4550,10 +4665,21 @@
       <c r="Q29">
         <v>12</v>
       </c>
+      <c r="R29">
+        <v>10</v>
+      </c>
+      <c r="S29">
+        <v>9</v>
+      </c>
       <c r="T29" s="33">
         <v>9</v>
       </c>
-      <c r="V29" s="38"/>
+      <c r="U29">
+        <v>9</v>
+      </c>
+      <c r="V29" s="38">
+        <v>7</v>
+      </c>
       <c r="W29">
         <v>90</v>
       </c>
@@ -4614,10 +4740,10 @@
         <v>1</v>
       </c>
       <c r="R30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T30" s="33">
         <v>4</v>
@@ -4644,7 +4770,12 @@
         <v>8</v>
       </c>
       <c r="T31" s="33"/>
-      <c r="V31" s="38"/>
+      <c r="U31">
+        <v>5</v>
+      </c>
+      <c r="V31" s="38">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -4695,6 +4826,9 @@
       <c r="T32" s="33">
         <v>0.05</v>
       </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
       <c r="V32" s="38"/>
       <c r="W32">
         <v>1</v>
@@ -4725,6 +4859,9 @@
       <c r="T33" s="33">
         <v>2</v>
       </c>
+      <c r="U33">
+        <v>2</v>
+      </c>
       <c r="V33" s="38"/>
       <c r="W33">
         <v>1</v>
@@ -4747,6 +4884,9 @@
         <v>3</v>
       </c>
       <c r="T34" s="33"/>
+      <c r="U34">
+        <v>4</v>
+      </c>
       <c r="V34" s="38"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
@@ -4783,7 +4923,12 @@
       <c r="T35" s="33">
         <v>78</v>
       </c>
-      <c r="V35" s="38"/>
+      <c r="U35">
+        <v>74</v>
+      </c>
+      <c r="V35" s="38">
+        <v>72</v>
+      </c>
       <c r="W35">
         <v>1</v>
       </c>
@@ -4820,7 +4965,9 @@
         <v>4</v>
       </c>
       <c r="T36" s="33"/>
-      <c r="V36" s="38"/>
+      <c r="V36" s="38">
+        <v>6</v>
+      </c>
       <c r="Y36">
         <v>5</v>
       </c>
@@ -4883,7 +5030,12 @@
       <c r="T37" s="33">
         <v>1</v>
       </c>
-      <c r="V37" s="38"/>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37" s="38">
+        <v>2</v>
+      </c>
       <c r="AC37">
         <v>2</v>
       </c>
@@ -4943,7 +5095,12 @@
       <c r="T38" s="33">
         <v>3</v>
       </c>
-      <c r="V38" s="38"/>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38" s="38">
+        <v>5</v>
+      </c>
       <c r="Y38">
         <v>4</v>
       </c>

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22320" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="1"/>
+    <workbookView xWindow="23250" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Surface" sheetId="1" r:id="rId1"/>
-    <sheet name="Ocean" sheetId="2" r:id="rId2"/>
-    <sheet name="Atmo" sheetId="3" r:id="rId3"/>
-    <sheet name="Exo Bands" sheetId="4" r:id="rId4"/>
+    <sheet name="Crust" sheetId="1" r:id="rId1"/>
+    <sheet name="Deep Crust" sheetId="5" r:id="rId2"/>
+    <sheet name="Ocean" sheetId="2" r:id="rId3"/>
+    <sheet name="Atmo" sheetId="3" r:id="rId4"/>
+    <sheet name="Exo Bands" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -249,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="169">
   <si>
     <t>Zeonium</t>
   </si>
@@ -708,6 +709,54 @@
   </si>
   <si>
     <t>Iron</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>Tritium</t>
+  </si>
+  <si>
+    <t>Thorium</t>
+  </si>
+  <si>
+    <t>Sulfur</t>
+  </si>
+  <si>
+    <t>Iron Oxide</t>
+  </si>
+  <si>
+    <t>Carbonatite</t>
+  </si>
+  <si>
+    <t>Alkaline</t>
+  </si>
+  <si>
+    <t>Mafic/Basaltic</t>
+  </si>
+  <si>
+    <t>Felsic</t>
+  </si>
+  <si>
+    <t>Deep Rock</t>
+  </si>
+  <si>
+    <t>Deep Magma</t>
+  </si>
+  <si>
+    <t>Dirt</t>
+  </si>
+  <si>
+    <t>Carbon Dioxide</t>
+  </si>
+  <si>
+    <t>Carbon Monoxide</t>
+  </si>
+  <si>
+    <t>Helium-3</t>
+  </si>
+  <si>
+    <t>Lithium</t>
   </si>
 </sst>
 </file>
@@ -720,9 +769,16 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -869,8 +925,22 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -917,6 +987,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -951,111 +1027,128 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1337,7 +1430,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2680,10 +2773,399 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.625" style="42" customWidth="1"/>
+    <col min="2" max="10" width="11.25" style="42" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+    </row>
+    <row r="3" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="43">
+        <f>SUM(B5:B25)</f>
+        <v>99.7</v>
+      </c>
+      <c r="C3" s="43">
+        <f t="shared" ref="C3:J3" si="0">SUM(C5:C25)</f>
+        <v>86.8</v>
+      </c>
+      <c r="D3" s="43">
+        <f t="shared" si="0"/>
+        <v>73.8</v>
+      </c>
+      <c r="E3" s="43">
+        <f t="shared" si="0"/>
+        <v>92.8</v>
+      </c>
+      <c r="F3" s="43">
+        <f t="shared" si="0"/>
+        <v>95.7</v>
+      </c>
+      <c r="G3" s="43">
+        <f t="shared" si="0"/>
+        <v>99.8</v>
+      </c>
+      <c r="H3" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="42">
+        <v>15</v>
+      </c>
+      <c r="C5" s="42">
+        <v>4</v>
+      </c>
+      <c r="D5" s="42">
+        <v>5</v>
+      </c>
+      <c r="E5" s="42">
+        <v>3</v>
+      </c>
+      <c r="F5" s="42">
+        <v>5.5</v>
+      </c>
+      <c r="G5" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="42">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="42">
+        <v>1</v>
+      </c>
+      <c r="C9" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="D9" s="42">
+        <v>4</v>
+      </c>
+      <c r="E9" s="42">
+        <v>1</v>
+      </c>
+      <c r="F9" s="42">
+        <v>1</v>
+      </c>
+      <c r="G9" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="42">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="42">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="42">
+        <v>8.1</v>
+      </c>
+      <c r="C13" s="42">
+        <v>16</v>
+      </c>
+      <c r="D13" s="42">
+        <v>3</v>
+      </c>
+      <c r="E13" s="42">
+        <v>2</v>
+      </c>
+      <c r="F13" s="42">
+        <v>42</v>
+      </c>
+      <c r="G13" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="42">
+        <v>8</v>
+      </c>
+      <c r="D14" s="42">
+        <v>3</v>
+      </c>
+      <c r="E14" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="F14" s="42">
+        <v>1.9</v>
+      </c>
+      <c r="G14" s="42">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="42">
+        <v>7.1</v>
+      </c>
+      <c r="C15" s="42">
+        <v>8</v>
+      </c>
+      <c r="D15" s="42">
+        <v>13</v>
+      </c>
+      <c r="E15" s="42">
+        <v>5</v>
+      </c>
+      <c r="F15" s="42">
+        <v>8</v>
+      </c>
+      <c r="G15" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="49">
+        <v>67</v>
+      </c>
+      <c r="C16" s="49">
+        <v>48</v>
+      </c>
+      <c r="D16" s="49">
+        <v>42</v>
+      </c>
+      <c r="E16" s="49">
+        <v>31</v>
+      </c>
+      <c r="F16" s="49">
+        <v>36</v>
+      </c>
+      <c r="G16" s="49">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="42">
+        <v>1</v>
+      </c>
+      <c r="C17" s="42">
+        <v>1</v>
+      </c>
+      <c r="D17" s="42">
+        <v>1</v>
+      </c>
+      <c r="E17" s="42">
+        <v>1</v>
+      </c>
+      <c r="F17" s="42">
+        <v>1</v>
+      </c>
+      <c r="G17" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="42">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="50">
+        <f>SUM(100-B3)</f>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="C26" s="50">
+        <f t="shared" ref="C26:J26" si="1">SUM(100-C3)</f>
+        <v>13.200000000000003</v>
+      </c>
+      <c r="D26" s="50">
+        <f t="shared" si="1"/>
+        <v>26.200000000000003</v>
+      </c>
+      <c r="E26" s="50">
+        <f t="shared" si="1"/>
+        <v>7.2000000000000028</v>
+      </c>
+      <c r="F26" s="50">
+        <f t="shared" si="1"/>
+        <v>4.2999999999999972</v>
+      </c>
+      <c r="G26" s="50">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="H26" s="50">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I26" s="50">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J26" s="50">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L26" sqref="L26"/>
     </sheetView>
@@ -3434,7 +3916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH39"/>
   <sheetViews>
@@ -5130,7 +5612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q75"/>
   <sheetViews>

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23250" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="1"/>
+    <workbookView xWindow="23250" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Crust" sheetId="1" r:id="rId1"/>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="169">
   <si>
     <t>Zeonium</t>
   </si>
@@ -1124,24 +1124,24 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -2776,376 +2776,376 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="42" customWidth="1"/>
-    <col min="2" max="10" width="11.25" style="42" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="42"/>
+    <col min="1" max="1" width="15.625" style="41" customWidth="1"/>
+    <col min="2" max="10" width="11.25" style="41" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="47" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-    </row>
-    <row r="2" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="44" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49"/>
+      <c r="B2" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="42">
         <f>SUM(B5:B25)</f>
         <v>99.7</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="42">
         <f t="shared" ref="C3:J3" si="0">SUM(C5:C25)</f>
         <v>86.8</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="42">
         <f t="shared" si="0"/>
         <v>73.8</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="42">
         <f t="shared" si="0"/>
         <v>92.8</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="42">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="42">
         <f t="shared" si="0"/>
         <v>99.8</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J3" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="41">
         <v>15</v>
       </c>
-      <c r="C5" s="42">
-        <v>4</v>
-      </c>
-      <c r="D5" s="42">
-        <v>5</v>
-      </c>
-      <c r="E5" s="42">
-        <v>3</v>
-      </c>
-      <c r="F5" s="42">
+      <c r="C5" s="41">
+        <v>4</v>
+      </c>
+      <c r="D5" s="41">
+        <v>5</v>
+      </c>
+      <c r="E5" s="41">
+        <v>3</v>
+      </c>
+      <c r="F5" s="41">
         <v>5.5</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="41">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="41" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="42">
-        <v>1</v>
-      </c>
-      <c r="C9" s="42">
+      <c r="B9" s="41">
+        <v>1</v>
+      </c>
+      <c r="C9" s="41">
         <v>1.5</v>
       </c>
-      <c r="D9" s="42">
-        <v>4</v>
-      </c>
-      <c r="E9" s="42">
-        <v>1</v>
-      </c>
-      <c r="F9" s="42">
-        <v>1</v>
-      </c>
-      <c r="G9" s="42">
+      <c r="D9" s="41">
+        <v>4</v>
+      </c>
+      <c r="E9" s="41">
+        <v>1</v>
+      </c>
+      <c r="F9" s="41">
+        <v>1</v>
+      </c>
+      <c r="G9" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="41">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="41">
         <v>0.1</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="41">
         <v>0.1</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="41">
         <v>0.1</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="41">
         <v>0.1</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="41">
         <v>0.1</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="41">
         <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="41">
         <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="41">
         <v>8.1</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="41">
         <v>16</v>
       </c>
-      <c r="D13" s="42">
-        <v>3</v>
-      </c>
-      <c r="E13" s="42">
-        <v>2</v>
-      </c>
-      <c r="F13" s="42">
+      <c r="D13" s="41">
+        <v>3</v>
+      </c>
+      <c r="E13" s="41">
+        <v>2</v>
+      </c>
+      <c r="F13" s="41">
         <v>42</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="41">
         <v>0.2</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="41">
         <v>8</v>
       </c>
-      <c r="D14" s="42">
-        <v>3</v>
-      </c>
-      <c r="E14" s="42">
+      <c r="D14" s="41">
+        <v>3</v>
+      </c>
+      <c r="E14" s="41">
         <v>1.5</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="41">
         <v>1.9</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="41">
         <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="42">
+      <c r="A15" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="41">
         <v>7.1</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="41">
         <v>8</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="41">
         <v>13</v>
       </c>
-      <c r="E15" s="42">
-        <v>5</v>
-      </c>
-      <c r="F15" s="42">
+      <c r="E15" s="41">
+        <v>5</v>
+      </c>
+      <c r="F15" s="41">
         <v>8</v>
       </c>
-      <c r="G15" s="42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="G15" s="41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="45">
         <v>67</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="45">
         <v>48</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="45">
         <v>42</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="45">
         <v>31</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="45">
         <v>36</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="45">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="42">
-        <v>1</v>
-      </c>
-      <c r="C17" s="42">
-        <v>1</v>
-      </c>
-      <c r="D17" s="42">
-        <v>1</v>
-      </c>
-      <c r="E17" s="42">
-        <v>1</v>
-      </c>
-      <c r="F17" s="42">
-        <v>1</v>
-      </c>
-      <c r="G17" s="42">
+      <c r="B17" s="41">
+        <v>1</v>
+      </c>
+      <c r="C17" s="41">
+        <v>1</v>
+      </c>
+      <c r="D17" s="41">
+        <v>1</v>
+      </c>
+      <c r="E17" s="41">
+        <v>1</v>
+      </c>
+      <c r="F17" s="41">
+        <v>1</v>
+      </c>
+      <c r="G17" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="41">
         <v>0.2</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="41">
         <v>0.2</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="41">
         <v>0.2</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="41">
         <v>0.2</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="41">
         <v>0.2</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="41">
         <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="50">
+      <c r="B26" s="46">
         <f>SUM(100-B3)</f>
         <v>0.29999999999999716</v>
       </c>
-      <c r="C26" s="50">
+      <c r="C26" s="46">
         <f t="shared" ref="C26:J26" si="1">SUM(100-C3)</f>
         <v>13.200000000000003</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="46">
         <f t="shared" si="1"/>
         <v>26.200000000000003</v>
       </c>
-      <c r="E26" s="50">
+      <c r="E26" s="46">
         <f t="shared" si="1"/>
         <v>7.2000000000000028</v>
       </c>
-      <c r="F26" s="50">
+      <c r="F26" s="46">
         <f t="shared" si="1"/>
         <v>4.2999999999999972</v>
       </c>
-      <c r="G26" s="50">
+      <c r="G26" s="46">
         <f t="shared" si="1"/>
         <v>0.20000000000000284</v>
       </c>
-      <c r="H26" s="50">
+      <c r="H26" s="46">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I26" s="50">
+      <c r="I26" s="46">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J26" s="50">
+      <c r="J26" s="46">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -3918,11 +3918,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH39"/>
+  <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4007,10 +4007,10 @@
       <c r="S1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="U1" s="41"/>
+      <c r="U1" s="50"/>
       <c r="V1" s="2" t="s">
         <v>144</v>
       </c>
@@ -4050,128 +4050,128 @@
         <v>14</v>
       </c>
       <c r="B2" s="4">
-        <f t="shared" ref="B2:V2" si="0">SUM(B4:B23)</f>
+        <f>SUM(B4:B24)</f>
         <v>93.004672897196258</v>
       </c>
       <c r="C2" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(C4:C24)</f>
         <v>93.001557632398757</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(D4:D24)</f>
         <v>92.001557632398757</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(E4:E24)</f>
         <v>85.118380062305292</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(F4:F24)</f>
         <v>89.059190031152639</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" si="0"/>
-        <v>91.259190031152656</v>
+        <f>SUM(G4:G24)</f>
+        <v>91.259790031152647</v>
       </c>
       <c r="H2" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(H4:H24)</f>
         <v>73.004672897196258</v>
       </c>
       <c r="I2" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(I4:I24)</f>
         <v>78.001557632398757</v>
       </c>
       <c r="J2" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(J4:J24)</f>
         <v>95.007788161993773</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(K4:K24)</f>
         <v>92</v>
       </c>
       <c r="L2" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(L4:L24)</f>
         <v>93</v>
       </c>
       <c r="M2" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(M4:M24)</f>
         <v>92.003115264797515</v>
       </c>
       <c r="N2" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(N4:N24)</f>
         <v>90.006230529595015</v>
       </c>
       <c r="O2" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(O4:O24)</f>
         <v>92.003115264797515</v>
       </c>
       <c r="P2" s="4">
-        <f t="shared" si="0"/>
-        <v>96.000778816199372</v>
+        <f>SUM(P4:P24)</f>
+        <v>96.002278816199379</v>
       </c>
       <c r="Q2" s="4">
-        <f t="shared" si="0"/>
-        <v>96.615264797507791</v>
+        <f>SUM(Q4:Q24)</f>
+        <v>96.651264797507793</v>
       </c>
       <c r="R2" s="4">
-        <f t="shared" si="0"/>
-        <v>99.121495327102807</v>
+        <f>SUM(R4:R24)</f>
+        <v>99.151495327102808</v>
       </c>
       <c r="S2" s="4">
-        <f t="shared" si="0"/>
-        <v>98.124610591900307</v>
+        <f>SUM(S4:S24)</f>
+        <v>98.154610591900308</v>
       </c>
       <c r="T2" s="4">
-        <f t="shared" si="0"/>
-        <v>91.862149532710276</v>
+        <f>SUM(T4:T24)</f>
+        <v>91.892149532710278</v>
       </c>
       <c r="U2" s="4">
-        <f t="shared" si="0"/>
-        <v>98.615264797507791</v>
+        <f>SUM(U4:U24)</f>
+        <v>98.636264797507792</v>
       </c>
       <c r="V2" s="4">
-        <f t="shared" si="0"/>
-        <v>100.61526479750779</v>
+        <f>SUM(V4:V24)</f>
+        <v>100.63626479750779</v>
       </c>
       <c r="W2" s="4">
-        <f>SUM(W4:W23)</f>
-        <v>96.007788161993773</v>
+        <f>SUM(W4:W24)</f>
+        <v>96.247788161993768</v>
       </c>
       <c r="Y2" s="4">
-        <f>SUM(Y5:Y23)</f>
-        <v>90.109034267912776</v>
+        <f>SUM(Y5:Y24)</f>
+        <v>90.130034267912777</v>
       </c>
       <c r="Z2" s="4">
-        <f>SUM(Z5:Z23)</f>
-        <v>95.116822429906534</v>
+        <f>SUM(Z5:Z24)</f>
+        <v>95.137822429906549</v>
       </c>
       <c r="AA2" s="4">
-        <f>SUM(AA5:AA23)</f>
-        <v>99.13239875389408</v>
+        <f>SUM(AA5:AA24)</f>
+        <v>99.14739875389408</v>
       </c>
       <c r="AC2" s="4">
-        <f t="shared" ref="AC2:AH2" si="1">SUM(AC5:AC23)</f>
-        <v>95.109034267912776</v>
+        <f>SUM(AC5:AC24)</f>
+        <v>95.139034267912777</v>
       </c>
       <c r="AD2" s="4">
-        <f t="shared" si="1"/>
-        <v>98.031152647975077</v>
+        <f>SUM(AD5:AD24)</f>
+        <v>98.055152647975078</v>
       </c>
       <c r="AE2" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(AE5:AE24)</f>
         <v>92.031152647975077</v>
       </c>
       <c r="AF2" s="4">
-        <f t="shared" si="1"/>
-        <v>11.004672897196262</v>
+        <f>SUM(AF5:AF24)</f>
+        <v>11.010672897196262</v>
       </c>
       <c r="AG2" s="4">
-        <f t="shared" si="1"/>
-        <v>94.60280373831776</v>
+        <f>SUM(AG5:AG24)</f>
+        <v>94.626803738317761</v>
       </c>
       <c r="AH2" s="4">
-        <f t="shared" si="1"/>
-        <v>98.085669781931472</v>
+        <f>SUM(AH5:AH24)</f>
+        <v>98.112669781931459</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -4394,120 +4394,120 @@
         <v>44</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" ref="B10:D10" si="2">(B13+B22)/642</f>
+        <f t="shared" ref="B10:D10" si="0">(B14+B23)/642</f>
         <v>4.6728971962616819E-3</v>
       </c>
       <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.557632398753894E-3</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.557632398753894E-3</v>
+      </c>
+      <c r="E10" s="3">
+        <f>(E14+E23)/642</f>
+        <v>0.11838006230529595</v>
+      </c>
+      <c r="F10" s="3">
+        <f>(F14+F23)/642</f>
+        <v>5.9190031152647975E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <f>(G14+G23)/642</f>
+        <v>5.9190031152647975E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <f>(H14+H23)/642</f>
+        <v>4.6728971962616819E-3</v>
+      </c>
+      <c r="I10" s="3">
+        <f>(I14+I23)/642</f>
+        <v>1.557632398753894E-3</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" ref="J10" si="1">J14/642</f>
+        <v>7.7881619937694704E-3</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" ref="M10:AA10" si="2">M14/642</f>
+        <v>3.1152647975077881E-3</v>
+      </c>
+      <c r="N10" s="3">
         <f t="shared" si="2"/>
-        <v>1.557632398753894E-3</v>
-      </c>
-      <c r="D10" s="3">
+        <v>6.2305295950155761E-3</v>
+      </c>
+      <c r="O10" s="3">
         <f t="shared" si="2"/>
-        <v>1.557632398753894E-3</v>
-      </c>
-      <c r="E10" s="3">
-        <f>(E13+E22)/642</f>
-        <v>0.11838006230529595</v>
-      </c>
-      <c r="F10" s="3">
-        <f>(F13+F22)/642</f>
-        <v>5.9190031152647975E-2</v>
-      </c>
-      <c r="G10" s="3">
-        <f>(G13+G22)/642</f>
-        <v>5.9190031152647975E-2</v>
-      </c>
-      <c r="H10" s="3">
-        <f>(H13+H22)/642</f>
-        <v>4.6728971962616819E-3</v>
-      </c>
-      <c r="I10" s="3">
-        <f>(I13+I22)/642</f>
-        <v>1.557632398753894E-3</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" ref="J10" si="3">J13/642</f>
+        <v>3.1152647975077881E-3</v>
+      </c>
+      <c r="P10" s="3">
+        <f>P14/642</f>
+        <v>7.7881619937694702E-4</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.11526479750778816</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.12149532710280374</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.12461059190031153</v>
+      </c>
+      <c r="T10" s="34">
+        <f t="shared" si="2"/>
+        <v>0.11214953271028037</v>
+      </c>
+      <c r="U10" s="39">
+        <f t="shared" si="2"/>
+        <v>0.11526479750778816</v>
+      </c>
+      <c r="V10" s="39">
+        <f>V14/642</f>
+        <v>0.11526479750778816</v>
+      </c>
+      <c r="W10" s="3">
+        <f>W14/642</f>
         <v>7.7881619937694704E-3</v>
       </c>
-      <c r="M10" s="3">
-        <f t="shared" ref="M10:AA10" si="4">M13/642</f>
-        <v>3.1152647975077881E-3</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" si="4"/>
-        <v>6.2305295950155761E-3</v>
-      </c>
-      <c r="O10" s="3">
-        <f t="shared" si="4"/>
-        <v>3.1152647975077881E-3</v>
-      </c>
-      <c r="P10" s="3">
-        <f>P13/642</f>
-        <v>7.7881619937694702E-4</v>
-      </c>
-      <c r="Q10" s="3">
-        <f t="shared" si="4"/>
-        <v>0.11526479750778816</v>
-      </c>
-      <c r="R10" s="3">
-        <f t="shared" si="4"/>
-        <v>0.12149532710280374</v>
-      </c>
-      <c r="S10" s="3">
-        <f t="shared" si="4"/>
-        <v>0.12461059190031153</v>
-      </c>
-      <c r="T10" s="34">
-        <f t="shared" si="4"/>
-        <v>0.11214953271028037</v>
-      </c>
-      <c r="U10" s="39">
-        <f t="shared" si="4"/>
-        <v>0.11526479750778816</v>
-      </c>
-      <c r="V10" s="39">
-        <f>V13/642</f>
-        <v>0.11526479750778816</v>
-      </c>
-      <c r="W10" s="3">
-        <f>W13/642</f>
-        <v>7.7881619937694704E-3</v>
-      </c>
       <c r="Y10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.10903426791277258</v>
       </c>
       <c r="Z10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11682242990654206</v>
       </c>
       <c r="AA10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.13239875389408098</v>
       </c>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3">
-        <f>AC13/642</f>
+        <f>AC14/642</f>
         <v>0.10903426791277258</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" ref="AD10:AF10" si="5">AD13/642</f>
+        <f t="shared" ref="AD10:AF10" si="3">AD14/642</f>
         <v>3.1152647975077882E-2</v>
       </c>
       <c r="AE10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3.1152647975077882E-2</v>
       </c>
       <c r="AF10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.6728971962616819E-3</v>
       </c>
       <c r="AG10" s="3">
-        <f>AG13/642</f>
+        <f>AG14/642</f>
         <v>0.10280373831775701</v>
       </c>
       <c r="AH10" s="3">
-        <f>AH13/642</f>
+        <f>AH14/642</f>
         <v>8.566978193146417E-2</v>
       </c>
     </row>
@@ -4595,281 +4595,403 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-      <c r="N13">
-        <v>4</v>
-      </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
-      <c r="P13">
-        <v>0.5</v>
-      </c>
-      <c r="Q13">
-        <v>74</v>
-      </c>
-      <c r="R13">
-        <v>78</v>
-      </c>
-      <c r="S13">
-        <v>80</v>
-      </c>
-      <c r="T13" s="33">
-        <v>72</v>
+        <v>167</v>
+      </c>
+      <c r="B13" s="38" t="str">
+        <f t="shared" ref="B13" si="4">IF(B12&gt;0,B12*0.003,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C13" s="38" t="str">
+        <f t="shared" ref="C13" si="5">IF(C12&gt;0,C12*0.003,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D13" s="38" t="str">
+        <f t="shared" ref="D13" si="6">IF(D12&gt;0,D12*0.003,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E13" s="38" t="str">
+        <f t="shared" ref="E13" si="7">IF(E12&gt;0,E12*0.003,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F13" s="38" t="str">
+        <f t="shared" ref="F13" si="8">IF(F12&gt;0,F12*0.003,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="G13" s="38">
+        <f t="shared" ref="G13" si="9">IF(G12&gt;0,G12*0.003,"-")</f>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="H13" s="38" t="str">
+        <f t="shared" ref="H13" si="10">IF(H12&gt;0,H12*0.003,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="I13" s="38" t="str">
+        <f t="shared" ref="I13" si="11">IF(I12&gt;0,I12*0.003,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="J13" s="38" t="str">
+        <f t="shared" ref="J13" si="12">IF(J12&gt;0,J12*0.003,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="K13" s="38" t="str">
+        <f t="shared" ref="K13" si="13">IF(K12&gt;0,K12*0.003,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="L13" s="38" t="str">
+        <f t="shared" ref="L13" si="14">IF(L12&gt;0,L12*0.003,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="M13" s="38" t="str">
+        <f t="shared" ref="M13" si="15">IF(M12&gt;0,M12*0.003,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="N13" s="38" t="str">
+        <f t="shared" ref="N13" si="16">IF(N12&gt;0,N12*0.003,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="O13" s="38" t="str">
+        <f t="shared" ref="O13" si="17">IF(O12&gt;0,O12*0.003,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="P13" s="38">
+        <f t="shared" ref="P13" si="18">IF(P12&gt;0,P12*0.003,"-")</f>
+        <v>1.5E-3</v>
+      </c>
+      <c r="Q13" s="38">
+        <f t="shared" ref="Q13" si="19">IF(Q12&gt;0,Q12*0.003,"-")</f>
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="R13" s="38">
+        <f t="shared" ref="R13" si="20">IF(R12&gt;0,R12*0.003,"-")</f>
+        <v>0.03</v>
+      </c>
+      <c r="S13" s="38">
+        <f t="shared" ref="S13" si="21">IF(S12&gt;0,S12*0.003,"-")</f>
+        <v>0.03</v>
+      </c>
+      <c r="T13" s="38">
+        <f t="shared" ref="T13:W13" si="22">IF(T12&gt;0,T12*0.003,"-")</f>
+        <v>0.03</v>
       </c>
       <c r="U13" s="38">
-        <v>74</v>
+        <f t="shared" si="22"/>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="V13" s="38">
-        <v>74</v>
-      </c>
-      <c r="W13">
-        <v>5</v>
-      </c>
-      <c r="Y13">
-        <v>70</v>
-      </c>
-      <c r="Z13">
-        <v>75</v>
-      </c>
-      <c r="AA13">
-        <v>85</v>
-      </c>
-      <c r="AC13">
-        <v>70</v>
-      </c>
-      <c r="AD13">
-        <v>20</v>
-      </c>
-      <c r="AE13">
-        <v>20</v>
-      </c>
-      <c r="AF13">
-        <v>3</v>
-      </c>
-      <c r="AG13">
-        <v>66</v>
-      </c>
-      <c r="AH13">
-        <v>55</v>
+        <f t="shared" si="22"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="W13" s="38">
+        <f t="shared" si="22"/>
+        <v>0.24</v>
+      </c>
+      <c r="X13" s="38" t="str">
+        <f>IF(X12&gt;0,X12*0.003,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="Y13" s="38">
+        <f t="shared" ref="Y13:AF13" si="23">IF(Y12&gt;0,Y12*0.003,"-")</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Z13" s="38">
+        <f t="shared" si="23"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AA13" s="38">
+        <f t="shared" si="23"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AB13" s="38" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="AC13" s="38">
+        <f t="shared" si="23"/>
+        <v>0.03</v>
+      </c>
+      <c r="AD13" s="38">
+        <f t="shared" si="23"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="AE13" s="38" t="str">
+        <f t="shared" si="23"/>
+        <v>-</v>
+      </c>
+      <c r="AF13" s="38">
+        <f t="shared" si="23"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AG13" s="38">
+        <f t="shared" ref="AG13" si="24">IF(AG12&gt;0,AG12*0.003,"-")</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="AH13" s="38">
+        <f t="shared" ref="AH13" si="25">IF(AH12&gt;0,AH12*0.003,"-")</f>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
       </c>
       <c r="J14">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>0.5</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="S14">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="T14" s="33">
-        <v>0.05</v>
-      </c>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
+        <v>72</v>
+      </c>
+      <c r="U14" s="38">
+        <v>74</v>
+      </c>
+      <c r="V14" s="38">
+        <v>74</v>
+      </c>
       <c r="W14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="Z14">
+        <v>75</v>
+      </c>
+      <c r="AA14">
+        <v>85</v>
       </c>
       <c r="AC14">
-        <v>5</v>
+        <v>70</v>
+      </c>
+      <c r="AD14">
+        <v>20</v>
+      </c>
+      <c r="AE14">
+        <v>20</v>
+      </c>
+      <c r="AF14">
+        <v>3</v>
       </c>
       <c r="AG14">
-        <v>3.5</v>
+        <v>66</v>
       </c>
       <c r="AH14">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="T15" s="33"/>
-      <c r="U15" s="38">
-        <v>2</v>
-      </c>
-      <c r="V15" s="38">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15">
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>5</v>
+      </c>
+      <c r="AG15">
+        <v>3.5</v>
+      </c>
+      <c r="AH15">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>70</v>
-      </c>
-      <c r="D16">
-        <v>74</v>
-      </c>
-      <c r="G16">
-        <v>44</v>
-      </c>
-      <c r="I16">
-        <v>70</v>
-      </c>
-      <c r="J16">
-        <v>50</v>
-      </c>
-      <c r="K16">
-        <v>80</v>
-      </c>
-      <c r="M16">
-        <v>75</v>
-      </c>
-      <c r="N16">
-        <v>85</v>
-      </c>
-      <c r="O16">
-        <v>90</v>
-      </c>
-      <c r="P16">
-        <v>2</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="T16" s="33">
-        <v>5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="T16" s="33"/>
       <c r="U16" s="38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V16" s="38">
-        <v>4</v>
-      </c>
-      <c r="Y16">
-        <v>2</v>
-      </c>
-      <c r="Z16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D17">
-        <v>16</v>
-      </c>
-      <c r="E17">
-        <v>9</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>44</v>
+      </c>
+      <c r="I17">
+        <v>70</v>
       </c>
       <c r="J17">
-        <v>9</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="K17">
+        <v>80</v>
+      </c>
+      <c r="M17">
+        <v>75</v>
+      </c>
+      <c r="N17">
+        <v>85</v>
+      </c>
+      <c r="O17">
+        <v>90</v>
       </c>
       <c r="P17">
-        <v>90</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17">
         <v>1</v>
       </c>
       <c r="T17" s="33">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="U17" s="38">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="V17" s="38">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="Y17">
         <v>2</v>
       </c>
       <c r="Z17">
         <v>2</v>
-      </c>
-      <c r="AG17">
-        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="T18" s="33"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>90</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="T18" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="U18" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="V18" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="Y18">
+        <v>2</v>
+      </c>
+      <c r="Z18">
+        <v>2</v>
+      </c>
+      <c r="AG18">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="T19" s="33"/>
-      <c r="U19" s="38">
-        <v>1</v>
-      </c>
-      <c r="V19" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="T20" s="33"/>
       <c r="U20" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V20" s="38">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="W20">
         <v>1</v>
@@ -4877,371 +4999,326 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="T21" s="33"/>
       <c r="U21" s="38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V21" s="38">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>76</v>
-      </c>
-      <c r="F22">
-        <v>38</v>
-      </c>
-      <c r="G22">
-        <v>38</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>5</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>2</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="R22">
-        <v>4</v>
-      </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="T22" s="33">
-        <v>1</v>
-      </c>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22">
-        <v>3</v>
-      </c>
-      <c r="AC22">
-        <v>3</v>
+        <v>137</v>
+      </c>
+      <c r="T22" s="33"/>
+      <c r="U22" s="38">
+        <v>1</v>
+      </c>
+      <c r="V22" s="38">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>76</v>
+      </c>
+      <c r="F23">
+        <v>38</v>
+      </c>
+      <c r="G23">
+        <v>38</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23" s="33">
+        <v>1</v>
+      </c>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23">
+        <v>3</v>
+      </c>
+      <c r="AC23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>50</v>
       </c>
-      <c r="T23" s="33"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="38"/>
-      <c r="Y23">
-        <v>2</v>
-      </c>
-      <c r="Z23">
-        <v>1</v>
-      </c>
-      <c r="AG23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="T24" s="33"/>
+      <c r="U24" s="35"/>
       <c r="V24" s="38"/>
+      <c r="Y24">
+        <v>2</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="V25" s="38"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="V26" s="38"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="1">
-        <f t="shared" ref="B26:V26" si="6">SUM(B28:B38)</f>
+      <c r="B27" s="1">
+        <f t="shared" ref="B27:V27" si="26">SUM(B29:B39)</f>
         <v>10</v>
       </c>
-      <c r="C26" s="1">
-        <f t="shared" si="6"/>
+      <c r="C27" s="1">
+        <f t="shared" si="26"/>
         <v>13</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" si="6"/>
+      <c r="D27" s="1">
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
-      <c r="E26" s="1">
-        <f t="shared" si="6"/>
+      <c r="E27" s="1">
+        <f t="shared" si="26"/>
         <v>78</v>
       </c>
-      <c r="F26" s="1">
-        <f t="shared" si="6"/>
+      <c r="F27" s="1">
+        <f t="shared" si="26"/>
         <v>45</v>
       </c>
-      <c r="G26" s="1">
-        <f t="shared" si="6"/>
+      <c r="G27" s="1">
+        <f t="shared" si="26"/>
         <v>54.5</v>
       </c>
-      <c r="H26" s="1">
-        <f t="shared" si="6"/>
+      <c r="H27" s="1">
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
-      <c r="I26" s="1">
-        <f t="shared" si="6"/>
+      <c r="I27" s="1">
+        <f t="shared" si="26"/>
         <v>23</v>
       </c>
-      <c r="J26" s="1">
-        <f t="shared" si="6"/>
+      <c r="J27" s="1">
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
-      <c r="K26" s="1">
-        <f t="shared" si="6"/>
+      <c r="K27" s="1">
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
-      <c r="L26" s="1">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="M26" s="1">
-        <f t="shared" si="6"/>
+      <c r="L27" s="1">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="26"/>
         <v>13</v>
       </c>
-      <c r="N26" s="1">
-        <f t="shared" si="6"/>
+      <c r="N27" s="1">
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
-      <c r="O26" s="1">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="P26" s="1">
-        <f>SUM(P28:P38)</f>
+      <c r="O27" s="1">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="P27" s="1">
+        <f>SUM(P29:P39)</f>
         <v>97</v>
       </c>
-      <c r="Q26" s="1">
-        <f t="shared" si="6"/>
+      <c r="Q27" s="1">
+        <f t="shared" si="26"/>
         <v>89</v>
       </c>
-      <c r="R26" s="1">
-        <f t="shared" si="6"/>
+      <c r="R27" s="1">
+        <f t="shared" si="26"/>
         <v>98</v>
       </c>
-      <c r="S26" s="1">
-        <f t="shared" si="6"/>
+      <c r="S27" s="1">
+        <f t="shared" si="26"/>
         <v>98</v>
       </c>
-      <c r="T26" s="1">
-        <f t="shared" si="6"/>
+      <c r="T27" s="1">
+        <f t="shared" si="26"/>
         <v>97.05</v>
       </c>
-      <c r="U26" s="1">
-        <f t="shared" si="6"/>
+      <c r="U27" s="1">
+        <f t="shared" si="26"/>
         <v>98</v>
       </c>
-      <c r="V26" s="40">
-        <f t="shared" si="6"/>
+      <c r="V27" s="40">
+        <f t="shared" si="26"/>
         <v>97</v>
       </c>
-      <c r="W26" s="1">
-        <f>SUM(W28:W38)</f>
+      <c r="W27" s="1">
+        <f>SUM(W29:W39)</f>
         <v>93</v>
       </c>
-      <c r="Y26" s="1">
-        <f>SUM(Y28:Y38)</f>
+      <c r="Y27" s="1">
+        <f>SUM(Y29:Y39)</f>
         <v>95</v>
       </c>
-      <c r="Z26" s="1">
-        <f>SUM(Z28:Z38)</f>
+      <c r="Z27" s="1">
+        <f>SUM(Z29:Z39)</f>
         <v>95</v>
       </c>
-      <c r="AA26" s="1">
-        <f>SUM(AA28:AA38)</f>
+      <c r="AA27" s="1">
+        <f>SUM(AA29:AA39)</f>
         <v>99</v>
       </c>
-      <c r="AC26" s="1">
-        <f t="shared" ref="AC26:AH26" si="7">SUM(AC28:AC38)</f>
+      <c r="AC27" s="1">
+        <f t="shared" ref="AC27:AH27" si="27">SUM(AC29:AC39)</f>
         <v>92</v>
       </c>
-      <c r="AD26" s="1">
-        <f t="shared" si="7"/>
+      <c r="AD27" s="1">
+        <f t="shared" si="27"/>
         <v>90</v>
       </c>
-      <c r="AE26" s="1">
-        <f t="shared" si="7"/>
+      <c r="AE27" s="1">
+        <f t="shared" si="27"/>
         <v>90</v>
       </c>
-      <c r="AF26" s="1">
-        <f t="shared" si="7"/>
+      <c r="AF27" s="1">
+        <f t="shared" si="27"/>
         <v>13</v>
       </c>
-      <c r="AG26" s="1">
-        <f t="shared" si="7"/>
+      <c r="AG27" s="1">
+        <f t="shared" si="27"/>
         <v>98</v>
       </c>
-      <c r="AH26" s="1">
-        <f t="shared" si="7"/>
+      <c r="AH27" s="1">
+        <f t="shared" si="27"/>
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="V27" s="38"/>
-    </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="T28" s="33"/>
       <c r="V28" s="38"/>
-      <c r="W28" s="33"/>
-      <c r="Y28">
-        <v>1</v>
-      </c>
-      <c r="Z28">
-        <v>5</v>
-      </c>
-      <c r="AA28">
-        <v>9</v>
-      </c>
-      <c r="AD28">
-        <v>70</v>
-      </c>
-      <c r="AE28">
-        <v>70</v>
-      </c>
-      <c r="AF28">
-        <v>1</v>
-      </c>
-      <c r="AG28">
-        <v>3</v>
-      </c>
-      <c r="AH28">
-        <v>3</v>
-      </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29">
-        <v>0.5</v>
-      </c>
-      <c r="P29">
-        <v>0.5</v>
-      </c>
-      <c r="Q29">
-        <v>12</v>
-      </c>
-      <c r="R29">
-        <v>10</v>
-      </c>
-      <c r="S29">
+        <v>49</v>
+      </c>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="33"/>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>5</v>
+      </c>
+      <c r="AA29">
         <v>9</v>
       </c>
-      <c r="T29" s="33">
-        <v>9</v>
-      </c>
-      <c r="U29">
-        <v>9</v>
-      </c>
-      <c r="V29" s="38">
-        <v>7</v>
-      </c>
-      <c r="W29">
-        <v>90</v>
-      </c>
-      <c r="Y29">
-        <v>7</v>
-      </c>
-      <c r="Z29">
-        <v>7</v>
-      </c>
-      <c r="AA29">
-        <v>5</v>
-      </c>
-      <c r="AC29">
-        <v>10</v>
+      <c r="AD29">
+        <v>70</v>
+      </c>
+      <c r="AE29">
+        <v>70</v>
       </c>
       <c r="AF29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AH29">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>0.5</v>
+      </c>
+      <c r="P30">
+        <v>0.5</v>
+      </c>
+      <c r="Q30">
+        <v>12</v>
+      </c>
+      <c r="R30">
+        <v>10</v>
+      </c>
+      <c r="S30">
         <v>9</v>
       </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-      <c r="H30">
+      <c r="T30" s="33">
+        <v>9</v>
+      </c>
+      <c r="U30">
+        <v>9</v>
+      </c>
+      <c r="V30" s="38">
+        <v>7</v>
+      </c>
+      <c r="W30">
+        <v>90</v>
+      </c>
+      <c r="Y30">
+        <v>7</v>
+      </c>
+      <c r="Z30">
+        <v>7</v>
+      </c>
+      <c r="AA30">
+        <v>5</v>
+      </c>
+      <c r="AC30">
         <v>10</v>
       </c>
-      <c r="J30">
-        <v>4</v>
-      </c>
-      <c r="K30">
-        <v>4</v>
-      </c>
-      <c r="M30">
-        <v>6</v>
-      </c>
-      <c r="N30">
-        <v>2</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-      <c r="R30">
-        <v>3</v>
-      </c>
-      <c r="S30">
-        <v>5</v>
-      </c>
-      <c r="T30" s="33">
-        <v>4</v>
-      </c>
-      <c r="V30" s="38"/>
-      <c r="Y30">
-        <v>4</v>
-      </c>
-      <c r="Z30">
-        <v>2</v>
-      </c>
-      <c r="AC30">
-        <v>6</v>
+      <c r="AF30">
+        <v>2</v>
       </c>
       <c r="AG30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH30">
         <v>9</v>
@@ -5249,88 +5326,115 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="T31" s="33"/>
-      <c r="U31">
-        <v>5</v>
-      </c>
-      <c r="V31" s="38">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>6</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>5</v>
+      </c>
+      <c r="T31" s="33">
+        <v>4</v>
+      </c>
+      <c r="V31" s="38"/>
+      <c r="Y31">
+        <v>4</v>
+      </c>
+      <c r="Z31">
+        <v>2</v>
+      </c>
+      <c r="AC31">
+        <v>6</v>
+      </c>
+      <c r="AG31">
+        <v>5</v>
+      </c>
+      <c r="AH31">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>6</v>
-      </c>
-      <c r="D32">
-        <v>6</v>
-      </c>
-      <c r="G32">
-        <v>15</v>
-      </c>
-      <c r="I32">
-        <v>20</v>
-      </c>
-      <c r="J32">
-        <v>2</v>
-      </c>
-      <c r="K32">
-        <v>6</v>
-      </c>
-      <c r="L32">
-        <v>3</v>
-      </c>
-      <c r="M32">
-        <v>2</v>
-      </c>
-      <c r="N32">
-        <v>3</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32">
-        <v>3</v>
-      </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
-      <c r="T32" s="33">
-        <v>0.05</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="T32" s="33"/>
       <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32" s="38"/>
-      <c r="W32">
-        <v>1</v>
-      </c>
-      <c r="Y32">
-        <v>2</v>
-      </c>
-      <c r="Z32">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="V32" s="38">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>15</v>
+      </c>
+      <c r="I33">
+        <v>20</v>
       </c>
       <c r="J33">
         <v>2</v>
       </c>
+      <c r="K33">
+        <v>6</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
       <c r="P33">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="R33">
         <v>1</v>
@@ -5339,10 +5443,10 @@
         <v>1</v>
       </c>
       <c r="T33" s="33">
-        <v>2</v>
+        <v>0.05</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V33" s="38"/>
       <c r="W33">
@@ -5354,253 +5458,286 @@
       <c r="Z33">
         <v>1</v>
       </c>
-      <c r="AG33">
-        <v>3</v>
-      </c>
-      <c r="AH33">
-        <v>2</v>
-      </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>3</v>
-      </c>
-      <c r="T34" s="33"/>
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <v>90</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34" s="33">
+        <v>2</v>
+      </c>
       <c r="U34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V34" s="38"/>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>2</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AG34">
+        <v>3</v>
+      </c>
+      <c r="AH34">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="J35">
-        <v>6</v>
-      </c>
-      <c r="M35">
-        <v>2</v>
-      </c>
-      <c r="N35">
-        <v>4</v>
-      </c>
-      <c r="O35">
-        <v>2</v>
-      </c>
-      <c r="P35">
-        <v>0.5</v>
-      </c>
-      <c r="Q35">
-        <v>74</v>
-      </c>
-      <c r="R35">
-        <v>78</v>
-      </c>
-      <c r="S35">
-        <v>78</v>
-      </c>
-      <c r="T35" s="33">
-        <v>78</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="T35" s="33"/>
       <c r="U35">
-        <v>74</v>
-      </c>
-      <c r="V35" s="38">
-        <v>72</v>
-      </c>
-      <c r="W35">
-        <v>1</v>
-      </c>
-      <c r="Y35">
-        <v>70</v>
-      </c>
-      <c r="Z35">
-        <v>75</v>
-      </c>
-      <c r="AA35">
-        <v>85</v>
-      </c>
-      <c r="AC35">
-        <v>70</v>
-      </c>
-      <c r="AE35">
-        <v>20</v>
-      </c>
-      <c r="AF35">
-        <v>10</v>
-      </c>
-      <c r="AG35">
-        <v>75</v>
-      </c>
-      <c r="AH35">
-        <v>60</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="V35" s="38"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36">
         <v>2</v>
       </c>
       <c r="J36">
-        <v>4</v>
-      </c>
-      <c r="T36" s="33"/>
+        <v>6</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36">
+        <v>2</v>
+      </c>
+      <c r="P36">
+        <v>0.5</v>
+      </c>
+      <c r="Q36">
+        <v>74</v>
+      </c>
+      <c r="R36">
+        <v>78</v>
+      </c>
+      <c r="S36">
+        <v>78</v>
+      </c>
+      <c r="T36" s="33">
+        <v>78</v>
+      </c>
+      <c r="U36">
+        <v>74</v>
+      </c>
       <c r="V36" s="38">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
       </c>
       <c r="Y36">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="Z36">
-        <v>2</v>
-      </c>
-      <c r="AD36">
+        <v>75</v>
+      </c>
+      <c r="AA36">
+        <v>85</v>
+      </c>
+      <c r="AC36">
+        <v>70</v>
+      </c>
+      <c r="AE36">
         <v>20</v>
       </c>
+      <c r="AF36">
+        <v>10</v>
+      </c>
+      <c r="AG36">
+        <v>75</v>
+      </c>
       <c r="AH36">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>76</v>
-      </c>
-      <c r="F37">
-        <v>38</v>
-      </c>
-      <c r="G37">
-        <v>38</v>
-      </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>5</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="P37">
-        <v>2</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="R37">
-        <v>4</v>
-      </c>
-      <c r="S37">
-        <v>1</v>
-      </c>
-      <c r="T37" s="33">
-        <v>1</v>
-      </c>
-      <c r="U37">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="T37" s="33"/>
       <c r="V37" s="38">
-        <v>2</v>
-      </c>
-      <c r="AC37">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="Y37">
+        <v>5</v>
+      </c>
+      <c r="Z37">
+        <v>2</v>
+      </c>
+      <c r="AD37">
+        <v>20</v>
+      </c>
+      <c r="AH37">
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>76</v>
+      </c>
+      <c r="F38">
+        <v>38</v>
+      </c>
+      <c r="G38">
+        <v>38</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>4</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38" s="33">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38" s="38">
+        <v>2</v>
+      </c>
+      <c r="AC38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>0</v>
       </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>2</v>
-      </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
-      <c r="J38">
-        <v>2</v>
-      </c>
-      <c r="K38">
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
         <v>6</v>
       </c>
-      <c r="M38">
-        <v>2</v>
-      </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="R38">
-        <v>1</v>
-      </c>
-      <c r="S38">
-        <v>3</v>
-      </c>
-      <c r="T38" s="33">
-        <v>3</v>
-      </c>
-      <c r="U38">
-        <v>2</v>
-      </c>
-      <c r="V38" s="38">
-        <v>5</v>
-      </c>
-      <c r="Y38">
-        <v>4</v>
-      </c>
-      <c r="Z38">
-        <v>2</v>
-      </c>
-      <c r="AC38">
-        <v>4</v>
-      </c>
-      <c r="AG38">
-        <v>4</v>
-      </c>
-      <c r="AH38">
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>3</v>
+      </c>
+      <c r="T39" s="33">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39" s="38">
+        <v>5</v>
+      </c>
+      <c r="Y39">
+        <v>4</v>
+      </c>
+      <c r="Z39">
+        <v>2</v>
+      </c>
+      <c r="AC39">
+        <v>4</v>
+      </c>
+      <c r="AG39">
+        <v>4</v>
+      </c>
+      <c r="AH39">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="V39" s="38"/>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="V40" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5616,7 +5753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23250" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="3"/>
+    <workbookView xWindow="23250" yWindow="0" windowWidth="18375" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Crust" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jadon Wade:</t>
         </r>
@@ -50,7 +50,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Eve</t>
@@ -65,7 +65,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jadon Wade:</t>
         </r>
@@ -74,7 +74,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mun</t>
@@ -89,7 +89,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jadon Wade:</t>
         </r>
@@ -98,7 +98,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Minmus</t>
@@ -113,7 +113,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jadon Wade:</t>
         </r>
@@ -122,7 +122,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Duna</t>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="168">
   <si>
     <t>Zeonium</t>
   </si>
@@ -295,9 +295,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>Uraninite</t>
@@ -772,6 +769,13 @@
   <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -913,19 +917,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -935,6 +926,14 @@
     <font>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1029,119 +1028,121 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1428,9 +1429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H18" sqref="H18"/>
+      <selection pane="topRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1448,44 +1449,44 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -1544,7 +1545,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1588,7 +1589,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1605,7 +1606,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1625,7 +1626,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -1663,7 +1664,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1692,7 +1693,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1768,7 +1769,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1782,7 +1783,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -1823,7 +1824,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -1864,7 +1865,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1916,7 +1917,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16">
         <v>9</v>
@@ -1930,7 +1931,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -2006,7 +2007,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="36">
         <v>13</v>
@@ -2047,7 +2048,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -2085,7 +2086,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>7</v>
@@ -2126,7 +2127,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -2183,11 +2184,6 @@
       </c>
       <c r="I23">
         <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2774,57 +2770,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K13" sqref="K13"/>
+      <selection pane="topRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.625" style="41" customWidth="1"/>
-    <col min="2" max="10" width="11.25" style="41" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="41" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="41" customWidth="1"/>
+    <col min="4" max="10" width="11.25" style="41" customWidth="1"/>
     <col min="11" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48" t="s">
+      <c r="A1" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="43" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="C2" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="D2" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="E2" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="F2" s="47" t="s">
         <v>156</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>155</v>
       </c>
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
@@ -2835,24 +2833,24 @@
         <v>14</v>
       </c>
       <c r="B3" s="42">
-        <f>SUM(B5:B25)</f>
+        <f>SUM(B5:B28)</f>
         <v>99.7</v>
       </c>
       <c r="C3" s="42">
-        <f t="shared" ref="C3:J3" si="0">SUM(C5:C25)</f>
-        <v>86.8</v>
+        <f t="shared" ref="C3:J3" si="0">SUM(C5:C28)</f>
+        <v>91.8</v>
       </c>
       <c r="D3" s="42">
         <f t="shared" si="0"/>
-        <v>73.8</v>
+        <v>91.399999999999991</v>
       </c>
       <c r="E3" s="42">
         <f t="shared" si="0"/>
-        <v>92.8</v>
+        <v>95.3</v>
       </c>
       <c r="F3" s="42">
         <f t="shared" si="0"/>
-        <v>95.7</v>
+        <v>97.7</v>
       </c>
       <c r="G3" s="42">
         <f t="shared" si="0"/>
@@ -2873,10 +2871,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="41">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="41">
         <v>4</v>
@@ -2896,25 +2894,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="41">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="E7" s="41">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="41">
         <v>1</v>
@@ -2923,7 +2924,7 @@
         <v>1.5</v>
       </c>
       <c r="D9" s="41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9" s="41">
         <v>1</v>
@@ -2937,7 +2938,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="41">
         <v>40</v>
@@ -2945,7 +2946,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" s="41">
         <v>0.1</v>
@@ -2968,15 +2969,15 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D12" s="41">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="41">
         <v>8.1</v>
@@ -2994,158 +2995,197 @@
         <v>42</v>
       </c>
       <c r="G13" s="41">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>19</v>
+      <c r="A14" s="52" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="41">
+        <v>2</v>
+      </c>
+      <c r="C14" s="41">
+        <v>5</v>
+      </c>
+      <c r="D14" s="41">
+        <v>14</v>
+      </c>
+      <c r="E14" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="41">
+        <v>2</v>
+      </c>
+      <c r="G14" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="41">
         <v>0.2</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C16" s="41">
         <v>8</v>
       </c>
-      <c r="D14" s="41">
-        <v>3</v>
-      </c>
-      <c r="E14" s="41">
+      <c r="D16" s="41">
+        <v>3</v>
+      </c>
+      <c r="E16" s="41">
         <v>1.5</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F16" s="41">
         <v>1.9</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G16" s="41">
         <v>1.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="41">
-        <v>7.1</v>
-      </c>
-      <c r="C15" s="41">
-        <v>8</v>
-      </c>
-      <c r="D15" s="41">
-        <v>13</v>
-      </c>
-      <c r="E15" s="41">
-        <v>5</v>
-      </c>
-      <c r="F15" s="41">
-        <v>8</v>
-      </c>
-      <c r="G15" s="41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="45">
-        <v>67</v>
-      </c>
-      <c r="C16" s="45">
-        <v>48</v>
-      </c>
-      <c r="D16" s="45">
-        <v>42</v>
-      </c>
-      <c r="E16" s="45">
-        <v>31</v>
-      </c>
-      <c r="F16" s="45">
-        <v>36</v>
-      </c>
-      <c r="G16" s="45">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
-        <v>155</v>
+        <v>2</v>
       </c>
       <c r="B17" s="41">
-        <v>1</v>
+        <v>7.1</v>
       </c>
       <c r="C17" s="41">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D17" s="41">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E17" s="41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F17" s="41">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G17" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="45">
+        <v>67</v>
+      </c>
+      <c r="C18" s="45">
+        <v>48</v>
+      </c>
+      <c r="D18" s="45">
+        <v>42</v>
+      </c>
+      <c r="E18" s="45">
+        <v>31</v>
+      </c>
+      <c r="F18" s="45">
+        <v>36</v>
+      </c>
+      <c r="G18" s="45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B20" s="41">
+        <v>1</v>
+      </c>
+      <c r="C20" s="41">
+        <v>1</v>
+      </c>
+      <c r="D20" s="41">
+        <v>1</v>
+      </c>
+      <c r="E20" s="41">
+        <v>1</v>
+      </c>
+      <c r="F20" s="41">
+        <v>1</v>
+      </c>
+      <c r="G20" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="41">
         <v>0.2</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C21" s="41">
         <v>0.2</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D21" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="E21" s="41">
         <v>0.2</v>
       </c>
-      <c r="E18" s="41">
+      <c r="F21" s="41">
         <v>0.2</v>
       </c>
-      <c r="F18" s="41">
+      <c r="G21" s="41">
         <v>0.2</v>
       </c>
-      <c r="G18" s="41">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="46">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="46">
         <f>SUM(100-B3)</f>
         <v>0.29999999999999716</v>
       </c>
-      <c r="C26" s="46">
-        <f t="shared" ref="C26:J26" si="1">SUM(100-C3)</f>
-        <v>13.200000000000003</v>
-      </c>
-      <c r="D26" s="46">
+      <c r="C29" s="46">
+        <f t="shared" ref="C29:J29" si="1">SUM(100-C3)</f>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="D29" s="46">
         <f t="shared" si="1"/>
-        <v>26.200000000000003</v>
-      </c>
-      <c r="E26" s="46">
+        <v>8.6000000000000085</v>
+      </c>
+      <c r="E29" s="46">
         <f t="shared" si="1"/>
-        <v>7.2000000000000028</v>
-      </c>
-      <c r="F26" s="46">
+        <v>4.7000000000000028</v>
+      </c>
+      <c r="F29" s="46">
         <f t="shared" si="1"/>
-        <v>4.2999999999999972</v>
-      </c>
-      <c r="G26" s="46">
+        <v>2.2999999999999972</v>
+      </c>
+      <c r="G29" s="46">
         <f t="shared" si="1"/>
         <v>0.20000000000000284</v>
       </c>
-      <c r="H26" s="46">
+      <c r="H29" s="46">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I26" s="46">
+      <c r="I29" s="46">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J26" s="46">
+      <c r="J29" s="46">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -3178,46 +3218,46 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -3279,7 +3319,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -3297,26 +3337,26 @@
         <v>4</v>
       </c>
       <c r="R4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="Q5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -3334,15 +3374,15 @@
         <v>4</v>
       </c>
       <c r="Q6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3">
         <f>B20/642</f>
@@ -3394,15 +3434,15 @@
         <v>0.13551401869158877</v>
       </c>
       <c r="Q7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8">
         <v>9</v>
@@ -3414,26 +3454,26 @@
         <v>0.5</v>
       </c>
       <c r="Q8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R9" t="s">
         <v>126</v>
-      </c>
-      <c r="R9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L10">
         <v>12</v>
@@ -3441,7 +3481,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3462,10 +3502,10 @@
         <v>3</v>
       </c>
       <c r="Q11" t="s">
+        <v>131</v>
+      </c>
+      <c r="R11" t="s">
         <v>132</v>
-      </c>
-      <c r="R11" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -3481,7 +3521,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13">
         <v>12</v>
@@ -3501,7 +3541,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>85</v>
@@ -3515,7 +3555,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -3535,7 +3575,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16">
         <v>8</v>
@@ -3572,7 +3612,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I18" s="36">
         <v>22</v>
@@ -3586,7 +3626,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" s="36">
         <v>3</v>
@@ -3688,7 +3728,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I25">
         <v>3</v>
@@ -3762,7 +3802,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L29">
         <v>12</v>
@@ -3867,7 +3907,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I35">
         <v>5</v>
@@ -3920,7 +3960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AF10" sqref="AF10"/>
     </sheetView>
@@ -3951,98 +3991,98 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="U1" s="51"/>
+      <c r="V1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="W1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" s="50" t="s">
+      <c r="AE1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="U1" s="50"/>
-      <c r="V1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="AG1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -4050,91 +4090,91 @@
         <v>14</v>
       </c>
       <c r="B2" s="4">
-        <f>SUM(B4:B24)</f>
+        <f t="shared" ref="B2:W2" si="0">SUM(B4:B24)</f>
         <v>93.004672897196258</v>
       </c>
       <c r="C2" s="4">
-        <f>SUM(C4:C24)</f>
+        <f t="shared" si="0"/>
         <v>93.001557632398757</v>
       </c>
       <c r="D2" s="4">
-        <f>SUM(D4:D24)</f>
+        <f t="shared" si="0"/>
         <v>92.001557632398757</v>
       </c>
       <c r="E2" s="4">
-        <f>SUM(E4:E24)</f>
+        <f t="shared" si="0"/>
         <v>85.118380062305292</v>
       </c>
       <c r="F2" s="4">
-        <f>SUM(F4:F24)</f>
+        <f t="shared" si="0"/>
         <v>89.059190031152639</v>
       </c>
       <c r="G2" s="4">
-        <f>SUM(G4:G24)</f>
+        <f t="shared" si="0"/>
         <v>91.259790031152647</v>
       </c>
       <c r="H2" s="4">
-        <f>SUM(H4:H24)</f>
+        <f t="shared" si="0"/>
         <v>73.004672897196258</v>
       </c>
       <c r="I2" s="4">
-        <f>SUM(I4:I24)</f>
+        <f t="shared" si="0"/>
         <v>78.001557632398757</v>
       </c>
       <c r="J2" s="4">
-        <f>SUM(J4:J24)</f>
+        <f t="shared" si="0"/>
         <v>95.007788161993773</v>
       </c>
       <c r="K2" s="4">
-        <f>SUM(K4:K24)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="L2" s="4">
-        <f>SUM(L4:L24)</f>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="M2" s="4">
-        <f>SUM(M4:M24)</f>
+        <f t="shared" si="0"/>
         <v>92.003115264797515</v>
       </c>
       <c r="N2" s="4">
-        <f>SUM(N4:N24)</f>
+        <f t="shared" si="0"/>
         <v>90.006230529595015</v>
       </c>
       <c r="O2" s="4">
-        <f>SUM(O4:O24)</f>
+        <f t="shared" si="0"/>
         <v>92.003115264797515</v>
       </c>
       <c r="P2" s="4">
-        <f>SUM(P4:P24)</f>
+        <f t="shared" si="0"/>
         <v>96.002278816199379</v>
       </c>
       <c r="Q2" s="4">
-        <f>SUM(Q4:Q24)</f>
+        <f t="shared" si="0"/>
         <v>96.651264797507793</v>
       </c>
       <c r="R2" s="4">
-        <f>SUM(R4:R24)</f>
+        <f t="shared" si="0"/>
         <v>99.151495327102808</v>
       </c>
       <c r="S2" s="4">
-        <f>SUM(S4:S24)</f>
+        <f t="shared" si="0"/>
         <v>98.154610591900308</v>
       </c>
       <c r="T2" s="4">
-        <f>SUM(T4:T24)</f>
+        <f t="shared" si="0"/>
         <v>91.892149532710278</v>
       </c>
       <c r="U2" s="4">
-        <f>SUM(U4:U24)</f>
+        <f t="shared" si="0"/>
         <v>98.636264797507792</v>
       </c>
       <c r="V2" s="4">
-        <f>SUM(V4:V24)</f>
+        <f t="shared" si="0"/>
         <v>100.63626479750779</v>
       </c>
       <c r="W2" s="4">
-        <f>SUM(W4:W24)</f>
+        <f t="shared" si="0"/>
         <v>96.247788161993768</v>
       </c>
       <c r="Y2" s="4">
@@ -4150,27 +4190,27 @@
         <v>99.14739875389408</v>
       </c>
       <c r="AC2" s="4">
-        <f>SUM(AC5:AC24)</f>
+        <f t="shared" ref="AC2:AH2" si="1">SUM(AC5:AC24)</f>
         <v>95.139034267912777</v>
       </c>
       <c r="AD2" s="4">
-        <f>SUM(AD5:AD24)</f>
+        <f t="shared" si="1"/>
         <v>98.055152647975078</v>
       </c>
       <c r="AE2" s="4">
-        <f>SUM(AE5:AE24)</f>
+        <f t="shared" si="1"/>
         <v>92.031152647975077</v>
       </c>
       <c r="AF2" s="4">
-        <f>SUM(AF5:AF24)</f>
+        <f t="shared" si="1"/>
         <v>11.010672897196262</v>
       </c>
       <c r="AG2" s="4">
-        <f>SUM(AG5:AG24)</f>
+        <f t="shared" si="1"/>
         <v>94.626803738317761</v>
       </c>
       <c r="AH2" s="4">
-        <f>SUM(AH5:AH24)</f>
+        <f t="shared" si="1"/>
         <v>98.112669781931459</v>
       </c>
     </row>
@@ -4183,7 +4223,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
@@ -4197,7 +4237,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -4240,7 +4280,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q6">
         <v>1.5</v>
@@ -4286,7 +4326,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T7" s="33"/>
       <c r="U7" s="38"/>
@@ -4306,7 +4346,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T8" s="33"/>
       <c r="U8" s="38"/>
@@ -4317,7 +4357,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>80</v>
@@ -4391,18 +4431,18 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" ref="B10:D10" si="0">(B14+B23)/642</f>
+        <f t="shared" ref="B10:D10" si="2">(B14+B23)/642</f>
         <v>4.6728971962616819E-3</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.557632398753894E-3</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.557632398753894E-3</v>
       </c>
       <c r="E10" s="3">
@@ -4426,19 +4466,19 @@
         <v>1.557632398753894E-3</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" ref="J10" si="1">J14/642</f>
+        <f t="shared" ref="J10" si="3">J14/642</f>
         <v>7.7881619937694704E-3</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" ref="M10:AA10" si="2">M14/642</f>
+        <f t="shared" ref="M10:AA10" si="4">M14/642</f>
         <v>3.1152647975077881E-3</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.2305295950155761E-3</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.1152647975077881E-3</v>
       </c>
       <c r="P10" s="3">
@@ -4446,23 +4486,23 @@
         <v>7.7881619937694702E-4</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11526479750778816</v>
       </c>
       <c r="R10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.12149532710280374</v>
       </c>
       <c r="S10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.12461059190031153</v>
       </c>
       <c r="T10" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11214953271028037</v>
       </c>
       <c r="U10" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11526479750778816</v>
       </c>
       <c r="V10" s="39">
@@ -4474,15 +4514,15 @@
         <v>7.7881619937694704E-3</v>
       </c>
       <c r="Y10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10903426791277258</v>
       </c>
       <c r="Z10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11682242990654206</v>
       </c>
       <c r="AA10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.13239875389408098</v>
       </c>
       <c r="AB10" s="3"/>
@@ -4491,15 +4531,15 @@
         <v>0.10903426791277258</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" ref="AD10:AF10" si="3">AD14/642</f>
+        <f t="shared" ref="AD10:AF10" si="5">AD14/642</f>
         <v>3.1152647975077882E-2</v>
       </c>
       <c r="AE10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.1152647975077882E-2</v>
       </c>
       <c r="AF10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.6728971962616819E-3</v>
       </c>
       <c r="AG10" s="3">
@@ -4513,7 +4553,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J11" s="3"/>
       <c r="M11" s="3"/>
@@ -4539,7 +4579,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12">
         <v>0.2</v>
@@ -4595,94 +4635,94 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="38" t="str">
-        <f t="shared" ref="B13" si="4">IF(B12&gt;0,B12*0.003,"-")</f>
+        <f t="shared" ref="B13" si="6">IF(B12&gt;0,B12*0.003,"-")</f>
         <v>-</v>
       </c>
       <c r="C13" s="38" t="str">
-        <f t="shared" ref="C13" si="5">IF(C12&gt;0,C12*0.003,"-")</f>
+        <f t="shared" ref="C13" si="7">IF(C12&gt;0,C12*0.003,"-")</f>
         <v>-</v>
       </c>
       <c r="D13" s="38" t="str">
-        <f t="shared" ref="D13" si="6">IF(D12&gt;0,D12*0.003,"-")</f>
+        <f t="shared" ref="D13" si="8">IF(D12&gt;0,D12*0.003,"-")</f>
         <v>-</v>
       </c>
       <c r="E13" s="38" t="str">
-        <f t="shared" ref="E13" si="7">IF(E12&gt;0,E12*0.003,"-")</f>
+        <f t="shared" ref="E13" si="9">IF(E12&gt;0,E12*0.003,"-")</f>
         <v>-</v>
       </c>
       <c r="F13" s="38" t="str">
-        <f t="shared" ref="F13" si="8">IF(F12&gt;0,F12*0.003,"-")</f>
+        <f t="shared" ref="F13" si="10">IF(F12&gt;0,F12*0.003,"-")</f>
         <v>-</v>
       </c>
       <c r="G13" s="38">
-        <f t="shared" ref="G13" si="9">IF(G12&gt;0,G12*0.003,"-")</f>
+        <f t="shared" ref="G13" si="11">IF(G12&gt;0,G12*0.003,"-")</f>
         <v>6.0000000000000006E-4</v>
       </c>
       <c r="H13" s="38" t="str">
-        <f t="shared" ref="H13" si="10">IF(H12&gt;0,H12*0.003,"-")</f>
+        <f t="shared" ref="H13" si="12">IF(H12&gt;0,H12*0.003,"-")</f>
         <v>-</v>
       </c>
       <c r="I13" s="38" t="str">
-        <f t="shared" ref="I13" si="11">IF(I12&gt;0,I12*0.003,"-")</f>
+        <f t="shared" ref="I13" si="13">IF(I12&gt;0,I12*0.003,"-")</f>
         <v>-</v>
       </c>
       <c r="J13" s="38" t="str">
-        <f t="shared" ref="J13" si="12">IF(J12&gt;0,J12*0.003,"-")</f>
+        <f t="shared" ref="J13" si="14">IF(J12&gt;0,J12*0.003,"-")</f>
         <v>-</v>
       </c>
       <c r="K13" s="38" t="str">
-        <f t="shared" ref="K13" si="13">IF(K12&gt;0,K12*0.003,"-")</f>
+        <f t="shared" ref="K13" si="15">IF(K12&gt;0,K12*0.003,"-")</f>
         <v>-</v>
       </c>
       <c r="L13" s="38" t="str">
-        <f t="shared" ref="L13" si="14">IF(L12&gt;0,L12*0.003,"-")</f>
+        <f t="shared" ref="L13" si="16">IF(L12&gt;0,L12*0.003,"-")</f>
         <v>-</v>
       </c>
       <c r="M13" s="38" t="str">
-        <f t="shared" ref="M13" si="15">IF(M12&gt;0,M12*0.003,"-")</f>
+        <f t="shared" ref="M13" si="17">IF(M12&gt;0,M12*0.003,"-")</f>
         <v>-</v>
       </c>
       <c r="N13" s="38" t="str">
-        <f t="shared" ref="N13" si="16">IF(N12&gt;0,N12*0.003,"-")</f>
+        <f t="shared" ref="N13" si="18">IF(N12&gt;0,N12*0.003,"-")</f>
         <v>-</v>
       </c>
       <c r="O13" s="38" t="str">
-        <f t="shared" ref="O13" si="17">IF(O12&gt;0,O12*0.003,"-")</f>
+        <f t="shared" ref="O13" si="19">IF(O12&gt;0,O12*0.003,"-")</f>
         <v>-</v>
       </c>
       <c r="P13" s="38">
-        <f t="shared" ref="P13" si="18">IF(P12&gt;0,P12*0.003,"-")</f>
+        <f t="shared" ref="P13" si="20">IF(P12&gt;0,P12*0.003,"-")</f>
         <v>1.5E-3</v>
       </c>
       <c r="Q13" s="38">
-        <f t="shared" ref="Q13" si="19">IF(Q12&gt;0,Q12*0.003,"-")</f>
+        <f t="shared" ref="Q13" si="21">IF(Q12&gt;0,Q12*0.003,"-")</f>
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="R13" s="38">
-        <f t="shared" ref="R13" si="20">IF(R12&gt;0,R12*0.003,"-")</f>
+        <f t="shared" ref="R13" si="22">IF(R12&gt;0,R12*0.003,"-")</f>
         <v>0.03</v>
       </c>
       <c r="S13" s="38">
-        <f t="shared" ref="S13" si="21">IF(S12&gt;0,S12*0.003,"-")</f>
+        <f t="shared" ref="S13" si="23">IF(S12&gt;0,S12*0.003,"-")</f>
         <v>0.03</v>
       </c>
       <c r="T13" s="38">
-        <f t="shared" ref="T13:W13" si="22">IF(T12&gt;0,T12*0.003,"-")</f>
+        <f t="shared" ref="T13:W13" si="24">IF(T12&gt;0,T12*0.003,"-")</f>
         <v>0.03</v>
       </c>
       <c r="U13" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="V13" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="W13" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.24</v>
       </c>
       <c r="X13" s="38" t="str">
@@ -4690,49 +4730,49 @@
         <v>-</v>
       </c>
       <c r="Y13" s="38">
-        <f t="shared" ref="Y13:AF13" si="23">IF(Y12&gt;0,Y12*0.003,"-")</f>
+        <f t="shared" ref="Y13:AF13" si="25">IF(Y12&gt;0,Y12*0.003,"-")</f>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="Z13" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="AA13" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AB13" s="38" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="AC13" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.03</v>
       </c>
       <c r="AD13" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2.4E-2</v>
       </c>
       <c r="AE13" s="38" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="AF13" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="AG13" s="38">
-        <f t="shared" ref="AG13" si="24">IF(AG12&gt;0,AG12*0.003,"-")</f>
+        <f t="shared" ref="AG13" si="26">IF(AG12&gt;0,AG12*0.003,"-")</f>
         <v>2.4E-2</v>
       </c>
       <c r="AH13" s="38">
-        <f t="shared" ref="AH13" si="25">IF(AH12&gt;0,AH12*0.003,"-")</f>
+        <f t="shared" ref="AH13" si="27">IF(AH12&gt;0,AH12*0.003,"-")</f>
         <v>2.7E-2</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -4803,7 +4843,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -4867,7 +4907,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -4923,7 +4963,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>14</v>
@@ -4976,7 +5016,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T19" s="33"/>
       <c r="U19" s="38"/>
@@ -4999,7 +5039,7 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T21" s="33"/>
       <c r="U21" s="38">
@@ -5014,7 +5054,7 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T22" s="33"/>
       <c r="U22" s="38">
@@ -5084,7 +5124,7 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T24" s="33"/>
       <c r="U24" s="35"/>
@@ -5110,59 +5150,59 @@
         <v>14</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" ref="B27:V27" si="26">SUM(B29:B39)</f>
+        <f t="shared" ref="B27:V27" si="28">SUM(B29:B39)</f>
         <v>10</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>78</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>45</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>54.5</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>23</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>25</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="P27" s="1">
@@ -5170,27 +5210,27 @@
         <v>97</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>89</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>98</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>98</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>97.05</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>98</v>
       </c>
       <c r="V27" s="40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>97</v>
       </c>
       <c r="W27" s="1">
@@ -5210,27 +5250,27 @@
         <v>99</v>
       </c>
       <c r="AC27" s="1">
-        <f t="shared" ref="AC27:AH27" si="27">SUM(AC29:AC39)</f>
+        <f t="shared" ref="AC27:AH27" si="29">SUM(AC29:AC39)</f>
         <v>92</v>
       </c>
       <c r="AD27" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>90</v>
       </c>
       <c r="AE27" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>90</v>
       </c>
       <c r="AF27" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>13</v>
       </c>
       <c r="AG27" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>98</v>
       </c>
       <c r="AH27" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>98</v>
       </c>
     </row>
@@ -5239,7 +5279,7 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q29" s="33"/>
       <c r="R29" s="33"/>
@@ -5510,7 +5550,7 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -5772,60 +5812,60 @@
   <sheetData>
     <row r="1" spans="1:17" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="30">
         <v>175750</v>
@@ -5879,7 +5919,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="23">
         <v>650</v>
@@ -5930,7 +5970,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="19">
         <v>2050</v>
@@ -5985,7 +6025,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="23">
         <v>30</v>
@@ -6036,7 +6076,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="19">
         <v>1600</v>
@@ -6093,7 +6133,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="23">
         <v>400</v>
@@ -6144,7 +6184,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="23">
         <v>160</v>
@@ -6195,7 +6235,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="23">
         <v>800</v>
@@ -6250,7 +6290,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="23">
         <v>210</v>
@@ -6301,7 +6341,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="23">
         <v>260</v>
@@ -6352,7 +6392,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="23">
         <v>20</v>
@@ -6403,7 +6443,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="23">
         <v>360</v>
@@ -6454,7 +6494,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="19">
         <v>14000</v>
@@ -6513,7 +6553,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="19">
         <v>1100</v>
@@ -6568,7 +6608,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="23">
         <v>550</v>
@@ -6619,7 +6659,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="23">
         <v>900</v>
@@ -6676,7 +6716,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="23">
         <v>190</v>
@@ -6733,7 +6773,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="23">
         <v>130</v>
@@ -6784,7 +6824,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="19">
         <v>8000</v>
@@ -6843,7 +6883,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="23">
         <v>150</v>
@@ -6894,7 +6934,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="23">
         <v>300</v>
@@ -6949,7 +6989,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="23">
         <v>670</v>
@@ -7002,7 +7042,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="23">
         <v>750</v>
@@ -7059,7 +7099,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="23">
         <v>500</v>
@@ -7110,7 +7150,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="23">
         <v>450</v>
@@ -7161,7 +7201,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="23">
         <v>600</v>
@@ -7218,7 +7258,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="23">
         <v>200</v>
@@ -7269,7 +7309,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="23">
         <v>10</v>
@@ -7324,7 +7364,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="19">
         <v>3600</v>
@@ -7379,7 +7419,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="23">
         <v>320</v>
@@ -7430,7 +7470,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="23">
         <v>700</v>
@@ -7481,7 +7521,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="23">
         <v>110</v>
@@ -7551,7 +7591,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="23">
         <v>0</v>

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23250" yWindow="0" windowWidth="18375" windowHeight="8625"/>
+    <workbookView xWindow="23250" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Crust" sheetId="1" r:id="rId1"/>
     <sheet name="Deep Crust" sheetId="5" r:id="rId2"/>
-    <sheet name="Ocean" sheetId="2" r:id="rId3"/>
-    <sheet name="Atmo" sheetId="3" r:id="rId4"/>
-    <sheet name="Exo Bands" sheetId="4" r:id="rId5"/>
+    <sheet name="Asteroid" sheetId="7" r:id="rId3"/>
+    <sheet name="Ocean" sheetId="2" r:id="rId4"/>
+    <sheet name="Atmo" sheetId="3" r:id="rId5"/>
+    <sheet name="Exo Bands" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -139,6 +140,112 @@
     <author>Jadon Wade</author>
   </authors>
   <commentList>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Eve</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mun</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Minmus</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Duna</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jadon Wade</author>
+  </authors>
+  <commentList>
     <comment ref="A25" authorId="0" shapeId="0">
       <text>
         <r>
@@ -191,7 +298,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jadon Wade</author>
@@ -250,7 +357,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="170">
   <si>
     <t>Zeonium</t>
   </si>
@@ -754,6 +861,12 @@
   </si>
   <si>
     <t>Lithium</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Comet</t>
   </si>
 </sst>
 </file>
@@ -1130,6 +1243,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1142,7 +1256,6 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1429,9 +1542,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A25" sqref="A25"/>
+      <selection pane="topRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2787,25 +2900,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="47" t="s">
         <v>160</v>
       </c>
@@ -2999,7 +3112,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="48" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="41">
@@ -3022,7 +3135,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="48" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3096,15 +3209,15 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
@@ -3202,6 +3315,613 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="9" width="12.25" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="13" max="14" width="12.75" customWidth="1"/>
+    <col min="17" max="19" width="9.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1">
+        <f t="shared" ref="B2:I2" si="0">SUM(B4:B24)</f>
+        <v>98</v>
+      </c>
+      <c r="C2" s="1">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="36">
+        <v>15</v>
+      </c>
+      <c r="E17" s="36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" s="36">
+        <v>18</v>
+      </c>
+      <c r="D18" s="36">
+        <v>15</v>
+      </c>
+      <c r="E18" s="36">
+        <v>15</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" s="36">
+        <v>24</v>
+      </c>
+      <c r="D19" s="36">
+        <v>5</v>
+      </c>
+      <c r="E19" s="36">
+        <v>5</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="36">
+        <v>9</v>
+      </c>
+      <c r="E22" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" ref="B27:I27" si="1">SUM(B29:B42)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
@@ -3956,7 +4676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH40"/>
   <sheetViews>
@@ -4047,10 +4767,10 @@
       <c r="S1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="U1" s="51"/>
+      <c r="U1" s="52"/>
       <c r="V1" s="2" t="s">
         <v>143</v>
       </c>
@@ -5789,7 +6509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q75"/>
   <sheetViews>

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23250" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="2"/>
+    <workbookView xWindow="23250" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Crust" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
     <author>Jadon Wade</author>
   </authors>
   <commentList>
-    <comment ref="A25" authorId="0" shapeId="0">
+    <comment ref="A28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="0" shapeId="0">
+    <comment ref="A29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -357,7 +357,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="199">
   <si>
     <t>Zeonium</t>
   </si>
@@ -867,6 +867,93 @@
   </si>
   <si>
     <t>Comet</t>
+  </si>
+  <si>
+    <t>GeoEnergy</t>
+  </si>
+  <si>
+    <t>GeoCoolant</t>
+  </si>
+  <si>
+    <t>&lt; 5</t>
+  </si>
+  <si>
+    <t>Has lava seas</t>
+  </si>
+  <si>
+    <t>Has decent magnetosphere or tidal interaction</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Is mostly lava ocean</t>
+  </si>
+  <si>
+    <t>5 ~ 15</t>
+  </si>
+  <si>
+    <t>15 ~ 35</t>
+  </si>
+  <si>
+    <t>35 ~ 55</t>
+  </si>
+  <si>
+    <t>55 ~ 75</t>
+  </si>
+  <si>
+    <t>&gt; 75</t>
+  </si>
+  <si>
+    <t>Is protoplanet</t>
+  </si>
+  <si>
+    <t>70 ~ 80</t>
+  </si>
+  <si>
+    <t>60 ~ 70</t>
+  </si>
+  <si>
+    <t>&gt; 80</t>
+  </si>
+  <si>
+    <t>20 ~ 30</t>
+  </si>
+  <si>
+    <t>10 ~ 20</t>
+  </si>
+  <si>
+    <t>30 ~ 60</t>
+  </si>
+  <si>
+    <t>Outer frozen rocky</t>
+  </si>
+  <si>
+    <t>Methane ice world</t>
+  </si>
+  <si>
+    <t>Oxygen or Nitrogen ice world</t>
+  </si>
+  <si>
+    <t>Ammonia ice world</t>
+  </si>
+  <si>
+    <t>Has lava lakes or is sunkissed</t>
+  </si>
+  <si>
+    <t>Noble gas or Hydrogen ice world</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>Remainder</t>
+  </si>
+  <si>
+    <t>Minimum requirement</t>
+  </si>
+  <si>
+    <t>Abundance %</t>
   </si>
 </sst>
 </file>
@@ -882,13 +969,6 @@
   <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1030,14 +1110,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1045,8 +1118,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1141,121 +1229,124 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1540,11 +1631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G14" sqref="G14"/>
+      <selection pane="topRight" activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1607,7 +1698,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1">
-        <f t="shared" ref="B2:I2" si="0">SUM(B4:B24)</f>
+        <f t="shared" ref="B2:I2" si="0">SUM(B4:B25)</f>
         <v>100</v>
       </c>
       <c r="C2" s="1">
@@ -1640,19 +1731,19 @@
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1">
-        <f>SUM(K4:K24)</f>
+        <f>SUM(K4:K25)</f>
         <v>95</v>
       </c>
       <c r="L2" s="1">
-        <f>SUM(L4:L24)</f>
+        <f>SUM(L4:L25)</f>
         <v>96</v>
       </c>
       <c r="M2" s="1">
-        <f>SUM(M4:M24)</f>
+        <f>SUM(M4:M25)</f>
         <v>96</v>
       </c>
       <c r="N2" s="1">
-        <f>SUM(N4:N24)</f>
+        <f>SUM(N4:N25)</f>
         <v>98</v>
       </c>
     </row>
@@ -2299,1009 +2390,1225 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="1">
-        <f t="shared" ref="B27:I27" si="1">SUM(B29:B42)</f>
+      <c r="B29" s="1">
+        <f t="shared" ref="B29:I29" si="1">SUM(B31:B44)</f>
         <v>76</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C29" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D29" s="1">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E29" s="1">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F29" s="1">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G29" s="1">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H29" s="1">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I29" s="1">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1">
-        <f>SUM(K29:K42)</f>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1">
+        <f>SUM(K31:K44)</f>
         <v>82</v>
       </c>
-      <c r="L27" s="1">
-        <f>SUM(L29:L42)</f>
+      <c r="L29" s="1">
+        <f>SUM(L31:L44)</f>
         <v>86</v>
       </c>
-      <c r="M27" s="1">
-        <f>SUM(M29:M42)</f>
+      <c r="M29" s="1">
+        <f>SUM(M31:M44)</f>
         <v>93</v>
       </c>
-      <c r="N27" s="1">
-        <f>SUM(N29:N42)</f>
+      <c r="N29" s="1">
+        <f>SUM(N31:N44)</f>
         <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>15</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>3</v>
-      </c>
-      <c r="N29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30">
-        <v>8</v>
-      </c>
-      <c r="E30">
-        <v>5</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <v>5</v>
-      </c>
-      <c r="K30">
-        <v>6</v>
-      </c>
-      <c r="L30">
-        <v>3</v>
-      </c>
-      <c r="M30">
-        <v>3</v>
-      </c>
-      <c r="N30">
-        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B33" s="36">
         <f>ROUNDUP(B9*1.6,0)</f>
         <v>12</v>
       </c>
-      <c r="C31" s="36">
-        <f t="shared" ref="C31:N31" si="2">ROUNDUP(C9*1.6,0)</f>
-        <v>5</v>
-      </c>
-      <c r="D31" s="36">
+      <c r="C33" s="36">
+        <f t="shared" ref="C33:N33" si="2">ROUNDUP(C9*1.6,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D33" s="36">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E33" s="36">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F33" s="36">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G33" s="36">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H33" s="36">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I33" s="36">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36">
+      <c r="J33" s="36"/>
+      <c r="K33" s="36">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L31" s="36">
+      <c r="L33" s="36">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M31" s="36">
+      <c r="M33" s="36">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="N31" s="36">
+      <c r="N33" s="36">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="K32">
-        <v>6</v>
-      </c>
-      <c r="L32">
-        <v>4</v>
-      </c>
-      <c r="N32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33">
-        <v>5</v>
-      </c>
-      <c r="H33">
-        <v>10</v>
-      </c>
-      <c r="I33">
-        <v>5</v>
-      </c>
-      <c r="K33">
-        <v>6</v>
-      </c>
-    </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="36">
-        <v>7</v>
-      </c>
-      <c r="C34" s="36">
-        <v>4</v>
-      </c>
-      <c r="D34" s="36">
-        <v>4</v>
-      </c>
-      <c r="E34" s="36">
-        <v>18</v>
-      </c>
-      <c r="F34" s="36">
-        <v>3</v>
-      </c>
-      <c r="G34" s="36">
-        <v>2</v>
-      </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="K34">
         <v>6</v>
       </c>
-      <c r="L34" s="36">
-        <v>15</v>
-      </c>
-      <c r="M34" s="36">
-        <v>15</v>
-      </c>
-      <c r="N34" s="36">
-        <v>12</v>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="36">
-        <v>7</v>
-      </c>
-      <c r="C35" s="36">
-        <v>18</v>
-      </c>
-      <c r="D35" s="36">
-        <v>15</v>
-      </c>
-      <c r="E35" s="36">
-        <v>5</v>
-      </c>
-      <c r="F35" s="36">
         <v>9</v>
       </c>
-      <c r="G35" s="36">
-        <v>9</v>
-      </c>
-      <c r="H35" s="36">
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
         <v>10</v>
       </c>
-      <c r="I35" s="36">
-        <v>5</v>
-      </c>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36">
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
         <v>10</v>
       </c>
-      <c r="L35" s="36">
-        <v>7</v>
-      </c>
-      <c r="M35" s="36">
-        <v>10</v>
-      </c>
-      <c r="N35" s="36">
-        <v>10</v>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="36">
+        <v>7</v>
+      </c>
+      <c r="C36" s="36">
+        <v>4</v>
+      </c>
+      <c r="D36" s="36">
+        <v>4</v>
+      </c>
+      <c r="E36" s="36">
+        <v>18</v>
+      </c>
+      <c r="F36" s="36">
+        <v>3</v>
+      </c>
+      <c r="G36" s="36">
+        <v>2</v>
+      </c>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36">
         <v>6</v>
       </c>
-      <c r="B36" s="36">
-        <v>4</v>
-      </c>
-      <c r="C36" s="36">
-        <v>3</v>
-      </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36">
-        <v>2</v>
-      </c>
-      <c r="G36" s="36">
-        <v>4</v>
-      </c>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36">
-        <v>4</v>
-      </c>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
+      <c r="L36" s="36">
+        <v>15</v>
+      </c>
       <c r="M36" s="36">
         <v>15</v>
       </c>
-      <c r="N36" s="36"/>
+      <c r="N36" s="36">
+        <v>12</v>
+      </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B37" s="36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C37" s="36">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D37" s="36">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E37" s="36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F37" s="36">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G37" s="36">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H37" s="36">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I37" s="36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J37" s="36"/>
       <c r="K37" s="36">
         <v>10</v>
       </c>
       <c r="L37" s="36">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M37" s="36">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N37" s="36">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
+        <v>6</v>
+      </c>
+      <c r="B38" s="36">
+        <v>4</v>
+      </c>
+      <c r="C38" s="36">
+        <v>3</v>
+      </c>
       <c r="D38" s="36"/>
       <c r="E38" s="36"/>
       <c r="F38" s="36">
-        <v>8</v>
-      </c>
-      <c r="G38" s="36"/>
+        <v>2</v>
+      </c>
+      <c r="G38" s="36">
+        <v>4</v>
+      </c>
       <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
+      <c r="I38" s="36">
+        <v>4</v>
+      </c>
       <c r="J38" s="36"/>
       <c r="K38" s="36"/>
-      <c r="L38" s="36">
-        <v>30</v>
-      </c>
+      <c r="L38" s="36"/>
       <c r="M38" s="36">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N38" s="36"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B39" s="36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" s="36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E39" s="36">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F39" s="36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G39" s="36">
-        <v>2</v>
-      </c>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
+        <v>4</v>
+      </c>
+      <c r="H39" s="36">
+        <v>3</v>
+      </c>
+      <c r="I39" s="36">
+        <v>4</v>
+      </c>
       <c r="J39" s="36"/>
       <c r="K39" s="36">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L39" s="36">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M39" s="36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39" s="36">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="36">
-        <f>B18</f>
-        <v>18</v>
-      </c>
-      <c r="C40" s="36">
-        <f t="shared" ref="C40:N40" si="3">C18</f>
-        <v>18</v>
-      </c>
-      <c r="D40" s="36">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="E40" s="36">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
       <c r="F40" s="36">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="G40" s="36">
-        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36">
+        <v>30</v>
+      </c>
+      <c r="M40" s="36">
         <v>9</v>
       </c>
-      <c r="H40" s="36">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="I40" s="36">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="L40" s="36">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M40" s="36">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="N40" s="36">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
+      <c r="N40" s="36"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
+        <v>3</v>
+      </c>
+      <c r="B41" s="36">
+        <v>5</v>
+      </c>
+      <c r="C41" s="36">
+        <v>3</v>
+      </c>
+      <c r="D41" s="36">
+        <v>7</v>
+      </c>
+      <c r="E41" s="36">
+        <v>15</v>
+      </c>
+      <c r="F41" s="36">
+        <v>3</v>
+      </c>
+      <c r="G41" s="36">
+        <v>2</v>
+      </c>
       <c r="H41" s="36"/>
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
+      <c r="K41" s="36">
+        <v>3</v>
+      </c>
+      <c r="L41" s="36">
+        <v>7</v>
+      </c>
+      <c r="M41" s="36">
+        <v>4</v>
+      </c>
+      <c r="N41" s="36">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="36">
+        <f>B18</f>
+        <v>18</v>
+      </c>
+      <c r="C42" s="36">
+        <f t="shared" ref="C42:N42" si="3">C18</f>
+        <v>18</v>
+      </c>
+      <c r="D42" s="36">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="E42" s="36">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="F42" s="36">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="G42" s="36">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="H42" s="36">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I42" s="36">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="L42" s="36">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M42" s="36">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N42" s="36">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="36">
+      <c r="B44" s="36">
         <f>B21</f>
         <v>7</v>
       </c>
-      <c r="C42" s="36">
-        <f t="shared" ref="C42:N42" si="4">C21</f>
+      <c r="C44" s="36">
+        <f t="shared" ref="C44:N44" si="4">C21</f>
         <v>6</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D44" s="36">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E44" s="36">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="F42" s="36">
+      <c r="F44" s="36">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="G42" s="36">
+      <c r="G44" s="36">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H42" s="36">
+      <c r="H44" s="36">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="I42" s="36">
+      <c r="I44" s="36">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36">
+      <c r="J44" s="36"/>
+      <c r="K44" s="36">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="L42" s="36">
+      <c r="L44" s="36">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M42" s="36">
+      <c r="M44" s="36">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="N42" s="36">
+      <c r="N44" s="36">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="41" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="41" customWidth="1"/>
-    <col min="4" max="10" width="11.25" style="41" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="41"/>
+    <col min="1" max="1" width="15.625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="51" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="51" customWidth="1"/>
+    <col min="4" max="10" width="11.25" style="51" customWidth="1"/>
+    <col min="11" max="11" width="9" style="51"/>
+    <col min="12" max="12" width="12" style="51" customWidth="1"/>
+    <col min="13" max="14" width="15" style="51" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-    </row>
-    <row r="2" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="47" t="s">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+    </row>
+    <row r="2" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-    </row>
-    <row r="3" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+    </row>
+    <row r="3" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="42">
-        <f>SUM(B5:B28)</f>
+      <c r="B3" s="50">
+        <f t="shared" ref="B3:F3" si="0">SUM(B5:B21)</f>
         <v>99.7</v>
       </c>
-      <c r="C3" s="42">
-        <f t="shared" ref="C3:J3" si="0">SUM(C5:C28)</f>
+      <c r="C3" s="50">
+        <f t="shared" si="0"/>
         <v>91.8</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="50">
         <f t="shared" si="0"/>
         <v>91.399999999999991</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="50">
         <f t="shared" si="0"/>
         <v>95.3</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="50">
         <f t="shared" si="0"/>
         <v>97.7</v>
       </c>
-      <c r="G3" s="42">
-        <f t="shared" si="0"/>
+      <c r="G3" s="50">
+        <f>SUM(G5:G21)</f>
         <v>99.8</v>
       </c>
-      <c r="H3" s="42">
-        <f t="shared" si="0"/>
+      <c r="H3" s="50">
+        <f t="shared" ref="H3:J3" si="1">SUM(H5:H21)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="42">
-        <f t="shared" si="0"/>
+      <c r="I3" s="50">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J3" s="42">
-        <f t="shared" si="0"/>
+      <c r="J3" s="50">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L4" s="52"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="51">
         <v>13</v>
       </c>
-      <c r="C5" s="41">
-        <v>4</v>
-      </c>
-      <c r="D5" s="41">
-        <v>5</v>
-      </c>
-      <c r="E5" s="41">
-        <v>3</v>
-      </c>
-      <c r="F5" s="41">
+      <c r="C5" s="51">
+        <v>4</v>
+      </c>
+      <c r="D5" s="51">
+        <v>5</v>
+      </c>
+      <c r="E5" s="51">
+        <v>3</v>
+      </c>
+      <c r="F5" s="51">
         <v>5.5</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="51">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="L5" s="53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="51">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="L6" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="M6" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="N6" s="41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="51">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="L7" s="54">
+        <v>5</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="L8" s="54">
+        <v>4</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="N8" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="51">
         <v>1</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="51">
         <v>1.5</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="51">
         <v>6</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="51">
         <v>1</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="51">
         <v>1</v>
       </c>
-      <c r="G9" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="G9" s="51">
+        <v>3</v>
+      </c>
+      <c r="L9" s="54">
+        <v>3</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9" s="52" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="51">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="L10" s="54">
+        <v>2</v>
+      </c>
+      <c r="M10" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="N10" s="52" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="51">
         <v>0.1</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="51">
         <v>0.1</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="51">
         <v>0.1</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="51">
         <v>0.1</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="51">
         <v>0.1</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="51">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="L11" s="54">
+        <v>1</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="N11" s="52" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="D12" s="51">
+        <v>4</v>
+      </c>
+      <c r="L12" s="54">
+        <v>0</v>
+      </c>
+      <c r="M12" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="N12" s="52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="51">
         <v>8.1</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="51">
         <v>16</v>
       </c>
-      <c r="D13" s="41">
-        <v>3</v>
-      </c>
-      <c r="E13" s="41">
-        <v>2</v>
-      </c>
-      <c r="F13" s="41">
+      <c r="D13" s="51">
+        <v>3</v>
+      </c>
+      <c r="E13" s="51">
+        <v>2</v>
+      </c>
+      <c r="F13" s="51">
         <v>42</v>
       </c>
-      <c r="G13" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="G13" s="51">
+        <v>3</v>
+      </c>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="41">
-        <v>2</v>
-      </c>
-      <c r="C14" s="41">
-        <v>5</v>
-      </c>
-      <c r="D14" s="41">
+      <c r="B14" s="51">
+        <v>2</v>
+      </c>
+      <c r="C14" s="51">
+        <v>5</v>
+      </c>
+      <c r="D14" s="51">
         <v>14</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="51">
         <v>2.5</v>
       </c>
-      <c r="F14" s="41">
-        <v>2</v>
-      </c>
-      <c r="G14" s="41">
+      <c r="F14" s="51">
+        <v>2</v>
+      </c>
+      <c r="G14" s="51">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="L14" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="L15" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="M15" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="N15" s="41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="51">
         <v>0.2</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="51">
         <v>8</v>
       </c>
-      <c r="D16" s="41">
-        <v>3</v>
-      </c>
-      <c r="E16" s="41">
+      <c r="D16" s="51">
+        <v>3</v>
+      </c>
+      <c r="E16" s="51">
         <v>1.5</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="51">
         <v>1.9</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="51">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="41">
+      <c r="L16" s="54">
+        <v>5</v>
+      </c>
+      <c r="M16" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="N16" s="52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="51">
         <v>7.1</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="51">
         <v>8</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="51">
         <v>13</v>
       </c>
-      <c r="E17" s="41">
-        <v>5</v>
-      </c>
-      <c r="F17" s="41">
+      <c r="E17" s="51">
+        <v>5</v>
+      </c>
+      <c r="F17" s="51">
         <v>8</v>
       </c>
-      <c r="G17" s="41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="G17" s="51">
+        <v>5</v>
+      </c>
+      <c r="L17" s="54">
+        <v>4</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="N17" s="52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="54">
         <v>67</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="54">
         <v>48</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="54">
         <v>42</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="54">
         <v>31</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="54">
         <v>36</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="54">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="L18" s="54">
+        <v>3</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="N18" s="52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="L19" s="42">
+        <v>2</v>
+      </c>
+      <c r="M19" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="N19" s="52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="51">
         <v>1</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="51">
         <v>1</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="51">
         <v>1</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="51">
         <v>1</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="51">
         <v>1</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="51">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="L20" s="42">
+        <v>1</v>
+      </c>
+      <c r="M20" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="N20" s="52" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="51">
         <v>0.2</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="51">
         <v>0.2</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="51">
         <v>0.3</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="51">
         <v>0.2</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="51">
         <v>0.2</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="51">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="46">
-        <f>SUM(100-B3)</f>
+      <c r="L21" s="42">
+        <v>0</v>
+      </c>
+      <c r="M21" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="N21" s="52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="55">
+        <f t="shared" ref="B23:J23" si="2">SUM(100-B3)</f>
         <v>0.29999999999999716</v>
       </c>
-      <c r="C29" s="46">
-        <f t="shared" ref="C29:J29" si="1">SUM(100-C3)</f>
+      <c r="C23" s="55">
+        <f t="shared" si="2"/>
         <v>8.2000000000000028</v>
       </c>
-      <c r="D29" s="46">
-        <f t="shared" si="1"/>
+      <c r="D23" s="55">
+        <f t="shared" si="2"/>
         <v>8.6000000000000085</v>
       </c>
-      <c r="E29" s="46">
-        <f t="shared" si="1"/>
+      <c r="E23" s="55">
+        <f t="shared" si="2"/>
         <v>4.7000000000000028</v>
       </c>
-      <c r="F29" s="46">
-        <f t="shared" si="1"/>
+      <c r="F23" s="55">
+        <f t="shared" si="2"/>
         <v>2.2999999999999972</v>
       </c>
-      <c r="G29" s="46">
-        <f t="shared" si="1"/>
+      <c r="G23" s="55">
+        <f t="shared" si="2"/>
         <v>0.20000000000000284</v>
       </c>
-      <c r="H29" s="46">
-        <f t="shared" si="1"/>
+      <c r="H23" s="55">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="I29" s="46">
-        <f t="shared" si="1"/>
+      <c r="I23" s="55">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J29" s="46">
-        <f t="shared" si="1"/>
+      <c r="J23" s="55">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3318,9 +3625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G13" sqref="G13"/>
+      <selection pane="topRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3367,7 +3674,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1">
-        <f t="shared" ref="B2:I2" si="0">SUM(B4:B24)</f>
+        <f t="shared" ref="B2:E2" si="0">SUM(B4:B24)</f>
         <v>98</v>
       </c>
       <c r="C2" s="1">
@@ -3690,7 +3997,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" ref="B27:I27" si="1">SUM(B29:B42)</f>
+        <f t="shared" ref="B27:E27" si="1">SUM(B29:B42)</f>
         <v>0</v>
       </c>
       <c r="C27" s="1">
@@ -3923,11 +4230,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L26" sqref="L26"/>
+      <selection pane="topRight" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4392,183 +4699,158 @@
         <v>87</v>
       </c>
     </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+    </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="1">
-        <f t="shared" ref="B23:J23" si="2">SUM(B25:B37)</f>
+      <c r="B26" s="1">
+        <f t="shared" ref="B26:J26" si="2">SUM(B28:B40)</f>
         <v>97</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C26" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D26" s="1">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E26" s="1">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F26" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G26" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H26" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I26" s="1">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J26" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="K23" s="1">
-        <f>SUM(K25:K37)</f>
+      <c r="K26" s="1">
+        <f>SUM(K28:K40)</f>
         <v>96</v>
       </c>
-      <c r="L23" s="1">
-        <f>SUM(L25:L37)</f>
+      <c r="L26" s="1">
+        <f>SUM(L28:L40)</f>
         <v>98</v>
       </c>
-      <c r="M23" s="1">
-        <f t="shared" ref="M23" si="3">SUM(M25:M37)</f>
+      <c r="M26" s="1">
+        <f t="shared" ref="M26" si="3">SUM(M28:M40)</f>
         <v>74</v>
       </c>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
-      <c r="M25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26">
-        <v>90</v>
-      </c>
-      <c r="C26">
-        <v>50</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26">
-        <v>65</v>
-      </c>
-      <c r="H26">
-        <v>21</v>
-      </c>
-      <c r="J26">
-        <v>52</v>
-      </c>
-      <c r="K26">
-        <v>70</v>
-      </c>
-      <c r="L26">
-        <v>79</v>
-      </c>
-      <c r="M26">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
+      <c r="N26" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>85</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="I28">
-        <v>7</v>
-      </c>
-      <c r="J28">
-        <v>5</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>90</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>65</v>
+      </c>
+      <c r="H29">
+        <v>21</v>
+      </c>
+      <c r="J29">
+        <v>52</v>
+      </c>
+      <c r="K29">
+        <v>70</v>
       </c>
       <c r="L29">
-        <v>12</v>
+        <v>79</v>
+      </c>
+      <c r="M29">
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>12</v>
-      </c>
-      <c r="J30">
-        <v>4</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="E31">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>85</v>
       </c>
       <c r="G31">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>7</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -4576,97 +4858,151 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>95</v>
-      </c>
-      <c r="G32">
-        <v>74</v>
-      </c>
-      <c r="H32">
-        <v>70</v>
-      </c>
-      <c r="J32">
-        <v>3</v>
+        <v>148</v>
+      </c>
+      <c r="L32">
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I34">
-        <v>52</v>
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>25</v>
+      </c>
+      <c r="G34">
+        <v>18</v>
       </c>
       <c r="J34">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="K34">
-        <v>15</v>
-      </c>
-      <c r="L34">
-        <v>5</v>
-      </c>
-      <c r="M34">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>95</v>
+      </c>
+      <c r="G35">
+        <v>74</v>
+      </c>
+      <c r="H35">
+        <v>70</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>8</v>
       </c>
       <c r="M36">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>52</v>
+      </c>
+      <c r="J37">
+        <v>25</v>
+      </c>
+      <c r="K37">
+        <v>15</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>0</v>
       </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
         <v>40</v>
       </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="I37">
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="I40">
         <v>6</v>
       </c>
-      <c r="J37">
-        <v>3</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
         <v>1</v>
       </c>
     </row>
@@ -4682,7 +5018,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF10" sqref="AF10"/>
+      <selection pane="topRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4767,10 +5103,10 @@
       <c r="S1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="U1" s="52"/>
+      <c r="U1" s="43"/>
       <c r="V1" s="2" t="s">
         <v>143</v>
       </c>

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23250" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="1"/>
+    <workbookView xWindow="23250" yWindow="0" windowWidth="18375" windowHeight="8625" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Crust" sheetId="1" r:id="rId1"/>
-    <sheet name="Deep Crust" sheetId="5" r:id="rId2"/>
-    <sheet name="Asteroid" sheetId="7" r:id="rId3"/>
-    <sheet name="Ocean" sheetId="2" r:id="rId4"/>
-    <sheet name="Atmo" sheetId="3" r:id="rId5"/>
-    <sheet name="Exo Bands" sheetId="4" r:id="rId6"/>
+    <sheet name="Biomes" sheetId="8" r:id="rId2"/>
+    <sheet name="Deep Crust" sheetId="5" r:id="rId3"/>
+    <sheet name="Asteroid" sheetId="7" r:id="rId4"/>
+    <sheet name="Ocean" sheetId="2" r:id="rId5"/>
+    <sheet name="Atmo" sheetId="3" r:id="rId6"/>
+    <sheet name="Exo Bands" sheetId="4" r:id="rId7"/>
+    <sheet name="Exo Bands Reverse" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -357,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="231">
   <si>
     <t>Zeonium</t>
   </si>
@@ -954,19 +956,118 @@
   </si>
   <si>
     <t>Abundance %</t>
+  </si>
+  <si>
+    <t>CraterMetal</t>
+  </si>
+  <si>
+    <t>CraterMineral</t>
+  </si>
+  <si>
+    <t>LavaField</t>
+  </si>
+  <si>
+    <t>Nuke?</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>IceCapH</t>
+  </si>
+  <si>
+    <t>IceCapC</t>
+  </si>
+  <si>
+    <t>IceCapHC</t>
+  </si>
+  <si>
+    <t>RedIce</t>
+  </si>
+  <si>
+    <t>CryovolH</t>
+  </si>
+  <si>
+    <t>IceCapM</t>
+  </si>
+  <si>
+    <t>CraterIce</t>
+  </si>
+  <si>
+    <t>SandField</t>
+  </si>
+  <si>
+    <t>CryovolM</t>
+  </si>
+  <si>
+    <t>ExoFire</t>
+  </si>
+  <si>
+    <t>ExoRock</t>
+  </si>
+  <si>
+    <t>ExoIce</t>
+  </si>
+  <si>
+    <t>Body radius</t>
+  </si>
+  <si>
+    <t>Min alt</t>
+  </si>
+  <si>
+    <t>Peak alt</t>
+  </si>
+  <si>
+    <t>Max alt</t>
+  </si>
+  <si>
+    <t>Min Range</t>
+  </si>
+  <si>
+    <t>Max Range</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Atm height</t>
+  </si>
+  <si>
+    <t>Is suborbital</t>
+  </si>
+  <si>
+    <t>km SMA</t>
+  </si>
+  <si>
+    <t>km alt</t>
+  </si>
+  <si>
+    <t>body net height</t>
+  </si>
+  <si>
+    <t>band lower alt</t>
+  </si>
+  <si>
+    <t>Iores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="173" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1139,6 +1240,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1194,7 +1319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1226,15 +1351,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1326,18 +1478,6 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
@@ -1347,13 +1487,40 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="26" fillId="3" borderId="4" xfId="6" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Explanatory Text" xfId="7" builtinId="53"/>
+    <cellStyle name="Heading 2" xfId="5" builtinId="17"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Output" xfId="6" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1634,8 +1801,8 @@
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R23" sqref="R23"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1692,6 +1859,15 @@
       <c r="N1" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1746,6 +1922,18 @@
         <f>SUM(N4:N25)</f>
         <v>98</v>
       </c>
+      <c r="P2" s="1">
+        <f>SUM(P4:P25)</f>
+        <v>65</v>
+      </c>
+      <c r="Q2" s="1">
+        <f t="shared" ref="Q2:R2" si="1">SUM(Q4:Q25)</f>
+        <v>26</v>
+      </c>
+      <c r="R2" s="1">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1827,6 +2015,15 @@
       <c r="N6">
         <v>15</v>
       </c>
+      <c r="P6">
+        <v>22.5</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1984,6 +2181,9 @@
       <c r="I11">
         <v>5</v>
       </c>
+      <c r="P11">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2077,6 +2277,9 @@
       <c r="I14" s="36">
         <v>29</v>
       </c>
+      <c r="R14">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2132,8 +2335,11 @@
       <c r="N16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2168,7 +2374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2208,8 +2414,17 @@
       <c r="N18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>22.5</v>
+      </c>
+      <c r="Q18">
+        <v>12</v>
+      </c>
+      <c r="R18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2250,7 +2465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>136</v>
       </c>
@@ -2288,7 +2503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -2329,7 +2544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2364,7 +2579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2389,51 +2604,57 @@
       <c r="I23">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>6</v>
+      </c>
+      <c r="R23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" ref="B29:I29" si="1">SUM(B31:B44)</f>
+        <f t="shared" ref="B29:I29" si="2">SUM(B31:B44)</f>
         <v>76</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="J29" s="1"/>
@@ -2454,7 +2675,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2486,7 +2707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2533,48 +2754,48 @@
         <v>12</v>
       </c>
       <c r="C33" s="36">
-        <f t="shared" ref="C33:N33" si="2">ROUNDUP(C9*1.6,0)</f>
+        <f t="shared" ref="C33:N33" si="3">ROUNDUP(C9*1.6,0)</f>
         <v>5</v>
       </c>
       <c r="D33" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E33" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F33" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="G33" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="H33" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="I33" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="J33" s="36"/>
       <c r="K33" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="L33" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="M33" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="N33" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -2859,48 +3080,48 @@
         <v>18</v>
       </c>
       <c r="C42" s="36">
-        <f t="shared" ref="C42:N42" si="3">C18</f>
+        <f t="shared" ref="C42:N42" si="4">C18</f>
         <v>18</v>
       </c>
       <c r="D42" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="E42" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="F42" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G42" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H42" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I42" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J42" s="36"/>
       <c r="K42" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="L42" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="M42" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N42" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -2931,48 +3152,48 @@
         <v>7</v>
       </c>
       <c r="C44" s="36">
-        <f t="shared" ref="C44:N44" si="4">C21</f>
+        <f t="shared" ref="C44:N44" si="5">C21</f>
         <v>6</v>
       </c>
       <c r="D44" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E44" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="F44" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="G44" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H44" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I44" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="J44" s="36"/>
       <c r="K44" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="L44" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M44" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="N44" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -2985,145 +3206,590 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="3" width="12" customWidth="1"/>
+    <col min="4" max="5" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1">
+        <f>SUM(B5:B25)</f>
+        <v>31</v>
+      </c>
+      <c r="C2" s="1">
+        <f>SUM(C5:C25)</f>
+        <v>33</v>
+      </c>
+      <c r="D2" s="1">
+        <f>SUM(D5:D25)</f>
+        <v>59</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2" si="0">SUM(E4:E25)</f>
+        <v>96</v>
+      </c>
+      <c r="F2" s="1">
+        <f>SUM(F4:F25)</f>
+        <v>98</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:J2" si="1">SUM(G4:G25)</f>
+        <v>99</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K2" s="1">
+        <f>SUM(K4:K25)</f>
+        <v>98</v>
+      </c>
+      <c r="L2" s="1">
+        <f>SUM(L4:L25)</f>
+        <v>100</v>
+      </c>
+      <c r="M2" s="1">
+        <f>SUM(M4:M25)</f>
+        <v>100</v>
+      </c>
+      <c r="N2" s="1">
+        <f>SUM(N4:N25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="L4" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>92</v>
+      </c>
+      <c r="I7">
+        <v>44</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="K9" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12">
+        <v>90</v>
+      </c>
+      <c r="K12">
+        <v>18</v>
+      </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="K17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="F18" s="36">
+        <v>10</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="K18" s="36"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19" s="36">
+        <v>15</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19" s="36">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20">
+        <v>55</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="K22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="G24">
+        <v>94</v>
+      </c>
+      <c r="I24">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>45</v>
+      </c>
+      <c r="L24">
+        <v>94</v>
+      </c>
+      <c r="M24">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="51" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="51" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="51" customWidth="1"/>
-    <col min="4" max="10" width="11.25" style="51" customWidth="1"/>
-    <col min="11" max="11" width="9" style="51"/>
-    <col min="12" max="12" width="12" style="51" customWidth="1"/>
-    <col min="13" max="14" width="15" style="51" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="51"/>
+    <col min="1" max="1" width="15.625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="47" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="47" customWidth="1"/>
+    <col min="4" max="10" width="11.25" style="47" customWidth="1"/>
+    <col min="11" max="11" width="9" style="47"/>
+    <col min="12" max="12" width="12" style="47" customWidth="1"/>
+    <col min="13" max="14" width="15" style="47" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:14" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-    </row>
-    <row r="2" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="48" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+    </row>
+    <row r="2" spans="1:14" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="55"/>
+      <c r="B2" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-    </row>
-    <row r="3" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+    </row>
+    <row r="3" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="46">
         <f t="shared" ref="B3:F3" si="0">SUM(B5:B21)</f>
         <v>99.7</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="46">
         <f t="shared" si="0"/>
         <v>91.8</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="46">
         <f t="shared" si="0"/>
         <v>91.399999999999991</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="46">
         <f t="shared" si="0"/>
         <v>95.3</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="46">
         <f t="shared" si="0"/>
         <v>97.7</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="46">
         <f>SUM(G5:G21)</f>
         <v>99.8</v>
       </c>
-      <c r="H3" s="50">
+      <c r="H3" s="46">
         <f t="shared" ref="H3:J3" si="1">SUM(H5:H21)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="50">
+      <c r="I3" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J3" s="50">
+      <c r="J3" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L4" s="52"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="47">
         <v>13</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="47">
         <v>4</v>
       </c>
-      <c r="D5" s="51">
-        <v>5</v>
-      </c>
-      <c r="E5" s="51">
-        <v>3</v>
-      </c>
-      <c r="F5" s="51">
+      <c r="D5" s="47">
+        <v>5</v>
+      </c>
+      <c r="E5" s="47">
+        <v>3</v>
+      </c>
+      <c r="F5" s="47">
         <v>5.5</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="47">
         <v>1</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="49" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="47">
         <v>40</v>
       </c>
-      <c r="L6" s="53" t="s">
+      <c r="L6" s="49" t="s">
         <v>195</v>
       </c>
       <c r="M6" s="41" t="s">
@@ -3134,192 +3800,192 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="47">
         <v>8</v>
       </c>
-      <c r="L7" s="54">
-        <v>5</v>
-      </c>
-      <c r="M7" s="52" t="s">
+      <c r="L7" s="50">
+        <v>5</v>
+      </c>
+      <c r="M7" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="N7" s="52" t="s">
+      <c r="N7" s="48" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="L8" s="54">
+      <c r="L8" s="50">
         <v>4</v>
       </c>
-      <c r="M8" s="52" t="s">
+      <c r="M8" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="48" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="47">
         <v>1</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="47">
         <v>1.5</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="47">
         <v>6</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="47">
         <v>1</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="47">
         <v>1</v>
       </c>
-      <c r="G9" s="51">
-        <v>3</v>
-      </c>
-      <c r="L9" s="54">
-        <v>3</v>
-      </c>
-      <c r="M9" s="52" t="s">
+      <c r="G9" s="47">
+        <v>3</v>
+      </c>
+      <c r="L9" s="50">
+        <v>3</v>
+      </c>
+      <c r="M9" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="N9" s="52" t="s">
+      <c r="N9" s="48" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="47">
         <v>40</v>
       </c>
-      <c r="L10" s="54">
-        <v>2</v>
-      </c>
-      <c r="M10" s="52" t="s">
+      <c r="L10" s="50">
+        <v>2</v>
+      </c>
+      <c r="M10" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="N10" s="52" t="s">
+      <c r="N10" s="48" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="51">
+      <c r="B11" s="47">
         <v>0.1</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="47">
         <v>0.1</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="47">
         <v>0.1</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="47">
         <v>0.1</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="47">
         <v>0.1</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="47">
         <v>0.1</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="50">
         <v>1</v>
       </c>
-      <c r="M11" s="52" t="s">
+      <c r="M11" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="N11" s="52" t="s">
+      <c r="N11" s="48" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="47">
         <v>4</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="50">
         <v>0</v>
       </c>
-      <c r="M12" s="52" t="s">
+      <c r="M12" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="N12" s="52" t="s">
+      <c r="N12" s="48" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="51">
+      <c r="B13" s="47">
         <v>8.1</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="47">
         <v>16</v>
       </c>
-      <c r="D13" s="51">
-        <v>3</v>
-      </c>
-      <c r="E13" s="51">
-        <v>2</v>
-      </c>
-      <c r="F13" s="51">
+      <c r="D13" s="47">
+        <v>3</v>
+      </c>
+      <c r="E13" s="47">
+        <v>2</v>
+      </c>
+      <c r="F13" s="47">
         <v>42</v>
       </c>
-      <c r="G13" s="51">
-        <v>3</v>
-      </c>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
+      <c r="G13" s="47">
+        <v>3</v>
+      </c>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="51">
-        <v>2</v>
-      </c>
-      <c r="C14" s="51">
-        <v>5</v>
-      </c>
-      <c r="D14" s="51">
+      <c r="B14" s="47">
+        <v>2</v>
+      </c>
+      <c r="C14" s="47">
+        <v>5</v>
+      </c>
+      <c r="D14" s="47">
         <v>14</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="47">
         <v>2.5</v>
       </c>
-      <c r="F14" s="51">
-        <v>2</v>
-      </c>
-      <c r="G14" s="51">
+      <c r="F14" s="47">
+        <v>2</v>
+      </c>
+      <c r="G14" s="47">
         <v>1</v>
       </c>
-      <c r="L14" s="53" t="s">
+      <c r="L14" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="53" t="s">
+      <c r="L15" s="49" t="s">
         <v>195</v>
       </c>
       <c r="M15" s="41" t="s">
@@ -3330,285 +3996,285 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="47">
         <v>0.2</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="47">
         <v>8</v>
       </c>
-      <c r="D16" s="51">
-        <v>3</v>
-      </c>
-      <c r="E16" s="51">
+      <c r="D16" s="47">
+        <v>3</v>
+      </c>
+      <c r="E16" s="47">
         <v>1.5</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="47">
         <v>1.9</v>
       </c>
-      <c r="G16" s="51">
+      <c r="G16" s="47">
         <v>1.5</v>
       </c>
-      <c r="L16" s="54">
-        <v>5</v>
-      </c>
-      <c r="M16" s="52" t="s">
+      <c r="L16" s="50">
+        <v>5</v>
+      </c>
+      <c r="M16" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="N16" s="52" t="s">
+      <c r="N16" s="48" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="51">
+      <c r="A17" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="47">
         <v>7.1</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="47">
         <v>8</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="47">
         <v>13</v>
       </c>
-      <c r="E17" s="51">
-        <v>5</v>
-      </c>
-      <c r="F17" s="51">
+      <c r="E17" s="47">
+        <v>5</v>
+      </c>
+      <c r="F17" s="47">
         <v>8</v>
       </c>
-      <c r="G17" s="51">
-        <v>5</v>
-      </c>
-      <c r="L17" s="54">
+      <c r="G17" s="47">
+        <v>5</v>
+      </c>
+      <c r="L17" s="50">
         <v>4</v>
       </c>
-      <c r="M17" s="52" t="s">
+      <c r="M17" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="N17" s="52" t="s">
+      <c r="N17" s="48" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+    <row r="18" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18" s="50">
         <v>67</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="50">
         <v>48</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="50">
         <v>42</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="50">
         <v>31</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="50">
         <v>36</v>
       </c>
-      <c r="G18" s="54">
+      <c r="G18" s="50">
         <v>44</v>
       </c>
-      <c r="L18" s="54">
-        <v>3</v>
-      </c>
-      <c r="M18" s="52" t="s">
+      <c r="L18" s="50">
+        <v>3</v>
+      </c>
+      <c r="M18" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="N18" s="52" t="s">
+      <c r="N18" s="48" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
+    <row r="19" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
       <c r="L19" s="42">
         <v>2</v>
       </c>
-      <c r="M19" s="52" t="s">
+      <c r="M19" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="N19" s="52" t="s">
+      <c r="N19" s="48" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="47">
         <v>1</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="47">
         <v>1</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="47">
         <v>1</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="47">
         <v>1</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F20" s="47">
         <v>1</v>
       </c>
-      <c r="G20" s="51">
+      <c r="G20" s="47">
         <v>1</v>
       </c>
       <c r="L20" s="42">
         <v>1</v>
       </c>
-      <c r="M20" s="52" t="s">
+      <c r="M20" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="N20" s="52" t="s">
+      <c r="N20" s="48" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="47">
         <v>0.2</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="47">
         <v>0.2</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="47">
         <v>0.3</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="47">
         <v>0.2</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="47">
         <v>0.2</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="47">
         <v>0.2</v>
       </c>
       <c r="L21" s="42">
         <v>0</v>
       </c>
-      <c r="M21" s="52" t="s">
+      <c r="M21" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="N21" s="52" t="s">
+      <c r="N21" s="48" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="B23" s="55">
+      <c r="B23" s="51">
         <f t="shared" ref="B23:J23" si="2">SUM(100-B3)</f>
         <v>0.29999999999999716</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="51">
         <f t="shared" si="2"/>
         <v>8.2000000000000028</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="51">
         <f t="shared" si="2"/>
         <v>8.6000000000000085</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="51">
         <f t="shared" si="2"/>
         <v>4.7000000000000028</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="51">
         <f t="shared" si="2"/>
         <v>2.2999999999999972</v>
       </c>
-      <c r="G23" s="55">
+      <c r="G23" s="51">
         <f t="shared" si="2"/>
         <v>0.20000000000000284</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="51">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="I23" s="55">
+      <c r="I23" s="51">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J23" s="55">
+      <c r="J23" s="51">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3621,7 +4287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
@@ -4228,7 +4894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R40"/>
   <sheetViews>
@@ -5012,7 +5678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH40"/>
   <sheetViews>
@@ -5103,10 +5769,10 @@
       <c r="S1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="U1" s="43"/>
+      <c r="U1" s="56"/>
       <c r="V1" s="2" t="s">
         <v>143</v>
       </c>
@@ -6845,13 +7511,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8661,9 +9327,11 @@
         <v>0</v>
       </c>
       <c r="F35" s="21">
-        <v>0.41</v>
-      </c>
-      <c r="G35" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="21">
+        <v>0</v>
+      </c>
       <c r="H35" s="20">
         <f>(F35*(B35/2)+B35)</f>
         <v>0</v>
@@ -8679,8 +9347,12 @@
       <c r="K35" s="19">
         <v>751900</v>
       </c>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
+      <c r="L35" s="21">
+        <v>0</v>
+      </c>
+      <c r="M35" s="21">
+        <v>0</v>
+      </c>
       <c r="N35" s="17">
         <f>L35*B35</f>
         <v>0</v>
@@ -9462,4 +10134,316 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="12" customWidth="1"/>
+    <col min="7" max="8" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="59">
+        <v>962</v>
+      </c>
+      <c r="C3" s="59">
+        <v>52</v>
+      </c>
+      <c r="D3" s="59">
+        <v>52</v>
+      </c>
+      <c r="E3" s="59">
+        <v>864</v>
+      </c>
+      <c r="F3" s="59">
+        <v>1880</v>
+      </c>
+      <c r="G3" s="60">
+        <f>(E3-D3)*2</f>
+        <v>1624</v>
+      </c>
+      <c r="H3" s="60">
+        <f>(F3-E3)*2</f>
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="60">
+        <f>B3/2</f>
+        <v>481</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="K4" s="62">
+        <f>B3+C3</f>
+        <v>1014</v>
+      </c>
+      <c r="L4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="65">
+        <f>(D3/$B$4)</f>
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="E5" s="65">
+        <f>(E3/$B$4)</f>
+        <v>1.7962577962577964</v>
+      </c>
+      <c r="F5" s="65">
+        <f>(F3/$B$4)</f>
+        <v>3.9085239085239087</v>
+      </c>
+      <c r="G5" s="65">
+        <f>G3/$B$3</f>
+        <v>1.6881496881496882</v>
+      </c>
+      <c r="H5" s="65">
+        <f>H3/$B$3</f>
+        <v>2.1122661122661124</v>
+      </c>
+      <c r="K5" s="62">
+        <f>E3-D3</f>
+        <v>812</v>
+      </c>
+      <c r="L5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="6" t="str">
+        <f>IF(K5&lt;C3,"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.6880999999999999</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2.1122999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" s="60">
+        <f>G8*$B$3</f>
+        <v>1623.9521999999999</v>
+      </c>
+      <c r="H9" s="60">
+        <f>H8*$B$3</f>
+        <v>2032.0325999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="60">
+        <f>$B$3+D3</f>
+        <v>1014</v>
+      </c>
+      <c r="E10" s="60">
+        <f>$B$3+E3</f>
+        <v>1826</v>
+      </c>
+      <c r="F10" s="60">
+        <f>$B$3+F3</f>
+        <v>2842</v>
+      </c>
+      <c r="G10" s="60">
+        <f>G9+$E$3</f>
+        <v>2487.9521999999997</v>
+      </c>
+      <c r="H10" s="60">
+        <f>H9+$E$3</f>
+        <v>2896.0325999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="63"/>
+    </row>
+    <row r="19" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="23">
+        <v>962</v>
+      </c>
+      <c r="C20" s="23">
+        <v>52</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="22">
+        <f>IF((B20&gt;0),(D20/(B20/2)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="G20" s="21">
+        <v>3.91</v>
+      </c>
+      <c r="H20" s="20">
+        <f>(F20*(B20/2)+B20)</f>
+        <v>1827.8000000000002</v>
+      </c>
+      <c r="I20" s="20">
+        <f>IF(G20&gt;=F20,SUM(G20*(B20/2)+B20),H20)</f>
+        <v>2842.71</v>
+      </c>
+      <c r="J20" s="16" t="str">
+        <f>IF(H20&lt;=B20+C20,"Yes","-")</f>
+        <v>-</v>
+      </c>
+      <c r="K20" s="19"/>
+      <c r="L20" s="21">
+        <v>1.6879999999999999</v>
+      </c>
+      <c r="M20" s="21">
+        <v>2.1120000000000001</v>
+      </c>
+      <c r="N20" s="17">
+        <f>L20*B20</f>
+        <v>1623.856</v>
+      </c>
+      <c r="O20" s="17">
+        <f>IF((M20*B20&gt;=N20),M20*B20,N20)</f>
+        <v>2031.7440000000001</v>
+      </c>
+      <c r="P20" s="16" t="str">
+        <f>IF(SUM(H20-(N20/2))&lt;=B20+C20,"Yes","-")</f>
+        <v>-</v>
+      </c>
+      <c r="Q20" s="16" t="str">
+        <f>IF(SUM(I20-(O20/2))&lt;=B20+C20,"Yes","-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H21" s="64">
+        <f>H20-E10</f>
+        <v>1.8000000000001819</v>
+      </c>
+      <c r="I21" s="64">
+        <f>I20-F10</f>
+        <v>0.71000000000003638</v>
+      </c>
+      <c r="N21" s="64">
+        <f>N20-G3</f>
+        <v>-0.14400000000000546</v>
+      </c>
+      <c r="O21" s="64">
+        <f>O20-H3</f>
+        <v>-0.25599999999985812</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23250" yWindow="0" windowWidth="18375" windowHeight="8625" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="23250" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Crust" sheetId="1" r:id="rId1"/>
@@ -142,112 +142,6 @@
     <author>Jadon Wade</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jadon Wade:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Eve</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jadon Wade:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mun</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jadon Wade:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Minmus</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jadon Wade:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Duna</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Jadon Wade</author>
-  </authors>
-  <commentList>
     <comment ref="A28" authorId="0" shapeId="0">
       <text>
         <r>
@@ -300,7 +194,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jadon Wade</author>
@@ -359,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="236">
   <si>
     <t>Zeonium</t>
   </si>
@@ -1052,6 +946,21 @@
   </si>
   <si>
     <t>Iores</t>
+  </si>
+  <si>
+    <t>Chance</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>RND</t>
   </si>
 </sst>
 </file>
@@ -1064,8 +973,8 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="173" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1265,7 +1174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1315,6 +1224,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,7 +1301,7 @@
     <xf numFmtId="0" fontId="26" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1490,6 +1405,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="26" fillId="3" borderId="4" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1502,15 +1426,10 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="26" fillId="3" borderId="4" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1800,9 +1719,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q16" sqref="Q16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3671,25 +3590,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="54" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:14" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="44" t="s">
         <v>160</v>
       </c>
@@ -4288,28 +4207,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="9" width="12.25" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
-    <col min="13" max="14" width="12.75" customWidth="1"/>
-    <col min="17" max="19" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.25" customWidth="1"/>
+    <col min="6" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="2.25" customWidth="1"/>
+    <col min="11" max="15" width="9" customWidth="1"/>
+    <col min="18" max="20" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -4322,50 +4238,67 @@
       <c r="D1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1">
-        <f t="shared" ref="B2:E2" si="0">SUM(B4:B24)</f>
+        <f>SUM(B4:B24)</f>
         <v>98</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C4:C24)</f>
         <v>96</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(D4:D24)</f>
         <v>100</v>
       </c>
-      <c r="E2" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I2" s="67" t="s">
+        <v>235</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="N2" s="67" t="s">
+        <v>235</v>
+      </c>
+      <c r="V2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -4378,27 +4311,111 @@
       <c r="D4">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I4" s="66" t="str">
+        <f ca="1">IF(S4&gt;F4,"-",T4)</f>
+        <v>-</v>
+      </c>
+      <c r="K4">
+        <v>40</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>25</v>
+      </c>
+      <c r="N4" s="66" t="str">
+        <f ca="1">IF(S4&gt;K4,"-",U4)</f>
+        <v>-</v>
+      </c>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38">
+        <f t="shared" ref="S4:S23" ca="1" si="0">RANDBETWEEN(1,100)</f>
+        <v>80</v>
+      </c>
+      <c r="T4" s="38">
+        <f ca="1">RANDBETWEEN(G4,H4)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="38">
+        <f ca="1">RANDBETWEEN(L4,M4)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>70</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="I5" s="66" t="str">
+        <f ca="1">IF(S5&gt;F5,"-",T5)</f>
+        <v>-</v>
+      </c>
+      <c r="N5" s="66" t="str">
+        <f ca="1">IF(S5&gt;K5,"-",U5)</f>
+        <v>-</v>
+      </c>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="T5" s="38">
+        <f ca="1">RANDBETWEEN(G5,H5)</f>
+        <v>64</v>
+      </c>
+      <c r="U5" s="38">
+        <f ca="1">RANDBETWEEN(L5,M5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>80</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6" s="66" t="str">
+        <f ca="1">IF(S6&gt;F6,"-",T6)</f>
+        <v>-</v>
+      </c>
+      <c r="N6" s="66" t="str">
+        <f ca="1">IF(S6&gt;K6,"-",U6)</f>
+        <v>-</v>
+      </c>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="T6" s="38">
+        <f ca="1">RANDBETWEEN(G6,H6)</f>
+        <v>31</v>
+      </c>
+      <c r="U6" s="38">
+        <f ca="1">RANDBETWEEN(L6,M6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -4411,11 +4428,46 @@
       <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7" s="66">
+        <f ca="1">IF(S7&gt;F7,"-",T7)</f>
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>40</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>40</v>
+      </c>
+      <c r="N7" s="66">
+        <f ca="1">IF(S7&gt;K7,"-",U7)</f>
+        <v>21</v>
+      </c>
+      <c r="S7" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T7" s="38">
+        <f ca="1">RANDBETWEEN(G7,H7)</f>
+        <v>20</v>
+      </c>
+      <c r="U7" s="38">
+        <f ca="1">RANDBETWEEN(L7,M7)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -4428,11 +4480,37 @@
       <c r="D8">
         <v>5</v>
       </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I8" s="66" t="str">
+        <f ca="1">IF(S8&gt;F8,"-",T8)</f>
+        <v>-</v>
+      </c>
+      <c r="K8">
+        <v>40</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8" s="66" t="str">
+        <f ca="1">IF(S8&gt;K8,"-",U8)</f>
+        <v>-</v>
+      </c>
+      <c r="S8" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="T8" s="38">
+        <f ca="1">RANDBETWEEN(G8,H8)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="38">
+        <f ca="1">RANDBETWEEN(L8,M8)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -4445,14 +4523,46 @@
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F9" s="36">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9" s="36">
+        <v>30</v>
+      </c>
+      <c r="I9" s="66">
+        <f ca="1">IF(S9&gt;F9,"-",T9)</f>
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9" s="36">
+        <v>30</v>
+      </c>
+      <c r="M9" s="36">
+        <v>70</v>
+      </c>
+      <c r="N9" s="66">
+        <f ca="1">IF(S9&gt;K9,"-",U9)</f>
+        <v>35</v>
+      </c>
+      <c r="S9" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="T9" s="38">
+        <f ca="1">RANDBETWEEN(G9,H9)</f>
+        <v>12</v>
+      </c>
+      <c r="U9" s="38">
+        <f ca="1">RANDBETWEEN(L9,M9)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4465,19 +4575,74 @@
       <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I10" s="66" t="str">
+        <f ca="1">IF(S10&gt;F10,"-",T10)</f>
+        <v>-</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10" s="36">
+        <v>7</v>
+      </c>
+      <c r="M10" s="36">
+        <v>15</v>
+      </c>
+      <c r="N10" s="66">
+        <f ca="1">IF(S10&gt;K10,"-",U10)</f>
+        <v>12</v>
+      </c>
+      <c r="S10" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="T10" s="38">
+        <f ca="1">RANDBETWEEN(G10,H10)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="38">
+        <f ca="1">RANDBETWEEN(L10,M10)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>60</v>
+      </c>
+      <c r="G11">
+        <v>60</v>
+      </c>
+      <c r="H11">
+        <v>90</v>
+      </c>
+      <c r="I11" s="66" t="str">
+        <f ca="1">IF(S11&gt;F11,"-",T11)</f>
+        <v>-</v>
+      </c>
+      <c r="N11" s="66" t="str">
+        <f ca="1">IF(S11&gt;K11,"-",U11)</f>
+        <v>-</v>
+      </c>
+      <c r="S11" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="T11" s="38">
+        <f ca="1">RANDBETWEEN(G11,H11)</f>
+        <v>70</v>
+      </c>
+      <c r="U11" s="38">
+        <f ca="1">RANDBETWEEN(L11,M11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -4490,11 +4655,46 @@
       <c r="D12">
         <v>5</v>
       </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12" s="66">
+        <f ca="1">IF(S12&gt;F12,"-",T12)</f>
+        <v>40</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>50</v>
+      </c>
+      <c r="N12" s="66">
+        <f ca="1">IF(S12&gt;K12,"-",U12)</f>
+        <v>29</v>
+      </c>
+      <c r="S12" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="T12" s="38">
+        <f ca="1">RANDBETWEEN(G12,H12)</f>
+        <v>40</v>
+      </c>
+      <c r="U12" s="38">
+        <f ca="1">RANDBETWEEN(L12,M12)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4507,17 +4707,72 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I13" s="66" t="str">
+        <f ca="1">IF(S13&gt;F13,"-",T13)</f>
+        <v>-</v>
+      </c>
+      <c r="K13">
+        <v>70</v>
+      </c>
+      <c r="L13">
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <v>40</v>
+      </c>
+      <c r="N13" s="66" t="str">
+        <f ca="1">IF(S13&gt;K13,"-",U13)</f>
+        <v>-</v>
+      </c>
+      <c r="S13" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="T13" s="38">
+        <f ca="1">RANDBETWEEN(G13,H13)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="38">
+        <f ca="1">RANDBETWEEN(L13,M13)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>70</v>
+      </c>
+      <c r="G14">
+        <v>60</v>
+      </c>
+      <c r="H14">
+        <v>90</v>
+      </c>
+      <c r="I14" s="66">
+        <f ca="1">IF(S14&gt;F14,"-",T14)</f>
+        <v>61</v>
+      </c>
+      <c r="M14" s="36"/>
+      <c r="N14" s="66" t="str">
+        <f ca="1">IF(S14&gt;K14,"-",U14)</f>
+        <v>-</v>
+      </c>
+      <c r="S14" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="T14" s="38">
+        <f ca="1">RANDBETWEEN(G14,H14)</f>
+        <v>61</v>
+      </c>
+      <c r="U14" s="38">
+        <f ca="1">RANDBETWEEN(L14,M14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -4530,19 +4785,74 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15" s="66">
+        <f ca="1">IF(S15&gt;F15,"-",T15)</f>
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15" s="66">
+        <f ca="1">IF(S15&gt;K15,"-",U15)</f>
+        <v>7</v>
+      </c>
+      <c r="S15" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="T15" s="38">
+        <f ca="1">RANDBETWEEN(G15,H15)</f>
+        <v>6</v>
+      </c>
+      <c r="U15" s="38">
+        <f ca="1">RANDBETWEEN(L15,M15)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I16" s="66" t="str">
+        <f ca="1">IF(S16&gt;F16,"-",T16)</f>
+        <v>-</v>
+      </c>
+      <c r="N16" s="66" t="str">
+        <f ca="1">IF(S16&gt;K16,"-",U16)</f>
+        <v>-</v>
+      </c>
+      <c r="S16" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="T16" s="38">
+        <f ca="1">RANDBETWEEN(G16,H16)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="38">
+        <f ca="1">RANDBETWEEN(L16,M16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -4555,11 +4865,46 @@
       <c r="D17" s="36">
         <v>15</v>
       </c>
-      <c r="E17" s="36">
+      <c r="F17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G17" s="36">
+        <v>15</v>
+      </c>
+      <c r="H17" s="36">
+        <v>30</v>
+      </c>
+      <c r="I17" s="66" t="str">
+        <f ca="1">IF(S17&gt;F17,"-",T17)</f>
+        <v>-</v>
+      </c>
+      <c r="K17">
+        <v>80</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>30</v>
+      </c>
+      <c r="N17" s="66">
+        <f ca="1">IF(S17&gt;K17,"-",U17)</f>
+        <v>24</v>
+      </c>
+      <c r="S17" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="T17" s="38">
+        <f ca="1">RANDBETWEEN(G17,H17)</f>
+        <v>29</v>
+      </c>
+      <c r="U17" s="38">
+        <f ca="1">RANDBETWEEN(L17,M17)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4572,14 +4917,46 @@
       <c r="D18" s="36">
         <v>15</v>
       </c>
-      <c r="E18" s="36">
-        <v>15</v>
-      </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F18" s="36">
+        <v>100</v>
+      </c>
+      <c r="G18" s="36">
+        <v>5</v>
+      </c>
+      <c r="H18" s="36">
+        <v>40</v>
+      </c>
+      <c r="I18" s="66">
+        <f ca="1">IF(S18&gt;F18,"-",T18)</f>
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18" s="36">
+        <v>40</v>
+      </c>
+      <c r="M18" s="36">
+        <v>70</v>
+      </c>
+      <c r="N18" s="66">
+        <f ca="1">IF(S18&gt;K18,"-",U18)</f>
+        <v>52</v>
+      </c>
+      <c r="S18" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="T18" s="38">
+        <f ca="1">RANDBETWEEN(G18,H18)</f>
+        <v>20</v>
+      </c>
+      <c r="U18" s="38">
+        <f ca="1">RANDBETWEEN(L18,M18)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4592,14 +4969,46 @@
       <c r="D19" s="36">
         <v>5</v>
       </c>
-      <c r="E19" s="36">
-        <v>5</v>
-      </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F19" s="36">
+        <v>100</v>
+      </c>
+      <c r="G19" s="36">
+        <v>15</v>
+      </c>
+      <c r="H19" s="36">
+        <v>30</v>
+      </c>
+      <c r="I19" s="66">
+        <f ca="1">IF(S19&gt;F19,"-",T19)</f>
+        <v>22</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19" s="36">
+        <v>20</v>
+      </c>
+      <c r="M19" s="36">
+        <v>50</v>
+      </c>
+      <c r="N19" s="66">
+        <f ca="1">IF(S19&gt;K19,"-",U19)</f>
+        <v>50</v>
+      </c>
+      <c r="S19" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="T19" s="38">
+        <f ca="1">RANDBETWEEN(G19,H19)</f>
+        <v>22</v>
+      </c>
+      <c r="U19" s="38">
+        <f ca="1">RANDBETWEEN(L19,M19)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>136</v>
       </c>
@@ -4612,11 +5021,46 @@
       <c r="D20">
         <v>12</v>
       </c>
-      <c r="E20">
+      <c r="F20" s="36">
+        <v>40</v>
+      </c>
+      <c r="G20" s="36">
+        <v>10</v>
+      </c>
+      <c r="H20" s="36">
+        <v>20</v>
+      </c>
+      <c r="I20" s="66">
+        <f ca="1">IF(S20&gt;F20,"-",T20)</f>
+        <v>14</v>
+      </c>
+      <c r="K20">
+        <v>80</v>
+      </c>
+      <c r="L20">
+        <v>15</v>
+      </c>
+      <c r="M20">
+        <v>30</v>
+      </c>
+      <c r="N20" s="66">
+        <f ca="1">IF(S20&gt;K20,"-",U20)</f>
+        <v>28</v>
+      </c>
+      <c r="S20" s="38">
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T20" s="38">
+        <f ca="1">RANDBETWEEN(G20,H20)</f>
+        <v>14</v>
+      </c>
+      <c r="U20" s="38">
+        <f ca="1">RANDBETWEEN(L20,M20)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -4629,11 +5073,37 @@
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="66" t="str">
+        <f ca="1">IF(S21&gt;F21,"-",T21)</f>
+        <v>-</v>
+      </c>
+      <c r="K21">
+        <v>80</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21" s="66" t="str">
+        <f ca="1">IF(S21&gt;K21,"-",U21)</f>
+        <v>-</v>
+      </c>
+      <c r="S21" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="T21" s="38">
+        <f ca="1">RANDBETWEEN(G21,H21)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="38">
+        <f ca="1">RANDBETWEEN(L21,M21)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -4646,19 +5116,89 @@
       <c r="D22" s="36">
         <v>9</v>
       </c>
-      <c r="E22" s="36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="36"/>
+      <c r="I22" s="66" t="str">
+        <f ca="1">IF(S22&gt;F22,"-",T22)</f>
+        <v>-</v>
+      </c>
+      <c r="K22">
+        <v>40</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>50</v>
+      </c>
+      <c r="N22" s="66" t="str">
+        <f ca="1">IF(S22&gt;K22,"-",U22)</f>
+        <v>-</v>
+      </c>
+      <c r="S22" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="T22" s="38">
+        <f ca="1">RANDBETWEEN(G22,H22)</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="38">
+        <f ca="1">RANDBETWEEN(L22,M22)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>40</v>
+      </c>
+      <c r="I23" s="66">
+        <f ca="1">IF(S23&gt;F23,"-",T23)</f>
+        <v>40</v>
+      </c>
+      <c r="N23" s="66" t="str">
+        <f ca="1">IF(S23&gt;K23,"-",U23)</f>
+        <v>-</v>
+      </c>
+      <c r="S23" s="38">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="T23" s="38">
+        <f ca="1">RANDBETWEEN(G23,H23)</f>
+        <v>40</v>
+      </c>
+      <c r="U23" s="38">
+        <f ca="1">RANDBETWEEN(L23,M23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="K26" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
@@ -4674,31 +5214,109 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E27" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I27" s="67" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="N27" s="67" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I29" s="66" t="str">
+        <f ca="1">IF(S29&gt;F29,"-",T29)</f>
+        <v>-</v>
+      </c>
+      <c r="K29">
+        <v>40</v>
+      </c>
+      <c r="L29">
+        <v>20</v>
+      </c>
+      <c r="M29">
+        <v>50</v>
+      </c>
+      <c r="N29" s="66" t="str">
+        <f ca="1">IF(S29&gt;K29,"-",U29)</f>
+        <v>-</v>
+      </c>
+      <c r="S29" s="38">
+        <f t="shared" ref="S29:S42" ca="1" si="2">RANDBETWEEN(1,100)</f>
+        <v>90</v>
+      </c>
+      <c r="T29" s="38">
+        <f ca="1">RANDBETWEEN(G29,H29)</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="38">
+        <f ca="1">RANDBETWEEN(L29,M29)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>40</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>20</v>
+      </c>
+      <c r="I30" s="66" t="str">
+        <f t="shared" ref="I30:I42" ca="1" si="3">IF(S30&gt;F30,"-",T30)</f>
+        <v>-</v>
+      </c>
+      <c r="K30">
+        <v>40</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <v>40</v>
+      </c>
+      <c r="N30" s="66" t="str">
+        <f t="shared" ref="N30:N42" ca="1" si="4">IF(S30&gt;K30,"-",U30)</f>
+        <v>-</v>
+      </c>
+      <c r="S30" s="38">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="T30" s="38">
+        <f t="shared" ref="T30:T42" ca="1" si="5">RANDBETWEEN(G30,H30)</f>
+        <v>8</v>
+      </c>
+      <c r="U30" s="38">
+        <f t="shared" ref="U30:U42" ca="1" si="6">RANDBETWEEN(L30,M30)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -4706,27 +5324,105 @@
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F31" s="36">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31" s="36">
+        <v>30</v>
+      </c>
+      <c r="I31" s="66">
+        <f t="shared" ca="1" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="K31">
+        <v>100</v>
+      </c>
+      <c r="L31" s="36">
+        <v>30</v>
+      </c>
+      <c r="M31" s="36">
+        <v>70</v>
+      </c>
+      <c r="N31" s="66">
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="S31" s="38">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="T31" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="U31" s="38">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I32" s="66" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="N32" s="66" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="S32" s="38">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="T32" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="38">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>60</v>
+      </c>
+      <c r="G33">
+        <v>60</v>
+      </c>
+      <c r="H33">
+        <v>90</v>
+      </c>
+      <c r="I33" s="66">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="N33" s="66" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="S33" s="38">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="T33" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="U33" s="38">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -4734,17 +5430,47 @@
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
       <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34" s="36">
+        <v>7</v>
+      </c>
+      <c r="H34" s="36">
+        <v>15</v>
+      </c>
+      <c r="I34" s="66" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>-</v>
+      </c>
       <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>90</v>
+      </c>
+      <c r="L34" s="36">
+        <v>20</v>
+      </c>
+      <c r="M34" s="36">
+        <v>60</v>
+      </c>
+      <c r="N34" s="66">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="S34" s="38">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="T34" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="U34" s="38">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -4752,17 +5478,47 @@
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>30</v>
+      </c>
+      <c r="H35">
+        <v>50</v>
+      </c>
+      <c r="I35" s="66">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
       <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>100</v>
+      </c>
+      <c r="L35">
+        <v>20</v>
+      </c>
+      <c r="M35">
+        <v>50</v>
+      </c>
+      <c r="N35" s="66">
+        <f t="shared" ca="1" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="S35" s="38">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="T35" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="U35" s="38">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -4770,17 +5526,47 @@
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
+      <c r="F36">
+        <v>70</v>
+      </c>
+      <c r="G36">
+        <v>60</v>
+      </c>
+      <c r="H36">
+        <v>90</v>
+      </c>
+      <c r="I36" s="66" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>-</v>
+      </c>
       <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>40</v>
+      </c>
+      <c r="L36">
+        <v>60</v>
+      </c>
+      <c r="M36">
+        <v>90</v>
+      </c>
+      <c r="N36" s="66" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="S36" s="38">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="T36" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="U36" s="38">
+        <f t="shared" ca="1" si="6"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -4788,17 +5574,47 @@
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
       <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37" s="66">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
       <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>100</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>10</v>
+      </c>
+      <c r="N37" s="66">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S37" s="38">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="T37" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="U37" s="38">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -4809,14 +5625,32 @@
       <c r="F38" s="36"/>
       <c r="G38" s="36"/>
       <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
+      <c r="I38" s="66" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>-</v>
+      </c>
       <c r="J38" s="36"/>
       <c r="K38" s="36"/>
       <c r="L38" s="36"/>
       <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N38" s="66" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="S38" s="38">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="T38" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="38">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -4824,17 +5658,47 @@
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
       <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
+      <c r="F39">
+        <v>15</v>
+      </c>
+      <c r="G39" s="36">
+        <v>15</v>
+      </c>
+      <c r="H39" s="36">
+        <v>30</v>
+      </c>
+      <c r="I39" s="66" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>-</v>
+      </c>
       <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>80</v>
+      </c>
+      <c r="L39">
+        <v>5</v>
+      </c>
+      <c r="M39">
+        <v>30</v>
+      </c>
+      <c r="N39" s="66" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="S39" s="38">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="T39" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="U39" s="38">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -4842,17 +5706,46 @@
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
       <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F40" s="36">
+        <v>100</v>
+      </c>
+      <c r="G40" s="36">
+        <v>5</v>
+      </c>
+      <c r="H40" s="36">
+        <v>40</v>
+      </c>
+      <c r="I40" s="66">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="K40">
+        <v>100</v>
+      </c>
+      <c r="L40" s="36">
+        <v>40</v>
+      </c>
+      <c r="M40" s="36">
+        <v>70</v>
+      </c>
+      <c r="N40" s="66">
+        <f t="shared" ca="1" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="S40" s="38">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="T40" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="U40" s="38">
+        <f t="shared" ca="1" si="6"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -4860,17 +5753,41 @@
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
       <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>40</v>
+      </c>
+      <c r="I41" s="66">
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
+      </c>
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
       <c r="L41" s="36"/>
       <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N41" s="66" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="S41" s="38">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="T41" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="U41" s="38">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -4878,19 +5795,48 @@
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
       <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
+      <c r="F42" s="36">
+        <v>100</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42" s="36">
+        <v>30</v>
+      </c>
+      <c r="I42" s="66">
+        <f t="shared" ca="1" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="K42">
+        <v>100</v>
+      </c>
+      <c r="L42" s="36">
+        <v>30</v>
+      </c>
+      <c r="M42" s="36">
+        <v>70</v>
+      </c>
+      <c r="N42" s="66">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="S42" s="38">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="T42" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="U42" s="38">
+        <f t="shared" ca="1" si="6"/>
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5769,10 +6715,10 @@
       <c r="S1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="U1" s="56"/>
+      <c r="U1" s="65"/>
       <c r="V1" s="2" t="s">
         <v>143</v>
       </c>
@@ -10140,7 +11086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -10151,66 +11097,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="53" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="55">
         <v>962</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="55">
         <v>52</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="55">
         <v>52</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="55">
         <v>864</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="55">
         <v>1880</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="56">
         <f>(E3-D3)*2</f>
         <v>1624</v>
       </c>
-      <c r="H3" s="60">
+      <c r="H3" s="56">
         <f>(F3-E3)*2</f>
         <v>2032</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="56">
         <f>B3/2</f>
         <v>481</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="K4" s="62">
+      <c r="C4" s="56"/>
+      <c r="K4" s="58">
         <f>B3+C3</f>
         <v>1014</v>
       </c>
@@ -10219,30 +11165,30 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="61">
         <f>(D3/$B$4)</f>
         <v>0.10810810810810811</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="61">
         <f>(E3/$B$4)</f>
         <v>1.7962577962577964</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="61">
         <f>(F3/$B$4)</f>
         <v>3.9085239085239087</v>
       </c>
-      <c r="G5" s="65">
+      <c r="G5" s="61">
         <f>G3/$B$3</f>
         <v>1.6881496881496882</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="61">
         <f>H3/$B$3</f>
         <v>2.1122661122661124</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K5" s="58">
         <f>E3-D3</f>
         <v>812</v>
       </c>
@@ -10251,7 +11197,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="57" t="s">
         <v>225</v>
       </c>
       <c r="D6" s="6" t="str">
@@ -10260,10 +11206,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="57"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="57" t="s">
         <v>223</v>
       </c>
       <c r="G8" s="7">
@@ -10274,45 +11220,45 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="56">
         <f>G8*$B$3</f>
         <v>1623.9521999999999</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="56">
         <f>H8*$B$3</f>
         <v>2032.0325999999998</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="56">
         <f>$B$3+D3</f>
         <v>1014</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="56">
         <f>$B$3+E3</f>
         <v>1826</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="56">
         <f>$B$3+F3</f>
         <v>2842</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="56">
         <f>G9+$E$3</f>
         <v>2487.9521999999997</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="56">
         <f>H9+$E$3</f>
         <v>2896.0325999999995</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="63"/>
+      <c r="E15" s="59"/>
     </row>
     <row r="19" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
@@ -10425,19 +11371,19 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H21" s="64">
+      <c r="H21" s="60">
         <f>H20-E10</f>
         <v>1.8000000000001819</v>
       </c>
-      <c r="I21" s="64">
+      <c r="I21" s="60">
         <f>I20-F10</f>
         <v>0.71000000000003638</v>
       </c>
-      <c r="N21" s="64">
+      <c r="N21" s="60">
         <f>N20-G3</f>
         <v>-0.14400000000000546</v>
       </c>
-      <c r="O21" s="64">
+      <c r="O21" s="60">
         <f>O20-H3</f>
         <v>-0.25599999999985812</v>
       </c>

--- a/RR_templates.xlsx
+++ b/RR_templates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23250" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="3"/>
+    <workbookView xWindow="23250" yWindow="0" windowWidth="18375" windowHeight="8625" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Crust" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="244">
   <si>
     <t>Zeonium</t>
   </si>
@@ -961,6 +961,30 @@
   </si>
   <si>
     <t>RND</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>0A</t>
+  </si>
+  <si>
+    <t>0C</t>
+  </si>
+  <si>
+    <t>0B</t>
+  </si>
+  <si>
+    <t>1B</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1325,7 @@
     <xf numFmtId="0" fontId="26" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1414,6 +1438,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="26" fillId="3" borderId="4" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1426,10 +1455,9 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -3570,11 +3598,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3589,26 +3617,26 @@
     <col min="15" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="63" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-    </row>
-    <row r="2" spans="1:14" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+    </row>
+    <row r="2" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67"/>
       <c r="B2" s="44" t="s">
         <v>160</v>
       </c>
@@ -3631,7 +3659,7 @@
       <c r="I2" s="45"/>
       <c r="J2" s="45"/>
     </row>
-    <row r="3" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>14</v>
       </c>
@@ -3672,10 +3700,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L4" s="48"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>29</v>
       </c>
@@ -3701,7 +3729,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>164</v>
       </c>
@@ -3717,8 +3745,17 @@
       <c r="N6" s="41" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S6" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="T6" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="U6" s="49" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>165</v>
       </c>
@@ -3734,8 +3771,20 @@
       <c r="N7" s="48" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R7" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="S7" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="T7" s="47">
+        <v>5</v>
+      </c>
+      <c r="U7" s="47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>163</v>
       </c>
@@ -3748,8 +3797,20 @@
       <c r="N8" s="48" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R8" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="69">
+        <v>1</v>
+      </c>
+      <c r="T8" s="47">
+        <v>7</v>
+      </c>
+      <c r="U8" s="47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>26</v>
       </c>
@@ -3780,8 +3841,20 @@
       <c r="N9" s="48" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R9" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="S9" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="T9" s="47">
+        <v>5</v>
+      </c>
+      <c r="U9" s="47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>25</v>
       </c>
@@ -3797,8 +3870,20 @@
       <c r="N10" s="48" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R10" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="T10" s="47">
+        <v>1</v>
+      </c>
+      <c r="U10" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>166</v>
       </c>
@@ -3829,8 +3914,20 @@
       <c r="N11" s="48" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R11" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="T11" s="47">
+        <v>3</v>
+      </c>
+      <c r="U11" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
         <v>167</v>
       </c>
@@ -3846,8 +3943,20 @@
       <c r="N12" s="48" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R12" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="S12" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="T12" s="47">
+        <v>1</v>
+      </c>
+      <c r="U12" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>152</v>
       </c>
@@ -3871,8 +3980,20 @@
       </c>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R13" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="S13" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="T13" s="47">
+        <v>10</v>
+      </c>
+      <c r="U13" s="47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>22</v>
       </c>
@@ -3894,27 +4015,37 @@
       <c r="G14" s="47">
         <v>1</v>
       </c>
-      <c r="L14" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R14" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="S14" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="T14" s="47">
+        <v>7</v>
+      </c>
+      <c r="U14" s="47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="M15" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="N15" s="41" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R15" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="S15" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="T15" s="47">
+        <v>5</v>
+      </c>
+      <c r="U15" s="47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>18</v>
       </c>
@@ -3936,17 +4067,8 @@
       <c r="G16" s="47">
         <v>1.5</v>
       </c>
-      <c r="L16" s="50">
-        <v>5</v>
-      </c>
-      <c r="M16" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="N16" s="48" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>2</v>
       </c>
@@ -3968,17 +4090,8 @@
       <c r="G17" s="47">
         <v>5</v>
       </c>
-      <c r="L17" s="50">
-        <v>4</v>
-      </c>
-      <c r="M17" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="N17" s="48" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
         <v>17</v>
       </c>
@@ -4000,17 +4113,8 @@
       <c r="G18" s="50">
         <v>44</v>
       </c>
-      <c r="L18" s="50">
-        <v>3</v>
-      </c>
-      <c r="M18" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="N18" s="48" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>136</v>
       </c>
@@ -4020,17 +4124,8 @@
       <c r="E19" s="47"/>
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
-      <c r="L19" s="42">
-        <v>2</v>
-      </c>
-      <c r="M19" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="N19" s="48" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>154</v>
       </c>
@@ -4052,17 +4147,8 @@
       <c r="G20" s="47">
         <v>1</v>
       </c>
-      <c r="L20" s="42">
-        <v>1</v>
-      </c>
-      <c r="M20" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="N20" s="48" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
         <v>153</v>
       </c>
@@ -4084,17 +4170,8 @@
       <c r="G21" s="47">
         <v>0.2</v>
       </c>
-      <c r="L21" s="42">
-        <v>0</v>
-      </c>
-      <c r="M21" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="N21" s="48" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
@@ -4104,7 +4181,7 @@
       <c r="H22" s="48"/>
       <c r="I22" s="48"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>196</v>
       </c>
@@ -4145,7 +4222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
       <c r="D24" s="48"/>
@@ -4154,8 +4231,13 @@
       <c r="G24" s="48"/>
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L24" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
       <c r="D25" s="48"/>
@@ -4164,8 +4246,17 @@
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
       <c r="I25" s="48"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L25" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="M25" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="N25" s="41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="48"/>
       <c r="C26" s="48"/>
       <c r="D26" s="48"/>
@@ -4174,8 +4265,17 @@
       <c r="G26" s="48"/>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L26" s="50">
+        <v>5</v>
+      </c>
+      <c r="M26" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="N26" s="48" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
@@ -4184,8 +4284,17 @@
       <c r="G27" s="48"/>
       <c r="H27" s="48"/>
       <c r="I27" s="48"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L27" s="50">
+        <v>4</v>
+      </c>
+      <c r="M27" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="N27" s="48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
@@ -4194,6 +4303,50 @@
       <c r="G28" s="48"/>
       <c r="H28" s="48"/>
       <c r="I28" s="48"/>
+      <c r="L28" s="50">
+        <v>3</v>
+      </c>
+      <c r="M28" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="N28" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="O28" s="50"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L29" s="42">
+        <v>2</v>
+      </c>
+      <c r="M29" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="N29" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="O29" s="50"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L30" s="42">
+        <v>1</v>
+      </c>
+      <c r="M30" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="N30" s="48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L31" s="42">
+        <v>0</v>
+      </c>
+      <c r="M31" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="N31" s="48" t="s">
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4210,7 +4363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O23" sqref="O23"/>
     </sheetView>
@@ -4279,7 +4432,7 @@
       <c r="H2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="63" t="s">
         <v>235</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -4291,7 +4444,7 @@
       <c r="M2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="N2" s="63" t="s">
         <v>235</v>
       </c>
       <c r="V2">
@@ -4311,8 +4464,8 @@
       <c r="D4">
         <v>8</v>
       </c>
-      <c r="I4" s="66" t="str">
-        <f ca="1">IF(S4&gt;F4,"-",T4)</f>
+      <c r="I4" s="62" t="str">
+        <f t="shared" ref="I4:I23" ca="1" si="0">IF(S4&gt;F4,"-",T4)</f>
         <v>-</v>
       </c>
       <c r="K4">
@@ -4324,22 +4477,22 @@
       <c r="M4">
         <v>25</v>
       </c>
-      <c r="N4" s="66" t="str">
-        <f ca="1">IF(S4&gt;K4,"-",U4)</f>
+      <c r="N4" s="62" t="str">
+        <f t="shared" ref="N4:N23" ca="1" si="1">IF(S4&gt;K4,"-",U4)</f>
         <v>-</v>
       </c>
       <c r="R4" s="38"/>
       <c r="S4" s="38">
-        <f t="shared" ref="S4:S23" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>80</v>
+        <f t="shared" ref="S4:S23" ca="1" si="2">RANDBETWEEN(1,100)</f>
+        <v>62</v>
       </c>
       <c r="T4" s="38">
-        <f ca="1">RANDBETWEEN(G4,H4)</f>
+        <f t="shared" ref="T4:T23" ca="1" si="3">RANDBETWEEN(G4,H4)</f>
         <v>0</v>
       </c>
       <c r="U4" s="38">
-        <f ca="1">RANDBETWEEN(L4,M4)</f>
-        <v>24</v>
+        <f t="shared" ref="U4:U23" ca="1" si="4">RANDBETWEEN(L4,M4)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -4355,25 +4508,25 @@
       <c r="H5">
         <v>90</v>
       </c>
-      <c r="I5" s="66" t="str">
-        <f ca="1">IF(S5&gt;F5,"-",T5)</f>
-        <v>-</v>
-      </c>
-      <c r="N5" s="66" t="str">
-        <f ca="1">IF(S5&gt;K5,"-",U5)</f>
+      <c r="I5" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="N5" s="62" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>-</v>
       </c>
       <c r="R5" s="38"/>
       <c r="S5" s="38">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="T5" s="38">
+        <f t="shared" ca="1" si="3"/>
         <v>79</v>
       </c>
-      <c r="T5" s="38">
-        <f ca="1">RANDBETWEEN(G5,H5)</f>
-        <v>64</v>
-      </c>
       <c r="U5" s="38">
-        <f ca="1">RANDBETWEEN(L5,M5)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4393,25 +4546,25 @@
       <c r="H6">
         <v>40</v>
       </c>
-      <c r="I6" s="66" t="str">
-        <f ca="1">IF(S6&gt;F6,"-",T6)</f>
-        <v>-</v>
-      </c>
-      <c r="N6" s="66" t="str">
-        <f ca="1">IF(S6&gt;K6,"-",U6)</f>
+      <c r="I6" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="N6" s="62" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>-</v>
       </c>
       <c r="R6" s="38"/>
       <c r="S6" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
       </c>
       <c r="T6" s="38">
-        <f ca="1">RANDBETWEEN(G6,H6)</f>
-        <v>31</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>34</v>
       </c>
       <c r="U6" s="38">
-        <f ca="1">RANDBETWEEN(L6,M6)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4437,9 +4590,9 @@
       <c r="H7">
         <v>20</v>
       </c>
-      <c r="I7" s="66">
-        <f ca="1">IF(S7&gt;F7,"-",T7)</f>
-        <v>20</v>
+      <c r="I7" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
       </c>
       <c r="K7">
         <v>40</v>
@@ -4450,21 +4603,21 @@
       <c r="M7">
         <v>40</v>
       </c>
-      <c r="N7" s="66">
-        <f ca="1">IF(S7&gt;K7,"-",U7)</f>
-        <v>21</v>
+      <c r="N7" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
       </c>
       <c r="S7" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
       </c>
       <c r="T7" s="38">
-        <f ca="1">RANDBETWEEN(G7,H7)</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
       </c>
       <c r="U7" s="38">
-        <f ca="1">RANDBETWEEN(L7,M7)</f>
-        <v>21</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -4480,8 +4633,8 @@
       <c r="D8">
         <v>5</v>
       </c>
-      <c r="I8" s="66" t="str">
-        <f ca="1">IF(S8&gt;F8,"-",T8)</f>
+      <c r="I8" s="62" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>-</v>
       </c>
       <c r="K8">
@@ -4493,21 +4646,21 @@
       <c r="M8">
         <v>10</v>
       </c>
-      <c r="N8" s="66" t="str">
-        <f ca="1">IF(S8&gt;K8,"-",U8)</f>
-        <v>-</v>
+      <c r="N8" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="S8" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
       </c>
       <c r="T8" s="38">
-        <f ca="1">RANDBETWEEN(G8,H8)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="U8" s="38">
-        <f ca="1">RANDBETWEEN(L8,M8)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -4532,9 +4685,9 @@
       <c r="H9" s="36">
         <v>30</v>
       </c>
-      <c r="I9" s="66">
-        <f ca="1">IF(S9&gt;F9,"-",T9)</f>
-        <v>12</v>
+      <c r="I9" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
       </c>
       <c r="K9">
         <v>100</v>
@@ -4545,21 +4698,21 @@
       <c r="M9" s="36">
         <v>70</v>
       </c>
-      <c r="N9" s="66">
-        <f ca="1">IF(S9&gt;K9,"-",U9)</f>
-        <v>35</v>
+      <c r="N9" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
       </c>
       <c r="S9" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
       </c>
       <c r="T9" s="38">
-        <f ca="1">RANDBETWEEN(G9,H9)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>27</v>
       </c>
       <c r="U9" s="38">
-        <f ca="1">RANDBETWEEN(L9,M9)</f>
-        <v>35</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -4575,8 +4728,8 @@
       <c r="D10">
         <v>9</v>
       </c>
-      <c r="I10" s="66" t="str">
-        <f ca="1">IF(S10&gt;F10,"-",T10)</f>
+      <c r="I10" s="62" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>-</v>
       </c>
       <c r="K10">
@@ -4588,21 +4741,21 @@
       <c r="M10" s="36">
         <v>15</v>
       </c>
-      <c r="N10" s="66">
-        <f ca="1">IF(S10&gt;K10,"-",U10)</f>
-        <v>12</v>
+      <c r="N10" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
       </c>
       <c r="S10" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
       </c>
       <c r="T10" s="38">
-        <f ca="1">RANDBETWEEN(G10,H10)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="U10" s="38">
-        <f ca="1">RANDBETWEEN(L10,M10)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -4621,24 +4774,24 @@
       <c r="H11">
         <v>90</v>
       </c>
-      <c r="I11" s="66" t="str">
-        <f ca="1">IF(S11&gt;F11,"-",T11)</f>
+      <c r="I11" s="62" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>-</v>
       </c>
-      <c r="N11" s="66" t="str">
-        <f ca="1">IF(S11&gt;K11,"-",U11)</f>
+      <c r="N11" s="62" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>-</v>
       </c>
       <c r="S11" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
       </c>
       <c r="T11" s="38">
-        <f ca="1">RANDBETWEEN(G11,H11)</f>
-        <v>70</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
       </c>
       <c r="U11" s="38">
-        <f ca="1">RANDBETWEEN(L11,M11)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4664,9 +4817,9 @@
       <c r="H12">
         <v>50</v>
       </c>
-      <c r="I12" s="66">
-        <f ca="1">IF(S12&gt;F12,"-",T12)</f>
-        <v>40</v>
+      <c r="I12" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>100</v>
@@ -4677,21 +4830,21 @@
       <c r="M12">
         <v>50</v>
       </c>
-      <c r="N12" s="66">
-        <f ca="1">IF(S12&gt;K12,"-",U12)</f>
-        <v>29</v>
+      <c r="N12" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
       </c>
       <c r="S12" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
       </c>
       <c r="T12" s="38">
-        <f ca="1">RANDBETWEEN(G12,H12)</f>
-        <v>40</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>44</v>
       </c>
       <c r="U12" s="38">
-        <f ca="1">RANDBETWEEN(L12,M12)</f>
-        <v>29</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -4707,8 +4860,8 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="I13" s="66" t="str">
-        <f ca="1">IF(S13&gt;F13,"-",T13)</f>
+      <c r="I13" s="62" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>-</v>
       </c>
       <c r="K13">
@@ -4720,21 +4873,21 @@
       <c r="M13">
         <v>40</v>
       </c>
-      <c r="N13" s="66" t="str">
-        <f ca="1">IF(S13&gt;K13,"-",U13)</f>
+      <c r="N13" s="62" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>-</v>
       </c>
       <c r="S13" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
       </c>
       <c r="T13" s="38">
-        <f ca="1">RANDBETWEEN(G13,H13)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="U13" s="38">
-        <f ca="1">RANDBETWEEN(L13,M13)</f>
-        <v>32</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -4750,25 +4903,25 @@
       <c r="H14">
         <v>90</v>
       </c>
-      <c r="I14" s="66">
-        <f ca="1">IF(S14&gt;F14,"-",T14)</f>
-        <v>61</v>
+      <c r="I14" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
       </c>
       <c r="M14" s="36"/>
-      <c r="N14" s="66" t="str">
-        <f ca="1">IF(S14&gt;K14,"-",U14)</f>
+      <c r="N14" s="62" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>-</v>
       </c>
       <c r="S14" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="T14" s="38">
-        <f ca="1">RANDBETWEEN(G14,H14)</f>
-        <v>61</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
       </c>
       <c r="U14" s="38">
-        <f ca="1">RANDBETWEEN(L14,M14)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4794,8 +4947,8 @@
       <c r="H15">
         <v>10</v>
       </c>
-      <c r="I15" s="66">
-        <f ca="1">IF(S15&gt;F15,"-",T15)</f>
+      <c r="I15" s="62">
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="K15">
@@ -4807,21 +4960,21 @@
       <c r="M15">
         <v>10</v>
       </c>
-      <c r="N15" s="66">
-        <f ca="1">IF(S15&gt;K15,"-",U15)</f>
-        <v>7</v>
+      <c r="N15" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="S15" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
       </c>
       <c r="T15" s="38">
-        <f ca="1">RANDBETWEEN(G15,H15)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="U15" s="38">
-        <f ca="1">RANDBETWEEN(L15,M15)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -4831,24 +4984,24 @@
       <c r="B16">
         <v>4</v>
       </c>
-      <c r="I16" s="66" t="str">
-        <f ca="1">IF(S16&gt;F16,"-",T16)</f>
+      <c r="I16" s="62" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>-</v>
       </c>
-      <c r="N16" s="66" t="str">
-        <f ca="1">IF(S16&gt;K16,"-",U16)</f>
+      <c r="N16" s="62" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>-</v>
       </c>
       <c r="S16" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
       </c>
       <c r="T16" s="38">
-        <f ca="1">RANDBETWEEN(G16,H16)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="U16" s="38">
-        <f ca="1">RANDBETWEEN(L16,M16)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4874,8 +5027,8 @@
       <c r="H17" s="36">
         <v>30</v>
       </c>
-      <c r="I17" s="66" t="str">
-        <f ca="1">IF(S17&gt;F17,"-",T17)</f>
+      <c r="I17" s="62" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>-</v>
       </c>
       <c r="K17">
@@ -4887,21 +5040,21 @@
       <c r="M17">
         <v>30</v>
       </c>
-      <c r="N17" s="66">
-        <f ca="1">IF(S17&gt;K17,"-",U17)</f>
-        <v>24</v>
+      <c r="N17" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
       </c>
       <c r="S17" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
       </c>
       <c r="T17" s="38">
-        <f ca="1">RANDBETWEEN(G17,H17)</f>
-        <v>29</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>28</v>
       </c>
       <c r="U17" s="38">
-        <f ca="1">RANDBETWEEN(L17,M17)</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -4926,9 +5079,9 @@
       <c r="H18" s="36">
         <v>40</v>
       </c>
-      <c r="I18" s="66">
-        <f ca="1">IF(S18&gt;F18,"-",T18)</f>
-        <v>20</v>
+      <c r="I18" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
       <c r="K18">
         <v>100</v>
@@ -4939,21 +5092,21 @@
       <c r="M18" s="36">
         <v>70</v>
       </c>
-      <c r="N18" s="66">
-        <f ca="1">IF(S18&gt;K18,"-",U18)</f>
-        <v>52</v>
+      <c r="N18" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
       </c>
       <c r="S18" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
       </c>
       <c r="T18" s="38">
-        <f ca="1">RANDBETWEEN(G18,H18)</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
       </c>
       <c r="U18" s="38">
-        <f ca="1">RANDBETWEEN(L18,M18)</f>
-        <v>52</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -4978,9 +5131,9 @@
       <c r="H19" s="36">
         <v>30</v>
       </c>
-      <c r="I19" s="66">
-        <f ca="1">IF(S19&gt;F19,"-",T19)</f>
-        <v>22</v>
+      <c r="I19" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
       </c>
       <c r="K19">
         <v>100</v>
@@ -4991,21 +5144,21 @@
       <c r="M19" s="36">
         <v>50</v>
       </c>
-      <c r="N19" s="66">
-        <f ca="1">IF(S19&gt;K19,"-",U19)</f>
-        <v>50</v>
+      <c r="N19" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
       </c>
       <c r="S19" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
       </c>
       <c r="T19" s="38">
-        <f ca="1">RANDBETWEEN(G19,H19)</f>
-        <v>22</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>27</v>
       </c>
       <c r="U19" s="38">
-        <f ca="1">RANDBETWEEN(L19,M19)</f>
-        <v>50</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -5030,9 +5183,9 @@
       <c r="H20" s="36">
         <v>20</v>
       </c>
-      <c r="I20" s="66">
-        <f ca="1">IF(S20&gt;F20,"-",T20)</f>
-        <v>14</v>
+      <c r="I20" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
       </c>
       <c r="K20">
         <v>80</v>
@@ -5043,21 +5196,21 @@
       <c r="M20">
         <v>30</v>
       </c>
-      <c r="N20" s="66">
-        <f ca="1">IF(S20&gt;K20,"-",U20)</f>
-        <v>28</v>
+      <c r="N20" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
       </c>
       <c r="S20" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
       </c>
       <c r="T20" s="38">
-        <f ca="1">RANDBETWEEN(G20,H20)</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
       </c>
       <c r="U20" s="38">
-        <f ca="1">RANDBETWEEN(L20,M20)</f>
-        <v>28</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -5073,8 +5226,8 @@
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="I21" s="66" t="str">
-        <f ca="1">IF(S21&gt;F21,"-",T21)</f>
+      <c r="I21" s="62" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>-</v>
       </c>
       <c r="K21">
@@ -5086,21 +5239,21 @@
       <c r="M21">
         <v>10</v>
       </c>
-      <c r="N21" s="66" t="str">
-        <f ca="1">IF(S21&gt;K21,"-",U21)</f>
-        <v>-</v>
+      <c r="N21" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="S21" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
       </c>
       <c r="T21" s="38">
-        <f ca="1">RANDBETWEEN(G21,H21)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="U21" s="38">
-        <f ca="1">RANDBETWEEN(L21,M21)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -5117,8 +5270,8 @@
         <v>9</v>
       </c>
       <c r="G22" s="36"/>
-      <c r="I22" s="66" t="str">
-        <f ca="1">IF(S22&gt;F22,"-",T22)</f>
+      <c r="I22" s="62" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>-</v>
       </c>
       <c r="K22">
@@ -5130,21 +5283,21 @@
       <c r="M22">
         <v>50</v>
       </c>
-      <c r="N22" s="66" t="str">
-        <f ca="1">IF(S22&gt;K22,"-",U22)</f>
+      <c r="N22" s="62" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>-</v>
       </c>
       <c r="S22" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
       </c>
       <c r="T22" s="38">
-        <f ca="1">RANDBETWEEN(G22,H22)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="U22" s="38">
-        <f ca="1">RANDBETWEEN(L22,M22)</f>
-        <v>42</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -5163,24 +5316,24 @@
       <c r="H23">
         <v>40</v>
       </c>
-      <c r="I23" s="66">
-        <f ca="1">IF(S23&gt;F23,"-",T23)</f>
-        <v>40</v>
-      </c>
-      <c r="N23" s="66" t="str">
-        <f ca="1">IF(S23&gt;K23,"-",U23)</f>
+      <c r="I23" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="N23" s="62" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>-</v>
       </c>
       <c r="S23" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
       </c>
       <c r="T23" s="38">
-        <f ca="1">RANDBETWEEN(G23,H23)</f>
-        <v>40</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
       </c>
       <c r="U23" s="38">
-        <f ca="1">RANDBETWEEN(L23,M23)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5203,15 +5356,15 @@
         <v>14</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" ref="B27:E27" si="1">SUM(B29:B42)</f>
+        <f t="shared" ref="B27:D27" si="5">SUM(B29:B42)</f>
         <v>0</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -5223,7 +5376,7 @@
       <c r="H27" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I27" s="67" t="s">
+      <c r="I27" s="63" t="s">
         <v>235</v>
       </c>
       <c r="K27" s="1" t="s">
@@ -5235,7 +5388,7 @@
       <c r="M27" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="N27" s="67" t="s">
+      <c r="N27" s="63" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5243,7 +5396,7 @@
       <c r="A29" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="66" t="str">
+      <c r="I29" s="62" t="str">
         <f ca="1">IF(S29&gt;F29,"-",T29)</f>
         <v>-</v>
       </c>
@@ -5256,13 +5409,13 @@
       <c r="M29">
         <v>50</v>
       </c>
-      <c r="N29" s="66" t="str">
+      <c r="N29" s="62">
         <f ca="1">IF(S29&gt;K29,"-",U29)</f>
-        <v>-</v>
+        <v>31</v>
       </c>
       <c r="S29" s="38">
-        <f t="shared" ref="S29:S42" ca="1" si="2">RANDBETWEEN(1,100)</f>
-        <v>90</v>
+        <f t="shared" ref="S29:S42" ca="1" si="6">RANDBETWEEN(1,100)</f>
+        <v>19</v>
       </c>
       <c r="T29" s="38">
         <f ca="1">RANDBETWEEN(G29,H29)</f>
@@ -5270,7 +5423,7 @@
       </c>
       <c r="U29" s="38">
         <f ca="1">RANDBETWEEN(L29,M29)</f>
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -5286,8 +5439,8 @@
       <c r="H30">
         <v>20</v>
       </c>
-      <c r="I30" s="66" t="str">
-        <f t="shared" ref="I30:I42" ca="1" si="3">IF(S30&gt;F30,"-",T30)</f>
+      <c r="I30" s="62" t="str">
+        <f t="shared" ref="I30:I42" ca="1" si="7">IF(S30&gt;F30,"-",T30)</f>
         <v>-</v>
       </c>
       <c r="K30">
@@ -5299,21 +5452,21 @@
       <c r="M30">
         <v>40</v>
       </c>
-      <c r="N30" s="66" t="str">
-        <f t="shared" ref="N30:N42" ca="1" si="4">IF(S30&gt;K30,"-",U30)</f>
+      <c r="N30" s="62" t="str">
+        <f t="shared" ref="N30:N42" ca="1" si="8">IF(S30&gt;K30,"-",U30)</f>
         <v>-</v>
       </c>
       <c r="S30" s="38">
-        <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
       </c>
       <c r="T30" s="38">
-        <f t="shared" ref="T30:T42" ca="1" si="5">RANDBETWEEN(G30,H30)</f>
-        <v>8</v>
+        <f t="shared" ref="T30:T42" ca="1" si="9">RANDBETWEEN(G30,H30)</f>
+        <v>10</v>
       </c>
       <c r="U30" s="38">
-        <f t="shared" ref="U30:U42" ca="1" si="6">RANDBETWEEN(L30,M30)</f>
-        <v>25</v>
+        <f t="shared" ref="U30:U42" ca="1" si="10">RANDBETWEEN(L30,M30)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -5333,9 +5486,9 @@
       <c r="H31" s="36">
         <v>30</v>
       </c>
-      <c r="I31" s="66">
-        <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+      <c r="I31" s="62">
+        <f t="shared" ca="1" si="7"/>
+        <v>27</v>
       </c>
       <c r="K31">
         <v>100</v>
@@ -5346,45 +5499,45 @@
       <c r="M31" s="36">
         <v>70</v>
       </c>
-      <c r="N31" s="66">
-        <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+      <c r="N31" s="62">
+        <f t="shared" ca="1" si="8"/>
+        <v>61</v>
       </c>
       <c r="S31" s="38">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>41</v>
       </c>
       <c r="T31" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>27</v>
       </c>
       <c r="U31" s="38">
-        <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="66" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="I32" s="62" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v>-</v>
       </c>
-      <c r="N32" s="66" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="N32" s="62" t="str">
+        <f t="shared" ca="1" si="8"/>
         <v>-</v>
       </c>
       <c r="S32" s="38">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>82</v>
       </c>
       <c r="T32" s="38">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="U32" s="38">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -5401,24 +5554,24 @@
       <c r="H33">
         <v>90</v>
       </c>
-      <c r="I33" s="66">
-        <f t="shared" ca="1" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="N33" s="66" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="I33" s="62" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v>-</v>
       </c>
+      <c r="N33" s="62" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>-</v>
+      </c>
       <c r="S33" s="38">
-        <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
       </c>
       <c r="T33" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>78</v>
       </c>
       <c r="U33" s="38">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -5439,8 +5592,8 @@
       <c r="H34" s="36">
         <v>15</v>
       </c>
-      <c r="I34" s="66" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="I34" s="62" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v>-</v>
       </c>
       <c r="J34" s="36"/>
@@ -5453,21 +5606,21 @@
       <c r="M34" s="36">
         <v>60</v>
       </c>
-      <c r="N34" s="66">
-        <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+      <c r="N34" s="62">
+        <f t="shared" ca="1" si="8"/>
+        <v>41</v>
       </c>
       <c r="S34" s="38">
-        <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>73</v>
       </c>
       <c r="T34" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>13</v>
       </c>
       <c r="U34" s="38">
-        <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -5487,9 +5640,9 @@
       <c r="H35">
         <v>50</v>
       </c>
-      <c r="I35" s="66">
-        <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+      <c r="I35" s="62">
+        <f t="shared" ca="1" si="7"/>
+        <v>45</v>
       </c>
       <c r="J35" s="36"/>
       <c r="K35">
@@ -5501,21 +5654,21 @@
       <c r="M35">
         <v>50</v>
       </c>
-      <c r="N35" s="66">
-        <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+      <c r="N35" s="62">
+        <f t="shared" ca="1" si="8"/>
+        <v>42</v>
       </c>
       <c r="S35" s="38">
-        <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>81</v>
       </c>
       <c r="T35" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
       </c>
       <c r="U35" s="38">
-        <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -5535,8 +5688,8 @@
       <c r="H36">
         <v>90</v>
       </c>
-      <c r="I36" s="66" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="I36" s="62" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v>-</v>
       </c>
       <c r="J36" s="36"/>
@@ -5549,21 +5702,21 @@
       <c r="M36">
         <v>90</v>
       </c>
-      <c r="N36" s="66" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="N36" s="62" t="str">
+        <f t="shared" ca="1" si="8"/>
         <v>-</v>
       </c>
       <c r="S36" s="38">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="T36" s="38">
+        <f t="shared" ca="1" si="9"/>
+        <v>76</v>
+      </c>
+      <c r="U36" s="38">
+        <f t="shared" ca="1" si="10"/>
         <v>86</v>
-      </c>
-      <c r="T36" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>61</v>
-      </c>
-      <c r="U36" s="38">
-        <f t="shared" ca="1" si="6"/>
-        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -5583,9 +5736,9 @@
       <c r="H37">
         <v>10</v>
       </c>
-      <c r="I37" s="66">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+      <c r="I37" s="62">
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
       </c>
       <c r="J37" s="36"/>
       <c r="K37">
@@ -5597,21 +5750,21 @@
       <c r="M37">
         <v>10</v>
       </c>
-      <c r="N37" s="66">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+      <c r="N37" s="62">
+        <f t="shared" ca="1" si="8"/>
+        <v>8</v>
       </c>
       <c r="S37" s="38">
-        <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>23</v>
       </c>
       <c r="T37" s="38">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="U37" s="38">
+        <f t="shared" ca="1" si="10"/>
         <v>8</v>
-      </c>
-      <c r="U37" s="38">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -5625,28 +5778,28 @@
       <c r="F38" s="36"/>
       <c r="G38" s="36"/>
       <c r="H38" s="36"/>
-      <c r="I38" s="66" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="I38" s="62" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v>-</v>
       </c>
       <c r="J38" s="36"/>
       <c r="K38" s="36"/>
       <c r="L38" s="36"/>
       <c r="M38" s="36"/>
-      <c r="N38" s="66" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="N38" s="62" t="str">
+        <f t="shared" ca="1" si="8"/>
         <v>-</v>
       </c>
       <c r="S38" s="38">
-        <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
       </c>
       <c r="T38" s="38">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="U38" s="38">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -5667,8 +5820,8 @@
       <c r="H39" s="36">
         <v>30</v>
       </c>
-      <c r="I39" s="66" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="I39" s="62" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v>-</v>
       </c>
       <c r="J39" s="36"/>
@@ -5681,21 +5834,21 @@
       <c r="M39">
         <v>30</v>
       </c>
-      <c r="N39" s="66" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="N39" s="62" t="str">
+        <f t="shared" ca="1" si="8"/>
         <v>-</v>
       </c>
       <c r="S39" s="38">
-        <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>97</v>
       </c>
       <c r="T39" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>27</v>
       </c>
       <c r="U39" s="38">
-        <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -5715,9 +5868,9 @@
       <c r="H40" s="36">
         <v>40</v>
       </c>
-      <c r="I40" s="66">
-        <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+      <c r="I40" s="62">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
       </c>
       <c r="K40">
         <v>100</v>
@@ -5728,21 +5881,21 @@
       <c r="M40" s="36">
         <v>70</v>
       </c>
-      <c r="N40" s="66">
-        <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+      <c r="N40" s="62">
+        <f t="shared" ca="1" si="8"/>
+        <v>49</v>
       </c>
       <c r="S40" s="38">
-        <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
       </c>
       <c r="T40" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
       </c>
       <c r="U40" s="38">
-        <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -5762,28 +5915,28 @@
       <c r="H41">
         <v>40</v>
       </c>
-      <c r="I41" s="66">
-        <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+      <c r="I41" s="62">
+        <f t="shared" ca="1" si="7"/>
+        <v>20</v>
       </c>
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
       <c r="L41" s="36"/>
       <c r="M41" s="36"/>
-      <c r="N41" s="66" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="N41" s="62" t="str">
+        <f t="shared" ca="1" si="8"/>
         <v>-</v>
       </c>
       <c r="S41" s="38">
-        <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
       </c>
       <c r="T41" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
       </c>
       <c r="U41" s="38">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -5804,9 +5957,9 @@
       <c r="H42" s="36">
         <v>30</v>
       </c>
-      <c r="I42" s="66">
-        <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+      <c r="I42" s="62">
+        <f t="shared" ca="1" si="7"/>
+        <v>27</v>
       </c>
       <c r="K42">
         <v>100</v>
@@ -5817,21 +5970,21 @@
       <c r="M42" s="36">
         <v>70</v>
       </c>
-      <c r="N42" s="66">
-        <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+      <c r="N42" s="62">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
       </c>
       <c r="S42" s="38">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
       </c>
       <c r="T42" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>27</v>
       </c>
       <c r="U42" s="38">
-        <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -6715,10 +6868,10 @@
       <c r="S1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="U1" s="65"/>
+      <c r="U1" s="68"/>
       <c r="V1" s="2" t="s">
         <v>143</v>
       </c>
